--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570F29E0-C4F3-45AC-A52D-47BECEF7347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DDD0CB-20F9-48CB-895B-458DB89E3AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>int</t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -100,6 +100,15 @@
   <si>
     <t>SellItemNum</t>
     <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>720</t>
   </si>
 </sst>
 </file>
@@ -332,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +539,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -687,36 +708,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1770,7 +1761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,22 +1776,16 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="35" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2522,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O74"/>
+  <dimension ref="C1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2628,7 +2613,7 @@
       <c r="F6" s="5">
         <v>100</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>10010001</v>
       </c>
       <c r="H6" s="5">
@@ -2637,8 +2622,8 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>100</v>
+      <c r="J6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="O6" s="5"/>
     </row>
@@ -2655,7 +2640,7 @@
       <c r="F7" s="5">
         <v>100</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>10010011</v>
       </c>
       <c r="H7" s="5">
@@ -2664,18 +2649,18 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>30</v>
+      <c r="J7" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C8">
-        <v>10001103</v>
+        <v>10001201</v>
       </c>
       <c r="D8">
-        <v>10001104</v>
+        <v>10001202</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2683,8 +2668,8 @@
       <c r="F8" s="5">
         <v>100</v>
       </c>
-      <c r="G8" s="5">
-        <v>10010001</v>
+      <c r="G8" s="7">
+        <v>14010001</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -2693,18 +2678,15 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+        <v>8750</v>
+      </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C9">
-        <v>10001104</v>
+        <v>10001202</v>
       </c>
       <c r="D9">
-        <v>10001105</v>
+        <v>10001203</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2712,8 +2694,8 @@
       <c r="F9" s="5">
         <v>100</v>
       </c>
-      <c r="G9" s="5">
-        <v>10010011</v>
+      <c r="G9" s="7">
+        <v>14010010</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -2722,15 +2704,15 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>30</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C10">
-        <v>10001105</v>
+        <v>10001203</v>
       </c>
       <c r="D10">
-        <v>10001106</v>
+        <v>10001204</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2738,8 +2720,8 @@
       <c r="F10" s="5">
         <v>100</v>
       </c>
-      <c r="G10" s="5">
-        <v>10010051</v>
+      <c r="G10" s="7">
+        <v>14020003</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -2748,15 +2730,15 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C11">
-        <v>10001106</v>
+        <v>10001204</v>
       </c>
       <c r="D11">
-        <v>10001107</v>
+        <v>10001205</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2764,8 +2746,8 @@
       <c r="F11" s="5">
         <v>100</v>
       </c>
-      <c r="G11" s="5">
-        <v>10020016</v>
+      <c r="G11" s="7">
+        <v>14020010</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -2774,15 +2756,15 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>234</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C12">
-        <v>10001107</v>
+        <v>10001205</v>
       </c>
       <c r="D12">
-        <v>10001108</v>
+        <v>10001206</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2790,8 +2772,8 @@
       <c r="F12" s="5">
         <v>100</v>
       </c>
-      <c r="G12" s="5">
-        <v>10020017</v>
+      <c r="G12" s="7">
+        <v>14030007</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -2800,15 +2782,15 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>410</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C13">
-        <v>10001108</v>
+        <v>10001206</v>
       </c>
       <c r="D13">
-        <v>10001109</v>
+        <v>10001207</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2816,8 +2798,8 @@
       <c r="F13" s="5">
         <v>100</v>
       </c>
-      <c r="G13" s="9">
-        <v>10020016</v>
+      <c r="G13" s="7">
+        <v>14060003</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -2825,16 +2807,16 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="10">
-        <v>234</v>
+      <c r="J13">
+        <v>25600</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C14">
-        <v>10001109</v>
+        <v>10001207</v>
       </c>
       <c r="D14">
-        <v>10001110</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2842,8 +2824,8 @@
       <c r="F14" s="5">
         <v>100</v>
       </c>
-      <c r="G14" s="9">
-        <v>10020017</v>
+      <c r="G14" s="8">
+        <v>14050011</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -2851,16 +2833,16 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="10">
-        <v>234</v>
+      <c r="J14">
+        <v>16500</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C15">
-        <v>10001110</v>
+        <v>10002101</v>
       </c>
       <c r="D15">
-        <v>10001111</v>
+        <v>10002102</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2868,8 +2850,9 @@
       <c r="F15" s="5">
         <v>100</v>
       </c>
-      <c r="G15" s="9">
-        <v>10020058</v>
+      <c r="G15" s="6">
+        <f>G13+1</f>
+        <v>14060004</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -2877,16 +2860,16 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="10">
-        <v>369</v>
+      <c r="J15" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C16">
-        <v>10001111</v>
+        <v>10002102</v>
       </c>
       <c r="D16">
-        <v>10001112</v>
+        <v>10002103</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2894,8 +2877,9 @@
       <c r="F16" s="5">
         <v>100</v>
       </c>
-      <c r="G16" s="9">
-        <v>10020059</v>
+      <c r="G16" s="6">
+        <f t="shared" ref="G16" si="0">G14+1</f>
+        <v>14050012</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -2903,16 +2887,16 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="10">
-        <v>369</v>
+      <c r="J16" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17">
-        <v>10001112</v>
+        <v>10002201</v>
       </c>
       <c r="D17">
-        <v>10001113</v>
+        <v>10002202</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2920,8 +2904,8 @@
       <c r="F17" s="5">
         <v>100</v>
       </c>
-      <c r="G17" s="11">
-        <v>10020158</v>
+      <c r="G17" s="5">
+        <v>15201001</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -2929,16 +2913,16 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="10">
-        <v>639</v>
+      <c r="J17">
+        <v>25000</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C18">
-        <v>10001113</v>
+        <v>10002202</v>
       </c>
       <c r="D18">
-        <v>10001114</v>
+        <v>10002203</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2946,8 +2930,8 @@
       <c r="F18" s="5">
         <v>100</v>
       </c>
-      <c r="G18" s="11">
-        <v>10020159</v>
+      <c r="G18" s="5">
+        <v>15201003</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -2955,16 +2939,16 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18" s="10">
-        <v>639</v>
+      <c r="J18">
+        <v>25000</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C19">
-        <v>10001114</v>
+        <v>10002203</v>
       </c>
       <c r="D19">
-        <v>10001115</v>
+        <v>10002204</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2972,8 +2956,8 @@
       <c r="F19" s="5">
         <v>100</v>
       </c>
-      <c r="G19" s="11">
-        <v>10020213</v>
+      <c r="G19" s="5">
+        <v>15201005</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -2981,16 +2965,16 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="10">
-        <v>774</v>
+      <c r="J19">
+        <v>25000</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C20">
-        <v>10001115</v>
+        <v>10002204</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10002205</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2998,8 +2982,8 @@
       <c r="F20" s="5">
         <v>100</v>
       </c>
-      <c r="G20" s="11">
-        <v>10020214</v>
+      <c r="G20" s="5">
+        <v>15202001</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
@@ -3007,16 +2991,16 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20" s="10">
-        <v>774</v>
+      <c r="J20">
+        <v>25000</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21">
-        <v>10001201</v>
+        <v>10002205</v>
       </c>
       <c r="D21">
-        <v>10001202</v>
+        <v>10002206</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3025,7 +3009,7 @@
         <v>100</v>
       </c>
       <c r="G21" s="5">
-        <v>10030102</v>
+        <v>15202003</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -3034,15 +3018,15 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>720</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C22">
-        <v>10001202</v>
+        <v>10002206</v>
       </c>
       <c r="D22">
-        <v>10001203</v>
+        <v>10002207</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3051,7 +3035,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="5">
-        <v>10030218</v>
+        <v>15202005</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
@@ -3060,15 +3044,15 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>9300</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C23">
-        <v>10001203</v>
+        <v>10002207</v>
       </c>
       <c r="D23">
-        <v>10001204</v>
+        <v>10002208</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3077,7 +3061,7 @@
         <v>100</v>
       </c>
       <c r="G23" s="5">
-        <v>10030206</v>
+        <v>15207001</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
@@ -3086,15 +3070,15 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1560</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C24">
-        <v>10001204</v>
+        <v>10002208</v>
       </c>
       <c r="D24">
-        <v>10001205</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3103,7 +3087,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="5">
-        <v>10030212</v>
+        <v>15208001</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
@@ -3112,15 +3096,15 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>2020</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C25">
-        <v>10001205</v>
+        <v>10003101</v>
       </c>
       <c r="D25">
-        <v>10001206</v>
+        <v>10003102</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3128,8 +3112,9 @@
       <c r="F25" s="5">
         <v>100</v>
       </c>
-      <c r="G25" s="5">
-        <v>10030216</v>
+      <c r="G25" s="6">
+        <f>G23+1</f>
+        <v>15207002</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>
@@ -3137,16 +3122,16 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>10400</v>
+      <c r="J25" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C26">
-        <v>10001206</v>
+        <v>10003102</v>
       </c>
       <c r="D26">
-        <v>10001207</v>
+        <v>10003103</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3154,8 +3139,9 @@
       <c r="F26" s="5">
         <v>100</v>
       </c>
-      <c r="G26" s="5">
-        <v>10030217</v>
+      <c r="G26" s="6">
+        <f t="shared" ref="G26" si="1">G24+1</f>
+        <v>15208002</v>
       </c>
       <c r="H26" s="5">
         <v>1</v>
@@ -3163,16 +3149,16 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>25600</v>
+      <c r="J26" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C27">
-        <v>10001207</v>
+        <v>10003201</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>10003202</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3181,7 +3167,7 @@
         <v>100</v>
       </c>
       <c r="G27" s="5">
-        <v>10030221</v>
+        <v>15301001</v>
       </c>
       <c r="H27" s="5">
         <v>1</v>
@@ -3190,15 +3176,15 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>8660</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C28">
-        <v>10002101</v>
+        <v>10003202</v>
       </c>
       <c r="D28">
-        <v>10002102</v>
+        <v>10003203</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3206,8 +3192,8 @@
       <c r="F28" s="5">
         <v>100</v>
       </c>
-      <c r="G28" s="6">
-        <v>10010002</v>
+      <c r="G28" s="5">
+        <v>15301003</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -3216,15 +3202,15 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>200</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C29">
-        <v>10002102</v>
+        <v>10003203</v>
       </c>
       <c r="D29">
-        <v>10002103</v>
+        <v>10003204</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3233,7 +3219,7 @@
         <v>100</v>
       </c>
       <c r="G29" s="5">
-        <v>10010012</v>
+        <v>15301005</v>
       </c>
       <c r="H29" s="5">
         <v>1</v>
@@ -3242,15 +3228,15 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>60</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C30">
-        <v>10002103</v>
+        <v>10003204</v>
       </c>
       <c r="D30">
-        <v>10002104</v>
+        <v>10003205</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3259,7 +3245,7 @@
         <v>100</v>
       </c>
       <c r="G30" s="5">
-        <v>10010002</v>
+        <v>15302001</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
@@ -3268,15 +3254,15 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>200</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C31">
-        <v>10002104</v>
+        <v>10003205</v>
       </c>
       <c r="D31">
-        <v>10002105</v>
+        <v>10003206</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3285,7 +3271,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="5">
-        <v>10010012</v>
+        <v>15302003</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -3294,15 +3280,15 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>60</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C32">
-        <v>10002105</v>
+        <v>10003206</v>
       </c>
       <c r="D32">
-        <v>10002106</v>
+        <v>10003207</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3311,7 +3297,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="5">
-        <v>10010052</v>
+        <v>15302005</v>
       </c>
       <c r="H32" s="5">
         <v>1</v>
@@ -3320,15 +3306,15 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>150</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C33">
-        <v>10002106</v>
+        <v>10003207</v>
       </c>
       <c r="D33">
-        <v>10002107</v>
+        <v>10003208</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3337,7 +3323,7 @@
         <v>100</v>
       </c>
       <c r="G33" s="5">
-        <v>10020058</v>
+        <v>15307001</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
@@ -3346,12 +3332,12 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>369</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C34">
-        <v>10002107</v>
+        <v>10003208</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3363,7 +3349,7 @@
         <v>100</v>
       </c>
       <c r="G34" s="5">
-        <v>10020059</v>
+        <v>15308001</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
@@ -3372,15 +3358,15 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>646</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C35">
-        <v>10002201</v>
+        <v>10004101</v>
       </c>
       <c r="D35">
-        <v>10002202</v>
+        <v>10004102</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3388,8 +3374,9 @@
       <c r="F35" s="5">
         <v>100</v>
       </c>
-      <c r="G35" s="5">
-        <v>10011001</v>
+      <c r="G35" s="6">
+        <f>G33+1</f>
+        <v>15307002</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
@@ -3397,16 +3384,16 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>200000</v>
+      <c r="J35" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C36">
-        <v>10002202</v>
+        <v>10004102</v>
       </c>
       <c r="D36">
-        <v>10002203</v>
+        <v>10004103</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3414,8 +3401,9 @@
       <c r="F36" s="5">
         <v>100</v>
       </c>
-      <c r="G36" s="5">
-        <v>10010209</v>
+      <c r="G36" s="6">
+        <f t="shared" ref="G36" si="2">G34+1</f>
+        <v>15308002</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
@@ -3423,16 +3411,16 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>30750</v>
+      <c r="J36" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C37">
-        <v>10002203</v>
+        <v>10004201</v>
       </c>
       <c r="D37">
-        <v>10002204</v>
+        <v>10004202</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3441,7 +3429,7 @@
         <v>100</v>
       </c>
       <c r="G37" s="5">
-        <v>10010210</v>
+        <v>15401001</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
@@ -3450,15 +3438,15 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>31875</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C38">
-        <v>10002204</v>
+        <v>10004202</v>
       </c>
       <c r="D38">
-        <v>10002205</v>
+        <v>10004203</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3467,7 +3455,7 @@
         <v>100</v>
       </c>
       <c r="G38" s="5">
-        <v>10010211</v>
+        <v>15401003</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
@@ -3476,15 +3464,15 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>33000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C39">
-        <v>10002205</v>
+        <v>10004203</v>
       </c>
       <c r="D39">
-        <v>10002206</v>
+        <v>10004204</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3493,7 +3481,7 @@
         <v>100</v>
       </c>
       <c r="G39" s="5">
-        <v>10030318</v>
+        <v>15401005</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -3502,15 +3490,15 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>30150</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C40">
-        <v>10002206</v>
+        <v>10004204</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>10004205</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3519,7 +3507,7 @@
         <v>100</v>
       </c>
       <c r="G40" s="5">
-        <v>10030321</v>
+        <v>15402001</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -3528,15 +3516,15 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>27520</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C41">
-        <v>10003101</v>
+        <v>10004205</v>
       </c>
       <c r="D41">
-        <v>10003102</v>
+        <v>10004206</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3545,7 +3533,7 @@
         <v>100</v>
       </c>
       <c r="G41" s="5">
-        <v>10010003</v>
+        <v>15402003</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
@@ -3554,15 +3542,15 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>300</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C42">
-        <v>10003102</v>
+        <v>10004206</v>
       </c>
       <c r="D42">
-        <v>10003103</v>
+        <v>10004207</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3571,7 +3559,7 @@
         <v>100</v>
       </c>
       <c r="G42" s="5">
-        <v>10010013</v>
+        <v>15402005</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -3580,15 +3568,15 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>120</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C43">
-        <v>10003103</v>
+        <v>10004207</v>
       </c>
       <c r="D43">
-        <v>10003104</v>
+        <v>10004208</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3597,7 +3585,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="5">
-        <v>10010003</v>
+        <v>15407001</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -3606,15 +3594,15 @@
         <v>1</v>
       </c>
       <c r="J43">
-        <v>300</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C44">
-        <v>10003104</v>
+        <v>10004208</v>
       </c>
       <c r="D44">
-        <v>10003105</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3623,7 +3611,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="5">
-        <v>10010013</v>
+        <v>15408001</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -3632,15 +3620,15 @@
         <v>1</v>
       </c>
       <c r="J44">
-        <v>120</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C45">
-        <v>10003105</v>
+        <v>10005101</v>
       </c>
       <c r="D45">
-        <v>10003106</v>
+        <v>10005102</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3648,8 +3636,9 @@
       <c r="F45" s="5">
         <v>100</v>
       </c>
-      <c r="G45" s="5">
-        <v>10010053</v>
+      <c r="G45" s="6">
+        <f>G43+1</f>
+        <v>15407002</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
@@ -3657,16 +3646,16 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>200</v>
+      <c r="J45" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C46">
-        <v>10003106</v>
+        <v>10005102</v>
       </c>
       <c r="D46">
-        <v>10003107</v>
+        <v>10005103</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3674,8 +3663,9 @@
       <c r="F46" s="5">
         <v>100</v>
       </c>
-      <c r="G46" s="5">
-        <v>10020108</v>
+      <c r="G46" s="6">
+        <f t="shared" ref="G46" si="3">G44+1</f>
+        <v>15408002</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
@@ -3683,16 +3673,16 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>504</v>
+      <c r="J46" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C47">
-        <v>10003107</v>
+        <v>10005201</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>10005202</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3701,7 +3691,7 @@
         <v>100</v>
       </c>
       <c r="G47" s="5">
-        <v>10020109</v>
+        <v>15501001</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
@@ -3710,15 +3700,15 @@
         <v>1</v>
       </c>
       <c r="J47">
-        <v>882</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C48">
-        <v>10003201</v>
+        <v>10005202</v>
       </c>
       <c r="D48">
-        <v>10003202</v>
+        <v>10005203</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3727,7 +3717,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="5">
-        <v>10011002</v>
+        <v>15501003</v>
       </c>
       <c r="H48" s="5">
         <v>1</v>
@@ -3736,15 +3726,15 @@
         <v>1</v>
       </c>
       <c r="J48">
-        <v>300000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C49">
-        <v>10003202</v>
+        <v>10005203</v>
       </c>
       <c r="D49">
-        <v>10003203</v>
+        <v>10005204</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3753,7 +3743,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="5">
-        <v>10010306</v>
+        <v>15501005</v>
       </c>
       <c r="H49" s="5">
         <v>1</v>
@@ -3762,15 +3752,15 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>42000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C50">
-        <v>10003203</v>
+        <v>10005204</v>
       </c>
       <c r="D50">
-        <v>10003204</v>
+        <v>10005205</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3779,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="G50" s="5">
-        <v>10010307</v>
+        <v>15502001</v>
       </c>
       <c r="H50" s="5">
         <v>1</v>
@@ -3788,15 +3778,15 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>43125</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C51">
-        <v>10003204</v>
+        <v>10005205</v>
       </c>
       <c r="D51">
-        <v>10003205</v>
+        <v>10005206</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3805,7 +3795,7 @@
         <v>100</v>
       </c>
       <c r="G51" s="5">
-        <v>10010308</v>
+        <v>15502003</v>
       </c>
       <c r="H51" s="5">
         <v>1</v>
@@ -3814,15 +3804,15 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>44250</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C52">
-        <v>10003205</v>
+        <v>10005206</v>
       </c>
       <c r="D52">
-        <v>10003206</v>
+        <v>10005207</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3831,7 +3821,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="5">
-        <v>10030421</v>
+        <v>15502005</v>
       </c>
       <c r="H52" s="5">
         <v>1</v>
@@ -3840,15 +3830,15 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>21840</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C53">
-        <v>10003206</v>
+        <v>10005207</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>10005208</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3857,7 +3847,7 @@
         <v>100</v>
       </c>
       <c r="G53" s="5">
-        <v>10030414</v>
+        <v>15507001</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -3866,15 +3856,15 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <v>11640</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C54">
-        <v>10004101</v>
+        <v>10005208</v>
       </c>
       <c r="D54">
-        <v>10004102</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3883,7 +3873,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="5">
-        <v>10010004</v>
+        <v>15508001</v>
       </c>
       <c r="H54" s="5">
         <v>1</v>
@@ -3892,527 +3882,7 @@
         <v>1</v>
       </c>
       <c r="J54">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C55">
-        <v>10004102</v>
-      </c>
-      <c r="D55">
-        <v>10004103</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" s="5">
-        <v>100</v>
-      </c>
-      <c r="G55" s="5">
-        <v>10010014</v>
-      </c>
-      <c r="H55" s="5">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C56">
-        <v>10004103</v>
-      </c>
-      <c r="D56">
-        <v>10004104</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" s="5">
-        <v>100</v>
-      </c>
-      <c r="G56" s="5">
-        <v>10010004</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C57">
-        <v>10004104</v>
-      </c>
-      <c r="D57">
-        <v>10004105</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5">
-        <v>100</v>
-      </c>
-      <c r="G57" s="5">
-        <v>10010014</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C58">
-        <v>10004105</v>
-      </c>
-      <c r="D58">
-        <v>10004106</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" s="5">
-        <v>100</v>
-      </c>
-      <c r="G58" s="5">
-        <v>10010054</v>
-      </c>
-      <c r="H58" s="5">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C59">
-        <v>10004106</v>
-      </c>
-      <c r="D59">
-        <v>10004107</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5">
-        <v>100</v>
-      </c>
-      <c r="G59" s="5">
-        <v>10020158</v>
-      </c>
-      <c r="H59" s="5">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C60">
-        <v>10004107</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" s="5">
-        <v>100</v>
-      </c>
-      <c r="G60" s="5">
-        <v>10020159</v>
-      </c>
-      <c r="H60" s="5">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C61">
-        <v>10004201</v>
-      </c>
-      <c r="D61">
-        <v>10004202</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5">
-        <v>100</v>
-      </c>
-      <c r="G61" s="7">
-        <v>10011003</v>
-      </c>
-      <c r="H61" s="5">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C62">
-        <v>10004202</v>
-      </c>
-      <c r="D62">
-        <v>10004203</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" s="5">
-        <v>100</v>
-      </c>
-      <c r="G62" s="5">
-        <v>10010410</v>
-      </c>
-      <c r="H62" s="5">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>38625</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C63">
-        <v>10004203</v>
-      </c>
-      <c r="D63">
-        <v>10004204</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" s="5">
-        <v>100</v>
-      </c>
-      <c r="G63" s="5">
-        <v>10030519</v>
-      </c>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>142920</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C64">
-        <v>10004204</v>
-      </c>
-      <c r="D64">
-        <v>10004205</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" s="5">
-        <v>100</v>
-      </c>
-      <c r="G64" s="5">
-        <v>10030521</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>28590</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C65">
-        <v>10004205</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" s="5">
-        <v>100</v>
-      </c>
-      <c r="G65" s="5">
-        <v>10030512</v>
-      </c>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>12390</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C66">
-        <v>10005101</v>
-      </c>
-      <c r="D66">
-        <v>10005102</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" s="5">
-        <v>100</v>
-      </c>
-      <c r="G66" s="6">
-        <v>10010005</v>
-      </c>
-      <c r="H66" s="5">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C67">
-        <v>10005102</v>
-      </c>
-      <c r="D67">
-        <v>10005103</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" s="5">
-        <v>100</v>
-      </c>
-      <c r="G67" s="5">
-        <v>10010015</v>
-      </c>
-      <c r="H67" s="5">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C68">
-        <v>10005103</v>
-      </c>
-      <c r="D68">
-        <v>10005104</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" s="5">
-        <v>100</v>
-      </c>
-      <c r="G68" s="5">
-        <v>10010005</v>
-      </c>
-      <c r="H68" s="5">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C69">
-        <v>10005104</v>
-      </c>
-      <c r="D69">
-        <v>10005105</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" s="5">
-        <v>100</v>
-      </c>
-      <c r="G69" s="5">
-        <v>10010015</v>
-      </c>
-      <c r="H69" s="5">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C70">
-        <v>10005105</v>
-      </c>
-      <c r="D70">
-        <v>10005106</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" s="5">
-        <v>100</v>
-      </c>
-      <c r="G70" s="5">
-        <v>10010055</v>
-      </c>
-      <c r="H70" s="5">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C71">
-        <v>10005106</v>
-      </c>
-      <c r="D71">
-        <v>10005107</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="5">
-        <v>100</v>
-      </c>
-      <c r="G71" s="5">
-        <v>10020213</v>
-      </c>
-      <c r="H71" s="5">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C72">
-        <v>10005107</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" s="5">
-        <v>100</v>
-      </c>
-      <c r="G72" s="5">
-        <v>10020214</v>
-      </c>
-      <c r="H72" s="5">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C73">
-        <v>10005201</v>
-      </c>
-      <c r="D73">
-        <v>10005202</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" s="5">
-        <v>100</v>
-      </c>
-      <c r="G73" s="8">
-        <v>10011004</v>
-      </c>
-      <c r="H73" s="5">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C74">
-        <v>10005202</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" s="5">
-        <v>100</v>
-      </c>
-      <c r="G74" s="5">
-        <v>10030619</v>
-      </c>
-      <c r="H74" s="5">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>176670</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DDD0CB-20F9-48CB-895B-458DB89E3AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCFADC9-5C4F-40B3-83A5-AC53FD42AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27450" yWindow="255" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -2509,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3113,8 +3113,7 @@
         <v>100</v>
       </c>
       <c r="G25" s="6">
-        <f>G23+1</f>
-        <v>15207002</v>
+        <v>10010003</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>
@@ -3140,8 +3139,7 @@
         <v>100</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" ref="G26" si="1">G24+1</f>
-        <v>15208002</v>
+        <v>10010013</v>
       </c>
       <c r="H26" s="5">
         <v>1</v>
@@ -3375,8 +3373,7 @@
         <v>100</v>
       </c>
       <c r="G35" s="6">
-        <f>G33+1</f>
-        <v>15307002</v>
+        <v>10010004</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
@@ -3402,8 +3399,7 @@
         <v>100</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" ref="G36" si="2">G34+1</f>
-        <v>15308002</v>
+        <v>10010014</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
@@ -3637,8 +3633,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="6">
-        <f>G43+1</f>
-        <v>15407002</v>
+        <v>10010005</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
@@ -3664,8 +3659,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" ref="G46" si="3">G44+1</f>
-        <v>15408002</v>
+        <v>10010015</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCFADC9-5C4F-40B3-83A5-AC53FD42AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C35A4-F9E9-49F6-B684-A156DD03330F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27450" yWindow="255" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -2509,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2851,8 +2851,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="6">
-        <f>G13+1</f>
-        <v>14060004</v>
+        <v>10010002</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -2878,8 +2877,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" ref="G16" si="0">G14+1</f>
-        <v>14050012</v>
+        <v>10010012</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C35A4-F9E9-49F6-B684-A156DD03330F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4C5AC-B8B2-41E0-B730-14A45BE590B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>int</t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -2507,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O54"/>
+  <dimension ref="C1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3877,6 +3877,266 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>20000001</v>
+      </c>
+      <c r="D55">
+        <v>20000002</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>100</v>
+      </c>
+      <c r="G55" s="6">
+        <v>10010005</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>20000002</v>
+      </c>
+      <c r="D56">
+        <v>20000003</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
+        <v>100</v>
+      </c>
+      <c r="G56" s="6">
+        <v>10010015</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>20000003</v>
+      </c>
+      <c r="D57">
+        <v>20000004</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>100</v>
+      </c>
+      <c r="G57" s="5">
+        <v>15501001</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>20000004</v>
+      </c>
+      <c r="D58">
+        <v>20000005</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>100</v>
+      </c>
+      <c r="G58" s="5">
+        <v>15501003</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>20000005</v>
+      </c>
+      <c r="D59">
+        <v>20000006</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>100</v>
+      </c>
+      <c r="G59" s="5">
+        <v>15501005</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>20000006</v>
+      </c>
+      <c r="D60">
+        <v>20000007</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>100</v>
+      </c>
+      <c r="G60" s="5">
+        <v>15502001</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>20000007</v>
+      </c>
+      <c r="D61">
+        <v>20000008</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>100</v>
+      </c>
+      <c r="G61" s="5">
+        <v>15502003</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>20000008</v>
+      </c>
+      <c r="D62">
+        <v>20000009</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>100</v>
+      </c>
+      <c r="G62" s="5">
+        <v>15502005</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>20000009</v>
+      </c>
+      <c r="D63">
+        <v>20000010</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>100</v>
+      </c>
+      <c r="G63" s="5">
+        <v>15507001</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>20000010</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>100</v>
+      </c>
+      <c r="G64" s="5">
+        <v>15508001</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4C5AC-B8B2-41E0-B730-14A45BE590B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEA3301-7E1B-44EA-BA89-4EC0E955EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>int</t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +335,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1761,7 +1768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1786,6 +1793,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="27" fillId="35" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2507,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O64"/>
+  <dimension ref="C1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3890,17 +3906,17 @@
       <c r="F55" s="5">
         <v>100</v>
       </c>
-      <c r="G55" s="6">
-        <v>10010005</v>
+      <c r="G55" s="10">
+        <v>10000141</v>
       </c>
       <c r="H55" s="5">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>19</v>
+        <v>10010035</v>
+      </c>
+      <c r="J55" s="12">
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.2">
@@ -3916,17 +3932,17 @@
       <c r="F56" s="5">
         <v>100</v>
       </c>
-      <c r="G56" s="6">
-        <v>10010015</v>
+      <c r="G56" s="10">
+        <v>10000142</v>
       </c>
       <c r="H56" s="5">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>20</v>
+        <v>10010035</v>
+      </c>
+      <c r="J56" s="12">
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.2">
@@ -3942,17 +3958,17 @@
       <c r="F57" s="5">
         <v>100</v>
       </c>
-      <c r="G57" s="5">
-        <v>15501001</v>
+      <c r="G57" s="10">
+        <v>10010045</v>
       </c>
       <c r="H57" s="5">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>60000</v>
+        <v>10010035</v>
+      </c>
+      <c r="J57" s="12">
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.2">
@@ -3968,17 +3984,17 @@
       <c r="F58" s="5">
         <v>100</v>
       </c>
-      <c r="G58" s="5">
-        <v>15501003</v>
+      <c r="G58" s="10">
+        <v>10010086</v>
       </c>
       <c r="H58" s="5">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>60000</v>
+        <v>10010035</v>
+      </c>
+      <c r="J58" s="12">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.2">
@@ -3994,17 +4010,17 @@
       <c r="F59" s="5">
         <v>100</v>
       </c>
-      <c r="G59" s="5">
-        <v>15501005</v>
+      <c r="G59" s="11">
+        <v>10010098</v>
       </c>
       <c r="H59" s="5">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>60000</v>
+        <v>10010035</v>
+      </c>
+      <c r="J59" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.2">
@@ -4020,121 +4036,17 @@
       <c r="F60" s="5">
         <v>100</v>
       </c>
-      <c r="G60" s="5">
-        <v>15502001</v>
+      <c r="G60" s="10">
+        <v>10000132</v>
       </c>
       <c r="H60" s="5">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C61">
-        <v>20000007</v>
-      </c>
-      <c r="D61">
-        <v>20000008</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5">
-        <v>100</v>
-      </c>
-      <c r="G61" s="5">
-        <v>15502003</v>
-      </c>
-      <c r="H61" s="5">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C62">
-        <v>20000008</v>
-      </c>
-      <c r="D62">
-        <v>20000009</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" s="5">
-        <v>100</v>
-      </c>
-      <c r="G62" s="5">
-        <v>15502005</v>
-      </c>
-      <c r="H62" s="5">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C63">
-        <v>20000009</v>
-      </c>
-      <c r="D63">
-        <v>20000010</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" s="5">
-        <v>100</v>
-      </c>
-      <c r="G63" s="5">
-        <v>15507001</v>
-      </c>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C64">
-        <v>20000010</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" s="5">
-        <v>100</v>
-      </c>
-      <c r="G64" s="5">
-        <v>15508001</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>60000</v>
+        <v>10010035</v>
+      </c>
+      <c r="J60" s="12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEA3301-7E1B-44EA-BA89-4EC0E955EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48E9965-26F5-4995-823C-0640DEA0749F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2526,7 +2526,7 @@
   <dimension ref="C1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4028,7 +4028,7 @@
         <v>20000006</v>
       </c>
       <c r="D60">
-        <v>20000007</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>1</v>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48E9965-26F5-4995-823C-0640DEA0749F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451833C-23C5-4C17-B249-6A210CA22799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -2523,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O60"/>
+  <dimension ref="C1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4049,6 +4049,500 @@
         <v>10</v>
       </c>
     </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>30000001</v>
+      </c>
+      <c r="D61">
+        <v>30000002</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>100</v>
+      </c>
+      <c r="G61" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>30000002</v>
+      </c>
+      <c r="D62">
+        <v>30000003</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>100</v>
+      </c>
+      <c r="G62" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>30000003</v>
+      </c>
+      <c r="D63">
+        <v>30000004</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>100</v>
+      </c>
+      <c r="G63" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>30000004</v>
+      </c>
+      <c r="D64">
+        <v>30000005</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>100</v>
+      </c>
+      <c r="G64" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>30000005</v>
+      </c>
+      <c r="D65">
+        <v>30000006</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>100</v>
+      </c>
+      <c r="G65" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>30000006</v>
+      </c>
+      <c r="D66">
+        <v>30000007</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
+        <v>100</v>
+      </c>
+      <c r="G66" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>30000007</v>
+      </c>
+      <c r="D67">
+        <v>30000008</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>100</v>
+      </c>
+      <c r="G67" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>30000008</v>
+      </c>
+      <c r="D68">
+        <v>30000009</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>100</v>
+      </c>
+      <c r="G68" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>30000009</v>
+      </c>
+      <c r="D69">
+        <v>30000010</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>100</v>
+      </c>
+      <c r="G69" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>30000010</v>
+      </c>
+      <c r="D70">
+        <v>30000011</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>100</v>
+      </c>
+      <c r="G70" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>30000011</v>
+      </c>
+      <c r="D71">
+        <v>30000012</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>100</v>
+      </c>
+      <c r="G71" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>30000012</v>
+      </c>
+      <c r="D72">
+        <v>30000013</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>100</v>
+      </c>
+      <c r="G72" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>30000013</v>
+      </c>
+      <c r="D73">
+        <v>30000014</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>100</v>
+      </c>
+      <c r="G73" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>30000014</v>
+      </c>
+      <c r="D74">
+        <v>30000015</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5">
+        <v>100</v>
+      </c>
+      <c r="G74" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>30000015</v>
+      </c>
+      <c r="D75">
+        <v>30000016</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>100</v>
+      </c>
+      <c r="G75" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H75" s="5">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>30000016</v>
+      </c>
+      <c r="D76">
+        <v>30000017</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>100</v>
+      </c>
+      <c r="G76" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>30000017</v>
+      </c>
+      <c r="D77">
+        <v>30000018</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>100</v>
+      </c>
+      <c r="G77" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>30000018</v>
+      </c>
+      <c r="D78">
+        <v>30000019</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5">
+        <v>100</v>
+      </c>
+      <c r="G78" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>30000019</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>100</v>
+      </c>
+      <c r="G79" s="10">
+        <v>10000132</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" s="12">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451833C-23C5-4C17-B249-6A210CA22799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D82712-A1E7-4B59-8E5C-5138A98992CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="555" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>int</t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -110,12 +110,16 @@
   <si>
     <t>720</t>
   </si>
+  <si>
+    <t>挑战商店</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,8 +351,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,8 +576,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -715,6 +739,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1768,7 +1805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1802,6 +1839,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2523,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O79"/>
+  <dimension ref="C1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3737,7 +3778,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>10005203</v>
       </c>
@@ -3763,7 +3804,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>10005204</v>
       </c>
@@ -3789,7 +3830,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>10005205</v>
       </c>
@@ -3815,7 +3856,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>10005206</v>
       </c>
@@ -3841,7 +3882,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>10005207</v>
       </c>
@@ -3867,7 +3908,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>10005208</v>
       </c>
@@ -3893,7 +3934,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>20000001</v>
       </c>
@@ -3919,7 +3960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>20000002</v>
       </c>
@@ -3945,7 +3986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>20000003</v>
       </c>
@@ -3971,7 +4012,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>20000004</v>
       </c>
@@ -3997,7 +4038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>20000005</v>
       </c>
@@ -4023,7 +4064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>20000006</v>
       </c>
@@ -4049,7 +4090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>30000001</v>
       </c>
@@ -4063,19 +4104,22 @@
         <v>100</v>
       </c>
       <c r="G61" s="10">
-        <v>10000132</v>
+        <v>10000144</v>
       </c>
       <c r="H61" s="5">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>1</v>
+      <c r="I61" s="10">
+        <v>10000148</v>
       </c>
       <c r="J61" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>30000002</v>
       </c>
@@ -4089,19 +4133,19 @@
         <v>100</v>
       </c>
       <c r="G62" s="10">
-        <v>10000132</v>
+        <v>10000145</v>
       </c>
       <c r="H62" s="5">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>1</v>
+      <c r="I62" s="10">
+        <v>10000148</v>
       </c>
       <c r="J62" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>30000003</v>
       </c>
@@ -4115,19 +4159,19 @@
         <v>100</v>
       </c>
       <c r="G63" s="10">
-        <v>10000132</v>
+        <v>10000146</v>
       </c>
       <c r="H63" s="5">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>1</v>
+      <c r="I63" s="10">
+        <v>10000148</v>
       </c>
       <c r="J63" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>30000004</v>
       </c>
@@ -4141,16 +4185,16 @@
         <v>100</v>
       </c>
       <c r="G64" s="10">
-        <v>10000132</v>
+        <v>10000147</v>
       </c>
       <c r="H64" s="5">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>1</v>
+      <c r="I64" s="10">
+        <v>10000148</v>
       </c>
       <c r="J64" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.2">
@@ -4167,16 +4211,16 @@
         <v>100</v>
       </c>
       <c r="G65" s="10">
-        <v>10000132</v>
+        <v>10010033</v>
       </c>
       <c r="H65" s="5">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65" s="12">
-        <v>10</v>
+      <c r="I65" s="10">
+        <v>10000148</v>
+      </c>
+      <c r="J65" s="14">
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.2">
@@ -4193,16 +4237,16 @@
         <v>100</v>
       </c>
       <c r="G66" s="10">
-        <v>10000132</v>
+        <v>10010083</v>
       </c>
       <c r="H66" s="5">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" s="12">
-        <v>10</v>
+      <c r="I66" s="10">
+        <v>10000148</v>
+      </c>
+      <c r="J66" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.2">
@@ -4218,17 +4262,17 @@
       <c r="F67" s="5">
         <v>100</v>
       </c>
-      <c r="G67" s="10">
-        <v>10000132</v>
+      <c r="G67" s="11">
+        <v>10010098</v>
       </c>
       <c r="H67" s="5">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67" s="12">
-        <v>10</v>
+      <c r="I67" s="10">
+        <v>10000148</v>
+      </c>
+      <c r="J67" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.2">
@@ -4245,16 +4289,16 @@
         <v>100</v>
       </c>
       <c r="G68" s="10">
-        <v>10000132</v>
+        <v>10010085</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68" s="12">
-        <v>10</v>
+      <c r="I68" s="10">
+        <v>10000148</v>
+      </c>
+      <c r="J68" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.2">
@@ -4271,16 +4315,16 @@
         <v>100</v>
       </c>
       <c r="G69" s="10">
-        <v>10000132</v>
+        <v>10000131</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
       </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69" s="12">
-        <v>10</v>
+      <c r="I69" s="10">
+        <v>10000148</v>
+      </c>
+      <c r="J69" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.2">
@@ -4288,7 +4332,7 @@
         <v>30000010</v>
       </c>
       <c r="D70">
-        <v>30000011</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4302,245 +4346,11 @@
       <c r="H70" s="5">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C71">
-        <v>30000011</v>
-      </c>
-      <c r="D71">
-        <v>30000012</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="5">
-        <v>100</v>
-      </c>
-      <c r="G71" s="10">
-        <v>10000132</v>
-      </c>
-      <c r="H71" s="5">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C72">
-        <v>30000012</v>
-      </c>
-      <c r="D72">
-        <v>30000013</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" s="5">
-        <v>100</v>
-      </c>
-      <c r="G72" s="10">
-        <v>10000132</v>
-      </c>
-      <c r="H72" s="5">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C73">
-        <v>30000013</v>
-      </c>
-      <c r="D73">
-        <v>30000014</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" s="5">
-        <v>100</v>
-      </c>
-      <c r="G73" s="10">
-        <v>10000132</v>
-      </c>
-      <c r="H73" s="5">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C74">
-        <v>30000014</v>
-      </c>
-      <c r="D74">
-        <v>30000015</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" s="5">
-        <v>100</v>
-      </c>
-      <c r="G74" s="10">
-        <v>10000132</v>
-      </c>
-      <c r="H74" s="5">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C75">
-        <v>30000015</v>
-      </c>
-      <c r="D75">
-        <v>30000016</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" s="5">
-        <v>100</v>
-      </c>
-      <c r="G75" s="10">
-        <v>10000132</v>
-      </c>
-      <c r="H75" s="5">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C76">
-        <v>30000016</v>
-      </c>
-      <c r="D76">
-        <v>30000017</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" s="5">
-        <v>100</v>
-      </c>
-      <c r="G76" s="10">
-        <v>10000132</v>
-      </c>
-      <c r="H76" s="5">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C77">
-        <v>30000017</v>
-      </c>
-      <c r="D77">
-        <v>30000018</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" s="5">
-        <v>100</v>
-      </c>
-      <c r="G77" s="10">
-        <v>10000132</v>
-      </c>
-      <c r="H77" s="5">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C78">
-        <v>30000018</v>
-      </c>
-      <c r="D78">
-        <v>30000019</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" s="5">
-        <v>100</v>
-      </c>
-      <c r="G78" s="10">
-        <v>10000132</v>
-      </c>
-      <c r="H78" s="5">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C79">
-        <v>30000019</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" s="5">
-        <v>100</v>
-      </c>
-      <c r="G79" s="10">
-        <v>10000132</v>
-      </c>
-      <c r="H79" s="5">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79" s="12">
-        <v>10</v>
+      <c r="I70" s="10">
+        <v>10000148</v>
+      </c>
+      <c r="J70" s="14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D82712-A1E7-4B59-8E5C-5138A98992CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3728F752-0873-463B-B8FB-91B2C6252DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="555" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -2566,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2689,7 +2689,7 @@
         <v>10001102</v>
       </c>
       <c r="D7">
-        <v>10001103</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E720C9-19F8-4E8A-84BB-BD2C17647D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -72,18 +78,16 @@
   <si>
     <t>挑战商店</t>
   </si>
+  <si>
+    <t>友爱商店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +125,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -149,14 +153,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -165,142 +161,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,13 +207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,25 +231,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,168 +297,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -599,30 +371,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -637,1161 +385,949 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1800,19 +1336,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1822,378 +1355,337 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
-    <cellStyle name="标题" xfId="28" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="37"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
-    <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
-    <cellStyle name="计算" xfId="44" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
-    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
-    <cellStyle name="汇总" xfId="54" builtinId="25"/>
-    <cellStyle name="好" xfId="55" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
-    <cellStyle name="适中" xfId="60" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
-    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 5" xfId="94"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="常规 2 3 2 6" xfId="97"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
-    <cellStyle name="常规 2 3 2 7" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
-    <cellStyle name="常规 2 3 3 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
-    <cellStyle name="常规 2 3 3 4" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
-    <cellStyle name="常规 2 3 4 3" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="常规 3" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="常规 5" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
-    <cellStyle name="注释 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="常规 5 7" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="注释 2 2 3 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="注释 2 5 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="常规 2 3 2 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="常规 2 3 3 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="常规 2 3 3 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="注释 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="常规 5 6" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
-    <cellStyle name="常规 2" xfId="313"/>
-    <cellStyle name="常规 2 2" xfId="314"/>
-    <cellStyle name="常规 2 3" xfId="315"/>
-    <cellStyle name="常规 2 3 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="注释 2 3 2" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
-    <cellStyle name="常规 2 3 3" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="注释 2 5" xfId="329"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
-    <cellStyle name="常规 2 3 4" xfId="331"/>
-    <cellStyle name="常规 2 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 3 5" xfId="333"/>
-    <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
-    <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 7" xfId="339"/>
-    <cellStyle name="常规 2 3 8" xfId="340"/>
-    <cellStyle name="常规 5 2 3 2" xfId="341"/>
-    <cellStyle name="常规 5 2 4 2" xfId="342"/>
-    <cellStyle name="常规 5 3" xfId="343"/>
-    <cellStyle name="常规 5 3 2" xfId="344"/>
-    <cellStyle name="常规 5 3 3" xfId="345"/>
-    <cellStyle name="常规 5 4" xfId="346"/>
-    <cellStyle name="常规 5 4 2" xfId="347"/>
-    <cellStyle name="常规 5 5" xfId="348"/>
-    <cellStyle name="常规 5 5 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 2" xfId="351"/>
-    <cellStyle name="注释 2 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 3" xfId="353"/>
-    <cellStyle name="注释 2 2 4" xfId="354"/>
-    <cellStyle name="注释 2 2 4 2" xfId="355"/>
-    <cellStyle name="注释 2 2 5" xfId="356"/>
-    <cellStyle name="注释 2 2 6" xfId="357"/>
-    <cellStyle name="注释 2 4" xfId="358"/>
-    <cellStyle name="注释 2 4 2" xfId="359"/>
-    <cellStyle name="注释 2 6" xfId="360"/>
-    <cellStyle name="注释 2 7" xfId="361"/>
+    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 5" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 5 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 5 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="注释 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="注释 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 5" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2213,11 +1705,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2502,19 +2002,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:O70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
@@ -2522,8 +2022,8 @@
     <col min="9" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:10">
+    <row r="1" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:10">
+    <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:10">
+    <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2601,7 +2101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>10001101</v>
       </c>
@@ -2623,12 +2123,12 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>10001102</v>
       </c>
@@ -2650,13 +2150,13 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="3:10">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>10001201</v>
       </c>
@@ -2682,7 +2182,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>10001202</v>
       </c>
@@ -2708,7 +2208,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="10" spans="3:10">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>10001203</v>
       </c>
@@ -2734,7 +2234,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>10001204</v>
       </c>
@@ -2760,7 +2260,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>10001205</v>
       </c>
@@ -2786,7 +2286,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>10001206</v>
       </c>
@@ -2812,7 +2312,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="14" spans="3:10">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>10001207</v>
       </c>
@@ -2838,7 +2338,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>10002101</v>
       </c>
@@ -2860,11 +2360,11 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>10002102</v>
       </c>
@@ -2886,11 +2386,11 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>10002201</v>
       </c>
@@ -2916,7 +2416,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>10002202</v>
       </c>
@@ -2942,7 +2442,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>10002203</v>
       </c>
@@ -2968,7 +2468,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>10002204</v>
       </c>
@@ -2994,7 +2494,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>10002205</v>
       </c>
@@ -3020,7 +2520,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>10002206</v>
       </c>
@@ -3046,7 +2546,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>10002207</v>
       </c>
@@ -3072,7 +2572,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>10002208</v>
       </c>
@@ -3098,7 +2598,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>10003101</v>
       </c>
@@ -3120,11 +2620,11 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>10003102</v>
       </c>
@@ -3146,11 +2646,11 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:10">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>10003201</v>
       </c>
@@ -3176,7 +2676,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>10003202</v>
       </c>
@@ -3202,7 +2702,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="29" spans="3:10">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>10003203</v>
       </c>
@@ -3228,7 +2728,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="30" spans="3:10">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>10003204</v>
       </c>
@@ -3254,7 +2754,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="31" spans="3:10">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>10003205</v>
       </c>
@@ -3280,7 +2780,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="32" spans="3:10">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>10003206</v>
       </c>
@@ -3306,7 +2806,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>10003207</v>
       </c>
@@ -3332,7 +2832,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>10003208</v>
       </c>
@@ -3358,7 +2858,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>10004101</v>
       </c>
@@ -3380,11 +2880,11 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J35" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:10">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>10004102</v>
       </c>
@@ -3406,11 +2906,11 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>10004201</v>
       </c>
@@ -3436,7 +2936,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="38" spans="3:10">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>10004202</v>
       </c>
@@ -3462,7 +2962,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="39" spans="3:10">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>10004203</v>
       </c>
@@ -3488,7 +2988,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="40" spans="3:10">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>10004204</v>
       </c>
@@ -3514,7 +3014,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="41" spans="3:10">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>10004205</v>
       </c>
@@ -3540,7 +3040,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="42" spans="3:10">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>10004206</v>
       </c>
@@ -3566,7 +3066,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="3:10">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>10004207</v>
       </c>
@@ -3592,7 +3092,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="44" spans="3:10">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>10004208</v>
       </c>
@@ -3618,7 +3118,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="45" spans="3:10">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>10005101</v>
       </c>
@@ -3640,11 +3140,11 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45" s="15" t="s">
+      <c r="J45" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="3:10">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>10005102</v>
       </c>
@@ -3666,11 +3166,11 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="3:10">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>10005201</v>
       </c>
@@ -3696,7 +3196,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="48" spans="3:10">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>10005202</v>
       </c>
@@ -3722,7 +3222,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="49" spans="3:10">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>10005203</v>
       </c>
@@ -3748,7 +3248,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="50" spans="3:10">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>10005204</v>
       </c>
@@ -3774,7 +3274,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="51" spans="3:10">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>10005205</v>
       </c>
@@ -3800,7 +3300,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="52" spans="3:10">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>10005206</v>
       </c>
@@ -3826,7 +3326,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="53" spans="3:10">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>10005207</v>
       </c>
@@ -3852,7 +3352,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="54" spans="3:10">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>10005208</v>
       </c>
@@ -3878,7 +3378,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="55" spans="3:10">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>20000001</v>
       </c>
@@ -3900,11 +3400,11 @@
       <c r="I55">
         <v>10010035</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="3:10">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>20000002</v>
       </c>
@@ -3926,11 +3426,11 @@
       <c r="I56">
         <v>10010035</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="3:10">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>20000003</v>
       </c>
@@ -3952,11 +3452,11 @@
       <c r="I57">
         <v>10010035</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="11">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:10">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>20000004</v>
       </c>
@@ -3978,11 +3478,11 @@
       <c r="I58">
         <v>10010035</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="3:10">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>20000005</v>
       </c>
@@ -4004,11 +3504,11 @@
       <c r="I59">
         <v>10010035</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="3:10">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>20000006</v>
       </c>
@@ -4030,11 +3530,11 @@
       <c r="I60">
         <v>10010035</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>30000001</v>
       </c>
@@ -4056,14 +3556,14 @@
       <c r="I61" s="9">
         <v>10000148</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="11">
         <v>15</v>
       </c>
-      <c r="L61" s="13" t="s">
+      <c r="L61" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="3:10">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>30000002</v>
       </c>
@@ -4085,11 +3585,11 @@
       <c r="I62" s="9">
         <v>10000148</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="3:10">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>30000003</v>
       </c>
@@ -4111,11 +3611,11 @@
       <c r="I63" s="9">
         <v>10000148</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="3:10">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>30000004</v>
       </c>
@@ -4137,11 +3637,11 @@
       <c r="I64" s="9">
         <v>10000148</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="3:10">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>30000005</v>
       </c>
@@ -4163,11 +3663,11 @@
       <c r="I65" s="9">
         <v>10000148</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="3:10">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>30000006</v>
       </c>
@@ -4189,11 +3689,11 @@
       <c r="I66" s="9">
         <v>10000148</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="3:10">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>30000007</v>
       </c>
@@ -4215,11 +3715,11 @@
       <c r="I67" s="9">
         <v>10000148</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="3:10">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>30000008</v>
       </c>
@@ -4241,11 +3741,11 @@
       <c r="I68" s="9">
         <v>10000148</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="3:10">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>30000009</v>
       </c>
@@ -4267,11 +3767,11 @@
       <c r="I69" s="9">
         <v>10000148</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="3:10">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>30000010</v>
       </c>
@@ -4293,13 +3793,406 @@
       <c r="I70" s="9">
         <v>10000148</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="13">
         <v>3</v>
       </c>
     </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>40000001</v>
+      </c>
+      <c r="D71">
+        <v>40000002</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>100</v>
+      </c>
+      <c r="G71" s="16">
+        <v>10000143</v>
+      </c>
+      <c r="H71" s="17">
+        <v>1</v>
+      </c>
+      <c r="I71" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J71" s="17">
+        <v>35</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>40000002</v>
+      </c>
+      <c r="D72">
+        <v>40000003</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>100</v>
+      </c>
+      <c r="G72" s="16">
+        <v>10010046</v>
+      </c>
+      <c r="H72" s="17">
+        <v>1</v>
+      </c>
+      <c r="I72" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J72" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>40000003</v>
+      </c>
+      <c r="D73">
+        <v>40000004</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>100</v>
+      </c>
+      <c r="G73" s="16">
+        <v>10000150</v>
+      </c>
+      <c r="H73" s="17">
+        <v>1</v>
+      </c>
+      <c r="I73" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J73" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>40000004</v>
+      </c>
+      <c r="D74">
+        <v>40000005</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5">
+        <v>100</v>
+      </c>
+      <c r="G74" s="16">
+        <v>10010045</v>
+      </c>
+      <c r="H74" s="17">
+        <v>1</v>
+      </c>
+      <c r="I74" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J74" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>40000005</v>
+      </c>
+      <c r="D75">
+        <v>40000006</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>100</v>
+      </c>
+      <c r="G75" s="16">
+        <v>10010083</v>
+      </c>
+      <c r="H75" s="17">
+        <v>1</v>
+      </c>
+      <c r="I75" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J75" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>40000006</v>
+      </c>
+      <c r="D76">
+        <v>40000007</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>100</v>
+      </c>
+      <c r="G76" s="16">
+        <v>10010085</v>
+      </c>
+      <c r="H76" s="17">
+        <v>5</v>
+      </c>
+      <c r="I76" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J76" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>40000007</v>
+      </c>
+      <c r="D77">
+        <v>40000008</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>100</v>
+      </c>
+      <c r="G77" s="16">
+        <v>10000121</v>
+      </c>
+      <c r="H77" s="17">
+        <v>1</v>
+      </c>
+      <c r="I77" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J77" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>40000008</v>
+      </c>
+      <c r="D78">
+        <v>40000009</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5">
+        <v>100</v>
+      </c>
+      <c r="G78" s="16">
+        <v>10000122</v>
+      </c>
+      <c r="H78" s="17">
+        <v>1</v>
+      </c>
+      <c r="I78" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J78" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>40000009</v>
+      </c>
+      <c r="D79">
+        <v>40000010</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>100</v>
+      </c>
+      <c r="G79" s="16">
+        <v>10000123</v>
+      </c>
+      <c r="H79" s="17">
+        <v>1</v>
+      </c>
+      <c r="I79" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J79" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>40000010</v>
+      </c>
+      <c r="D80">
+        <v>40000011</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="5">
+        <v>100</v>
+      </c>
+      <c r="G80" s="16">
+        <v>10000124</v>
+      </c>
+      <c r="H80" s="17">
+        <v>1</v>
+      </c>
+      <c r="I80" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J80" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>40000011</v>
+      </c>
+      <c r="D81">
+        <v>40000012</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>100</v>
+      </c>
+      <c r="G81" s="16">
+        <v>10000125</v>
+      </c>
+      <c r="H81" s="17">
+        <v>1</v>
+      </c>
+      <c r="I81" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J81" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>40000012</v>
+      </c>
+      <c r="D82">
+        <v>40000013</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="5">
+        <v>100</v>
+      </c>
+      <c r="G82" s="16">
+        <v>10000144</v>
+      </c>
+      <c r="H82" s="17">
+        <v>2</v>
+      </c>
+      <c r="I82" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J82" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>40000013</v>
+      </c>
+      <c r="D83">
+        <v>40000014</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>100</v>
+      </c>
+      <c r="G83" s="16">
+        <v>10000145</v>
+      </c>
+      <c r="H83" s="17">
+        <v>2</v>
+      </c>
+      <c r="I83" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J83" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>40000014</v>
+      </c>
+      <c r="D84">
+        <v>40000015</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5">
+        <v>100</v>
+      </c>
+      <c r="G84" s="16">
+        <v>10000146</v>
+      </c>
+      <c r="H84" s="17">
+        <v>2</v>
+      </c>
+      <c r="I84" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J84" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>40000015</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
+        <v>100</v>
+      </c>
+      <c r="G85" s="16">
+        <v>10000147</v>
+      </c>
+      <c r="H85" s="17">
+        <v>2</v>
+      </c>
+      <c r="I85" s="16">
+        <v>10000149</v>
+      </c>
+      <c r="J85" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E720C9-19F8-4E8A-84BB-BD2C17647D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F1D32B-D639-4600-AB30-300BBCDED4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>友爱商店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -147,12 +147,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -180,6 +174,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -220,12 +221,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,8 +302,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14966277047029022"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -359,19 +360,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -388,937 +376,937 @@
   </borders>
   <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1351,18 +1339,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2008,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O85"/>
+  <dimension ref="C1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2101,14 +2099,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C6">
+    <row r="6" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="15">
         <v>10001101</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>10001102</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="5">
@@ -2120,22 +2118,22 @@
       <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C7">
+    <row r="7" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="15">
         <v>10001102</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="5">
@@ -2147,23 +2145,23 @@
       <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C8">
+    <row r="8" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="15">
         <v>10001201</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="15">
         <v>10001202</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="5">
@@ -2175,21 +2173,21 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
         <v>8750</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C9">
+    <row r="9" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="15">
         <v>10001202</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
         <v>10001203</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
       <c r="F9" s="5">
@@ -2201,21 +2199,21 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
         <v>11200</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10">
+    <row r="10" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="15">
         <v>10001203</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="15">
         <v>10001204</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
       <c r="F10" s="5">
@@ -2227,21 +2225,21 @@
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
         <v>9600</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11">
+    <row r="11" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="15">
         <v>10001204</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
         <v>10001205</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="5">
@@ -2253,21 +2251,21 @@
       <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
         <v>10800</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C12">
+    <row r="12" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="15">
         <v>10001205</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="15">
         <v>10001206</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="5">
@@ -2279,21 +2277,21 @@
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15">
         <v>12400</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13">
+    <row r="13" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="15">
         <v>10001206</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="15">
         <v>10001207</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="5">
@@ -2305,21 +2303,21 @@
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15">
         <v>25600</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14">
+    <row r="14" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="15">
         <v>10001207</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="15">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="5">
@@ -2331,21 +2329,21 @@
       <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
         <v>16500</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C15">
+    <row r="15" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="15">
         <v>10002101</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="15">
         <v>10002102</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="5">
@@ -2357,21 +2355,21 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="14" t="s">
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16">
+    <row r="16" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="15">
         <v>10002102</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="15">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="5">
@@ -2383,21 +2381,21 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="14" t="s">
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17">
+    <row r="17" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="15">
         <v>10002201</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>10002202</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="5">
@@ -2409,21 +2407,21 @@
       <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15">
         <v>25000</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C18">
+    <row r="18" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="15">
         <v>10002202</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
         <v>10002203</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="5">
@@ -2435,21 +2433,21 @@
       <c r="H18" s="5">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C19">
+    <row r="19" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="15">
         <v>10002203</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="15">
         <v>10002204</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="5">
@@ -2461,21 +2459,21 @@
       <c r="H19" s="5">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="15">
+        <v>1</v>
+      </c>
+      <c r="J19" s="15">
         <v>25000</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C20">
+    <row r="20" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="15">
         <v>10002204</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="15">
         <v>10002205</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="15">
         <v>1</v>
       </c>
       <c r="F20" s="5">
@@ -2487,21 +2485,21 @@
       <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="15">
         <v>25000</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C21">
+    <row r="21" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="15">
         <v>10002205</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="15">
         <v>10002206</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="15">
         <v>1</v>
       </c>
       <c r="F21" s="5">
@@ -2513,21 +2511,21 @@
       <c r="H21" s="5">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
+      <c r="I21" s="15">
+        <v>1</v>
+      </c>
+      <c r="J21" s="15">
         <v>25000</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C22">
+    <row r="22" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="15">
         <v>10002206</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="15">
         <v>10002207</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="15">
         <v>1</v>
       </c>
       <c r="F22" s="5">
@@ -2539,21 +2537,21 @@
       <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
+      <c r="I22" s="15">
+        <v>1</v>
+      </c>
+      <c r="J22" s="15">
         <v>25000</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C23">
+    <row r="23" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="15">
         <v>10002207</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="15">
         <v>10002208</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="15">
         <v>1</v>
       </c>
       <c r="F23" s="5">
@@ -2565,21 +2563,21 @@
       <c r="H23" s="5">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="I23" s="15">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
         <v>25000</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C24">
+    <row r="24" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="15">
         <v>10002208</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="15">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="15">
         <v>1</v>
       </c>
       <c r="F24" s="5">
@@ -2591,21 +2589,21 @@
       <c r="H24" s="5">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15">
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C25">
+    <row r="25" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="15">
         <v>10003101</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="15">
         <v>10003102</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="15">
         <v>1</v>
       </c>
       <c r="F25" s="5">
@@ -2617,21 +2615,21 @@
       <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="14" t="s">
+      <c r="I25" s="15">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C26">
+    <row r="26" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="15">
         <v>10003102</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="15">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="15">
         <v>1</v>
       </c>
       <c r="F26" s="5">
@@ -2643,21 +2641,21 @@
       <c r="H26" s="5">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" s="14" t="s">
+      <c r="I26" s="15">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C27">
+    <row r="27" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="15">
         <v>10003201</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="15">
         <v>10003202</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="15">
         <v>1</v>
       </c>
       <c r="F27" s="5">
@@ -2669,21 +2667,21 @@
       <c r="H27" s="5">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
+      <c r="I27" s="15">
+        <v>1</v>
+      </c>
+      <c r="J27" s="15">
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C28">
+    <row r="28" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="15">
         <v>10003202</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="15">
         <v>10003203</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="15">
         <v>1</v>
       </c>
       <c r="F28" s="5">
@@ -2695,21 +2693,21 @@
       <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="15">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15">
         <v>35000</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C29">
+    <row r="29" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="15">
         <v>10003203</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="15">
         <v>10003204</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="15">
         <v>1</v>
       </c>
       <c r="F29" s="5">
@@ -2721,21 +2719,21 @@
       <c r="H29" s="5">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="15">
+        <v>1</v>
+      </c>
+      <c r="J29" s="15">
         <v>35000</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C30">
+    <row r="30" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="15">
         <v>10003204</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="15">
         <v>10003205</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="15">
         <v>1</v>
       </c>
       <c r="F30" s="5">
@@ -2747,21 +2745,21 @@
       <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
+      <c r="I30" s="15">
+        <v>1</v>
+      </c>
+      <c r="J30" s="15">
         <v>35000</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C31">
+    <row r="31" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="15">
         <v>10003205</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="15">
         <v>10003206</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="15">
         <v>1</v>
       </c>
       <c r="F31" s="5">
@@ -2773,21 +2771,21 @@
       <c r="H31" s="5">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
+      <c r="I31" s="15">
+        <v>1</v>
+      </c>
+      <c r="J31" s="15">
         <v>35000</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C32">
+    <row r="32" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="15">
         <v>10003206</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="15">
         <v>10003207</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="15">
         <v>1</v>
       </c>
       <c r="F32" s="5">
@@ -2799,21 +2797,21 @@
       <c r="H32" s="5">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="15">
         <v>35000</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C33">
+    <row r="33" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="15">
         <v>10003207</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="15">
         <v>10003208</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="15">
         <v>1</v>
       </c>
       <c r="F33" s="5">
@@ -2825,21 +2823,21 @@
       <c r="H33" s="5">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
+      <c r="I33" s="15">
+        <v>1</v>
+      </c>
+      <c r="J33" s="15">
         <v>35000</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C34">
+    <row r="34" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="15">
         <v>10003208</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="15">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="15">
         <v>1</v>
       </c>
       <c r="F34" s="5">
@@ -2851,21 +2849,21 @@
       <c r="H34" s="5">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
+      <c r="I34" s="15">
+        <v>1</v>
+      </c>
+      <c r="J34" s="15">
         <v>35000</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C35">
+    <row r="35" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="15">
         <v>10004101</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="15">
         <v>10004102</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="15">
         <v>1</v>
       </c>
       <c r="F35" s="5">
@@ -2877,21 +2875,21 @@
       <c r="H35" s="5">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" s="14" t="s">
+      <c r="I35" s="15">
+        <v>1</v>
+      </c>
+      <c r="J35" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C36">
+    <row r="36" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="15">
         <v>10004102</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="15">
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="15">
         <v>1</v>
       </c>
       <c r="F36" s="5">
@@ -2903,21 +2901,21 @@
       <c r="H36" s="5">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" s="14" t="s">
+      <c r="I36" s="15">
+        <v>1</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C37">
+    <row r="37" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="15">
         <v>10004201</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="15">
         <v>10004202</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="15">
         <v>1</v>
       </c>
       <c r="F37" s="5">
@@ -2929,21 +2927,21 @@
       <c r="H37" s="5">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="15">
+        <v>1</v>
+      </c>
+      <c r="J37" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C38">
+    <row r="38" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="15">
         <v>10004202</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="15">
         <v>10004203</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="15">
         <v>1</v>
       </c>
       <c r="F38" s="5">
@@ -2955,21 +2953,21 @@
       <c r="H38" s="5">
         <v>1</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
+      <c r="I38" s="15">
+        <v>1</v>
+      </c>
+      <c r="J38" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C39">
+    <row r="39" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="15">
         <v>10004203</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="15">
         <v>10004204</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="15">
         <v>1</v>
       </c>
       <c r="F39" s="5">
@@ -2981,21 +2979,21 @@
       <c r="H39" s="5">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
+      <c r="I39" s="15">
+        <v>1</v>
+      </c>
+      <c r="J39" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C40">
+    <row r="40" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="15">
         <v>10004204</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="15">
         <v>10004205</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="15">
         <v>1</v>
       </c>
       <c r="F40" s="5">
@@ -3007,21 +3005,21 @@
       <c r="H40" s="5">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
+      <c r="I40" s="15">
+        <v>1</v>
+      </c>
+      <c r="J40" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C41">
+    <row r="41" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="15">
         <v>10004205</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="15">
         <v>10004206</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="15">
         <v>1</v>
       </c>
       <c r="F41" s="5">
@@ -3033,21 +3031,21 @@
       <c r="H41" s="5">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
+      <c r="I41" s="15">
+        <v>1</v>
+      </c>
+      <c r="J41" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C42">
+    <row r="42" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="15">
         <v>10004206</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="15">
         <v>10004207</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="15">
         <v>1</v>
       </c>
       <c r="F42" s="5">
@@ -3059,21 +3057,21 @@
       <c r="H42" s="5">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
+      <c r="I42" s="15">
+        <v>1</v>
+      </c>
+      <c r="J42" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C43">
+    <row r="43" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="15">
         <v>10004207</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="15">
         <v>10004208</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="15">
         <v>1</v>
       </c>
       <c r="F43" s="5">
@@ -3085,21 +3083,21 @@
       <c r="H43" s="5">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
+      <c r="I43" s="15">
+        <v>1</v>
+      </c>
+      <c r="J43" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C44">
+    <row r="44" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="15">
         <v>10004208</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="15">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="15">
         <v>1</v>
       </c>
       <c r="F44" s="5">
@@ -3111,21 +3109,21 @@
       <c r="H44" s="5">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
+      <c r="I44" s="15">
+        <v>1</v>
+      </c>
+      <c r="J44" s="15">
         <v>45000</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C45">
+    <row r="45" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="15">
         <v>10005101</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="15">
         <v>10005102</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="15">
         <v>1</v>
       </c>
       <c r="F45" s="5">
@@ -3137,21 +3135,21 @@
       <c r="H45" s="5">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" s="14" t="s">
+      <c r="I45" s="15">
+        <v>1</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C46">
+    <row r="46" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="15">
         <v>10005102</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="15">
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="15">
         <v>1</v>
       </c>
       <c r="F46" s="5">
@@ -3163,21 +3161,21 @@
       <c r="H46" s="5">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="14" t="s">
+      <c r="I46" s="15">
+        <v>1</v>
+      </c>
+      <c r="J46" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C47">
+    <row r="47" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="15">
         <v>10005201</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="15">
         <v>10005202</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="15">
         <v>1</v>
       </c>
       <c r="F47" s="5">
@@ -3189,21 +3187,21 @@
       <c r="H47" s="5">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
+      <c r="I47" s="15">
+        <v>1</v>
+      </c>
+      <c r="J47" s="15">
         <v>60000</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C48">
+    <row r="48" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="15">
         <v>10005202</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="15">
         <v>10005203</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="15">
         <v>1</v>
       </c>
       <c r="F48" s="5">
@@ -3215,21 +3213,21 @@
       <c r="H48" s="5">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
+      <c r="I48" s="15">
+        <v>1</v>
+      </c>
+      <c r="J48" s="15">
         <v>60000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C49">
+    <row r="49" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="15">
         <v>10005203</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="15">
         <v>10005204</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="15">
         <v>1</v>
       </c>
       <c r="F49" s="5">
@@ -3241,21 +3239,21 @@
       <c r="H49" s="5">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
+      <c r="I49" s="15">
+        <v>1</v>
+      </c>
+      <c r="J49" s="15">
         <v>60000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C50">
+    <row r="50" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="15">
         <v>10005204</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="15">
         <v>10005205</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="15">
         <v>1</v>
       </c>
       <c r="F50" s="5">
@@ -3267,21 +3265,21 @@
       <c r="H50" s="5">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
+      <c r="I50" s="15">
+        <v>1</v>
+      </c>
+      <c r="J50" s="15">
         <v>60000</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C51">
+    <row r="51" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="15">
         <v>10005205</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="15">
         <v>10005206</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="15">
         <v>1</v>
       </c>
       <c r="F51" s="5">
@@ -3293,21 +3291,21 @@
       <c r="H51" s="5">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
+      <c r="I51" s="15">
+        <v>1</v>
+      </c>
+      <c r="J51" s="15">
         <v>60000</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C52">
+    <row r="52" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="15">
         <v>10005206</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="15">
         <v>10005207</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="15">
         <v>1</v>
       </c>
       <c r="F52" s="5">
@@ -3319,21 +3317,21 @@
       <c r="H52" s="5">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
+      <c r="I52" s="15">
+        <v>1</v>
+      </c>
+      <c r="J52" s="15">
         <v>60000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C53">
+    <row r="53" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="15">
         <v>10005207</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="15">
         <v>10005208</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="15">
         <v>1</v>
       </c>
       <c r="F53" s="5">
@@ -3345,21 +3343,21 @@
       <c r="H53" s="5">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
+      <c r="I53" s="15">
+        <v>1</v>
+      </c>
+      <c r="J53" s="15">
         <v>60000</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C54">
+    <row r="54" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="15">
         <v>10005208</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="15">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="15">
         <v>1</v>
       </c>
       <c r="F54" s="5">
@@ -3371,21 +3369,21 @@
       <c r="H54" s="5">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
+      <c r="I54" s="15">
+        <v>1</v>
+      </c>
+      <c r="J54" s="15">
         <v>60000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C55">
+    <row r="55" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="15">
         <v>20000001</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="15">
         <v>20000002</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="15">
         <v>1</v>
       </c>
       <c r="F55" s="5">
@@ -3397,21 +3395,21 @@
       <c r="H55" s="5">
         <v>1</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="15">
         <v>10010035</v>
       </c>
       <c r="J55" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C56">
+    <row r="56" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="15">
         <v>20000002</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="15">
         <v>20000003</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="15">
         <v>1</v>
       </c>
       <c r="F56" s="5">
@@ -3423,21 +3421,21 @@
       <c r="H56" s="5">
         <v>1</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="15">
         <v>10010035</v>
       </c>
       <c r="J56" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C57">
+    <row r="57" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="15">
         <v>20000003</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="15">
         <v>20000004</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="15">
         <v>1</v>
       </c>
       <c r="F57" s="5">
@@ -3449,21 +3447,21 @@
       <c r="H57" s="5">
         <v>1</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="15">
         <v>10010035</v>
       </c>
       <c r="J57" s="11">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C58">
+    <row r="58" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="15">
         <v>20000004</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="15">
         <v>20000005</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="15">
         <v>1</v>
       </c>
       <c r="F58" s="5">
@@ -3475,21 +3473,21 @@
       <c r="H58" s="5">
         <v>1</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="15">
         <v>10010035</v>
       </c>
       <c r="J58" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C59">
+    <row r="59" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="15">
         <v>20000005</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="15">
         <v>20000006</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="15">
         <v>1</v>
       </c>
       <c r="F59" s="5">
@@ -3501,21 +3499,21 @@
       <c r="H59" s="5">
         <v>1</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="15">
         <v>10010035</v>
       </c>
       <c r="J59" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C60">
+    <row r="60" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="15">
         <v>20000006</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="15">
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="15">
         <v>1</v>
       </c>
       <c r="F60" s="5">
@@ -3527,28 +3525,28 @@
       <c r="H60" s="5">
         <v>1</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="15">
         <v>10010035</v>
       </c>
       <c r="J60" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C61">
+    <row r="61" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="15">
         <v>30000001</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="15">
         <v>30000002</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="15">
         <v>1</v>
       </c>
       <c r="F61" s="5">
         <v>100</v>
       </c>
-      <c r="G61" s="9">
-        <v>10000144</v>
+      <c r="G61" s="13">
+        <v>10010083</v>
       </c>
       <c r="H61" s="5">
         <v>1</v>
@@ -3556,28 +3554,28 @@
       <c r="I61" s="9">
         <v>10000148</v>
       </c>
-      <c r="J61" s="11">
-        <v>15</v>
-      </c>
-      <c r="L61" s="12" t="s">
+      <c r="J61" s="14">
+        <v>5</v>
+      </c>
+      <c r="L61" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C62">
+    <row r="62" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="15">
         <v>30000002</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="15">
         <v>30000003</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="15">
         <v>1</v>
       </c>
       <c r="F62" s="5">
         <v>100</v>
       </c>
-      <c r="G62" s="9">
-        <v>10000145</v>
+      <c r="G62" s="13">
+        <v>10010045</v>
       </c>
       <c r="H62" s="5">
         <v>1</v>
@@ -3585,25 +3583,25 @@
       <c r="I62" s="9">
         <v>10000148</v>
       </c>
-      <c r="J62" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C63">
+      <c r="J62" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="15">
         <v>30000003</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="15">
         <v>30000004</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="15">
         <v>1</v>
       </c>
       <c r="F63" s="5">
         <v>100</v>
       </c>
-      <c r="G63" s="9">
-        <v>10000146</v>
+      <c r="G63" s="13">
+        <v>10000131</v>
       </c>
       <c r="H63" s="5">
         <v>1</v>
@@ -3611,25 +3609,25 @@
       <c r="I63" s="9">
         <v>10000148</v>
       </c>
-      <c r="J63" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C64">
+      <c r="J63" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="15">
         <v>30000004</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="15">
         <v>30000005</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="15">
         <v>1</v>
       </c>
       <c r="F64" s="5">
         <v>100</v>
       </c>
-      <c r="G64" s="9">
-        <v>10000147</v>
+      <c r="G64" s="18">
+        <v>10010098</v>
       </c>
       <c r="H64" s="5">
         <v>1</v>
@@ -3637,25 +3635,25 @@
       <c r="I64" s="9">
         <v>10000148</v>
       </c>
-      <c r="J64" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C65">
+      <c r="J64" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="15">
         <v>30000005</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="15">
         <v>30000006</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="15">
         <v>1</v>
       </c>
       <c r="F65" s="5">
         <v>100</v>
       </c>
-      <c r="G65" s="9">
-        <v>10010033</v>
+      <c r="G65" s="13">
+        <v>10000132</v>
       </c>
       <c r="H65" s="5">
         <v>1</v>
@@ -3663,25 +3661,25 @@
       <c r="I65" s="9">
         <v>10000148</v>
       </c>
-      <c r="J65" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C66">
+      <c r="J65" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="15">
         <v>30000006</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="15">
         <v>30000007</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="15">
         <v>1</v>
       </c>
       <c r="F66" s="5">
         <v>100</v>
       </c>
-      <c r="G66" s="9">
-        <v>10010083</v>
+      <c r="G66" s="13">
+        <v>10000144</v>
       </c>
       <c r="H66" s="5">
         <v>1</v>
@@ -3689,25 +3687,25 @@
       <c r="I66" s="9">
         <v>10000148</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C67">
+    <row r="67" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="15">
         <v>30000007</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="15">
         <v>30000008</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="15">
         <v>1</v>
       </c>
       <c r="F67" s="5">
         <v>100</v>
       </c>
-      <c r="G67" s="10">
-        <v>10010098</v>
+      <c r="G67" s="13">
+        <v>10000145</v>
       </c>
       <c r="H67" s="5">
         <v>1</v>
@@ -3715,25 +3713,25 @@
       <c r="I67" s="9">
         <v>10000148</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C68">
+    <row r="68" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="15">
         <v>30000008</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="15">
         <v>30000009</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="15">
         <v>1</v>
       </c>
       <c r="F68" s="5">
         <v>100</v>
       </c>
-      <c r="G68" s="9">
-        <v>10010085</v>
+      <c r="G68" s="13">
+        <v>10000146</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
@@ -3741,25 +3739,25 @@
       <c r="I68" s="9">
         <v>10000148</v>
       </c>
-      <c r="J68" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C69">
+      <c r="J68" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="15">
         <v>30000009</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="15">
         <v>30000010</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="15">
         <v>1</v>
       </c>
       <c r="F69" s="5">
         <v>100</v>
       </c>
-      <c r="G69" s="9">
-        <v>10000131</v>
+      <c r="G69" s="13">
+        <v>10000147</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -3767,25 +3765,25 @@
       <c r="I69" s="9">
         <v>10000148</v>
       </c>
-      <c r="J69" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C70">
+      <c r="J69" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="15">
         <v>30000010</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="15">
+        <v>30000011</v>
+      </c>
+      <c r="E70" s="15">
         <v>1</v>
       </c>
       <c r="F70" s="5">
         <v>100</v>
       </c>
-      <c r="G70" s="9">
-        <v>10000132</v>
+      <c r="G70" s="13">
+        <v>10000121</v>
       </c>
       <c r="H70" s="5">
         <v>1</v>
@@ -3793,405 +3791,836 @@
       <c r="I70" s="9">
         <v>10000148</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="15">
+        <v>30000011</v>
+      </c>
+      <c r="D71" s="15">
+        <v>30000012</v>
+      </c>
+      <c r="E71" s="15">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>100</v>
+      </c>
+      <c r="G71" s="13">
+        <v>10000122</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1</v>
+      </c>
+      <c r="I71" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J71" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="15">
+        <v>30000012</v>
+      </c>
+      <c r="D72" s="15">
+        <v>30000013</v>
+      </c>
+      <c r="E72" s="15">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>100</v>
+      </c>
+      <c r="G72" s="13">
+        <v>10000123</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J72" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="15">
+        <v>30000013</v>
+      </c>
+      <c r="D73" s="15">
+        <v>30000014</v>
+      </c>
+      <c r="E73" s="15">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>100</v>
+      </c>
+      <c r="G73" s="13">
+        <v>10000124</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J73" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="15">
+        <v>30000014</v>
+      </c>
+      <c r="D74" s="15">
+        <v>30000015</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5">
+        <v>100</v>
+      </c>
+      <c r="G74" s="13">
+        <v>10000125</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+      <c r="I74" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J74" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="15">
+        <v>30000015</v>
+      </c>
+      <c r="D75" s="15">
+        <v>30000016</v>
+      </c>
+      <c r="E75" s="15">
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>100</v>
+      </c>
+      <c r="G75" s="13">
+        <v>10010046</v>
+      </c>
+      <c r="H75" s="5">
+        <v>1</v>
+      </c>
+      <c r="I75" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J75" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="15">
+        <v>30000016</v>
+      </c>
+      <c r="D76" s="15">
+        <v>30000017</v>
+      </c>
+      <c r="E76" s="15">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>100</v>
+      </c>
+      <c r="G76" s="13">
+        <v>10010085</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1</v>
+      </c>
+      <c r="I76" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J76" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="15">
+        <v>30000017</v>
+      </c>
+      <c r="D77" s="15">
+        <v>30000018</v>
+      </c>
+      <c r="E77" s="15">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>100</v>
+      </c>
+      <c r="G77" s="19">
+        <v>10021008</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+      <c r="I77" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J77" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="15">
+        <v>30000018</v>
+      </c>
+      <c r="D78" s="15">
+        <v>30000019</v>
+      </c>
+      <c r="E78" s="15">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5">
+        <v>100</v>
+      </c>
+      <c r="G78" s="19">
+        <v>10021009</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+      <c r="I78" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J78" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="15">
+        <v>30000019</v>
+      </c>
+      <c r="D79" s="15">
+        <v>30000020</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>100</v>
+      </c>
+      <c r="G79" s="19">
+        <v>10022008</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="I79" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J79" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="15">
+        <v>30000020</v>
+      </c>
+      <c r="D80" s="15">
+        <v>30000021</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
+      <c r="F80" s="5">
+        <v>100</v>
+      </c>
+      <c r="G80" s="19">
+        <v>10022009</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+      <c r="I80" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J80" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="15">
+        <v>30000021</v>
+      </c>
+      <c r="D81" s="15">
+        <v>30000022</v>
+      </c>
+      <c r="E81" s="15">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>100</v>
+      </c>
+      <c r="G81" s="19">
+        <v>10023008</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J81" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="15">
+        <v>30000022</v>
+      </c>
+      <c r="D82" s="15">
+        <v>30000023</v>
+      </c>
+      <c r="E82" s="15">
+        <v>1</v>
+      </c>
+      <c r="F82" s="5">
+        <v>100</v>
+      </c>
+      <c r="G82" s="19">
+        <v>10023009</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+      <c r="I82" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J82" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="15">
+        <v>30000023</v>
+      </c>
+      <c r="D83" s="15">
+        <v>30000024</v>
+      </c>
+      <c r="E83" s="15">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>100</v>
+      </c>
+      <c r="G83" s="19">
+        <v>10024008</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1</v>
+      </c>
+      <c r="I83" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J83" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="15">
+        <v>30000024</v>
+      </c>
+      <c r="D84" s="15">
+        <v>30000025</v>
+      </c>
+      <c r="E84" s="15">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5">
+        <v>100</v>
+      </c>
+      <c r="G84" s="19">
+        <v>10024009</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+      <c r="I84" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J84" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="15">
+        <v>30000025</v>
+      </c>
+      <c r="D85" s="15">
+        <v>30000026</v>
+      </c>
+      <c r="E85" s="15">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
+        <v>100</v>
+      </c>
+      <c r="G85" s="19">
+        <v>10025008</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1</v>
+      </c>
+      <c r="I85" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J85" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="15">
+        <v>30000026</v>
+      </c>
+      <c r="D86" s="15">
+        <v>0</v>
+      </c>
+      <c r="E86" s="15">
+        <v>1</v>
+      </c>
+      <c r="F86" s="5">
+        <v>100</v>
+      </c>
+      <c r="G86" s="19">
+        <v>10025009</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1</v>
+      </c>
+      <c r="I86" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J86" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="15">
+        <v>40000001</v>
+      </c>
+      <c r="D87" s="15">
+        <v>40000002</v>
+      </c>
+      <c r="E87" s="15">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
+        <v>100</v>
+      </c>
+      <c r="G87" s="13">
+        <v>10000143</v>
+      </c>
+      <c r="H87" s="14">
+        <v>1</v>
+      </c>
+      <c r="I87" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J87" s="14">
+        <v>35</v>
+      </c>
+      <c r="L87" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="15">
+        <v>40000002</v>
+      </c>
+      <c r="D88" s="15">
+        <v>40000003</v>
+      </c>
+      <c r="E88" s="15">
+        <v>1</v>
+      </c>
+      <c r="F88" s="5">
+        <v>100</v>
+      </c>
+      <c r="G88" s="13">
+        <v>10010046</v>
+      </c>
+      <c r="H88" s="14">
+        <v>1</v>
+      </c>
+      <c r="I88" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J88" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="15">
+        <v>40000003</v>
+      </c>
+      <c r="D89" s="15">
+        <v>40000004</v>
+      </c>
+      <c r="E89" s="15">
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
+        <v>100</v>
+      </c>
+      <c r="G89" s="13">
+        <v>10000150</v>
+      </c>
+      <c r="H89" s="14">
+        <v>1</v>
+      </c>
+      <c r="I89" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J89" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="15">
+        <v>40000004</v>
+      </c>
+      <c r="D90" s="15">
+        <v>40000005</v>
+      </c>
+      <c r="E90" s="15">
+        <v>1</v>
+      </c>
+      <c r="F90" s="5">
+        <v>100</v>
+      </c>
+      <c r="G90" s="13">
+        <v>10010045</v>
+      </c>
+      <c r="H90" s="14">
+        <v>1</v>
+      </c>
+      <c r="I90" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J90" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="15">
+        <v>40000005</v>
+      </c>
+      <c r="D91" s="15">
+        <v>40000006</v>
+      </c>
+      <c r="E91" s="15">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
+        <v>100</v>
+      </c>
+      <c r="G91" s="13">
+        <v>10010083</v>
+      </c>
+      <c r="H91" s="14">
+        <v>1</v>
+      </c>
+      <c r="I91" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J91" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C71">
-        <v>40000001</v>
-      </c>
-      <c r="D71">
-        <v>40000002</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="5">
-        <v>100</v>
-      </c>
-      <c r="G71" s="16">
-        <v>10000143</v>
-      </c>
-      <c r="H71" s="17">
-        <v>1</v>
-      </c>
-      <c r="I71" s="16">
+    <row r="92" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="15">
+        <v>40000006</v>
+      </c>
+      <c r="D92" s="15">
+        <v>40000007</v>
+      </c>
+      <c r="E92" s="15">
+        <v>1</v>
+      </c>
+      <c r="F92" s="5">
+        <v>100</v>
+      </c>
+      <c r="G92" s="13">
+        <v>10010085</v>
+      </c>
+      <c r="H92" s="14">
+        <v>5</v>
+      </c>
+      <c r="I92" s="13">
         <v>10000149</v>
       </c>
-      <c r="J71" s="17">
-        <v>35</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C72">
-        <v>40000002</v>
-      </c>
-      <c r="D72">
-        <v>40000003</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" s="5">
-        <v>100</v>
-      </c>
-      <c r="G72" s="16">
-        <v>10010046</v>
-      </c>
-      <c r="H72" s="17">
-        <v>1</v>
-      </c>
-      <c r="I72" s="16">
+      <c r="J92" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="15">
+        <v>40000007</v>
+      </c>
+      <c r="D93" s="15">
+        <v>40000008</v>
+      </c>
+      <c r="E93" s="15">
+        <v>1</v>
+      </c>
+      <c r="F93" s="5">
+        <v>100</v>
+      </c>
+      <c r="G93" s="13">
+        <v>10000121</v>
+      </c>
+      <c r="H93" s="14">
+        <v>1</v>
+      </c>
+      <c r="I93" s="13">
         <v>10000149</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J93" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C73">
-        <v>40000003</v>
-      </c>
-      <c r="D73">
-        <v>40000004</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" s="5">
-        <v>100</v>
-      </c>
-      <c r="G73" s="16">
-        <v>10000150</v>
-      </c>
-      <c r="H73" s="17">
-        <v>1</v>
-      </c>
-      <c r="I73" s="16">
+    <row r="94" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="15">
+        <v>40000008</v>
+      </c>
+      <c r="D94" s="15">
+        <v>40000009</v>
+      </c>
+      <c r="E94" s="15">
+        <v>1</v>
+      </c>
+      <c r="F94" s="5">
+        <v>100</v>
+      </c>
+      <c r="G94" s="13">
+        <v>10000122</v>
+      </c>
+      <c r="H94" s="14">
+        <v>1</v>
+      </c>
+      <c r="I94" s="13">
         <v>10000149</v>
       </c>
-      <c r="J73" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C74">
-        <v>40000004</v>
-      </c>
-      <c r="D74">
-        <v>40000005</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" s="5">
-        <v>100</v>
-      </c>
-      <c r="G74" s="16">
-        <v>10010045</v>
-      </c>
-      <c r="H74" s="17">
-        <v>1</v>
-      </c>
-      <c r="I74" s="16">
+      <c r="J94" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="15">
+        <v>40000009</v>
+      </c>
+      <c r="D95" s="15">
+        <v>40000010</v>
+      </c>
+      <c r="E95" s="15">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5">
+        <v>100</v>
+      </c>
+      <c r="G95" s="13">
+        <v>10000123</v>
+      </c>
+      <c r="H95" s="14">
+        <v>1</v>
+      </c>
+      <c r="I95" s="13">
         <v>10000149</v>
       </c>
-      <c r="J74" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C75">
-        <v>40000005</v>
-      </c>
-      <c r="D75">
-        <v>40000006</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" s="5">
-        <v>100</v>
-      </c>
-      <c r="G75" s="16">
-        <v>10010083</v>
-      </c>
-      <c r="H75" s="17">
-        <v>1</v>
-      </c>
-      <c r="I75" s="16">
+      <c r="J95" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="15">
+        <v>40000010</v>
+      </c>
+      <c r="D96" s="15">
+        <v>40000011</v>
+      </c>
+      <c r="E96" s="15">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5">
+        <v>100</v>
+      </c>
+      <c r="G96" s="13">
+        <v>10000124</v>
+      </c>
+      <c r="H96" s="14">
+        <v>1</v>
+      </c>
+      <c r="I96" s="13">
         <v>10000149</v>
       </c>
-      <c r="J75" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C76">
-        <v>40000006</v>
-      </c>
-      <c r="D76">
-        <v>40000007</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" s="5">
-        <v>100</v>
-      </c>
-      <c r="G76" s="16">
-        <v>10010085</v>
-      </c>
-      <c r="H76" s="17">
-        <v>5</v>
-      </c>
-      <c r="I76" s="16">
+      <c r="J96" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="15">
+        <v>40000011</v>
+      </c>
+      <c r="D97" s="15">
+        <v>40000012</v>
+      </c>
+      <c r="E97" s="15">
+        <v>1</v>
+      </c>
+      <c r="F97" s="5">
+        <v>100</v>
+      </c>
+      <c r="G97" s="13">
+        <v>10000125</v>
+      </c>
+      <c r="H97" s="14">
+        <v>1</v>
+      </c>
+      <c r="I97" s="13">
         <v>10000149</v>
       </c>
-      <c r="J76" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C77">
-        <v>40000007</v>
-      </c>
-      <c r="D77">
-        <v>40000008</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" s="5">
-        <v>100</v>
-      </c>
-      <c r="G77" s="16">
-        <v>10000121</v>
-      </c>
-      <c r="H77" s="17">
-        <v>1</v>
-      </c>
-      <c r="I77" s="16">
+      <c r="J97" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="15">
+        <v>40000012</v>
+      </c>
+      <c r="D98" s="15">
+        <v>40000013</v>
+      </c>
+      <c r="E98" s="15">
+        <v>1</v>
+      </c>
+      <c r="F98" s="5">
+        <v>100</v>
+      </c>
+      <c r="G98" s="13">
+        <v>10000144</v>
+      </c>
+      <c r="H98" s="14">
+        <v>2</v>
+      </c>
+      <c r="I98" s="13">
         <v>10000149</v>
       </c>
-      <c r="J77" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C78">
-        <v>40000008</v>
-      </c>
-      <c r="D78">
-        <v>40000009</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" s="5">
-        <v>100</v>
-      </c>
-      <c r="G78" s="16">
-        <v>10000122</v>
-      </c>
-      <c r="H78" s="17">
-        <v>1</v>
-      </c>
-      <c r="I78" s="16">
+      <c r="J98" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="15">
+        <v>40000013</v>
+      </c>
+      <c r="D99" s="15">
+        <v>40000014</v>
+      </c>
+      <c r="E99" s="15">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>100</v>
+      </c>
+      <c r="G99" s="13">
+        <v>10000145</v>
+      </c>
+      <c r="H99" s="14">
+        <v>2</v>
+      </c>
+      <c r="I99" s="13">
         <v>10000149</v>
       </c>
-      <c r="J78" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C79">
-        <v>40000009</v>
-      </c>
-      <c r="D79">
-        <v>40000010</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" s="5">
-        <v>100</v>
-      </c>
-      <c r="G79" s="16">
-        <v>10000123</v>
-      </c>
-      <c r="H79" s="17">
-        <v>1</v>
-      </c>
-      <c r="I79" s="16">
+      <c r="J99" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="15">
+        <v>40000014</v>
+      </c>
+      <c r="D100" s="15">
+        <v>40000015</v>
+      </c>
+      <c r="E100" s="15">
+        <v>1</v>
+      </c>
+      <c r="F100" s="5">
+        <v>100</v>
+      </c>
+      <c r="G100" s="13">
+        <v>10000146</v>
+      </c>
+      <c r="H100" s="14">
+        <v>2</v>
+      </c>
+      <c r="I100" s="13">
         <v>10000149</v>
       </c>
-      <c r="J79" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C80">
-        <v>40000010</v>
-      </c>
-      <c r="D80">
-        <v>40000011</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" s="5">
-        <v>100</v>
-      </c>
-      <c r="G80" s="16">
-        <v>10000124</v>
-      </c>
-      <c r="H80" s="17">
-        <v>1</v>
-      </c>
-      <c r="I80" s="16">
+      <c r="J100" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="15">
+        <v>40000015</v>
+      </c>
+      <c r="D101" s="15">
+        <v>0</v>
+      </c>
+      <c r="E101" s="15">
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <v>100</v>
+      </c>
+      <c r="G101" s="13">
+        <v>10000147</v>
+      </c>
+      <c r="H101" s="14">
+        <v>2</v>
+      </c>
+      <c r="I101" s="13">
         <v>10000149</v>
       </c>
-      <c r="J80" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C81">
-        <v>40000011</v>
-      </c>
-      <c r="D81">
-        <v>40000012</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" s="5">
-        <v>100</v>
-      </c>
-      <c r="G81" s="16">
-        <v>10000125</v>
-      </c>
-      <c r="H81" s="17">
-        <v>1</v>
-      </c>
-      <c r="I81" s="16">
-        <v>10000149</v>
-      </c>
-      <c r="J81" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C82">
-        <v>40000012</v>
-      </c>
-      <c r="D82">
-        <v>40000013</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" s="5">
-        <v>100</v>
-      </c>
-      <c r="G82" s="16">
-        <v>10000144</v>
-      </c>
-      <c r="H82" s="17">
-        <v>2</v>
-      </c>
-      <c r="I82" s="16">
-        <v>10000149</v>
-      </c>
-      <c r="J82" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C83">
-        <v>40000013</v>
-      </c>
-      <c r="D83">
-        <v>40000014</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" s="5">
-        <v>100</v>
-      </c>
-      <c r="G83" s="16">
-        <v>10000145</v>
-      </c>
-      <c r="H83" s="17">
-        <v>2</v>
-      </c>
-      <c r="I83" s="16">
-        <v>10000149</v>
-      </c>
-      <c r="J83" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C84">
-        <v>40000014</v>
-      </c>
-      <c r="D84">
-        <v>40000015</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" s="5">
-        <v>100</v>
-      </c>
-      <c r="G84" s="16">
-        <v>10000146</v>
-      </c>
-      <c r="H84" s="17">
-        <v>2</v>
-      </c>
-      <c r="I84" s="16">
-        <v>10000149</v>
-      </c>
-      <c r="J84" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C85">
-        <v>40000015</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" s="5">
-        <v>100</v>
-      </c>
-      <c r="G85" s="16">
-        <v>10000147</v>
-      </c>
-      <c r="H85" s="17">
-        <v>2</v>
-      </c>
-      <c r="I85" s="16">
-        <v>10000149</v>
-      </c>
-      <c r="J85" s="17">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="J101" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F1D32B-D639-4600-AB30-300BBCDED4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C683C10A-A704-4F24-B166-B29D1805716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -82,12 +82,16 @@
     <t>友爱商店</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>战场商店1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +102,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -105,12 +110,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -118,6 +125,7 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -131,12 +139,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -144,12 +154,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -186,8 +198,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +327,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -373,6 +398,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1306,7 +1344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1361,6 +1399,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2006,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O116"/>
+  <dimension ref="C1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3389,17 +3430,20 @@
       <c r="F55" s="5">
         <v>100</v>
       </c>
-      <c r="G55" s="9">
-        <v>10000141</v>
+      <c r="G55" s="13">
+        <v>10010083</v>
       </c>
       <c r="H55" s="5">
         <v>1</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="9">
         <v>10010035</v>
       </c>
-      <c r="J55" s="11">
-        <v>75</v>
+      <c r="J55" s="14">
+        <v>5</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3415,17 +3459,17 @@
       <c r="F56" s="5">
         <v>100</v>
       </c>
-      <c r="G56" s="9">
-        <v>10000142</v>
+      <c r="G56" s="13">
+        <v>10010045</v>
       </c>
       <c r="H56" s="5">
         <v>1</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="9">
         <v>10010035</v>
       </c>
-      <c r="J56" s="11">
-        <v>50</v>
+      <c r="J56" s="14">
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3441,17 +3485,17 @@
       <c r="F57" s="5">
         <v>100</v>
       </c>
-      <c r="G57" s="9">
-        <v>10010045</v>
+      <c r="G57" s="13">
+        <v>10000131</v>
       </c>
       <c r="H57" s="5">
         <v>1</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="9">
         <v>10010035</v>
       </c>
-      <c r="J57" s="11">
-        <v>500</v>
+      <c r="J57" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3467,17 +3511,17 @@
       <c r="F58" s="5">
         <v>100</v>
       </c>
-      <c r="G58" s="9">
-        <v>10010086</v>
+      <c r="G58" s="18">
+        <v>10010098</v>
       </c>
       <c r="H58" s="5">
         <v>1</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="9">
         <v>10010035</v>
       </c>
-      <c r="J58" s="11">
-        <v>50</v>
+      <c r="J58" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3493,17 +3537,17 @@
       <c r="F59" s="5">
         <v>100</v>
       </c>
-      <c r="G59" s="10">
-        <v>10010098</v>
+      <c r="G59" s="13">
+        <v>10000132</v>
       </c>
       <c r="H59" s="5">
         <v>1</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="9">
         <v>10010035</v>
       </c>
-      <c r="J59" s="11">
-        <v>10</v>
+      <c r="J59" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3511,7 +3555,7 @@
         <v>20000006</v>
       </c>
       <c r="D60" s="15">
-        <v>0</v>
+        <v>20000007</v>
       </c>
       <c r="E60" s="15">
         <v>1</v>
@@ -3519,25 +3563,25 @@
       <c r="F60" s="5">
         <v>100</v>
       </c>
-      <c r="G60" s="9">
-        <v>10000132</v>
+      <c r="G60" s="13">
+        <v>10000144</v>
       </c>
       <c r="H60" s="5">
         <v>1</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="9">
         <v>10010035</v>
       </c>
-      <c r="J60" s="11">
-        <v>10</v>
+      <c r="J60" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="15">
-        <v>30000001</v>
+        <v>20000007</v>
       </c>
       <c r="D61" s="15">
-        <v>30000002</v>
+        <v>20000008</v>
       </c>
       <c r="E61" s="15">
         <v>1</v>
@@ -3546,27 +3590,24 @@
         <v>100</v>
       </c>
       <c r="G61" s="13">
-        <v>10010083</v>
+        <v>10000145</v>
       </c>
       <c r="H61" s="5">
         <v>1</v>
       </c>
       <c r="I61" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J61" s="14">
         <v>5</v>
       </c>
-      <c r="L61" s="16" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="62" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="15">
-        <v>30000002</v>
+        <v>20000008</v>
       </c>
       <c r="D62" s="15">
-        <v>30000003</v>
+        <v>20000009</v>
       </c>
       <c r="E62" s="15">
         <v>1</v>
@@ -3575,24 +3616,24 @@
         <v>100</v>
       </c>
       <c r="G62" s="13">
-        <v>10010045</v>
+        <v>10000146</v>
       </c>
       <c r="H62" s="5">
         <v>1</v>
       </c>
       <c r="I62" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J62" s="14">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="15">
-        <v>30000003</v>
+        <v>20000009</v>
       </c>
       <c r="D63" s="15">
-        <v>30000004</v>
+        <v>20000010</v>
       </c>
       <c r="E63" s="15">
         <v>1</v>
@@ -3601,24 +3642,24 @@
         <v>100</v>
       </c>
       <c r="G63" s="13">
-        <v>10000131</v>
+        <v>10000147</v>
       </c>
       <c r="H63" s="5">
         <v>1</v>
       </c>
       <c r="I63" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J63" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="15">
-        <v>30000004</v>
+        <v>20000010</v>
       </c>
       <c r="D64" s="15">
-        <v>30000005</v>
+        <v>20000011</v>
       </c>
       <c r="E64" s="15">
         <v>1</v>
@@ -3626,25 +3667,25 @@
       <c r="F64" s="5">
         <v>100</v>
       </c>
-      <c r="G64" s="18">
-        <v>10010098</v>
+      <c r="G64" s="13">
+        <v>10000121</v>
       </c>
       <c r="H64" s="5">
         <v>1</v>
       </c>
       <c r="I64" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J64" s="14">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="15">
-        <v>30000005</v>
+        <v>20000011</v>
       </c>
       <c r="D65" s="15">
-        <v>30000006</v>
+        <v>20000012</v>
       </c>
       <c r="E65" s="15">
         <v>1</v>
@@ -3653,24 +3694,24 @@
         <v>100</v>
       </c>
       <c r="G65" s="13">
-        <v>10000132</v>
+        <v>10000122</v>
       </c>
       <c r="H65" s="5">
         <v>1</v>
       </c>
       <c r="I65" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J65" s="14">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="15">
-        <v>30000006</v>
+        <v>20000012</v>
       </c>
       <c r="D66" s="15">
-        <v>30000007</v>
+        <v>20000013</v>
       </c>
       <c r="E66" s="15">
         <v>1</v>
@@ -3679,24 +3720,24 @@
         <v>100</v>
       </c>
       <c r="G66" s="13">
-        <v>10000144</v>
+        <v>10000123</v>
       </c>
       <c r="H66" s="5">
         <v>1</v>
       </c>
       <c r="I66" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J66" s="14">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="15">
-        <v>30000007</v>
+        <v>20000013</v>
       </c>
       <c r="D67" s="15">
-        <v>30000008</v>
+        <v>20000014</v>
       </c>
       <c r="E67" s="15">
         <v>1</v>
@@ -3705,24 +3746,24 @@
         <v>100</v>
       </c>
       <c r="G67" s="13">
-        <v>10000145</v>
+        <v>10000124</v>
       </c>
       <c r="H67" s="5">
         <v>1</v>
       </c>
       <c r="I67" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J67" s="14">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="15">
-        <v>30000008</v>
+        <v>20000014</v>
       </c>
       <c r="D68" s="15">
-        <v>30000009</v>
+        <v>20000015</v>
       </c>
       <c r="E68" s="15">
         <v>1</v>
@@ -3731,24 +3772,24 @@
         <v>100</v>
       </c>
       <c r="G68" s="13">
-        <v>10000146</v>
+        <v>10000125</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
       </c>
       <c r="I68" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J68" s="14">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="15">
-        <v>30000009</v>
+        <v>20000015</v>
       </c>
       <c r="D69" s="15">
-        <v>30000010</v>
+        <v>20000016</v>
       </c>
       <c r="E69" s="15">
         <v>1</v>
@@ -3757,24 +3798,24 @@
         <v>100</v>
       </c>
       <c r="G69" s="13">
-        <v>10000147</v>
+        <v>10010046</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
       </c>
       <c r="I69" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J69" s="14">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="15">
-        <v>30000010</v>
+        <v>20000016</v>
       </c>
       <c r="D70" s="15">
-        <v>30000011</v>
+        <v>20000017</v>
       </c>
       <c r="E70" s="15">
         <v>1</v>
@@ -3783,24 +3824,24 @@
         <v>100</v>
       </c>
       <c r="G70" s="13">
-        <v>10000121</v>
+        <v>10010085</v>
       </c>
       <c r="H70" s="5">
         <v>1</v>
       </c>
       <c r="I70" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J70" s="14">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="15">
-        <v>30000011</v>
+        <v>20000017</v>
       </c>
       <c r="D71" s="15">
-        <v>30000012</v>
+        <v>20000018</v>
       </c>
       <c r="E71" s="15">
         <v>1</v>
@@ -3808,25 +3849,25 @@
       <c r="F71" s="5">
         <v>100</v>
       </c>
-      <c r="G71" s="13">
-        <v>10000122</v>
+      <c r="G71" s="19">
+        <v>10021008</v>
       </c>
       <c r="H71" s="5">
         <v>1</v>
       </c>
       <c r="I71" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J71" s="14">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="15">
-        <v>30000012</v>
+        <v>20000018</v>
       </c>
       <c r="D72" s="15">
-        <v>30000013</v>
+        <v>20000019</v>
       </c>
       <c r="E72" s="15">
         <v>1</v>
@@ -3834,25 +3875,25 @@
       <c r="F72" s="5">
         <v>100</v>
       </c>
-      <c r="G72" s="13">
-        <v>10000123</v>
+      <c r="G72" s="19">
+        <v>10021009</v>
       </c>
       <c r="H72" s="5">
         <v>1</v>
       </c>
       <c r="I72" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J72" s="14">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="15">
-        <v>30000013</v>
+        <v>20000019</v>
       </c>
       <c r="D73" s="15">
-        <v>30000014</v>
+        <v>20000020</v>
       </c>
       <c r="E73" s="15">
         <v>1</v>
@@ -3860,25 +3901,25 @@
       <c r="F73" s="5">
         <v>100</v>
       </c>
-      <c r="G73" s="13">
-        <v>10000124</v>
+      <c r="G73" s="19">
+        <v>10022008</v>
       </c>
       <c r="H73" s="5">
         <v>1</v>
       </c>
       <c r="I73" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J73" s="14">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="15">
-        <v>30000014</v>
+        <v>20000020</v>
       </c>
       <c r="D74" s="15">
-        <v>30000015</v>
+        <v>20000021</v>
       </c>
       <c r="E74" s="15">
         <v>1</v>
@@ -3886,25 +3927,25 @@
       <c r="F74" s="5">
         <v>100</v>
       </c>
-      <c r="G74" s="13">
-        <v>10000125</v>
+      <c r="G74" s="19">
+        <v>10022009</v>
       </c>
       <c r="H74" s="5">
         <v>1</v>
       </c>
       <c r="I74" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J74" s="14">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="15">
-        <v>30000015</v>
+        <v>20000021</v>
       </c>
       <c r="D75" s="15">
-        <v>30000016</v>
+        <v>20000022</v>
       </c>
       <c r="E75" s="15">
         <v>1</v>
@@ -3912,25 +3953,25 @@
       <c r="F75" s="5">
         <v>100</v>
       </c>
-      <c r="G75" s="13">
-        <v>10010046</v>
+      <c r="G75" s="19">
+        <v>10023008</v>
       </c>
       <c r="H75" s="5">
         <v>1</v>
       </c>
       <c r="I75" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J75" s="14">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="15">
-        <v>30000016</v>
+        <v>20000022</v>
       </c>
       <c r="D76" s="15">
-        <v>30000017</v>
+        <v>20000023</v>
       </c>
       <c r="E76" s="15">
         <v>1</v>
@@ -3938,25 +3979,25 @@
       <c r="F76" s="5">
         <v>100</v>
       </c>
-      <c r="G76" s="13">
-        <v>10010085</v>
+      <c r="G76" s="19">
+        <v>10023009</v>
       </c>
       <c r="H76" s="5">
         <v>1</v>
       </c>
       <c r="I76" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J76" s="14">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="15">
-        <v>30000017</v>
+        <v>20000023</v>
       </c>
       <c r="D77" s="15">
-        <v>30000018</v>
+        <v>20000024</v>
       </c>
       <c r="E77" s="15">
         <v>1</v>
@@ -3965,13 +4006,13 @@
         <v>100</v>
       </c>
       <c r="G77" s="19">
-        <v>10021008</v>
+        <v>10024008</v>
       </c>
       <c r="H77" s="5">
         <v>1</v>
       </c>
       <c r="I77" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J77" s="14">
         <v>15</v>
@@ -3979,10 +4020,10 @@
     </row>
     <row r="78" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="15">
-        <v>30000018</v>
+        <v>20000024</v>
       </c>
       <c r="D78" s="15">
-        <v>30000019</v>
+        <v>20000025</v>
       </c>
       <c r="E78" s="15">
         <v>1</v>
@@ -3991,13 +4032,13 @@
         <v>100</v>
       </c>
       <c r="G78" s="19">
-        <v>10021009</v>
+        <v>10024009</v>
       </c>
       <c r="H78" s="5">
         <v>1</v>
       </c>
       <c r="I78" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J78" s="14">
         <v>45</v>
@@ -4005,10 +4046,10 @@
     </row>
     <row r="79" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="15">
-        <v>30000019</v>
+        <v>20000025</v>
       </c>
       <c r="D79" s="15">
-        <v>30000020</v>
+        <v>20000026</v>
       </c>
       <c r="E79" s="15">
         <v>1</v>
@@ -4017,13 +4058,13 @@
         <v>100</v>
       </c>
       <c r="G79" s="19">
-        <v>10022008</v>
+        <v>10025008</v>
       </c>
       <c r="H79" s="5">
         <v>1</v>
       </c>
       <c r="I79" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J79" s="14">
         <v>15</v>
@@ -4031,10 +4072,10 @@
     </row>
     <row r="80" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="15">
-        <v>30000020</v>
+        <v>20000026</v>
       </c>
       <c r="D80" s="15">
-        <v>30000021</v>
+        <v>0</v>
       </c>
       <c r="E80" s="15">
         <v>1</v>
@@ -4043,24 +4084,24 @@
         <v>100</v>
       </c>
       <c r="G80" s="19">
-        <v>10022009</v>
+        <v>10025009</v>
       </c>
       <c r="H80" s="5">
         <v>1</v>
       </c>
       <c r="I80" s="9">
-        <v>10000148</v>
+        <v>10010035</v>
       </c>
       <c r="J80" s="14">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C81" s="15">
-        <v>30000021</v>
+        <v>30000001</v>
       </c>
       <c r="D81" s="15">
-        <v>30000022</v>
+        <v>30000002</v>
       </c>
       <c r="E81" s="15">
         <v>1</v>
@@ -4068,8 +4109,8 @@
       <c r="F81" s="5">
         <v>100</v>
       </c>
-      <c r="G81" s="19">
-        <v>10023008</v>
+      <c r="G81" s="9">
+        <v>10000144</v>
       </c>
       <c r="H81" s="5">
         <v>1</v>
@@ -4077,16 +4118,19 @@
       <c r="I81" s="9">
         <v>10000148</v>
       </c>
-      <c r="J81" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J81" s="11">
+        <v>10</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C82" s="15">
-        <v>30000022</v>
+        <v>30000002</v>
       </c>
       <c r="D82" s="15">
-        <v>30000023</v>
+        <v>30000003</v>
       </c>
       <c r="E82" s="15">
         <v>1</v>
@@ -4094,8 +4138,8 @@
       <c r="F82" s="5">
         <v>100</v>
       </c>
-      <c r="G82" s="19">
-        <v>10023009</v>
+      <c r="G82" s="9">
+        <v>10000145</v>
       </c>
       <c r="H82" s="5">
         <v>1</v>
@@ -4103,16 +4147,16 @@
       <c r="I82" s="9">
         <v>10000148</v>
       </c>
-      <c r="J82" s="14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C83" s="15">
-        <v>30000023</v>
+        <v>30000003</v>
       </c>
       <c r="D83" s="15">
-        <v>30000024</v>
+        <v>30000004</v>
       </c>
       <c r="E83" s="15">
         <v>1</v>
@@ -4120,8 +4164,8 @@
       <c r="F83" s="5">
         <v>100</v>
       </c>
-      <c r="G83" s="19">
-        <v>10024008</v>
+      <c r="G83" s="9">
+        <v>10000146</v>
       </c>
       <c r="H83" s="5">
         <v>1</v>
@@ -4129,16 +4173,16 @@
       <c r="I83" s="9">
         <v>10000148</v>
       </c>
-      <c r="J83" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J83" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C84" s="15">
-        <v>30000024</v>
+        <v>30000004</v>
       </c>
       <c r="D84" s="15">
-        <v>30000025</v>
+        <v>30000005</v>
       </c>
       <c r="E84" s="15">
         <v>1</v>
@@ -4146,8 +4190,8 @@
       <c r="F84" s="5">
         <v>100</v>
       </c>
-      <c r="G84" s="19">
-        <v>10024009</v>
+      <c r="G84" s="9">
+        <v>10000147</v>
       </c>
       <c r="H84" s="5">
         <v>1</v>
@@ -4155,16 +4199,16 @@
       <c r="I84" s="9">
         <v>10000148</v>
       </c>
-      <c r="J84" s="14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C85" s="15">
-        <v>30000025</v>
+        <v>30000005</v>
       </c>
       <c r="D85" s="15">
-        <v>30000026</v>
+        <v>30000006</v>
       </c>
       <c r="E85" s="15">
         <v>1</v>
@@ -4172,8 +4216,8 @@
       <c r="F85" s="5">
         <v>100</v>
       </c>
-      <c r="G85" s="19">
-        <v>10025008</v>
+      <c r="G85" s="9">
+        <v>10010033</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -4181,16 +4225,16 @@
       <c r="I85" s="9">
         <v>10000148</v>
       </c>
-      <c r="J85" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C86" s="15">
-        <v>30000026</v>
+        <v>30000006</v>
       </c>
       <c r="D86" s="15">
-        <v>0</v>
+        <v>30000007</v>
       </c>
       <c r="E86" s="15">
         <v>1</v>
@@ -4198,8 +4242,8 @@
       <c r="F86" s="5">
         <v>100</v>
       </c>
-      <c r="G86" s="19">
-        <v>10025009</v>
+      <c r="G86" s="9">
+        <v>10010083</v>
       </c>
       <c r="H86" s="5">
         <v>1</v>
@@ -4207,16 +4251,16 @@
       <c r="I86" s="9">
         <v>10000148</v>
       </c>
-      <c r="J86" s="14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C87" s="15">
-        <v>40000001</v>
+        <v>30000007</v>
       </c>
       <c r="D87" s="15">
-        <v>40000002</v>
+        <v>30000008</v>
       </c>
       <c r="E87" s="15">
         <v>1</v>
@@ -4224,28 +4268,25 @@
       <c r="F87" s="5">
         <v>100</v>
       </c>
-      <c r="G87" s="13">
-        <v>10000143</v>
-      </c>
-      <c r="H87" s="14">
-        <v>1</v>
-      </c>
-      <c r="I87" s="13">
-        <v>10000149</v>
-      </c>
-      <c r="J87" s="14">
-        <v>35</v>
-      </c>
-      <c r="L87" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G87" s="10">
+        <v>10010098</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1</v>
+      </c>
+      <c r="I87" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J87" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C88" s="15">
-        <v>40000002</v>
+        <v>30000008</v>
       </c>
       <c r="D88" s="15">
-        <v>40000003</v>
+        <v>30000009</v>
       </c>
       <c r="E88" s="15">
         <v>1</v>
@@ -4253,25 +4294,25 @@
       <c r="F88" s="5">
         <v>100</v>
       </c>
-      <c r="G88" s="13">
-        <v>10010046</v>
-      </c>
-      <c r="H88" s="14">
-        <v>1</v>
-      </c>
-      <c r="I88" s="13">
-        <v>10000149</v>
-      </c>
-      <c r="J88" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G88" s="9">
+        <v>10010085</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1</v>
+      </c>
+      <c r="I88" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J88" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C89" s="15">
-        <v>40000003</v>
+        <v>30000009</v>
       </c>
       <c r="D89" s="15">
-        <v>40000004</v>
+        <v>30000010</v>
       </c>
       <c r="E89" s="15">
         <v>1</v>
@@ -4279,25 +4320,25 @@
       <c r="F89" s="5">
         <v>100</v>
       </c>
-      <c r="G89" s="13">
-        <v>10000150</v>
-      </c>
-      <c r="H89" s="14">
-        <v>1</v>
-      </c>
-      <c r="I89" s="13">
-        <v>10000149</v>
-      </c>
-      <c r="J89" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G89" s="9">
+        <v>10000131</v>
+      </c>
+      <c r="H89" s="5">
+        <v>1</v>
+      </c>
+      <c r="I89" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J89" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C90" s="15">
-        <v>40000004</v>
+        <v>30000010</v>
       </c>
       <c r="D90" s="15">
-        <v>40000005</v>
+        <v>0</v>
       </c>
       <c r="E90" s="15">
         <v>1</v>
@@ -4305,25 +4346,25 @@
       <c r="F90" s="5">
         <v>100</v>
       </c>
-      <c r="G90" s="13">
-        <v>10010045</v>
-      </c>
-      <c r="H90" s="14">
-        <v>1</v>
-      </c>
-      <c r="I90" s="13">
-        <v>10000149</v>
-      </c>
-      <c r="J90" s="14">
-        <v>100</v>
+      <c r="G90" s="9">
+        <v>10000132</v>
+      </c>
+      <c r="H90" s="5">
+        <v>1</v>
+      </c>
+      <c r="I90" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J90" s="20">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="15">
-        <v>40000005</v>
+        <v>40000001</v>
       </c>
       <c r="D91" s="15">
-        <v>40000006</v>
+        <v>40000002</v>
       </c>
       <c r="E91" s="15">
         <v>1</v>
@@ -4332,7 +4373,7 @@
         <v>100</v>
       </c>
       <c r="G91" s="13">
-        <v>10010083</v>
+        <v>10000143</v>
       </c>
       <c r="H91" s="14">
         <v>1</v>
@@ -4341,15 +4382,18 @@
         <v>10000149</v>
       </c>
       <c r="J91" s="14">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="L91" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="15">
-        <v>40000006</v>
+        <v>40000002</v>
       </c>
       <c r="D92" s="15">
-        <v>40000007</v>
+        <v>40000003</v>
       </c>
       <c r="E92" s="15">
         <v>1</v>
@@ -4358,24 +4402,24 @@
         <v>100</v>
       </c>
       <c r="G92" s="13">
-        <v>10010085</v>
+        <v>10010046</v>
       </c>
       <c r="H92" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I92" s="13">
         <v>10000149</v>
       </c>
       <c r="J92" s="14">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="15">
-        <v>40000007</v>
+        <v>40000003</v>
       </c>
       <c r="D93" s="15">
-        <v>40000008</v>
+        <v>40000004</v>
       </c>
       <c r="E93" s="15">
         <v>1</v>
@@ -4384,7 +4428,7 @@
         <v>100</v>
       </c>
       <c r="G93" s="13">
-        <v>10000121</v>
+        <v>10000150</v>
       </c>
       <c r="H93" s="14">
         <v>1</v>
@@ -4393,15 +4437,15 @@
         <v>10000149</v>
       </c>
       <c r="J93" s="14">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="15">
-        <v>40000008</v>
+        <v>40000004</v>
       </c>
       <c r="D94" s="15">
-        <v>40000009</v>
+        <v>40000005</v>
       </c>
       <c r="E94" s="15">
         <v>1</v>
@@ -4410,7 +4454,7 @@
         <v>100</v>
       </c>
       <c r="G94" s="13">
-        <v>10000122</v>
+        <v>10010045</v>
       </c>
       <c r="H94" s="14">
         <v>1</v>
@@ -4419,15 +4463,15 @@
         <v>10000149</v>
       </c>
       <c r="J94" s="14">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="15">
-        <v>40000009</v>
+        <v>40000005</v>
       </c>
       <c r="D95" s="15">
-        <v>40000010</v>
+        <v>40000006</v>
       </c>
       <c r="E95" s="15">
         <v>1</v>
@@ -4436,7 +4480,7 @@
         <v>100</v>
       </c>
       <c r="G95" s="13">
-        <v>10000123</v>
+        <v>10010083</v>
       </c>
       <c r="H95" s="14">
         <v>1</v>
@@ -4445,15 +4489,15 @@
         <v>10000149</v>
       </c>
       <c r="J95" s="14">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="15">
-        <v>40000010</v>
+        <v>40000006</v>
       </c>
       <c r="D96" s="15">
-        <v>40000011</v>
+        <v>40000007</v>
       </c>
       <c r="E96" s="15">
         <v>1</v>
@@ -4462,24 +4506,24 @@
         <v>100</v>
       </c>
       <c r="G96" s="13">
-        <v>10000124</v>
+        <v>10010085</v>
       </c>
       <c r="H96" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96" s="13">
         <v>10000149</v>
       </c>
       <c r="J96" s="14">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="15">
-        <v>40000011</v>
+        <v>40000007</v>
       </c>
       <c r="D97" s="15">
-        <v>40000012</v>
+        <v>40000008</v>
       </c>
       <c r="E97" s="15">
         <v>1</v>
@@ -4488,7 +4532,7 @@
         <v>100</v>
       </c>
       <c r="G97" s="13">
-        <v>10000125</v>
+        <v>10000121</v>
       </c>
       <c r="H97" s="14">
         <v>1</v>
@@ -4502,10 +4546,10 @@
     </row>
     <row r="98" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="15">
-        <v>40000012</v>
+        <v>40000008</v>
       </c>
       <c r="D98" s="15">
-        <v>40000013</v>
+        <v>40000009</v>
       </c>
       <c r="E98" s="15">
         <v>1</v>
@@ -4514,24 +4558,24 @@
         <v>100</v>
       </c>
       <c r="G98" s="13">
-        <v>10000144</v>
+        <v>10000122</v>
       </c>
       <c r="H98" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" s="13">
         <v>10000149</v>
       </c>
       <c r="J98" s="14">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="15">
-        <v>40000013</v>
+        <v>40000009</v>
       </c>
       <c r="D99" s="15">
-        <v>40000014</v>
+        <v>40000010</v>
       </c>
       <c r="E99" s="15">
         <v>1</v>
@@ -4540,24 +4584,24 @@
         <v>100</v>
       </c>
       <c r="G99" s="13">
-        <v>10000145</v>
+        <v>10000123</v>
       </c>
       <c r="H99" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" s="13">
         <v>10000149</v>
       </c>
       <c r="J99" s="14">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="15">
-        <v>40000014</v>
+        <v>40000010</v>
       </c>
       <c r="D100" s="15">
-        <v>40000015</v>
+        <v>40000011</v>
       </c>
       <c r="E100" s="15">
         <v>1</v>
@@ -4566,24 +4610,24 @@
         <v>100</v>
       </c>
       <c r="G100" s="13">
-        <v>10000146</v>
+        <v>10000124</v>
       </c>
       <c r="H100" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" s="13">
         <v>10000149</v>
       </c>
       <c r="J100" s="14">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="15">
-        <v>40000015</v>
+        <v>40000011</v>
       </c>
       <c r="D101" s="15">
-        <v>0</v>
+        <v>40000012</v>
       </c>
       <c r="E101" s="15">
         <v>1</v>
@@ -4592,22 +4636,122 @@
         <v>100</v>
       </c>
       <c r="G101" s="13">
-        <v>10000147</v>
+        <v>10000125</v>
       </c>
       <c r="H101" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" s="13">
         <v>10000149</v>
       </c>
       <c r="J101" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="15">
+        <v>40000012</v>
+      </c>
+      <c r="D102" s="15">
+        <v>40000013</v>
+      </c>
+      <c r="E102" s="15">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5">
+        <v>100</v>
+      </c>
+      <c r="G102" s="13">
+        <v>10000144</v>
+      </c>
+      <c r="H102" s="14">
+        <v>2</v>
+      </c>
+      <c r="I102" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J102" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="15">
+        <v>40000013</v>
+      </c>
+      <c r="D103" s="15">
+        <v>40000014</v>
+      </c>
+      <c r="E103" s="15">
+        <v>1</v>
+      </c>
+      <c r="F103" s="5">
+        <v>100</v>
+      </c>
+      <c r="G103" s="13">
+        <v>10000145</v>
+      </c>
+      <c r="H103" s="14">
+        <v>2</v>
+      </c>
+      <c r="I103" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J103" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="15">
+        <v>40000014</v>
+      </c>
+      <c r="D104" s="15">
+        <v>40000015</v>
+      </c>
+      <c r="E104" s="15">
+        <v>1</v>
+      </c>
+      <c r="F104" s="5">
+        <v>100</v>
+      </c>
+      <c r="G104" s="13">
+        <v>10000146</v>
+      </c>
+      <c r="H104" s="14">
+        <v>2</v>
+      </c>
+      <c r="I104" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J104" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="15">
+        <v>40000015</v>
+      </c>
+      <c r="D105" s="15">
+        <v>0</v>
+      </c>
+      <c r="E105" s="15">
+        <v>1</v>
+      </c>
+      <c r="F105" s="5">
+        <v>100</v>
+      </c>
+      <c r="G105" s="13">
+        <v>10000147</v>
+      </c>
+      <c r="H105" s="14">
+        <v>2</v>
+      </c>
+      <c r="I105" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J105" s="14">
+        <v>1</v>
+      </c>
+    </row>
     <row r="106" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="108" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4619,6 +4763,10 @@
     <row r="114" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="116" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C683C10A-A704-4F24-B166-B29D1805716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA478EB6-1035-4C25-AB84-1C23CA1BA5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA478EB6-1035-4C25-AB84-1C23CA1BA5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D748FF3C-6471-429B-86B2-30F336380CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -84,6 +84,25 @@
   </si>
   <si>
     <t>战场商店1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐骑:麋鹿之春</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐骑:守护牦牛</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>称号:绝世英豪</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>称号:名震八方</t>
+  </si>
+  <si>
+    <t>史诗宝石箱子</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +225,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +352,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14957121494186223"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -411,6 +436,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1344,7 +1382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1402,6 +1440,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2047,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O120"/>
+  <dimension ref="C1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="N93" sqref="N93"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2059,6 +2100,7 @@
     <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="8" width="17.875" customWidth="1"/>
     <col min="9" max="10" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4075,7 +4117,7 @@
         <v>20000026</v>
       </c>
       <c r="D80" s="15">
-        <v>0</v>
+        <v>20000027</v>
       </c>
       <c r="E80" s="15">
         <v>1</v>
@@ -4096,76 +4138,73 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="15">
+        <v>20000027</v>
+      </c>
+      <c r="D81" s="15">
+        <v>20000028</v>
+      </c>
+      <c r="E81" s="15">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>100</v>
+      </c>
+      <c r="G81" s="19">
+        <v>10000105</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J81" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="15">
+        <v>20000028</v>
+      </c>
+      <c r="D82" s="15">
+        <v>0</v>
+      </c>
+      <c r="E82" s="15">
+        <v>1</v>
+      </c>
+      <c r="F82" s="5">
+        <v>100</v>
+      </c>
+      <c r="G82" s="9">
+        <v>10010052</v>
+      </c>
+      <c r="H82" s="15">
+        <v>1</v>
+      </c>
+      <c r="I82" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J82" s="14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="15">
         <v>30000001</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D83" s="15">
         <v>30000002</v>
       </c>
-      <c r="E81" s="15">
-        <v>1</v>
-      </c>
-      <c r="F81" s="5">
-        <v>100</v>
-      </c>
-      <c r="G81" s="9">
+      <c r="E83" s="15">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>100</v>
+      </c>
+      <c r="G83" s="9">
         <v>10000144</v>
-      </c>
-      <c r="H81" s="5">
-        <v>1</v>
-      </c>
-      <c r="I81" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J81" s="11">
-        <v>10</v>
-      </c>
-      <c r="L81" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="15">
-        <v>30000002</v>
-      </c>
-      <c r="D82" s="15">
-        <v>30000003</v>
-      </c>
-      <c r="E82" s="15">
-        <v>1</v>
-      </c>
-      <c r="F82" s="5">
-        <v>100</v>
-      </c>
-      <c r="G82" s="9">
-        <v>10000145</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1</v>
-      </c>
-      <c r="I82" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J82" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="15">
-        <v>30000003</v>
-      </c>
-      <c r="D83" s="15">
-        <v>30000004</v>
-      </c>
-      <c r="E83" s="15">
-        <v>1</v>
-      </c>
-      <c r="F83" s="5">
-        <v>100</v>
-      </c>
-      <c r="G83" s="9">
-        <v>10000146</v>
       </c>
       <c r="H83" s="5">
         <v>1</v>
@@ -4176,13 +4215,16 @@
       <c r="J83" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L83" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="15">
-        <v>30000004</v>
+        <v>30000002</v>
       </c>
       <c r="D84" s="15">
-        <v>30000005</v>
+        <v>30000003</v>
       </c>
       <c r="E84" s="15">
         <v>1</v>
@@ -4191,7 +4233,7 @@
         <v>100</v>
       </c>
       <c r="G84" s="9">
-        <v>10000147</v>
+        <v>10000145</v>
       </c>
       <c r="H84" s="5">
         <v>1</v>
@@ -4203,12 +4245,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="15">
-        <v>30000005</v>
+        <v>30000003</v>
       </c>
       <c r="D85" s="15">
-        <v>30000006</v>
+        <v>30000004</v>
       </c>
       <c r="E85" s="15">
         <v>1</v>
@@ -4217,7 +4259,7 @@
         <v>100</v>
       </c>
       <c r="G85" s="9">
-        <v>10010033</v>
+        <v>10000146</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -4225,16 +4267,16 @@
       <c r="I85" s="9">
         <v>10000148</v>
       </c>
-      <c r="J85" s="20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="15">
-        <v>30000006</v>
+        <v>30000004</v>
       </c>
       <c r="D86" s="15">
-        <v>30000007</v>
+        <v>30000005</v>
       </c>
       <c r="E86" s="15">
         <v>1</v>
@@ -4243,7 +4285,7 @@
         <v>100</v>
       </c>
       <c r="G86" s="9">
-        <v>10010083</v>
+        <v>10000147</v>
       </c>
       <c r="H86" s="5">
         <v>1</v>
@@ -4251,16 +4293,16 @@
       <c r="I86" s="9">
         <v>10000148</v>
       </c>
-      <c r="J86" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="15">
-        <v>30000007</v>
+        <v>30000005</v>
       </c>
       <c r="D87" s="15">
-        <v>30000008</v>
+        <v>30000006</v>
       </c>
       <c r="E87" s="15">
         <v>1</v>
@@ -4268,8 +4310,8 @@
       <c r="F87" s="5">
         <v>100</v>
       </c>
-      <c r="G87" s="10">
-        <v>10010098</v>
+      <c r="G87" s="9">
+        <v>10010033</v>
       </c>
       <c r="H87" s="5">
         <v>1</v>
@@ -4278,15 +4320,15 @@
         <v>10000148</v>
       </c>
       <c r="J87" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="15">
-        <v>30000008</v>
+        <v>30000006</v>
       </c>
       <c r="D88" s="15">
-        <v>30000009</v>
+        <v>30000007</v>
       </c>
       <c r="E88" s="15">
         <v>1</v>
@@ -4295,7 +4337,7 @@
         <v>100</v>
       </c>
       <c r="G88" s="9">
-        <v>10010085</v>
+        <v>10010083</v>
       </c>
       <c r="H88" s="5">
         <v>1</v>
@@ -4304,15 +4346,15 @@
         <v>10000148</v>
       </c>
       <c r="J88" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="15">
-        <v>30000009</v>
+        <v>30000007</v>
       </c>
       <c r="D89" s="15">
-        <v>30000010</v>
+        <v>30000008</v>
       </c>
       <c r="E89" s="15">
         <v>1</v>
@@ -4320,8 +4362,8 @@
       <c r="F89" s="5">
         <v>100</v>
       </c>
-      <c r="G89" s="9">
-        <v>10000131</v>
+      <c r="G89" s="10">
+        <v>10010098</v>
       </c>
       <c r="H89" s="5">
         <v>1</v>
@@ -4330,15 +4372,15 @@
         <v>10000148</v>
       </c>
       <c r="J89" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="15">
-        <v>30000010</v>
+        <v>30000008</v>
       </c>
       <c r="D90" s="15">
-        <v>0</v>
+        <v>30000009</v>
       </c>
       <c r="E90" s="15">
         <v>1</v>
@@ -4347,7 +4389,7 @@
         <v>100</v>
       </c>
       <c r="G90" s="9">
-        <v>10000132</v>
+        <v>10010085</v>
       </c>
       <c r="H90" s="5">
         <v>1</v>
@@ -4356,15 +4398,15 @@
         <v>10000148</v>
       </c>
       <c r="J90" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="15">
-        <v>40000001</v>
+        <v>30000009</v>
       </c>
       <c r="D91" s="15">
-        <v>40000002</v>
+        <v>30000010</v>
       </c>
       <c r="E91" s="15">
         <v>1</v>
@@ -4372,28 +4414,25 @@
       <c r="F91" s="5">
         <v>100</v>
       </c>
-      <c r="G91" s="13">
-        <v>10000143</v>
-      </c>
-      <c r="H91" s="14">
-        <v>1</v>
-      </c>
-      <c r="I91" s="13">
-        <v>10000149</v>
-      </c>
-      <c r="J91" s="14">
-        <v>35</v>
-      </c>
-      <c r="L91" s="17" t="s">
-        <v>19</v>
+      <c r="G91" s="9">
+        <v>10000131</v>
+      </c>
+      <c r="H91" s="5">
+        <v>1</v>
+      </c>
+      <c r="I91" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J91" s="20">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="15">
-        <v>40000002</v>
+        <v>30000010</v>
       </c>
       <c r="D92" s="15">
-        <v>40000003</v>
+        <v>0</v>
       </c>
       <c r="E92" s="15">
         <v>1</v>
@@ -4401,25 +4440,25 @@
       <c r="F92" s="5">
         <v>100</v>
       </c>
-      <c r="G92" s="13">
-        <v>10010046</v>
-      </c>
-      <c r="H92" s="14">
-        <v>1</v>
-      </c>
-      <c r="I92" s="13">
-        <v>10000149</v>
-      </c>
-      <c r="J92" s="14">
-        <v>15</v>
+      <c r="G92" s="9">
+        <v>10000132</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+      <c r="I92" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J92" s="20">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="15">
-        <v>40000003</v>
+        <v>40000001</v>
       </c>
       <c r="D93" s="15">
-        <v>40000004</v>
+        <v>40000002</v>
       </c>
       <c r="E93" s="15">
         <v>1</v>
@@ -4428,7 +4467,7 @@
         <v>100</v>
       </c>
       <c r="G93" s="13">
-        <v>10000150</v>
+        <v>10000143</v>
       </c>
       <c r="H93" s="14">
         <v>1</v>
@@ -4437,15 +4476,18 @@
         <v>10000149</v>
       </c>
       <c r="J93" s="14">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="L93" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="15">
-        <v>40000004</v>
+        <v>40000002</v>
       </c>
       <c r="D94" s="15">
-        <v>40000005</v>
+        <v>40000003</v>
       </c>
       <c r="E94" s="15">
         <v>1</v>
@@ -4454,7 +4496,7 @@
         <v>100</v>
       </c>
       <c r="G94" s="13">
-        <v>10010045</v>
+        <v>10010046</v>
       </c>
       <c r="H94" s="14">
         <v>1</v>
@@ -4463,15 +4505,15 @@
         <v>10000149</v>
       </c>
       <c r="J94" s="14">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="15">
-        <v>40000005</v>
+        <v>40000003</v>
       </c>
       <c r="D95" s="15">
-        <v>40000006</v>
+        <v>40000004</v>
       </c>
       <c r="E95" s="15">
         <v>1</v>
@@ -4480,7 +4522,7 @@
         <v>100</v>
       </c>
       <c r="G95" s="13">
-        <v>10010083</v>
+        <v>10000150</v>
       </c>
       <c r="H95" s="14">
         <v>1</v>
@@ -4489,15 +4531,15 @@
         <v>10000149</v>
       </c>
       <c r="J95" s="14">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="15">
-        <v>40000006</v>
+        <v>40000004</v>
       </c>
       <c r="D96" s="15">
-        <v>40000007</v>
+        <v>40000005</v>
       </c>
       <c r="E96" s="15">
         <v>1</v>
@@ -4506,24 +4548,24 @@
         <v>100</v>
       </c>
       <c r="G96" s="13">
-        <v>10010085</v>
+        <v>10010045</v>
       </c>
       <c r="H96" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I96" s="13">
         <v>10000149</v>
       </c>
       <c r="J96" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="15">
-        <v>40000007</v>
+        <v>40000005</v>
       </c>
       <c r="D97" s="15">
-        <v>40000008</v>
+        <v>40000006</v>
       </c>
       <c r="E97" s="15">
         <v>1</v>
@@ -4532,7 +4574,7 @@
         <v>100</v>
       </c>
       <c r="G97" s="13">
-        <v>10000121</v>
+        <v>10010083</v>
       </c>
       <c r="H97" s="14">
         <v>1</v>
@@ -4541,15 +4583,15 @@
         <v>10000149</v>
       </c>
       <c r="J97" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="15">
-        <v>40000008</v>
+        <v>40000006</v>
       </c>
       <c r="D98" s="15">
-        <v>40000009</v>
+        <v>40000007</v>
       </c>
       <c r="E98" s="15">
         <v>1</v>
@@ -4558,24 +4600,24 @@
         <v>100</v>
       </c>
       <c r="G98" s="13">
-        <v>10000122</v>
+        <v>10010085</v>
       </c>
       <c r="H98" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98" s="13">
         <v>10000149</v>
       </c>
       <c r="J98" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="15">
-        <v>40000009</v>
+        <v>40000007</v>
       </c>
       <c r="D99" s="15">
-        <v>40000010</v>
+        <v>40000008</v>
       </c>
       <c r="E99" s="15">
         <v>1</v>
@@ -4584,7 +4626,7 @@
         <v>100</v>
       </c>
       <c r="G99" s="13">
-        <v>10000123</v>
+        <v>10000121</v>
       </c>
       <c r="H99" s="14">
         <v>1</v>
@@ -4596,12 +4638,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="15">
-        <v>40000010</v>
+        <v>40000008</v>
       </c>
       <c r="D100" s="15">
-        <v>40000011</v>
+        <v>40000009</v>
       </c>
       <c r="E100" s="15">
         <v>1</v>
@@ -4610,7 +4652,7 @@
         <v>100</v>
       </c>
       <c r="G100" s="13">
-        <v>10000124</v>
+        <v>10000122</v>
       </c>
       <c r="H100" s="14">
         <v>1</v>
@@ -4622,12 +4664,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="15">
-        <v>40000011</v>
+        <v>40000009</v>
       </c>
       <c r="D101" s="15">
-        <v>40000012</v>
+        <v>40000010</v>
       </c>
       <c r="E101" s="15">
         <v>1</v>
@@ -4636,7 +4678,7 @@
         <v>100</v>
       </c>
       <c r="G101" s="13">
-        <v>10000125</v>
+        <v>10000123</v>
       </c>
       <c r="H101" s="14">
         <v>1</v>
@@ -4648,12 +4690,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="15">
-        <v>40000012</v>
+        <v>40000010</v>
       </c>
       <c r="D102" s="15">
-        <v>40000013</v>
+        <v>40000011</v>
       </c>
       <c r="E102" s="15">
         <v>1</v>
@@ -4662,24 +4704,24 @@
         <v>100</v>
       </c>
       <c r="G102" s="13">
-        <v>10000144</v>
+        <v>10000124</v>
       </c>
       <c r="H102" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" s="13">
         <v>10000149</v>
       </c>
       <c r="J102" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="15">
-        <v>40000013</v>
+        <v>40000011</v>
       </c>
       <c r="D103" s="15">
-        <v>40000014</v>
+        <v>40000012</v>
       </c>
       <c r="E103" s="15">
         <v>1</v>
@@ -4688,24 +4730,24 @@
         <v>100</v>
       </c>
       <c r="G103" s="13">
-        <v>10000145</v>
+        <v>10000125</v>
       </c>
       <c r="H103" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" s="13">
         <v>10000149</v>
       </c>
       <c r="J103" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="15">
-        <v>40000014</v>
+        <v>40000012</v>
       </c>
       <c r="D104" s="15">
-        <v>40000015</v>
+        <v>40000013</v>
       </c>
       <c r="E104" s="15">
         <v>1</v>
@@ -4714,7 +4756,7 @@
         <v>100</v>
       </c>
       <c r="G104" s="13">
-        <v>10000146</v>
+        <v>10000144</v>
       </c>
       <c r="H104" s="14">
         <v>2</v>
@@ -4726,12 +4768,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="15">
-        <v>40000015</v>
+        <v>40000013</v>
       </c>
       <c r="D105" s="15">
-        <v>0</v>
+        <v>40000014</v>
       </c>
       <c r="E105" s="15">
         <v>1</v>
@@ -4740,7 +4782,7 @@
         <v>100</v>
       </c>
       <c r="G105" s="13">
-        <v>10000147</v>
+        <v>10000145</v>
       </c>
       <c r="H105" s="14">
         <v>2</v>
@@ -4752,13 +4794,203 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="15">
+        <v>40000014</v>
+      </c>
+      <c r="D106" s="15">
+        <v>40000015</v>
+      </c>
+      <c r="E106" s="15">
+        <v>1</v>
+      </c>
+      <c r="F106" s="5">
+        <v>100</v>
+      </c>
+      <c r="G106" s="13">
+        <v>10000146</v>
+      </c>
+      <c r="H106" s="14">
+        <v>2</v>
+      </c>
+      <c r="I106" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J106" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="15">
+        <v>40000015</v>
+      </c>
+      <c r="D107" s="15">
+        <v>0</v>
+      </c>
+      <c r="E107" s="15">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5">
+        <v>100</v>
+      </c>
+      <c r="G107" s="13">
+        <v>10000147</v>
+      </c>
+      <c r="H107" s="14">
+        <v>2</v>
+      </c>
+      <c r="I107" s="13">
+        <v>10000149</v>
+      </c>
+      <c r="J107" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="15">
+        <v>50000001</v>
+      </c>
+      <c r="D108" s="15">
+        <v>50000002</v>
+      </c>
+      <c r="E108" s="15">
+        <v>1</v>
+      </c>
+      <c r="F108" s="5">
+        <v>100</v>
+      </c>
+      <c r="G108" s="9">
+        <v>10000206</v>
+      </c>
+      <c r="H108" s="5">
+        <v>1</v>
+      </c>
+      <c r="I108" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J108" s="15">
+        <v>50</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="15">
+        <v>50000002</v>
+      </c>
+      <c r="D109" s="15">
+        <v>50000003</v>
+      </c>
+      <c r="E109" s="15">
+        <v>1</v>
+      </c>
+      <c r="F109" s="5">
+        <v>100</v>
+      </c>
+      <c r="G109" s="9">
+        <v>10000207</v>
+      </c>
+      <c r="H109" s="5">
+        <v>1</v>
+      </c>
+      <c r="I109" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J109" s="15">
+        <v>30</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="15">
+        <v>50000003</v>
+      </c>
+      <c r="D110" s="15">
+        <v>50000004</v>
+      </c>
+      <c r="E110" s="15">
+        <v>1</v>
+      </c>
+      <c r="F110" s="5">
+        <v>100</v>
+      </c>
+      <c r="G110" s="9">
+        <v>10011008</v>
+      </c>
+      <c r="H110" s="5">
+        <v>1</v>
+      </c>
+      <c r="I110" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J110" s="15">
+        <v>30</v>
+      </c>
+      <c r="L110" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="15">
+        <v>50000004</v>
+      </c>
+      <c r="D111" s="15">
+        <v>50000005</v>
+      </c>
+      <c r="E111" s="15">
+        <v>1</v>
+      </c>
+      <c r="F111" s="5">
+        <v>100</v>
+      </c>
+      <c r="G111" s="9">
+        <v>10011013</v>
+      </c>
+      <c r="H111" s="5">
+        <v>1</v>
+      </c>
+      <c r="I111" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J111" s="15">
+        <v>30</v>
+      </c>
+      <c r="L111" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="15">
+        <v>50000005</v>
+      </c>
+      <c r="D112" s="15">
+        <v>0</v>
+      </c>
+      <c r="E112" s="15">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5">
+        <v>100</v>
+      </c>
+      <c r="G112" s="15">
+        <v>10000105</v>
+      </c>
+      <c r="H112" s="15">
+        <v>1</v>
+      </c>
+      <c r="I112" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J112" s="15">
+        <v>20</v>
+      </c>
+      <c r="L112" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="113" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4767,6 +4999,8 @@
     <row r="118" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="119" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="120" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D748FF3C-6471-429B-86B2-30F336380CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE961B44-6170-43CB-B795-2AE32D58C2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -1382,7 +1382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1443,6 +1443,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2090,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2250,8 +2253,8 @@
       <c r="F8" s="5">
         <v>100</v>
       </c>
-      <c r="G8" s="7">
-        <v>14010001</v>
+      <c r="G8" s="9">
+        <v>10000153</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -2260,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="15">
-        <v>8750</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2276,8 +2279,8 @@
       <c r="F9" s="5">
         <v>100</v>
       </c>
-      <c r="G9" s="7">
-        <v>14010010</v>
+      <c r="G9" s="22">
+        <v>10000154</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -2286,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="15">
-        <v>11200</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="10" spans="3:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4967,7 +4970,7 @@
         <v>50000005</v>
       </c>
       <c r="D112" s="15">
-        <v>0</v>
+        <v>50000006</v>
       </c>
       <c r="E112" s="15">
         <v>1</v>
@@ -4991,16 +4994,66 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="15">
+        <v>50000006</v>
+      </c>
+      <c r="D113" s="15">
+        <v>50000007</v>
+      </c>
+      <c r="E113" s="15">
+        <v>1</v>
+      </c>
+      <c r="F113" s="5">
+        <v>100</v>
+      </c>
+      <c r="G113" s="15">
+        <v>10032009</v>
+      </c>
+      <c r="H113" s="15">
+        <v>1</v>
+      </c>
+      <c r="I113" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J113" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="15">
+        <v>50000007</v>
+      </c>
+      <c r="D114" s="15">
+        <v>0</v>
+      </c>
+      <c r="E114" s="15">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5">
+        <v>100</v>
+      </c>
+      <c r="G114" s="15">
+        <v>10032014</v>
+      </c>
+      <c r="H114" s="15">
+        <v>1</v>
+      </c>
+      <c r="I114" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J114" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="3:10" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED17766-88B9-4598-B18E-50E60CA65555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -93,18 +99,20 @@
   <si>
     <t>史诗宝石箱子</t>
   </si>
+  <si>
+    <t>开启背包格子道具</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +123,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -122,12 +131,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -135,18 +146,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -154,180 +167,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="54">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,7 +225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,13 +237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14966277047029"/>
+        <fgColor theme="0" tint="-0.14963225196081423"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,139 +255,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149571214941862"/>
+        <fgColor theme="0" tint="-0.14954069643238624"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,132 +327,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -724,36 +415,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -767,1137 +428,940 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1906,10 +1370,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1924,16 +1388,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1948,381 +1409,336 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
-    <cellStyle name="标题" xfId="28" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="37"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
-    <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
-    <cellStyle name="计算" xfId="44" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
-    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
-    <cellStyle name="汇总" xfId="54" builtinId="25"/>
-    <cellStyle name="好" xfId="55" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
-    <cellStyle name="适中" xfId="60" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
-    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 5" xfId="94"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="常规 2 3 2 6" xfId="97"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
-    <cellStyle name="常规 2 3 2 7" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
-    <cellStyle name="常规 2 3 3 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
-    <cellStyle name="常规 2 3 3 4" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
-    <cellStyle name="常规 2 3 4 3" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="常规 3" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="常规 5" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
-    <cellStyle name="注释 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="常规 5 7" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="注释 2 2 3 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="注释 2 5 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="常规 2 3 2 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="常规 2 3 3 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="常规 2 3 3 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="注释 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="常规 5 6" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
-    <cellStyle name="常规 2" xfId="313"/>
-    <cellStyle name="常规 2 2" xfId="314"/>
-    <cellStyle name="常规 2 3" xfId="315"/>
-    <cellStyle name="常规 2 3 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="注释 2 3 2" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
-    <cellStyle name="常规 2 3 3" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="注释 2 5" xfId="329"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
-    <cellStyle name="常规 2 3 4" xfId="331"/>
-    <cellStyle name="常规 2 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 3 5" xfId="333"/>
-    <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
-    <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 7" xfId="339"/>
-    <cellStyle name="常规 2 3 8" xfId="340"/>
-    <cellStyle name="常规 5 2 3 2" xfId="341"/>
-    <cellStyle name="常规 5 2 4 2" xfId="342"/>
-    <cellStyle name="常规 5 3" xfId="343"/>
-    <cellStyle name="常规 5 3 2" xfId="344"/>
-    <cellStyle name="常规 5 3 3" xfId="345"/>
-    <cellStyle name="常规 5 4" xfId="346"/>
-    <cellStyle name="常规 5 4 2" xfId="347"/>
-    <cellStyle name="常规 5 5" xfId="348"/>
-    <cellStyle name="常规 5 5 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 2" xfId="351"/>
-    <cellStyle name="注释 2 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 3" xfId="353"/>
-    <cellStyle name="注释 2 2 4" xfId="354"/>
-    <cellStyle name="注释 2 2 4 2" xfId="355"/>
-    <cellStyle name="注释 2 2 5" xfId="356"/>
-    <cellStyle name="注释 2 2 6" xfId="357"/>
-    <cellStyle name="注释 2 4" xfId="358"/>
-    <cellStyle name="注释 2 4 2" xfId="359"/>
-    <cellStyle name="注释 2 6" xfId="360"/>
-    <cellStyle name="注释 2 7" xfId="361"/>
+    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 5" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 5 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 5 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="注释 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="注释 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 5" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2342,11 +1758,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2631,19 +2055,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
@@ -2652,8 +2076,8 @@
     <col min="12" max="12" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:10">
+    <row r="1" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +2103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:10">
+    <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:10">
+    <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2731,7 +2155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+    <row r="6" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2">
         <v>10001101</v>
       </c>
@@ -2753,12 +2177,12 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+    <row r="7" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>10001102</v>
       </c>
@@ -2780,13 +2204,13 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="8" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>10001201</v>
       </c>
@@ -2812,7 +2236,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="9" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>10001202</v>
       </c>
@@ -2838,7 +2262,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="10" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>10001203</v>
       </c>
@@ -2864,7 +2288,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="11" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>10001204</v>
       </c>
@@ -2890,7 +2314,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="12" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>10001205</v>
       </c>
@@ -2916,7 +2340,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="13" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
         <v>10001206</v>
       </c>
@@ -2942,7 +2366,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="14" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
         <v>10001207</v>
       </c>
@@ -2968,7 +2392,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="15" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>10002101</v>
       </c>
@@ -2990,11 +2414,11 @@
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="16" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>10002102</v>
       </c>
@@ -3016,11 +2440,11 @@
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="17" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>10002201</v>
       </c>
@@ -3046,7 +2470,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="18" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>10002202</v>
       </c>
@@ -3072,7 +2496,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="19" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>10002203</v>
       </c>
@@ -3098,7 +2522,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="20" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>10002204</v>
       </c>
@@ -3124,7 +2548,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="21" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
         <v>10002205</v>
       </c>
@@ -3150,7 +2574,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="22" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
         <v>10002206</v>
       </c>
@@ -3176,7 +2600,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="23" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
         <v>10002207</v>
       </c>
@@ -3202,7 +2626,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="24" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
         <v>10002208</v>
       </c>
@@ -3228,7 +2652,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="25" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
         <v>10003101</v>
       </c>
@@ -3250,11 +2674,11 @@
       <c r="I25" s="2">
         <v>1</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="26" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
         <v>10003102</v>
       </c>
@@ -3276,11 +2700,11 @@
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="27" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
         <v>10003201</v>
       </c>
@@ -3306,7 +2730,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="28" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>10003202</v>
       </c>
@@ -3332,7 +2756,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="29" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="2">
         <v>10003203</v>
       </c>
@@ -3358,7 +2782,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="30" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>10003204</v>
       </c>
@@ -3384,7 +2808,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="31" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>10003205</v>
       </c>
@@ -3410,7 +2834,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="32" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>10003206</v>
       </c>
@@ -3436,7 +2860,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="33" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>10003207</v>
       </c>
@@ -3462,7 +2886,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="34" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>10003208</v>
       </c>
@@ -3488,7 +2912,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="35" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>10004101</v>
       </c>
@@ -3510,11 +2934,11 @@
       <c r="I35" s="2">
         <v>1</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="36" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>10004102</v>
       </c>
@@ -3536,11 +2960,11 @@
       <c r="I36" s="2">
         <v>1</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="37" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>10004201</v>
       </c>
@@ -3566,7 +2990,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="38" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>10004202</v>
       </c>
@@ -3592,7 +3016,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="39" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
         <v>10004203</v>
       </c>
@@ -3618,7 +3042,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="40" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>10004204</v>
       </c>
@@ -3644,7 +3068,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="41" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>10004205</v>
       </c>
@@ -3670,7 +3094,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="42" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
         <v>10004206</v>
       </c>
@@ -3696,7 +3120,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="43" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
         <v>10004207</v>
       </c>
@@ -3722,7 +3146,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="44" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
         <v>10004208</v>
       </c>
@@ -3748,7 +3172,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="45" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2">
         <v>10005101</v>
       </c>
@@ -3770,11 +3194,11 @@
       <c r="I45" s="2">
         <v>1</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="46" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
         <v>10005102</v>
       </c>
@@ -3796,11 +3220,11 @@
       <c r="I46" s="2">
         <v>1</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="47" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
         <v>10005201</v>
       </c>
@@ -3826,7 +3250,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="48" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="2">
         <v>10005202</v>
       </c>
@@ -3852,7 +3276,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="49" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="2">
         <v>10005203</v>
       </c>
@@ -3878,7 +3302,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="50" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="2">
         <v>10005204</v>
       </c>
@@ -3904,7 +3328,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="51" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="2">
         <v>10005205</v>
       </c>
@@ -3930,7 +3354,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="52" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="2">
         <v>10005206</v>
       </c>
@@ -3956,7 +3380,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="53" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="2">
         <v>10005207</v>
       </c>
@@ -3982,7 +3406,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="54" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="2">
         <v>10005208</v>
       </c>
@@ -4008,7 +3432,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="55" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="2">
         <v>20000001</v>
       </c>
@@ -4030,14 +3454,14 @@
       <c r="I55" s="8">
         <v>10010035</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="13">
         <v>5</v>
       </c>
-      <c r="L55" s="15" t="s">
+      <c r="L55" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="56" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="2">
         <v>20000002</v>
       </c>
@@ -4059,11 +3483,11 @@
       <c r="I56" s="8">
         <v>10010035</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="57" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="2">
         <v>20000003</v>
       </c>
@@ -4085,11 +3509,11 @@
       <c r="I57" s="8">
         <v>10010035</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="58" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="2">
         <v>20000004</v>
       </c>
@@ -4111,11 +3535,11 @@
       <c r="I58" s="8">
         <v>10010035</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="59" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="2">
         <v>20000005</v>
       </c>
@@ -4137,11 +3561,11 @@
       <c r="I59" s="8">
         <v>10010035</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="60" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="2">
         <v>20000006</v>
       </c>
@@ -4163,11 +3587,11 @@
       <c r="I60" s="8">
         <v>10010035</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="61" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="2">
         <v>20000007</v>
       </c>
@@ -4189,11 +3613,11 @@
       <c r="I61" s="8">
         <v>10010035</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="62" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="2">
         <v>20000008</v>
       </c>
@@ -4215,11 +3639,11 @@
       <c r="I62" s="8">
         <v>10010035</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="63" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="2">
         <v>20000009</v>
       </c>
@@ -4241,11 +3665,11 @@
       <c r="I63" s="8">
         <v>10010035</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="64" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="2">
         <v>20000010</v>
       </c>
@@ -4267,11 +3691,11 @@
       <c r="I64" s="8">
         <v>10010035</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="65" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="2">
         <v>20000011</v>
       </c>
@@ -4293,11 +3717,11 @@
       <c r="I65" s="8">
         <v>10010035</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="66" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="2">
         <v>20000012</v>
       </c>
@@ -4319,11 +3743,11 @@
       <c r="I66" s="8">
         <v>10010035</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="67" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="2">
         <v>20000013</v>
       </c>
@@ -4345,11 +3769,11 @@
       <c r="I67" s="8">
         <v>10010035</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="68" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="2">
         <v>20000014</v>
       </c>
@@ -4371,11 +3795,11 @@
       <c r="I68" s="8">
         <v>10010035</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="69" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="2">
         <v>20000015</v>
       </c>
@@ -4397,11 +3821,11 @@
       <c r="I69" s="8">
         <v>10010035</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="13">
         <v>60</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="70" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="2">
         <v>20000016</v>
       </c>
@@ -4423,11 +3847,11 @@
       <c r="I70" s="8">
         <v>10010035</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="71" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="2">
         <v>20000017</v>
       </c>
@@ -4440,7 +3864,7 @@
       <c r="F71" s="6">
         <v>100</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="15">
         <v>10021008</v>
       </c>
       <c r="H71" s="6">
@@ -4449,11 +3873,11 @@
       <c r="I71" s="8">
         <v>10010035</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J71" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="72" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="2">
         <v>20000018</v>
       </c>
@@ -4466,7 +3890,7 @@
       <c r="F72" s="6">
         <v>100</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="15">
         <v>10021009</v>
       </c>
       <c r="H72" s="6">
@@ -4475,11 +3899,11 @@
       <c r="I72" s="8">
         <v>10010035</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="73" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="2">
         <v>20000019</v>
       </c>
@@ -4492,7 +3916,7 @@
       <c r="F73" s="6">
         <v>100</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="15">
         <v>10022008</v>
       </c>
       <c r="H73" s="6">
@@ -4501,11 +3925,11 @@
       <c r="I73" s="8">
         <v>10010035</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J73" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="74" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="2">
         <v>20000020</v>
       </c>
@@ -4518,7 +3942,7 @@
       <c r="F74" s="6">
         <v>100</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="15">
         <v>10022009</v>
       </c>
       <c r="H74" s="6">
@@ -4527,11 +3951,11 @@
       <c r="I74" s="8">
         <v>10010035</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="75" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="2">
         <v>20000021</v>
       </c>
@@ -4544,7 +3968,7 @@
       <c r="F75" s="6">
         <v>100</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="15">
         <v>10023008</v>
       </c>
       <c r="H75" s="6">
@@ -4553,11 +3977,11 @@
       <c r="I75" s="8">
         <v>10010035</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J75" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="76" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="2">
         <v>20000022</v>
       </c>
@@ -4570,7 +3994,7 @@
       <c r="F76" s="6">
         <v>100</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G76" s="15">
         <v>10023009</v>
       </c>
       <c r="H76" s="6">
@@ -4579,11 +4003,11 @@
       <c r="I76" s="8">
         <v>10010035</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="77" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="2">
         <v>20000023</v>
       </c>
@@ -4596,7 +4020,7 @@
       <c r="F77" s="6">
         <v>100</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="15">
         <v>10024008</v>
       </c>
       <c r="H77" s="6">
@@ -4605,11 +4029,11 @@
       <c r="I77" s="8">
         <v>10010035</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="78" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="2">
         <v>20000024</v>
       </c>
@@ -4622,7 +4046,7 @@
       <c r="F78" s="6">
         <v>100</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="15">
         <v>10024009</v>
       </c>
       <c r="H78" s="6">
@@ -4631,11 +4055,11 @@
       <c r="I78" s="8">
         <v>10010035</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J78" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="79" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="2">
         <v>20000025</v>
       </c>
@@ -4648,7 +4072,7 @@
       <c r="F79" s="6">
         <v>100</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G79" s="15">
         <v>10025008</v>
       </c>
       <c r="H79" s="6">
@@ -4657,11 +4081,11 @@
       <c r="I79" s="8">
         <v>10010035</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J79" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="80" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="2">
         <v>20000026</v>
       </c>
@@ -4674,7 +4098,7 @@
       <c r="F80" s="6">
         <v>100</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G80" s="15">
         <v>10025009</v>
       </c>
       <c r="H80" s="6">
@@ -4683,11 +4107,11 @@
       <c r="I80" s="8">
         <v>10010035</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J80" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="81" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="2">
         <v>20000027</v>
       </c>
@@ -4700,7 +4124,7 @@
       <c r="F81" s="6">
         <v>100</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G81" s="15">
         <v>10000105</v>
       </c>
       <c r="H81" s="6">
@@ -4709,11 +4133,11 @@
       <c r="I81" s="8">
         <v>10010035</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J81" s="13">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="82" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="2">
         <v>20000028</v>
       </c>
@@ -4735,11 +4159,11 @@
       <c r="I82" s="8">
         <v>10010035</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J82" s="13">
         <v>150</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="83" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="2">
         <v>30000001</v>
       </c>
@@ -4761,14 +4185,14 @@
       <c r="I83" s="8">
         <v>10000148</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J83" s="13">
         <v>10</v>
       </c>
-      <c r="L83" s="15" t="s">
+      <c r="L83" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="84" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="2">
         <v>30000002</v>
       </c>
@@ -4790,11 +4214,11 @@
       <c r="I84" s="8">
         <v>10000148</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J84" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="85" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="2">
         <v>30000003</v>
       </c>
@@ -4816,11 +4240,11 @@
       <c r="I85" s="8">
         <v>10000148</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J85" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="86" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="2">
         <v>30000004</v>
       </c>
@@ -4842,11 +4266,11 @@
       <c r="I86" s="8">
         <v>10000148</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J86" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="87" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="2">
         <v>30000005</v>
       </c>
@@ -4868,11 +4292,11 @@
       <c r="I87" s="8">
         <v>10000148</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J87" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="88" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="2">
         <v>30000006</v>
       </c>
@@ -4894,11 +4318,11 @@
       <c r="I88" s="8">
         <v>10000148</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J88" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="89" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="2">
         <v>30000007</v>
       </c>
@@ -4920,11 +4344,11 @@
       <c r="I89" s="8">
         <v>10000148</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J89" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="90" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="2">
         <v>30000008</v>
       </c>
@@ -4946,11 +4370,11 @@
       <c r="I90" s="8">
         <v>10000148</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="91" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="2">
         <v>30000009</v>
       </c>
@@ -4972,11 +4396,11 @@
       <c r="I91" s="8">
         <v>10000148</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J91" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="92" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="2">
         <v>30000010</v>
       </c>
@@ -4998,11 +4422,11 @@
       <c r="I92" s="8">
         <v>10000148</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J92" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="93" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="2">
         <v>40000001</v>
       </c>
@@ -5018,20 +4442,20 @@
       <c r="G93" s="8">
         <v>10000143</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H93" s="13">
         <v>1</v>
       </c>
       <c r="I93" s="8">
         <v>10000149</v>
       </c>
-      <c r="J93" s="14">
+      <c r="J93" s="13">
         <v>35</v>
       </c>
-      <c r="L93" s="15" t="s">
+      <c r="L93" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="94" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="2">
         <v>40000002</v>
       </c>
@@ -5047,17 +4471,17 @@
       <c r="G94" s="8">
         <v>10010046</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H94" s="13">
         <v>1</v>
       </c>
       <c r="I94" s="8">
         <v>10000149</v>
       </c>
-      <c r="J94" s="14">
+      <c r="J94" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="95" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="2">
         <v>40000003</v>
       </c>
@@ -5073,17 +4497,17 @@
       <c r="G95" s="8">
         <v>10000150</v>
       </c>
-      <c r="H95" s="14">
+      <c r="H95" s="13">
         <v>1</v>
       </c>
       <c r="I95" s="8">
         <v>10000149</v>
       </c>
-      <c r="J95" s="14">
+      <c r="J95" s="13">
         <v>60</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="96" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="2">
         <v>40000004</v>
       </c>
@@ -5099,17 +4523,17 @@
       <c r="G96" s="8">
         <v>10010045</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H96" s="13">
         <v>1</v>
       </c>
       <c r="I96" s="8">
         <v>10000149</v>
       </c>
-      <c r="J96" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="J96" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="2">
         <v>40000005</v>
       </c>
@@ -5125,17 +4549,17 @@
       <c r="G97" s="8">
         <v>10010083</v>
       </c>
-      <c r="H97" s="14">
+      <c r="H97" s="13">
         <v>1</v>
       </c>
       <c r="I97" s="8">
         <v>10000149</v>
       </c>
-      <c r="J97" s="14">
+      <c r="J97" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="98" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="2">
         <v>40000006</v>
       </c>
@@ -5151,17 +4575,17 @@
       <c r="G98" s="8">
         <v>10010085</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="13">
         <v>5</v>
       </c>
       <c r="I98" s="8">
         <v>10000149</v>
       </c>
-      <c r="J98" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="J98" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="2">
         <v>40000007</v>
       </c>
@@ -5177,17 +4601,17 @@
       <c r="G99" s="8">
         <v>10000121</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="13">
         <v>1</v>
       </c>
       <c r="I99" s="8">
         <v>10000149</v>
       </c>
-      <c r="J99" s="14">
+      <c r="J99" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="100" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="2">
         <v>40000008</v>
       </c>
@@ -5203,17 +4627,17 @@
       <c r="G100" s="8">
         <v>10000122</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="13">
         <v>1</v>
       </c>
       <c r="I100" s="8">
         <v>10000149</v>
       </c>
-      <c r="J100" s="14">
+      <c r="J100" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="101" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="2">
         <v>40000009</v>
       </c>
@@ -5229,17 +4653,17 @@
       <c r="G101" s="8">
         <v>10000123</v>
       </c>
-      <c r="H101" s="14">
+      <c r="H101" s="13">
         <v>1</v>
       </c>
       <c r="I101" s="8">
         <v>10000149</v>
       </c>
-      <c r="J101" s="14">
+      <c r="J101" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="102" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="2">
         <v>40000010</v>
       </c>
@@ -5255,17 +4679,17 @@
       <c r="G102" s="8">
         <v>10000124</v>
       </c>
-      <c r="H102" s="14">
+      <c r="H102" s="13">
         <v>1</v>
       </c>
       <c r="I102" s="8">
         <v>10000149</v>
       </c>
-      <c r="J102" s="14">
+      <c r="J102" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="103" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="2">
         <v>40000011</v>
       </c>
@@ -5281,17 +4705,17 @@
       <c r="G103" s="8">
         <v>10000125</v>
       </c>
-      <c r="H103" s="14">
+      <c r="H103" s="13">
         <v>1</v>
       </c>
       <c r="I103" s="8">
         <v>10000149</v>
       </c>
-      <c r="J103" s="14">
+      <c r="J103" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="104" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="2">
         <v>40000012</v>
       </c>
@@ -5307,17 +4731,17 @@
       <c r="G104" s="8">
         <v>10000144</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H104" s="13">
         <v>2</v>
       </c>
       <c r="I104" s="8">
         <v>10000149</v>
       </c>
-      <c r="J104" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="J104" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="2">
         <v>40000013</v>
       </c>
@@ -5333,17 +4757,17 @@
       <c r="G105" s="8">
         <v>10000145</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H105" s="13">
         <v>2</v>
       </c>
       <c r="I105" s="8">
         <v>10000149</v>
       </c>
-      <c r="J105" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="J105" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="2">
         <v>40000014</v>
       </c>
@@ -5359,17 +4783,17 @@
       <c r="G106" s="8">
         <v>10000146</v>
       </c>
-      <c r="H106" s="14">
+      <c r="H106" s="13">
         <v>2</v>
       </c>
       <c r="I106" s="8">
         <v>10000149</v>
       </c>
-      <c r="J106" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="J106" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="2">
         <v>40000015</v>
       </c>
@@ -5385,17 +4809,17 @@
       <c r="G107" s="8">
         <v>10000147</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H107" s="13">
         <v>2</v>
       </c>
       <c r="I107" s="8">
         <v>10000149</v>
       </c>
-      <c r="J107" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+      <c r="J107" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="2">
         <v>50000001</v>
       </c>
@@ -5424,7 +4848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="109" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="2">
         <v>50000002</v>
       </c>
@@ -5453,7 +4877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="110" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="2">
         <v>50000003</v>
       </c>
@@ -5478,11 +4902,11 @@
       <c r="J110" s="2">
         <v>30</v>
       </c>
-      <c r="L110" s="18" t="s">
+      <c r="L110" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="111" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="2">
         <v>50000004</v>
       </c>
@@ -5507,11 +4931,11 @@
       <c r="J111" s="2">
         <v>30</v>
       </c>
-      <c r="L111" s="18" t="s">
+      <c r="L111" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="112" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="2">
         <v>50000005</v>
       </c>
@@ -5534,13 +4958,13 @@
         <v>10000151</v>
       </c>
       <c r="J112" s="2">
-        <v>20</v>
-      </c>
-      <c r="L112" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="113" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="2">
         <v>50000006</v>
       </c>
@@ -5565,13 +4989,16 @@
       <c r="J113" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="L113" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="2">
         <v>50000007</v>
       </c>
       <c r="D114" s="2">
-        <v>0</v>
+        <v>50000008</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
@@ -5591,18 +5018,49 @@
       <c r="J114" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="117" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="118" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="119" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="120" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="121" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="122" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+      <c r="L114" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="2">
+        <v>50000008</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="6">
+        <v>100</v>
+      </c>
+      <c r="G115" s="2">
+        <v>10000156</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="8">
+        <v>10000151</v>
+      </c>
+      <c r="J115" s="2">
+        <v>15</v>
+      </c>
+      <c r="L115" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED17766-88B9-4598-B18E-50E60CA65555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD487F7-524F-4B05-B0D9-4AC8C1FC42F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2064,7 +2064,7 @@
   <dimension ref="C1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+      <selection activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4960,7 +4960,7 @@
       <c r="J112" s="2">
         <v>10</v>
       </c>
-      <c r="L112" s="14" t="s">
+      <c r="L112" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       <c r="J113" s="2">
         <v>25</v>
       </c>
-      <c r="L113" s="14" t="s">
+      <c r="L113" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       <c r="J114" s="2">
         <v>25</v>
       </c>
-      <c r="L114" s="14" t="s">
+      <c r="L114" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
         <v>10000151</v>
       </c>
       <c r="J115" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L115" s="19" t="s">
         <v>26</v>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD487F7-524F-4B05-B0D9-4AC8C1FC42F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563EE6A9-E704-47EC-86B9-6E1A75E99334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -105,6 +105,25 @@
   </si>
   <si>
     <t>精灵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承灵石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>灿烂的结晶</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍贵的宠物蛋</t>
+  </si>
+  <si>
+    <t>50</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1416,6 +1435,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2061,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O122"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4964,7 +4989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="2">
         <v>50000006</v>
       </c>
@@ -4993,7 +5018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="2">
         <v>50000007</v>
       </c>
@@ -5022,7 +5047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="2">
         <v>50000008</v>
       </c>
@@ -5051,13 +5076,84 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6">
+        <v>60000001</v>
+      </c>
+      <c r="D116" s="6">
+        <v>60000002</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6">
+        <v>100</v>
+      </c>
+      <c r="G116" s="8">
+        <v>10000143</v>
+      </c>
+      <c r="H116" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" s="8">
+        <v>10000157</v>
+      </c>
+      <c r="J116" s="6">
+        <v>1</v>
+      </c>
+      <c r="K116" s="6"/>
+      <c r="L116" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M116" s="6"/>
+      <c r="N116" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O116" s="6"/>
+    </row>
+    <row r="117" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6">
+        <v>60000002</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1</v>
+      </c>
+      <c r="F117" s="6">
+        <v>100</v>
+      </c>
+      <c r="G117" s="8">
+        <v>10010093</v>
+      </c>
+      <c r="H117" s="21">
+        <v>1</v>
+      </c>
+      <c r="I117" s="8">
+        <v>10000143</v>
+      </c>
+      <c r="J117" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K117" s="6"/>
+      <c r="L117" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="6"/>
+      <c r="N117" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O117" s="6"/>
+    </row>
+    <row r="118" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563EE6A9-E704-47EC-86B9-6E1A75E99334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D97AB-4481-4BAE-9A5F-C597B2899175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <t>珍贵的宠物蛋</t>
   </si>
   <si>
-    <t>50</t>
+    <t>30</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2089,7 +2089,7 @@
   <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="K120" sqref="K120"/>
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D97AB-4481-4BAE-9A5F-C597B2899175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>Id</t>
   </si>
@@ -100,38 +94,116 @@
     <t>史诗宝石箱子</t>
   </si>
   <si>
-    <t>开启背包格子道具</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>精灵</t>
   </si>
   <si>
-    <t>精灵</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>开启背包格子道具</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>灿烂的结晶</t>
   </si>
   <si>
     <t>传承灵石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>灿烂的结晶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>30</t>
   </si>
   <si>
     <t>珍贵的宠物蛋</t>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>轻甲图纸:传承幻影之盔</t>
+  </si>
+  <si>
+    <t>布甲图纸:传承祭祀之盔</t>
+  </si>
+  <si>
+    <t>重甲图纸:传承混沌之盔</t>
+  </si>
+  <si>
+    <t>轻甲图纸:传承幻影之手</t>
+  </si>
+  <si>
+    <t>布甲图纸:传承祭祀之手</t>
+  </si>
+  <si>
+    <t>重甲图纸:传承混沌之手</t>
+  </si>
+  <si>
+    <t>轻甲图纸:传承幻影之带</t>
+  </si>
+  <si>
+    <t>布甲图纸:传承祭祀之带</t>
+  </si>
+  <si>
+    <t>重甲图纸:传承混沌之带</t>
+  </si>
+  <si>
+    <t>轻甲图纸:传承幻影之靴</t>
+  </si>
+  <si>
+    <t>布甲图纸:传承祭祀之靴</t>
+  </si>
+  <si>
+    <t>重甲图纸:传承混沌之靴</t>
+  </si>
+  <si>
+    <t>轻甲图纸:传承幻影之腿</t>
+  </si>
+  <si>
+    <t>布甲图纸:传承祭祀之腿</t>
+  </si>
+  <si>
+    <t>重甲图纸:传承混沌之腿</t>
+  </si>
+  <si>
+    <t>图纸:传承史诗支配之链</t>
+  </si>
+  <si>
+    <t>图纸:传承史诗支配之戒</t>
+  </si>
+  <si>
+    <t>图纸:传承史诗支配之灵</t>
+  </si>
+  <si>
+    <t>图纸:传承史诗支配之符</t>
+  </si>
+  <si>
+    <t>图纸:传承史诗支配之剑</t>
+  </si>
+  <si>
+    <t>图纸:传承史诗支配战刃</t>
+  </si>
+  <si>
+    <t>图纸:传承史诗支配之杖</t>
+  </si>
+  <si>
+    <t>图纸:传承史诗支配之书</t>
+  </si>
+  <si>
+    <t>轻甲图纸:传承幻影之甲</t>
+  </si>
+  <si>
+    <t>布甲图纸:传承祭祀之甲</t>
+  </si>
+  <si>
+    <t>重甲图纸:传承混沌之甲</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +214,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -150,14 +227,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -165,20 +240,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -186,44 +259,192 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,7 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,13 +477,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14963225196081423"/>
+        <fgColor theme="0" tint="-0.149632251960814"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149082918790246"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,67 +501,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14954069643238624"/>
+        <fgColor theme="0" tint="-0.149540696432386"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,18 +537,240 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79992065187536243"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -407,6 +820,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
@@ -420,16 +846,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,1323 +869,1601 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="314">
+  <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="314">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+  <cellStyles count="362">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="常规 2 3 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="常规 2 3 2 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 2 3 2 7" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="常规 2 3 3 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="常规 2 3 3 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="常规 2 3 3 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 2 3 7" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="常规 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="常规 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="常规 5" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 5 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="常规 5 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="常规 5 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="注释 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="注释 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="注释 2 2 3 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="注释 2 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="注释 2 5" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="注释 2 5 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
+    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="常规 5 2 5" xfId="11"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8"/>
+    <cellStyle name="百分比" xfId="16" builtinId="5"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="19"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
+    <cellStyle name="注释" xfId="21" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
+    <cellStyle name="常规 5 2 4" xfId="23"/>
+    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
+    <cellStyle name="常规 5 2" xfId="26"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
+    <cellStyle name="标题" xfId="28" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
+    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="32"/>
+    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
+    <cellStyle name="常规 5 2 3" xfId="35"/>
+    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
+    <cellStyle name="常规 5 2 6" xfId="37"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
+    <cellStyle name="输出" xfId="42" builtinId="21"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
+    <cellStyle name="计算" xfId="44" builtinId="22"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
+    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
+    <cellStyle name="注释 2 3" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
+    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
+    <cellStyle name="汇总" xfId="54" builtinId="25"/>
+    <cellStyle name="好" xfId="55" builtinId="26"/>
+    <cellStyle name="常规 2 3 2 4" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
+    <cellStyle name="适中" xfId="60" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
+    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
+    <cellStyle name="注释 2 3 3" xfId="65"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
+    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
+    <cellStyle name="常规 2 3 2 3" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3 2 5" xfId="94"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
+    <cellStyle name="常规 2 3 2 6" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
+    <cellStyle name="常规 2 3 2 7" xfId="100"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
+    <cellStyle name="常规 2 3 3 3" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
+    <cellStyle name="常规 2 3 3 4" xfId="105"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
+    <cellStyle name="常规 2 3 4 3" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
+    <cellStyle name="常规 3" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
+    <cellStyle name="常规 4" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
+    <cellStyle name="常规 5" xfId="165"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
+    <cellStyle name="注释 2" xfId="167"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
+    <cellStyle name="常规 5 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
+    <cellStyle name="注释 2 2 3 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
+    <cellStyle name="注释 2 5 2" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
+    <cellStyle name="常规 2 3 2 2" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
+    <cellStyle name="常规 2 3 3 5" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
+    <cellStyle name="常规 2 3 3 6" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
+    <cellStyle name="注释 2 2" xfId="295"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
+    <cellStyle name="常规 5 6" xfId="299"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
+    <cellStyle name="常规 2" xfId="313"/>
+    <cellStyle name="常规 2 2" xfId="314"/>
+    <cellStyle name="常规 2 3" xfId="315"/>
+    <cellStyle name="常规 2 3 2" xfId="316"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
+    <cellStyle name="注释 2 3 2" xfId="322"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
+    <cellStyle name="常规 2 3 3" xfId="325"/>
+    <cellStyle name="常规 2 3 3 2" xfId="326"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
+    <cellStyle name="注释 2 5" xfId="329"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
+    <cellStyle name="常规 2 3 4" xfId="331"/>
+    <cellStyle name="常规 2 3 4 2" xfId="332"/>
+    <cellStyle name="常规 2 3 5" xfId="333"/>
+    <cellStyle name="常规 2 3 5 2" xfId="334"/>
+    <cellStyle name="常规 5 2 2 2" xfId="335"/>
+    <cellStyle name="常规 2 3 6" xfId="336"/>
+    <cellStyle name="常规 2 3 6 2" xfId="337"/>
+    <cellStyle name="常规 5 2 2 3" xfId="338"/>
+    <cellStyle name="常规 2 3 7" xfId="339"/>
+    <cellStyle name="常规 2 3 8" xfId="340"/>
+    <cellStyle name="常规 5 2 3 2" xfId="341"/>
+    <cellStyle name="常规 5 2 4 2" xfId="342"/>
+    <cellStyle name="常规 5 3" xfId="343"/>
+    <cellStyle name="常规 5 3 2" xfId="344"/>
+    <cellStyle name="常规 5 3 3" xfId="345"/>
+    <cellStyle name="常规 5 4" xfId="346"/>
+    <cellStyle name="常规 5 4 2" xfId="347"/>
+    <cellStyle name="常规 5 5" xfId="348"/>
+    <cellStyle name="常规 5 5 2" xfId="349"/>
+    <cellStyle name="注释 2 2 2" xfId="350"/>
+    <cellStyle name="注释 2 2 2 2" xfId="351"/>
+    <cellStyle name="注释 2 2 2 3" xfId="352"/>
+    <cellStyle name="注释 2 2 3" xfId="353"/>
+    <cellStyle name="注释 2 2 4" xfId="354"/>
+    <cellStyle name="注释 2 2 4 2" xfId="355"/>
+    <cellStyle name="注释 2 2 5" xfId="356"/>
+    <cellStyle name="注释 2 2 6" xfId="357"/>
+    <cellStyle name="注释 2 4" xfId="358"/>
+    <cellStyle name="注释 2 4 2" xfId="359"/>
+    <cellStyle name="注释 2 6" xfId="360"/>
+    <cellStyle name="注释 2 7" xfId="361"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -1783,19 +2483,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2080,107 +2772,107 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="8" width="17.875" customWidth="1"/>
     <col min="9" max="10" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
+    <row r="1" s="1" customFormat="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
+    <row r="4" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
+    <row r="5" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C6" s="2">
         <v>10001101</v>
       </c>
@@ -2190,24 +2882,24 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
-        <v>100</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="8">
+        <v>100</v>
+      </c>
+      <c r="G6" s="9">
         <v>10010001</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <v>1</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C7" s="2">
         <v>10001102</v>
       </c>
@@ -2217,25 +2909,25 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
-        <v>100</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="8">
+        <v>100</v>
+      </c>
+      <c r="G7" s="9">
         <v>10010011</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="8">
         <v>1</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C8" s="2">
         <v>10001201</v>
       </c>
@@ -2245,13 +2937,13 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
-        <v>100</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="8">
+        <v>100</v>
+      </c>
+      <c r="G8" s="10">
         <v>10000153</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="8">
         <v>1</v>
       </c>
       <c r="I8" s="2">
@@ -2261,7 +2953,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C9" s="2">
         <v>10001202</v>
       </c>
@@ -2271,13 +2963,13 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
-        <v>100</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="8">
+        <v>100</v>
+      </c>
+      <c r="G9" s="11">
         <v>10000154</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="8">
         <v>1</v>
       </c>
       <c r="I9" s="2">
@@ -2287,7 +2979,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C10" s="2">
         <v>10001203</v>
       </c>
@@ -2297,13 +2989,13 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
-        <v>100</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="8">
+        <v>100</v>
+      </c>
+      <c r="G10" s="12">
         <v>14020003</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10" s="2">
@@ -2313,7 +3005,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="11" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C11" s="2">
         <v>10001204</v>
       </c>
@@ -2323,13 +3015,13 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
-        <v>100</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="8">
+        <v>100</v>
+      </c>
+      <c r="G11" s="12">
         <v>14020010</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="8">
         <v>1</v>
       </c>
       <c r="I11" s="2">
@@ -2339,7 +3031,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="12" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C12" s="2">
         <v>10001205</v>
       </c>
@@ -2349,13 +3041,13 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="6">
-        <v>100</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="8">
+        <v>100</v>
+      </c>
+      <c r="G12" s="12">
         <v>14030007</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="8">
         <v>1</v>
       </c>
       <c r="I12" s="2">
@@ -2365,7 +3057,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="13" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C13" s="2">
         <v>10001206</v>
       </c>
@@ -2375,13 +3067,13 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="6">
-        <v>100</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="8">
+        <v>100</v>
+      </c>
+      <c r="G13" s="12">
         <v>14060003</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="8">
         <v>1</v>
       </c>
       <c r="I13" s="2">
@@ -2391,7 +3083,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="14" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C14" s="2">
         <v>10001207</v>
       </c>
@@ -2401,13 +3093,13 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="6">
-        <v>100</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="F14" s="8">
+        <v>100</v>
+      </c>
+      <c r="G14" s="13">
         <v>14050011</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="8">
         <v>1</v>
       </c>
       <c r="I14" s="2">
@@ -2417,7 +3109,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="15" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C15" s="2">
         <v>10002101</v>
       </c>
@@ -2427,23 +3119,23 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
-        <v>100</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="8">
+        <v>100</v>
+      </c>
+      <c r="G15" s="9">
         <v>10010002</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="8">
         <v>1</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C16" s="2">
         <v>10002102</v>
       </c>
@@ -2453,23 +3145,23 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="6">
-        <v>100</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="8">
+        <v>100</v>
+      </c>
+      <c r="G16" s="9">
         <v>10010012</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C17" s="2">
         <v>10002201</v>
       </c>
@@ -2479,13 +3171,13 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="6">
-        <v>100</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="8">
+        <v>100</v>
+      </c>
+      <c r="G17" s="8">
         <v>15201001</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="8">
         <v>1</v>
       </c>
       <c r="I17" s="2">
@@ -2495,7 +3187,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="18" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C18" s="2">
         <v>10002202</v>
       </c>
@@ -2505,13 +3197,13 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="6">
-        <v>100</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="8">
+        <v>100</v>
+      </c>
+      <c r="G18" s="8">
         <v>15201003</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="8">
         <v>1</v>
       </c>
       <c r="I18" s="2">
@@ -2521,7 +3213,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C19" s="2">
         <v>10002203</v>
       </c>
@@ -2531,13 +3223,13 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="6">
-        <v>100</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="8">
+        <v>100</v>
+      </c>
+      <c r="G19" s="8">
         <v>15201005</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="8">
         <v>1</v>
       </c>
       <c r="I19" s="2">
@@ -2547,7 +3239,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="20" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C20" s="2">
         <v>10002204</v>
       </c>
@@ -2557,13 +3249,13 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="6">
-        <v>100</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="8">
+        <v>100</v>
+      </c>
+      <c r="G20" s="8">
         <v>15202001</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="8">
         <v>1</v>
       </c>
       <c r="I20" s="2">
@@ -2573,7 +3265,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="21" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C21" s="2">
         <v>10002205</v>
       </c>
@@ -2583,13 +3275,13 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
-        <v>100</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="8">
+        <v>100</v>
+      </c>
+      <c r="G21" s="8">
         <v>15202003</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="8">
         <v>1</v>
       </c>
       <c r="I21" s="2">
@@ -2599,7 +3291,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="22" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C22" s="2">
         <v>10002206</v>
       </c>
@@ -2609,13 +3301,13 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="6">
-        <v>100</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="8">
+        <v>100</v>
+      </c>
+      <c r="G22" s="8">
         <v>15202005</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="8">
         <v>1</v>
       </c>
       <c r="I22" s="2">
@@ -2625,7 +3317,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="23" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C23" s="2">
         <v>10002207</v>
       </c>
@@ -2635,13 +3327,13 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="6">
-        <v>100</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="8">
+        <v>100</v>
+      </c>
+      <c r="G23" s="8">
         <v>15207001</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="8">
         <v>1</v>
       </c>
       <c r="I23" s="2">
@@ -2651,7 +3343,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="24" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C24" s="2">
         <v>10002208</v>
       </c>
@@ -2661,13 +3353,13 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="6">
-        <v>100</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="8">
+        <v>100</v>
+      </c>
+      <c r="G24" s="8">
         <v>15208001</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="8">
         <v>1</v>
       </c>
       <c r="I24" s="2">
@@ -2677,7 +3369,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C25" s="2">
         <v>10003101</v>
       </c>
@@ -2687,23 +3379,23 @@
       <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="6">
-        <v>100</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="F25" s="8">
+        <v>100</v>
+      </c>
+      <c r="G25" s="9">
         <v>10010003</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="8">
         <v>1</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C26" s="2">
         <v>10003102</v>
       </c>
@@ -2713,23 +3405,23 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="6">
-        <v>100</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="8">
+        <v>100</v>
+      </c>
+      <c r="G26" s="9">
         <v>10010013</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="8">
         <v>1</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C27" s="2">
         <v>10003201</v>
       </c>
@@ -2739,13 +3431,13 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="6">
-        <v>100</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="F27" s="8">
+        <v>100</v>
+      </c>
+      <c r="G27" s="8">
         <v>15301001</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="8">
         <v>1</v>
       </c>
       <c r="I27" s="2">
@@ -2755,7 +3447,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C28" s="2">
         <v>10003202</v>
       </c>
@@ -2765,13 +3457,13 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="6">
-        <v>100</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="F28" s="8">
+        <v>100</v>
+      </c>
+      <c r="G28" s="8">
         <v>15301003</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="8">
         <v>1</v>
       </c>
       <c r="I28" s="2">
@@ -2781,7 +3473,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="29" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C29" s="2">
         <v>10003203</v>
       </c>
@@ -2791,13 +3483,13 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="6">
-        <v>100</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="F29" s="8">
+        <v>100</v>
+      </c>
+      <c r="G29" s="8">
         <v>15301005</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="8">
         <v>1</v>
       </c>
       <c r="I29" s="2">
@@ -2807,7 +3499,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="30" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C30" s="2">
         <v>10003204</v>
       </c>
@@ -2817,13 +3509,13 @@
       <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" s="6">
-        <v>100</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="8">
+        <v>100</v>
+      </c>
+      <c r="G30" s="8">
         <v>15302001</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="8">
         <v>1</v>
       </c>
       <c r="I30" s="2">
@@ -2833,7 +3525,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="31" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C31" s="2">
         <v>10003205</v>
       </c>
@@ -2843,13 +3535,13 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="6">
-        <v>100</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="F31" s="8">
+        <v>100</v>
+      </c>
+      <c r="G31" s="8">
         <v>15302003</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="8">
         <v>1</v>
       </c>
       <c r="I31" s="2">
@@ -2859,7 +3551,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="32" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C32" s="2">
         <v>10003206</v>
       </c>
@@ -2869,13 +3561,13 @@
       <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="6">
-        <v>100</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="F32" s="8">
+        <v>100</v>
+      </c>
+      <c r="G32" s="8">
         <v>15302005</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="8">
         <v>1</v>
       </c>
       <c r="I32" s="2">
@@ -2885,7 +3577,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="33" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C33" s="2">
         <v>10003207</v>
       </c>
@@ -2895,13 +3587,13 @@
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="6">
-        <v>100</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="F33" s="8">
+        <v>100</v>
+      </c>
+      <c r="G33" s="8">
         <v>15307001</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="8">
         <v>1</v>
       </c>
       <c r="I33" s="2">
@@ -2911,7 +3603,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="34" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C34" s="2">
         <v>10003208</v>
       </c>
@@ -2921,13 +3613,13 @@
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="6">
-        <v>100</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="F34" s="8">
+        <v>100</v>
+      </c>
+      <c r="G34" s="8">
         <v>15308001</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="8">
         <v>1</v>
       </c>
       <c r="I34" s="2">
@@ -2937,7 +3629,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="35" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C35" s="2">
         <v>10004101</v>
       </c>
@@ -2947,23 +3639,23 @@
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="6">
-        <v>100</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="8">
+        <v>100</v>
+      </c>
+      <c r="G35" s="9">
         <v>10010004</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="8">
         <v>1</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C36" s="2">
         <v>10004102</v>
       </c>
@@ -2973,23 +3665,23 @@
       <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="F36" s="6">
-        <v>100</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="8">
+        <v>100</v>
+      </c>
+      <c r="G36" s="9">
         <v>10010014</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="8">
         <v>1</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C37" s="2">
         <v>10004201</v>
       </c>
@@ -2999,13 +3691,13 @@
       <c r="E37" s="2">
         <v>1</v>
       </c>
-      <c r="F37" s="6">
-        <v>100</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="F37" s="8">
+        <v>100</v>
+      </c>
+      <c r="G37" s="8">
         <v>15401001</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="8">
         <v>1</v>
       </c>
       <c r="I37" s="2">
@@ -3015,7 +3707,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="38" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C38" s="2">
         <v>10004202</v>
       </c>
@@ -3025,13 +3717,13 @@
       <c r="E38" s="2">
         <v>1</v>
       </c>
-      <c r="F38" s="6">
-        <v>100</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F38" s="8">
+        <v>100</v>
+      </c>
+      <c r="G38" s="8">
         <v>15401003</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="8">
         <v>1</v>
       </c>
       <c r="I38" s="2">
@@ -3041,7 +3733,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="39" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C39" s="2">
         <v>10004203</v>
       </c>
@@ -3051,13 +3743,13 @@
       <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="6">
-        <v>100</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="F39" s="8">
+        <v>100</v>
+      </c>
+      <c r="G39" s="8">
         <v>15401005</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="8">
         <v>1</v>
       </c>
       <c r="I39" s="2">
@@ -3067,7 +3759,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="40" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C40" s="2">
         <v>10004204</v>
       </c>
@@ -3077,13 +3769,13 @@
       <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="6">
-        <v>100</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="F40" s="8">
+        <v>100</v>
+      </c>
+      <c r="G40" s="8">
         <v>15402001</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="8">
         <v>1</v>
       </c>
       <c r="I40" s="2">
@@ -3093,7 +3785,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="41" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C41" s="2">
         <v>10004205</v>
       </c>
@@ -3103,13 +3795,13 @@
       <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="6">
-        <v>100</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="F41" s="8">
+        <v>100</v>
+      </c>
+      <c r="G41" s="8">
         <v>15402003</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="8">
         <v>1</v>
       </c>
       <c r="I41" s="2">
@@ -3119,7 +3811,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="42" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C42" s="2">
         <v>10004206</v>
       </c>
@@ -3129,13 +3821,13 @@
       <c r="E42" s="2">
         <v>1</v>
       </c>
-      <c r="F42" s="6">
-        <v>100</v>
-      </c>
-      <c r="G42" s="6">
+      <c r="F42" s="8">
+        <v>100</v>
+      </c>
+      <c r="G42" s="8">
         <v>15402005</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="8">
         <v>1</v>
       </c>
       <c r="I42" s="2">
@@ -3145,7 +3837,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C43" s="2">
         <v>10004207</v>
       </c>
@@ -3155,13 +3847,13 @@
       <c r="E43" s="2">
         <v>1</v>
       </c>
-      <c r="F43" s="6">
-        <v>100</v>
-      </c>
-      <c r="G43" s="6">
+      <c r="F43" s="8">
+        <v>100</v>
+      </c>
+      <c r="G43" s="8">
         <v>15407001</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="8">
         <v>1</v>
       </c>
       <c r="I43" s="2">
@@ -3171,7 +3863,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="44" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C44" s="2">
         <v>10004208</v>
       </c>
@@ -3181,13 +3873,13 @@
       <c r="E44" s="2">
         <v>1</v>
       </c>
-      <c r="F44" s="6">
-        <v>100</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="F44" s="8">
+        <v>100</v>
+      </c>
+      <c r="G44" s="8">
         <v>15408001</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="8">
         <v>1</v>
       </c>
       <c r="I44" s="2">
@@ -3197,7 +3889,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="45" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C45" s="2">
         <v>10005101</v>
       </c>
@@ -3207,23 +3899,23 @@
       <c r="E45" s="2">
         <v>1</v>
       </c>
-      <c r="F45" s="6">
-        <v>100</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="F45" s="8">
+        <v>100</v>
+      </c>
+      <c r="G45" s="9">
         <v>10010005</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="8">
         <v>1</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="J45" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C46" s="2">
         <v>10005102</v>
       </c>
@@ -3233,23 +3925,23 @@
       <c r="E46" s="2">
         <v>1</v>
       </c>
-      <c r="F46" s="6">
-        <v>100</v>
-      </c>
-      <c r="G46" s="7">
+      <c r="F46" s="8">
+        <v>100</v>
+      </c>
+      <c r="G46" s="9">
         <v>10010015</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="8">
         <v>1</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C47" s="2">
         <v>10005201</v>
       </c>
@@ -3259,13 +3951,13 @@
       <c r="E47" s="2">
         <v>1</v>
       </c>
-      <c r="F47" s="6">
-        <v>100</v>
-      </c>
-      <c r="G47" s="6">
+      <c r="F47" s="8">
+        <v>100</v>
+      </c>
+      <c r="G47" s="8">
         <v>15501001</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="8">
         <v>1</v>
       </c>
       <c r="I47" s="2">
@@ -3275,7 +3967,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="48" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C48" s="2">
         <v>10005202</v>
       </c>
@@ -3285,13 +3977,13 @@
       <c r="E48" s="2">
         <v>1</v>
       </c>
-      <c r="F48" s="6">
-        <v>100</v>
-      </c>
-      <c r="G48" s="6">
+      <c r="F48" s="8">
+        <v>100</v>
+      </c>
+      <c r="G48" s="8">
         <v>15501003</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="8">
         <v>1</v>
       </c>
       <c r="I48" s="2">
@@ -3301,7 +3993,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C49" s="2">
         <v>10005203</v>
       </c>
@@ -3311,13 +4003,13 @@
       <c r="E49" s="2">
         <v>1</v>
       </c>
-      <c r="F49" s="6">
-        <v>100</v>
-      </c>
-      <c r="G49" s="6">
+      <c r="F49" s="8">
+        <v>100</v>
+      </c>
+      <c r="G49" s="8">
         <v>15501005</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="8">
         <v>1</v>
       </c>
       <c r="I49" s="2">
@@ -3327,7 +4019,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C50" s="2">
         <v>10005204</v>
       </c>
@@ -3337,13 +4029,13 @@
       <c r="E50" s="2">
         <v>1</v>
       </c>
-      <c r="F50" s="6">
-        <v>100</v>
-      </c>
-      <c r="G50" s="6">
+      <c r="F50" s="8">
+        <v>100</v>
+      </c>
+      <c r="G50" s="8">
         <v>15502001</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="8">
         <v>1</v>
       </c>
       <c r="I50" s="2">
@@ -3353,7 +4045,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="51" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C51" s="2">
         <v>10005205</v>
       </c>
@@ -3363,13 +4055,13 @@
       <c r="E51" s="2">
         <v>1</v>
       </c>
-      <c r="F51" s="6">
-        <v>100</v>
-      </c>
-      <c r="G51" s="6">
+      <c r="F51" s="8">
+        <v>100</v>
+      </c>
+      <c r="G51" s="8">
         <v>15502003</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="8">
         <v>1</v>
       </c>
       <c r="I51" s="2">
@@ -3379,7 +4071,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="52" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C52" s="2">
         <v>10005206</v>
       </c>
@@ -3389,13 +4081,13 @@
       <c r="E52" s="2">
         <v>1</v>
       </c>
-      <c r="F52" s="6">
-        <v>100</v>
-      </c>
-      <c r="G52" s="6">
+      <c r="F52" s="8">
+        <v>100</v>
+      </c>
+      <c r="G52" s="8">
         <v>15502005</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="8">
         <v>1</v>
       </c>
       <c r="I52" s="2">
@@ -3405,7 +4097,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C53" s="2">
         <v>10005207</v>
       </c>
@@ -3415,13 +4107,13 @@
       <c r="E53" s="2">
         <v>1</v>
       </c>
-      <c r="F53" s="6">
-        <v>100</v>
-      </c>
-      <c r="G53" s="6">
+      <c r="F53" s="8">
+        <v>100</v>
+      </c>
+      <c r="G53" s="8">
         <v>15507001</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="8">
         <v>1</v>
       </c>
       <c r="I53" s="2">
@@ -3431,7 +4123,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="54" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C54" s="2">
         <v>10005208</v>
       </c>
@@ -3441,13 +4133,13 @@
       <c r="E54" s="2">
         <v>1</v>
       </c>
-      <c r="F54" s="6">
-        <v>100</v>
-      </c>
-      <c r="G54" s="6">
+      <c r="F54" s="8">
+        <v>100</v>
+      </c>
+      <c r="G54" s="8">
         <v>15508001</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="8">
         <v>1</v>
       </c>
       <c r="I54" s="2">
@@ -3457,7 +4149,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C55" s="2">
         <v>20000001</v>
       </c>
@@ -3467,26 +4159,26 @@
       <c r="E55" s="2">
         <v>1</v>
       </c>
-      <c r="F55" s="6">
-        <v>100</v>
-      </c>
-      <c r="G55" s="8">
+      <c r="F55" s="8">
+        <v>100</v>
+      </c>
+      <c r="G55" s="10">
         <v>10010083</v>
       </c>
-      <c r="H55" s="6">
-        <v>1</v>
-      </c>
-      <c r="I55" s="8">
+      <c r="H55" s="8">
+        <v>1</v>
+      </c>
+      <c r="I55" s="10">
         <v>10010035</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="16">
         <v>5</v>
       </c>
-      <c r="L55" s="14" t="s">
+      <c r="L55" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C56" s="2">
         <v>20000002</v>
       </c>
@@ -3496,23 +4188,23 @@
       <c r="E56" s="2">
         <v>1</v>
       </c>
-      <c r="F56" s="6">
-        <v>100</v>
-      </c>
-      <c r="G56" s="8">
+      <c r="F56" s="8">
+        <v>100</v>
+      </c>
+      <c r="G56" s="10">
         <v>10010045</v>
       </c>
-      <c r="H56" s="6">
-        <v>1</v>
-      </c>
-      <c r="I56" s="8">
+      <c r="H56" s="8">
+        <v>1</v>
+      </c>
+      <c r="I56" s="10">
         <v>10010035</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="16">
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C57" s="2">
         <v>20000003</v>
       </c>
@@ -3522,23 +4214,23 @@
       <c r="E57" s="2">
         <v>1</v>
       </c>
-      <c r="F57" s="6">
-        <v>100</v>
-      </c>
-      <c r="G57" s="8">
+      <c r="F57" s="8">
+        <v>100</v>
+      </c>
+      <c r="G57" s="10">
         <v>10000131</v>
       </c>
-      <c r="H57" s="6">
-        <v>1</v>
-      </c>
-      <c r="I57" s="8">
+      <c r="H57" s="8">
+        <v>1</v>
+      </c>
+      <c r="I57" s="10">
         <v>10010035</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C58" s="2">
         <v>20000004</v>
       </c>
@@ -3548,23 +4240,23 @@
       <c r="E58" s="2">
         <v>1</v>
       </c>
-      <c r="F58" s="6">
-        <v>100</v>
-      </c>
-      <c r="G58" s="12">
+      <c r="F58" s="8">
+        <v>100</v>
+      </c>
+      <c r="G58" s="14">
         <v>10010098</v>
       </c>
-      <c r="H58" s="6">
-        <v>1</v>
-      </c>
-      <c r="I58" s="8">
+      <c r="H58" s="8">
+        <v>1</v>
+      </c>
+      <c r="I58" s="10">
         <v>10010035</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C59" s="2">
         <v>20000005</v>
       </c>
@@ -3574,23 +4266,23 @@
       <c r="E59" s="2">
         <v>1</v>
       </c>
-      <c r="F59" s="6">
-        <v>100</v>
-      </c>
-      <c r="G59" s="8">
+      <c r="F59" s="8">
+        <v>100</v>
+      </c>
+      <c r="G59" s="10">
         <v>10000132</v>
       </c>
-      <c r="H59" s="6">
-        <v>1</v>
-      </c>
-      <c r="I59" s="8">
+      <c r="H59" s="8">
+        <v>1</v>
+      </c>
+      <c r="I59" s="10">
         <v>10010035</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C60" s="2">
         <v>20000006</v>
       </c>
@@ -3600,23 +4292,23 @@
       <c r="E60" s="2">
         <v>1</v>
       </c>
-      <c r="F60" s="6">
-        <v>100</v>
-      </c>
-      <c r="G60" s="8">
+      <c r="F60" s="8">
+        <v>100</v>
+      </c>
+      <c r="G60" s="10">
         <v>10000144</v>
       </c>
-      <c r="H60" s="6">
-        <v>1</v>
-      </c>
-      <c r="I60" s="8">
+      <c r="H60" s="8">
+        <v>1</v>
+      </c>
+      <c r="I60" s="10">
         <v>10010035</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C61" s="2">
         <v>20000007</v>
       </c>
@@ -3626,23 +4318,23 @@
       <c r="E61" s="2">
         <v>1</v>
       </c>
-      <c r="F61" s="6">
-        <v>100</v>
-      </c>
-      <c r="G61" s="8">
+      <c r="F61" s="8">
+        <v>100</v>
+      </c>
+      <c r="G61" s="10">
         <v>10000145</v>
       </c>
-      <c r="H61" s="6">
-        <v>1</v>
-      </c>
-      <c r="I61" s="8">
+      <c r="H61" s="8">
+        <v>1</v>
+      </c>
+      <c r="I61" s="10">
         <v>10010035</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C62" s="2">
         <v>20000008</v>
       </c>
@@ -3652,23 +4344,23 @@
       <c r="E62" s="2">
         <v>1</v>
       </c>
-      <c r="F62" s="6">
-        <v>100</v>
-      </c>
-      <c r="G62" s="8">
+      <c r="F62" s="8">
+        <v>100</v>
+      </c>
+      <c r="G62" s="10">
         <v>10000146</v>
       </c>
-      <c r="H62" s="6">
-        <v>1</v>
-      </c>
-      <c r="I62" s="8">
+      <c r="H62" s="8">
+        <v>1</v>
+      </c>
+      <c r="I62" s="10">
         <v>10010035</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C63" s="2">
         <v>20000009</v>
       </c>
@@ -3678,23 +4370,23 @@
       <c r="E63" s="2">
         <v>1</v>
       </c>
-      <c r="F63" s="6">
-        <v>100</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="F63" s="8">
+        <v>100</v>
+      </c>
+      <c r="G63" s="10">
         <v>10000147</v>
       </c>
-      <c r="H63" s="6">
-        <v>1</v>
-      </c>
-      <c r="I63" s="8">
+      <c r="H63" s="8">
+        <v>1</v>
+      </c>
+      <c r="I63" s="10">
         <v>10010035</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C64" s="2">
         <v>20000010</v>
       </c>
@@ -3704,23 +4396,23 @@
       <c r="E64" s="2">
         <v>1</v>
       </c>
-      <c r="F64" s="6">
-        <v>100</v>
-      </c>
-      <c r="G64" s="8">
+      <c r="F64" s="8">
+        <v>100</v>
+      </c>
+      <c r="G64" s="10">
         <v>10000121</v>
       </c>
-      <c r="H64" s="6">
-        <v>1</v>
-      </c>
-      <c r="I64" s="8">
+      <c r="H64" s="8">
+        <v>1</v>
+      </c>
+      <c r="I64" s="10">
         <v>10010035</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C65" s="2">
         <v>20000011</v>
       </c>
@@ -3730,23 +4422,23 @@
       <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="6">
-        <v>100</v>
-      </c>
-      <c r="G65" s="8">
+      <c r="F65" s="8">
+        <v>100</v>
+      </c>
+      <c r="G65" s="10">
         <v>10000122</v>
       </c>
-      <c r="H65" s="6">
-        <v>1</v>
-      </c>
-      <c r="I65" s="8">
+      <c r="H65" s="8">
+        <v>1</v>
+      </c>
+      <c r="I65" s="10">
         <v>10010035</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C66" s="2">
         <v>20000012</v>
       </c>
@@ -3756,23 +4448,23 @@
       <c r="E66" s="2">
         <v>1</v>
       </c>
-      <c r="F66" s="6">
-        <v>100</v>
-      </c>
-      <c r="G66" s="8">
+      <c r="F66" s="8">
+        <v>100</v>
+      </c>
+      <c r="G66" s="10">
         <v>10000123</v>
       </c>
-      <c r="H66" s="6">
-        <v>1</v>
-      </c>
-      <c r="I66" s="8">
+      <c r="H66" s="8">
+        <v>1</v>
+      </c>
+      <c r="I66" s="10">
         <v>10010035</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C67" s="2">
         <v>20000013</v>
       </c>
@@ -3782,23 +4474,23 @@
       <c r="E67" s="2">
         <v>1</v>
       </c>
-      <c r="F67" s="6">
-        <v>100</v>
-      </c>
-      <c r="G67" s="8">
+      <c r="F67" s="8">
+        <v>100</v>
+      </c>
+      <c r="G67" s="10">
         <v>10000124</v>
       </c>
-      <c r="H67" s="6">
-        <v>1</v>
-      </c>
-      <c r="I67" s="8">
+      <c r="H67" s="8">
+        <v>1</v>
+      </c>
+      <c r="I67" s="10">
         <v>10010035</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C68" s="2">
         <v>20000014</v>
       </c>
@@ -3808,23 +4500,23 @@
       <c r="E68" s="2">
         <v>1</v>
       </c>
-      <c r="F68" s="6">
-        <v>100</v>
-      </c>
-      <c r="G68" s="8">
+      <c r="F68" s="8">
+        <v>100</v>
+      </c>
+      <c r="G68" s="10">
         <v>10000125</v>
       </c>
-      <c r="H68" s="6">
-        <v>1</v>
-      </c>
-      <c r="I68" s="8">
+      <c r="H68" s="8">
+        <v>1</v>
+      </c>
+      <c r="I68" s="10">
         <v>10010035</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C69" s="2">
         <v>20000015</v>
       </c>
@@ -3834,23 +4526,23 @@
       <c r="E69" s="2">
         <v>1</v>
       </c>
-      <c r="F69" s="6">
-        <v>100</v>
-      </c>
-      <c r="G69" s="8">
+      <c r="F69" s="8">
+        <v>100</v>
+      </c>
+      <c r="G69" s="10">
         <v>10010046</v>
       </c>
-      <c r="H69" s="6">
-        <v>1</v>
-      </c>
-      <c r="I69" s="8">
+      <c r="H69" s="8">
+        <v>1</v>
+      </c>
+      <c r="I69" s="10">
         <v>10010035</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="16">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C70" s="2">
         <v>20000016</v>
       </c>
@@ -3860,23 +4552,23 @@
       <c r="E70" s="2">
         <v>1</v>
       </c>
-      <c r="F70" s="6">
-        <v>100</v>
-      </c>
-      <c r="G70" s="8">
+      <c r="F70" s="8">
+        <v>100</v>
+      </c>
+      <c r="G70" s="10">
         <v>10010085</v>
       </c>
-      <c r="H70" s="6">
-        <v>1</v>
-      </c>
-      <c r="I70" s="8">
+      <c r="H70" s="8">
+        <v>1</v>
+      </c>
+      <c r="I70" s="10">
         <v>10010035</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C71" s="2">
         <v>20000017</v>
       </c>
@@ -3886,23 +4578,23 @@
       <c r="E71" s="2">
         <v>1</v>
       </c>
-      <c r="F71" s="6">
-        <v>100</v>
-      </c>
-      <c r="G71" s="15">
+      <c r="F71" s="8">
+        <v>100</v>
+      </c>
+      <c r="G71" s="18">
         <v>10021008</v>
       </c>
-      <c r="H71" s="6">
-        <v>1</v>
-      </c>
-      <c r="I71" s="8">
+      <c r="H71" s="8">
+        <v>1</v>
+      </c>
+      <c r="I71" s="10">
         <v>10010035</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C72" s="2">
         <v>20000018</v>
       </c>
@@ -3912,23 +4604,23 @@
       <c r="E72" s="2">
         <v>1</v>
       </c>
-      <c r="F72" s="6">
-        <v>100</v>
-      </c>
-      <c r="G72" s="15">
+      <c r="F72" s="8">
+        <v>100</v>
+      </c>
+      <c r="G72" s="18">
         <v>10021009</v>
       </c>
-      <c r="H72" s="6">
-        <v>1</v>
-      </c>
-      <c r="I72" s="8">
+      <c r="H72" s="8">
+        <v>1</v>
+      </c>
+      <c r="I72" s="10">
         <v>10010035</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C73" s="2">
         <v>20000019</v>
       </c>
@@ -3938,23 +4630,23 @@
       <c r="E73" s="2">
         <v>1</v>
       </c>
-      <c r="F73" s="6">
-        <v>100</v>
-      </c>
-      <c r="G73" s="15">
+      <c r="F73" s="8">
+        <v>100</v>
+      </c>
+      <c r="G73" s="18">
         <v>10022008</v>
       </c>
-      <c r="H73" s="6">
-        <v>1</v>
-      </c>
-      <c r="I73" s="8">
+      <c r="H73" s="8">
+        <v>1</v>
+      </c>
+      <c r="I73" s="10">
         <v>10010035</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C74" s="2">
         <v>20000020</v>
       </c>
@@ -3964,23 +4656,23 @@
       <c r="E74" s="2">
         <v>1</v>
       </c>
-      <c r="F74" s="6">
-        <v>100</v>
-      </c>
-      <c r="G74" s="15">
+      <c r="F74" s="8">
+        <v>100</v>
+      </c>
+      <c r="G74" s="18">
         <v>10022009</v>
       </c>
-      <c r="H74" s="6">
-        <v>1</v>
-      </c>
-      <c r="I74" s="8">
+      <c r="H74" s="8">
+        <v>1</v>
+      </c>
+      <c r="I74" s="10">
         <v>10010035</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C75" s="2">
         <v>20000021</v>
       </c>
@@ -3990,23 +4682,23 @@
       <c r="E75" s="2">
         <v>1</v>
       </c>
-      <c r="F75" s="6">
-        <v>100</v>
-      </c>
-      <c r="G75" s="15">
+      <c r="F75" s="8">
+        <v>100</v>
+      </c>
+      <c r="G75" s="18">
         <v>10023008</v>
       </c>
-      <c r="H75" s="6">
-        <v>1</v>
-      </c>
-      <c r="I75" s="8">
+      <c r="H75" s="8">
+        <v>1</v>
+      </c>
+      <c r="I75" s="10">
         <v>10010035</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C76" s="2">
         <v>20000022</v>
       </c>
@@ -4016,23 +4708,23 @@
       <c r="E76" s="2">
         <v>1</v>
       </c>
-      <c r="F76" s="6">
-        <v>100</v>
-      </c>
-      <c r="G76" s="15">
+      <c r="F76" s="8">
+        <v>100</v>
+      </c>
+      <c r="G76" s="18">
         <v>10023009</v>
       </c>
-      <c r="H76" s="6">
-        <v>1</v>
-      </c>
-      <c r="I76" s="8">
+      <c r="H76" s="8">
+        <v>1</v>
+      </c>
+      <c r="I76" s="10">
         <v>10010035</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C77" s="2">
         <v>20000023</v>
       </c>
@@ -4042,23 +4734,23 @@
       <c r="E77" s="2">
         <v>1</v>
       </c>
-      <c r="F77" s="6">
-        <v>100</v>
-      </c>
-      <c r="G77" s="15">
+      <c r="F77" s="8">
+        <v>100</v>
+      </c>
+      <c r="G77" s="18">
         <v>10024008</v>
       </c>
-      <c r="H77" s="6">
-        <v>1</v>
-      </c>
-      <c r="I77" s="8">
+      <c r="H77" s="8">
+        <v>1</v>
+      </c>
+      <c r="I77" s="10">
         <v>10010035</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C78" s="2">
         <v>20000024</v>
       </c>
@@ -4068,23 +4760,23 @@
       <c r="E78" s="2">
         <v>1</v>
       </c>
-      <c r="F78" s="6">
-        <v>100</v>
-      </c>
-      <c r="G78" s="15">
+      <c r="F78" s="8">
+        <v>100</v>
+      </c>
+      <c r="G78" s="18">
         <v>10024009</v>
       </c>
-      <c r="H78" s="6">
-        <v>1</v>
-      </c>
-      <c r="I78" s="8">
+      <c r="H78" s="8">
+        <v>1</v>
+      </c>
+      <c r="I78" s="10">
         <v>10010035</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C79" s="2">
         <v>20000025</v>
       </c>
@@ -4094,23 +4786,23 @@
       <c r="E79" s="2">
         <v>1</v>
       </c>
-      <c r="F79" s="6">
-        <v>100</v>
-      </c>
-      <c r="G79" s="15">
+      <c r="F79" s="8">
+        <v>100</v>
+      </c>
+      <c r="G79" s="18">
         <v>10025008</v>
       </c>
-      <c r="H79" s="6">
-        <v>1</v>
-      </c>
-      <c r="I79" s="8">
+      <c r="H79" s="8">
+        <v>1</v>
+      </c>
+      <c r="I79" s="10">
         <v>10010035</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C80" s="2">
         <v>20000026</v>
       </c>
@@ -4120,23 +4812,23 @@
       <c r="E80" s="2">
         <v>1</v>
       </c>
-      <c r="F80" s="6">
-        <v>100</v>
-      </c>
-      <c r="G80" s="15">
+      <c r="F80" s="8">
+        <v>100</v>
+      </c>
+      <c r="G80" s="18">
         <v>10025009</v>
       </c>
-      <c r="H80" s="6">
-        <v>1</v>
-      </c>
-      <c r="I80" s="8">
+      <c r="H80" s="8">
+        <v>1</v>
+      </c>
+      <c r="I80" s="10">
         <v>10010035</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J80" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C81" s="2">
         <v>20000027</v>
       </c>
@@ -4146,23 +4838,23 @@
       <c r="E81" s="2">
         <v>1</v>
       </c>
-      <c r="F81" s="6">
-        <v>100</v>
-      </c>
-      <c r="G81" s="15">
+      <c r="F81" s="8">
+        <v>100</v>
+      </c>
+      <c r="G81" s="18">
         <v>10000105</v>
       </c>
-      <c r="H81" s="6">
-        <v>1</v>
-      </c>
-      <c r="I81" s="8">
+      <c r="H81" s="8">
+        <v>1</v>
+      </c>
+      <c r="I81" s="10">
         <v>10010035</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="16">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C82" s="2">
         <v>20000028</v>
       </c>
@@ -4172,23 +4864,23 @@
       <c r="E82" s="2">
         <v>1</v>
       </c>
-      <c r="F82" s="6">
-        <v>100</v>
-      </c>
-      <c r="G82" s="8">
+      <c r="F82" s="8">
+        <v>100</v>
+      </c>
+      <c r="G82" s="10">
         <v>10010052</v>
       </c>
       <c r="H82" s="2">
         <v>1</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="10">
         <v>10010035</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J82" s="16">
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C83" s="2">
         <v>30000001</v>
       </c>
@@ -4198,26 +4890,26 @@
       <c r="E83" s="2">
         <v>1</v>
       </c>
-      <c r="F83" s="6">
-        <v>100</v>
-      </c>
-      <c r="G83" s="8">
+      <c r="F83" s="8">
+        <v>100</v>
+      </c>
+      <c r="G83" s="10">
         <v>10000144</v>
       </c>
-      <c r="H83" s="6">
-        <v>1</v>
-      </c>
-      <c r="I83" s="8">
+      <c r="H83" s="8">
+        <v>1</v>
+      </c>
+      <c r="I83" s="10">
         <v>10000148</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J83" s="16">
         <v>10</v>
       </c>
-      <c r="L83" s="14" t="s">
+      <c r="L83" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C84" s="2">
         <v>30000002</v>
       </c>
@@ -4227,23 +4919,23 @@
       <c r="E84" s="2">
         <v>1</v>
       </c>
-      <c r="F84" s="6">
-        <v>100</v>
-      </c>
-      <c r="G84" s="8">
+      <c r="F84" s="8">
+        <v>100</v>
+      </c>
+      <c r="G84" s="10">
         <v>10000145</v>
       </c>
-      <c r="H84" s="6">
-        <v>1</v>
-      </c>
-      <c r="I84" s="8">
+      <c r="H84" s="8">
+        <v>1</v>
+      </c>
+      <c r="I84" s="10">
         <v>10000148</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C85" s="2">
         <v>30000003</v>
       </c>
@@ -4253,23 +4945,23 @@
       <c r="E85" s="2">
         <v>1</v>
       </c>
-      <c r="F85" s="6">
-        <v>100</v>
-      </c>
-      <c r="G85" s="8">
+      <c r="F85" s="8">
+        <v>100</v>
+      </c>
+      <c r="G85" s="10">
         <v>10000146</v>
       </c>
-      <c r="H85" s="6">
-        <v>1</v>
-      </c>
-      <c r="I85" s="8">
+      <c r="H85" s="8">
+        <v>1</v>
+      </c>
+      <c r="I85" s="10">
         <v>10000148</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J85" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C86" s="2">
         <v>30000004</v>
       </c>
@@ -4279,23 +4971,23 @@
       <c r="E86" s="2">
         <v>1</v>
       </c>
-      <c r="F86" s="6">
-        <v>100</v>
-      </c>
-      <c r="G86" s="8">
+      <c r="F86" s="8">
+        <v>100</v>
+      </c>
+      <c r="G86" s="10">
         <v>10000147</v>
       </c>
-      <c r="H86" s="6">
-        <v>1</v>
-      </c>
-      <c r="I86" s="8">
+      <c r="H86" s="8">
+        <v>1</v>
+      </c>
+      <c r="I86" s="10">
         <v>10000148</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J86" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C87" s="2">
         <v>30000005</v>
       </c>
@@ -4305,23 +4997,23 @@
       <c r="E87" s="2">
         <v>1</v>
       </c>
-      <c r="F87" s="6">
-        <v>100</v>
-      </c>
-      <c r="G87" s="8">
+      <c r="F87" s="8">
+        <v>100</v>
+      </c>
+      <c r="G87" s="10">
         <v>10010033</v>
       </c>
-      <c r="H87" s="6">
-        <v>1</v>
-      </c>
-      <c r="I87" s="8">
+      <c r="H87" s="8">
+        <v>1</v>
+      </c>
+      <c r="I87" s="10">
         <v>10000148</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J87" s="22">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C88" s="2">
         <v>30000006</v>
       </c>
@@ -4331,23 +5023,23 @@
       <c r="E88" s="2">
         <v>1</v>
       </c>
-      <c r="F88" s="6">
-        <v>100</v>
-      </c>
-      <c r="G88" s="8">
+      <c r="F88" s="8">
+        <v>100</v>
+      </c>
+      <c r="G88" s="10">
         <v>10010083</v>
       </c>
-      <c r="H88" s="6">
-        <v>1</v>
-      </c>
-      <c r="I88" s="8">
+      <c r="H88" s="8">
+        <v>1</v>
+      </c>
+      <c r="I88" s="10">
         <v>10000148</v>
       </c>
-      <c r="J88" s="16">
+      <c r="J88" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C89" s="2">
         <v>30000007</v>
       </c>
@@ -4357,23 +5049,23 @@
       <c r="E89" s="2">
         <v>1</v>
       </c>
-      <c r="F89" s="6">
-        <v>100</v>
-      </c>
-      <c r="G89" s="12">
+      <c r="F89" s="8">
+        <v>100</v>
+      </c>
+      <c r="G89" s="14">
         <v>10010098</v>
       </c>
-      <c r="H89" s="6">
-        <v>1</v>
-      </c>
-      <c r="I89" s="8">
+      <c r="H89" s="8">
+        <v>1</v>
+      </c>
+      <c r="I89" s="10">
         <v>10000148</v>
       </c>
-      <c r="J89" s="16">
+      <c r="J89" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C90" s="2">
         <v>30000008</v>
       </c>
@@ -4383,23 +5075,23 @@
       <c r="E90" s="2">
         <v>1</v>
       </c>
-      <c r="F90" s="6">
-        <v>100</v>
-      </c>
-      <c r="G90" s="8">
+      <c r="F90" s="8">
+        <v>100</v>
+      </c>
+      <c r="G90" s="10">
         <v>10010085</v>
       </c>
-      <c r="H90" s="6">
-        <v>1</v>
-      </c>
-      <c r="I90" s="8">
+      <c r="H90" s="8">
+        <v>1</v>
+      </c>
+      <c r="I90" s="10">
         <v>10000148</v>
       </c>
-      <c r="J90" s="16">
+      <c r="J90" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C91" s="2">
         <v>30000009</v>
       </c>
@@ -4409,23 +5101,23 @@
       <c r="E91" s="2">
         <v>1</v>
       </c>
-      <c r="F91" s="6">
-        <v>100</v>
-      </c>
-      <c r="G91" s="8">
+      <c r="F91" s="8">
+        <v>100</v>
+      </c>
+      <c r="G91" s="10">
         <v>10000131</v>
       </c>
-      <c r="H91" s="6">
-        <v>1</v>
-      </c>
-      <c r="I91" s="8">
+      <c r="H91" s="8">
+        <v>1</v>
+      </c>
+      <c r="I91" s="10">
         <v>10000148</v>
       </c>
-      <c r="J91" s="16">
+      <c r="J91" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C92" s="2">
         <v>30000010</v>
       </c>
@@ -4435,23 +5127,23 @@
       <c r="E92" s="2">
         <v>1</v>
       </c>
-      <c r="F92" s="6">
-        <v>100</v>
-      </c>
-      <c r="G92" s="8">
+      <c r="F92" s="8">
+        <v>100</v>
+      </c>
+      <c r="G92" s="10">
         <v>10000132</v>
       </c>
-      <c r="H92" s="6">
-        <v>1</v>
-      </c>
-      <c r="I92" s="8">
+      <c r="H92" s="8">
+        <v>1</v>
+      </c>
+      <c r="I92" s="10">
         <v>10000148</v>
       </c>
-      <c r="J92" s="16">
+      <c r="J92" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C93" s="2">
         <v>40000001</v>
       </c>
@@ -4461,26 +5153,26 @@
       <c r="E93" s="2">
         <v>1</v>
       </c>
-      <c r="F93" s="6">
-        <v>100</v>
-      </c>
-      <c r="G93" s="8">
+      <c r="F93" s="8">
+        <v>100</v>
+      </c>
+      <c r="G93" s="10">
         <v>10000143</v>
       </c>
-      <c r="H93" s="13">
-        <v>1</v>
-      </c>
-      <c r="I93" s="8">
+      <c r="H93" s="16">
+        <v>1</v>
+      </c>
+      <c r="I93" s="10">
         <v>10000149</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J93" s="16">
         <v>35</v>
       </c>
-      <c r="L93" s="14" t="s">
+      <c r="L93" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C94" s="2">
         <v>40000002</v>
       </c>
@@ -4490,23 +5182,23 @@
       <c r="E94" s="2">
         <v>1</v>
       </c>
-      <c r="F94" s="6">
-        <v>100</v>
-      </c>
-      <c r="G94" s="8">
+      <c r="F94" s="8">
+        <v>100</v>
+      </c>
+      <c r="G94" s="10">
         <v>10010046</v>
       </c>
-      <c r="H94" s="13">
-        <v>1</v>
-      </c>
-      <c r="I94" s="8">
+      <c r="H94" s="16">
+        <v>1</v>
+      </c>
+      <c r="I94" s="10">
         <v>10000149</v>
       </c>
-      <c r="J94" s="13">
+      <c r="J94" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C95" s="2">
         <v>40000003</v>
       </c>
@@ -4516,23 +5208,23 @@
       <c r="E95" s="2">
         <v>1</v>
       </c>
-      <c r="F95" s="6">
-        <v>100</v>
-      </c>
-      <c r="G95" s="8">
+      <c r="F95" s="8">
+        <v>100</v>
+      </c>
+      <c r="G95" s="10">
         <v>10000150</v>
       </c>
-      <c r="H95" s="13">
-        <v>1</v>
-      </c>
-      <c r="I95" s="8">
+      <c r="H95" s="16">
+        <v>1</v>
+      </c>
+      <c r="I95" s="10">
         <v>10000149</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J95" s="16">
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C96" s="2">
         <v>40000004</v>
       </c>
@@ -4542,23 +5234,23 @@
       <c r="E96" s="2">
         <v>1</v>
       </c>
-      <c r="F96" s="6">
-        <v>100</v>
-      </c>
-      <c r="G96" s="8">
+      <c r="F96" s="8">
+        <v>100</v>
+      </c>
+      <c r="G96" s="10">
         <v>10010045</v>
       </c>
-      <c r="H96" s="13">
-        <v>1</v>
-      </c>
-      <c r="I96" s="8">
+      <c r="H96" s="16">
+        <v>1</v>
+      </c>
+      <c r="I96" s="10">
         <v>10000149</v>
       </c>
-      <c r="J96" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C97" s="2">
         <v>40000005</v>
       </c>
@@ -4568,23 +5260,23 @@
       <c r="E97" s="2">
         <v>1</v>
       </c>
-      <c r="F97" s="6">
-        <v>100</v>
-      </c>
-      <c r="G97" s="8">
+      <c r="F97" s="8">
+        <v>100</v>
+      </c>
+      <c r="G97" s="10">
         <v>10010083</v>
       </c>
-      <c r="H97" s="13">
-        <v>1</v>
-      </c>
-      <c r="I97" s="8">
+      <c r="H97" s="16">
+        <v>1</v>
+      </c>
+      <c r="I97" s="10">
         <v>10000149</v>
       </c>
-      <c r="J97" s="13">
+      <c r="J97" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C98" s="2">
         <v>40000006</v>
       </c>
@@ -4594,23 +5286,23 @@
       <c r="E98" s="2">
         <v>1</v>
       </c>
-      <c r="F98" s="6">
-        <v>100</v>
-      </c>
-      <c r="G98" s="8">
+      <c r="F98" s="8">
+        <v>100</v>
+      </c>
+      <c r="G98" s="10">
         <v>10010085</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H98" s="16">
         <v>5</v>
       </c>
-      <c r="I98" s="8">
+      <c r="I98" s="10">
         <v>10000149</v>
       </c>
-      <c r="J98" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C99" s="2">
         <v>40000007</v>
       </c>
@@ -4620,23 +5312,23 @@
       <c r="E99" s="2">
         <v>1</v>
       </c>
-      <c r="F99" s="6">
-        <v>100</v>
-      </c>
-      <c r="G99" s="8">
+      <c r="F99" s="8">
+        <v>100</v>
+      </c>
+      <c r="G99" s="10">
         <v>10000121</v>
       </c>
-      <c r="H99" s="13">
-        <v>1</v>
-      </c>
-      <c r="I99" s="8">
+      <c r="H99" s="16">
+        <v>1</v>
+      </c>
+      <c r="I99" s="10">
         <v>10000149</v>
       </c>
-      <c r="J99" s="13">
+      <c r="J99" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C100" s="2">
         <v>40000008</v>
       </c>
@@ -4646,23 +5338,23 @@
       <c r="E100" s="2">
         <v>1</v>
       </c>
-      <c r="F100" s="6">
-        <v>100</v>
-      </c>
-      <c r="G100" s="8">
+      <c r="F100" s="8">
+        <v>100</v>
+      </c>
+      <c r="G100" s="10">
         <v>10000122</v>
       </c>
-      <c r="H100" s="13">
-        <v>1</v>
-      </c>
-      <c r="I100" s="8">
+      <c r="H100" s="16">
+        <v>1</v>
+      </c>
+      <c r="I100" s="10">
         <v>10000149</v>
       </c>
-      <c r="J100" s="13">
+      <c r="J100" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C101" s="2">
         <v>40000009</v>
       </c>
@@ -4672,23 +5364,23 @@
       <c r="E101" s="2">
         <v>1</v>
       </c>
-      <c r="F101" s="6">
-        <v>100</v>
-      </c>
-      <c r="G101" s="8">
+      <c r="F101" s="8">
+        <v>100</v>
+      </c>
+      <c r="G101" s="10">
         <v>10000123</v>
       </c>
-      <c r="H101" s="13">
-        <v>1</v>
-      </c>
-      <c r="I101" s="8">
+      <c r="H101" s="16">
+        <v>1</v>
+      </c>
+      <c r="I101" s="10">
         <v>10000149</v>
       </c>
-      <c r="J101" s="13">
+      <c r="J101" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C102" s="2">
         <v>40000010</v>
       </c>
@@ -4698,23 +5390,23 @@
       <c r="E102" s="2">
         <v>1</v>
       </c>
-      <c r="F102" s="6">
-        <v>100</v>
-      </c>
-      <c r="G102" s="8">
+      <c r="F102" s="8">
+        <v>100</v>
+      </c>
+      <c r="G102" s="10">
         <v>10000124</v>
       </c>
-      <c r="H102" s="13">
-        <v>1</v>
-      </c>
-      <c r="I102" s="8">
+      <c r="H102" s="16">
+        <v>1</v>
+      </c>
+      <c r="I102" s="10">
         <v>10000149</v>
       </c>
-      <c r="J102" s="13">
+      <c r="J102" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C103" s="2">
         <v>40000011</v>
       </c>
@@ -4724,23 +5416,23 @@
       <c r="E103" s="2">
         <v>1</v>
       </c>
-      <c r="F103" s="6">
-        <v>100</v>
-      </c>
-      <c r="G103" s="8">
+      <c r="F103" s="8">
+        <v>100</v>
+      </c>
+      <c r="G103" s="10">
         <v>10000125</v>
       </c>
-      <c r="H103" s="13">
-        <v>1</v>
-      </c>
-      <c r="I103" s="8">
+      <c r="H103" s="16">
+        <v>1</v>
+      </c>
+      <c r="I103" s="10">
         <v>10000149</v>
       </c>
-      <c r="J103" s="13">
+      <c r="J103" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C104" s="2">
         <v>40000012</v>
       </c>
@@ -4750,23 +5442,23 @@
       <c r="E104" s="2">
         <v>1</v>
       </c>
-      <c r="F104" s="6">
-        <v>100</v>
-      </c>
-      <c r="G104" s="8">
+      <c r="F104" s="8">
+        <v>100</v>
+      </c>
+      <c r="G104" s="10">
         <v>10000144</v>
       </c>
-      <c r="H104" s="13">
+      <c r="H104" s="16">
         <v>2</v>
       </c>
-      <c r="I104" s="8">
+      <c r="I104" s="10">
         <v>10000149</v>
       </c>
-      <c r="J104" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C105" s="2">
         <v>40000013</v>
       </c>
@@ -4776,23 +5468,23 @@
       <c r="E105" s="2">
         <v>1</v>
       </c>
-      <c r="F105" s="6">
-        <v>100</v>
-      </c>
-      <c r="G105" s="8">
+      <c r="F105" s="8">
+        <v>100</v>
+      </c>
+      <c r="G105" s="10">
         <v>10000145</v>
       </c>
-      <c r="H105" s="13">
+      <c r="H105" s="16">
         <v>2</v>
       </c>
-      <c r="I105" s="8">
+      <c r="I105" s="10">
         <v>10000149</v>
       </c>
-      <c r="J105" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C106" s="2">
         <v>40000014</v>
       </c>
@@ -4802,23 +5494,23 @@
       <c r="E106" s="2">
         <v>1</v>
       </c>
-      <c r="F106" s="6">
-        <v>100</v>
-      </c>
-      <c r="G106" s="8">
+      <c r="F106" s="8">
+        <v>100</v>
+      </c>
+      <c r="G106" s="10">
         <v>10000146</v>
       </c>
-      <c r="H106" s="13">
+      <c r="H106" s="16">
         <v>2</v>
       </c>
-      <c r="I106" s="8">
+      <c r="I106" s="10">
         <v>10000149</v>
       </c>
-      <c r="J106" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C107" s="2">
         <v>40000015</v>
       </c>
@@ -4828,23 +5520,23 @@
       <c r="E107" s="2">
         <v>1</v>
       </c>
-      <c r="F107" s="6">
-        <v>100</v>
-      </c>
-      <c r="G107" s="8">
+      <c r="F107" s="8">
+        <v>100</v>
+      </c>
+      <c r="G107" s="10">
         <v>10000147</v>
       </c>
-      <c r="H107" s="13">
+      <c r="H107" s="16">
         <v>2</v>
       </c>
-      <c r="I107" s="8">
+      <c r="I107" s="10">
         <v>10000149</v>
       </c>
-      <c r="J107" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C108" s="2">
         <v>50000001</v>
       </c>
@@ -4854,26 +5546,26 @@
       <c r="E108" s="2">
         <v>1</v>
       </c>
-      <c r="F108" s="6">
-        <v>100</v>
-      </c>
-      <c r="G108" s="8">
+      <c r="F108" s="8">
+        <v>100</v>
+      </c>
+      <c r="G108" s="10">
         <v>10000206</v>
       </c>
-      <c r="H108" s="6">
-        <v>1</v>
-      </c>
-      <c r="I108" s="8">
+      <c r="H108" s="8">
+        <v>1</v>
+      </c>
+      <c r="I108" s="10">
         <v>10000151</v>
       </c>
       <c r="J108" s="2">
         <v>50</v>
       </c>
-      <c r="L108" s="8" t="s">
+      <c r="L108" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C109" s="2">
         <v>50000002</v>
       </c>
@@ -4883,26 +5575,26 @@
       <c r="E109" s="2">
         <v>1</v>
       </c>
-      <c r="F109" s="6">
-        <v>100</v>
-      </c>
-      <c r="G109" s="8">
+      <c r="F109" s="8">
+        <v>100</v>
+      </c>
+      <c r="G109" s="10">
         <v>10000207</v>
       </c>
-      <c r="H109" s="6">
-        <v>1</v>
-      </c>
-      <c r="I109" s="8">
+      <c r="H109" s="8">
+        <v>1</v>
+      </c>
+      <c r="I109" s="10">
         <v>10000151</v>
       </c>
       <c r="J109" s="2">
         <v>30</v>
       </c>
-      <c r="L109" s="8" t="s">
+      <c r="L109" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C110" s="2">
         <v>50000003</v>
       </c>
@@ -4912,26 +5604,26 @@
       <c r="E110" s="2">
         <v>1</v>
       </c>
-      <c r="F110" s="6">
-        <v>100</v>
-      </c>
-      <c r="G110" s="8">
+      <c r="F110" s="8">
+        <v>100</v>
+      </c>
+      <c r="G110" s="10">
         <v>10011008</v>
       </c>
-      <c r="H110" s="6">
-        <v>1</v>
-      </c>
-      <c r="I110" s="8">
+      <c r="H110" s="8">
+        <v>1</v>
+      </c>
+      <c r="I110" s="10">
         <v>10000151</v>
       </c>
       <c r="J110" s="2">
         <v>30</v>
       </c>
-      <c r="L110" s="17" t="s">
+      <c r="L110" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C111" s="2">
         <v>50000004</v>
       </c>
@@ -4941,26 +5633,26 @@
       <c r="E111" s="2">
         <v>1</v>
       </c>
-      <c r="F111" s="6">
-        <v>100</v>
-      </c>
-      <c r="G111" s="8">
+      <c r="F111" s="8">
+        <v>100</v>
+      </c>
+      <c r="G111" s="10">
         <v>10011013</v>
       </c>
-      <c r="H111" s="6">
-        <v>1</v>
-      </c>
-      <c r="I111" s="8">
+      <c r="H111" s="8">
+        <v>1</v>
+      </c>
+      <c r="I111" s="10">
         <v>10000151</v>
       </c>
       <c r="J111" s="2">
         <v>30</v>
       </c>
-      <c r="L111" s="17" t="s">
+      <c r="L111" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C112" s="2">
         <v>50000005</v>
       </c>
@@ -4970,7 +5662,7 @@
       <c r="E112" s="2">
         <v>1</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="8">
         <v>100</v>
       </c>
       <c r="G112" s="2">
@@ -4979,17 +5671,17 @@
       <c r="H112" s="2">
         <v>1</v>
       </c>
-      <c r="I112" s="8">
+      <c r="I112" s="10">
         <v>10000151</v>
       </c>
       <c r="J112" s="2">
         <v>10</v>
       </c>
-      <c r="L112" s="19" t="s">
+      <c r="L112" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C113" s="2">
         <v>50000006</v>
       </c>
@@ -4999,7 +5691,7 @@
       <c r="E113" s="2">
         <v>1</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="8">
         <v>100</v>
       </c>
       <c r="G113" s="2">
@@ -5008,17 +5700,17 @@
       <c r="H113" s="2">
         <v>1</v>
       </c>
-      <c r="I113" s="8">
+      <c r="I113" s="10">
         <v>10000151</v>
       </c>
       <c r="J113" s="2">
         <v>25</v>
       </c>
-      <c r="L113" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L113" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C114" s="2">
         <v>50000007</v>
       </c>
@@ -5028,7 +5720,7 @@
       <c r="E114" s="2">
         <v>1</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="8">
         <v>100</v>
       </c>
       <c r="G114" s="2">
@@ -5037,17 +5729,17 @@
       <c r="H114" s="2">
         <v>1</v>
       </c>
-      <c r="I114" s="8">
+      <c r="I114" s="10">
         <v>10000151</v>
       </c>
       <c r="J114" s="2">
         <v>25</v>
       </c>
-      <c r="L114" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L114" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C115" s="2">
         <v>50000008</v>
       </c>
@@ -5057,7 +5749,7 @@
       <c r="E115" s="2">
         <v>1</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="8">
         <v>100</v>
       </c>
       <c r="G115" s="2">
@@ -5066,97 +5758,847 @@
       <c r="H115" s="2">
         <v>1</v>
       </c>
-      <c r="I115" s="8">
+      <c r="I115" s="10">
         <v>10000151</v>
       </c>
       <c r="J115" s="2">
         <v>10</v>
       </c>
-      <c r="L115" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6">
+      <c r="L115" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8">
         <v>60000001</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="8">
         <v>60000002</v>
       </c>
-      <c r="E116" s="6">
-        <v>1</v>
-      </c>
-      <c r="F116" s="6">
-        <v>100</v>
-      </c>
-      <c r="G116" s="8">
+      <c r="E116" s="8">
+        <v>1</v>
+      </c>
+      <c r="F116" s="8">
+        <v>100</v>
+      </c>
+      <c r="G116" s="10">
         <v>10000143</v>
       </c>
-      <c r="H116" s="20" t="s">
+      <c r="H116" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I116" s="10">
+        <v>10000157</v>
+      </c>
+      <c r="J116" s="8">
+        <v>1</v>
+      </c>
+      <c r="K116" s="8"/>
+      <c r="L116" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I116" s="8">
-        <v>10000157</v>
-      </c>
-      <c r="J116" s="6">
-        <v>1</v>
-      </c>
-      <c r="K116" s="6"/>
-      <c r="L116" s="19" t="s">
+      <c r="M116" s="8"/>
+      <c r="N116" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M116" s="6"/>
-      <c r="N116" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O116" s="6"/>
-    </row>
-    <row r="117" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6">
+      <c r="O116" s="8"/>
+    </row>
+    <row r="117" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8">
         <v>60000002</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="8">
+        <v>60000003</v>
+      </c>
+      <c r="E117" s="8">
+        <v>1</v>
+      </c>
+      <c r="F117" s="8">
+        <v>100</v>
+      </c>
+      <c r="G117" s="10">
+        <v>10010093</v>
+      </c>
+      <c r="H117" s="20">
+        <v>1</v>
+      </c>
+      <c r="I117" s="10">
+        <v>10000143</v>
+      </c>
+      <c r="J117" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="8"/>
+      <c r="L117" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M117" s="8"/>
+      <c r="N117" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O117" s="8"/>
+    </row>
+    <row r="118" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C118" s="8">
+        <v>60000003</v>
+      </c>
+      <c r="D118" s="8">
+        <v>60000004</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>100</v>
+      </c>
+      <c r="G118" s="21">
+        <v>10012001</v>
+      </c>
+      <c r="H118" s="3">
+        <v>1</v>
+      </c>
+      <c r="I118" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J118" s="3">
+        <v>10</v>
+      </c>
+      <c r="L118" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C119" s="8">
+        <v>60000004</v>
+      </c>
+      <c r="D119" s="8">
+        <v>60000005</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>100</v>
+      </c>
+      <c r="G119" s="21">
+        <v>10012002</v>
+      </c>
+      <c r="H119" s="3">
+        <v>1</v>
+      </c>
+      <c r="I119" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J119" s="3">
+        <v>10</v>
+      </c>
+      <c r="L119" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C120" s="8">
+        <v>60000005</v>
+      </c>
+      <c r="D120" s="8">
+        <v>60000006</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>100</v>
+      </c>
+      <c r="G120" s="21">
+        <v>10012003</v>
+      </c>
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
+      <c r="I120" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J120" s="3">
+        <v>10</v>
+      </c>
+      <c r="L120" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C121" s="8">
+        <v>60000006</v>
+      </c>
+      <c r="D121" s="8">
+        <v>60000007</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
+        <v>100</v>
+      </c>
+      <c r="G121" s="21">
+        <v>10012004</v>
+      </c>
+      <c r="H121" s="3">
+        <v>1</v>
+      </c>
+      <c r="I121" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J121" s="3">
+        <v>10</v>
+      </c>
+      <c r="L121" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C122" s="8">
+        <v>60000007</v>
+      </c>
+      <c r="D122" s="8">
+        <v>60000008</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
+        <v>100</v>
+      </c>
+      <c r="G122" s="21">
+        <v>10012005</v>
+      </c>
+      <c r="H122" s="3">
+        <v>1</v>
+      </c>
+      <c r="I122" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J122" s="3">
+        <v>10</v>
+      </c>
+      <c r="L122" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C123" s="8">
+        <v>60000008</v>
+      </c>
+      <c r="D123" s="8">
+        <v>60000009</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3">
+        <v>100</v>
+      </c>
+      <c r="G123" s="21">
+        <v>10012006</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1</v>
+      </c>
+      <c r="I123" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J123" s="3">
+        <v>10</v>
+      </c>
+      <c r="L123" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C124" s="8">
+        <v>60000009</v>
+      </c>
+      <c r="D124" s="8">
+        <v>60000010</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3">
+        <v>100</v>
+      </c>
+      <c r="G124" s="21">
+        <v>10012007</v>
+      </c>
+      <c r="H124" s="3">
+        <v>1</v>
+      </c>
+      <c r="I124" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J124" s="3">
+        <v>10</v>
+      </c>
+      <c r="L124" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C125" s="8">
+        <v>60000010</v>
+      </c>
+      <c r="D125" s="8">
+        <v>60000011</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
+        <v>100</v>
+      </c>
+      <c r="G125" s="21">
+        <v>10012008</v>
+      </c>
+      <c r="H125" s="3">
+        <v>1</v>
+      </c>
+      <c r="I125" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J125" s="3">
+        <v>10</v>
+      </c>
+      <c r="L125" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C126" s="8">
+        <v>60000011</v>
+      </c>
+      <c r="D126" s="8">
+        <v>60000012</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
+        <v>100</v>
+      </c>
+      <c r="G126" s="21">
+        <v>10012009</v>
+      </c>
+      <c r="H126" s="3">
+        <v>1</v>
+      </c>
+      <c r="I126" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J126" s="3">
+        <v>10</v>
+      </c>
+      <c r="L126" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C127" s="8">
+        <v>60000012</v>
+      </c>
+      <c r="D127" s="8">
+        <v>60000013</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
+        <v>100</v>
+      </c>
+      <c r="G127" s="21">
+        <v>10012010</v>
+      </c>
+      <c r="H127" s="3">
+        <v>1</v>
+      </c>
+      <c r="I127" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J127" s="3">
+        <v>10</v>
+      </c>
+      <c r="L127" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C128" s="8">
+        <v>60000013</v>
+      </c>
+      <c r="D128" s="8">
+        <v>60000014</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <v>100</v>
+      </c>
+      <c r="G128" s="21">
+        <v>10012011</v>
+      </c>
+      <c r="H128" s="3">
+        <v>1</v>
+      </c>
+      <c r="I128" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J128" s="3">
+        <v>10</v>
+      </c>
+      <c r="L128" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C129" s="8">
+        <v>60000014</v>
+      </c>
+      <c r="D129" s="8">
+        <v>60000015</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3">
+        <v>100</v>
+      </c>
+      <c r="G129" s="21">
+        <v>10012012</v>
+      </c>
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J129" s="3">
+        <v>10</v>
+      </c>
+      <c r="L129" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C130" s="8">
+        <v>60000015</v>
+      </c>
+      <c r="D130" s="8">
+        <v>60000016</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>100</v>
+      </c>
+      <c r="G130" s="21">
+        <v>10012013</v>
+      </c>
+      <c r="H130" s="3">
+        <v>1</v>
+      </c>
+      <c r="I130" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J130" s="3">
+        <v>10</v>
+      </c>
+      <c r="L130" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C131" s="8">
+        <v>60000016</v>
+      </c>
+      <c r="D131" s="8">
+        <v>60000017</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <v>100</v>
+      </c>
+      <c r="G131" s="21">
+        <v>10012014</v>
+      </c>
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
+      <c r="I131" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J131" s="3">
+        <v>10</v>
+      </c>
+      <c r="L131" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C132" s="8">
+        <v>60000017</v>
+      </c>
+      <c r="D132" s="8">
+        <v>60000018</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3">
+        <v>100</v>
+      </c>
+      <c r="G132" s="21">
+        <v>10012015</v>
+      </c>
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J132" s="3">
+        <v>10</v>
+      </c>
+      <c r="L132" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C133" s="8">
+        <v>60000018</v>
+      </c>
+      <c r="D133" s="8">
+        <v>60000019</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <v>100</v>
+      </c>
+      <c r="G133" s="21">
+        <v>10012016</v>
+      </c>
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
+      <c r="I133" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J133" s="3">
+        <v>10</v>
+      </c>
+      <c r="L133" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C134" s="8">
+        <v>60000019</v>
+      </c>
+      <c r="D134" s="8">
+        <v>60000020</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>100</v>
+      </c>
+      <c r="G134" s="21">
+        <v>10012017</v>
+      </c>
+      <c r="H134" s="3">
+        <v>1</v>
+      </c>
+      <c r="I134" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J134" s="3">
+        <v>10</v>
+      </c>
+      <c r="L134" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C135" s="8">
+        <v>60000020</v>
+      </c>
+      <c r="D135" s="8">
+        <v>60000021</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
+        <v>100</v>
+      </c>
+      <c r="G135" s="21">
+        <v>10012018</v>
+      </c>
+      <c r="H135" s="3">
+        <v>1</v>
+      </c>
+      <c r="I135" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J135" s="3">
+        <v>10</v>
+      </c>
+      <c r="L135" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C136" s="8">
+        <v>60000021</v>
+      </c>
+      <c r="D136" s="8">
+        <v>60000022</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
+        <v>100</v>
+      </c>
+      <c r="G136" s="21">
+        <v>10012019</v>
+      </c>
+      <c r="H136" s="3">
+        <v>1</v>
+      </c>
+      <c r="I136" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J136" s="3">
+        <v>10</v>
+      </c>
+      <c r="L136" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C137" s="8">
+        <v>60000022</v>
+      </c>
+      <c r="D137" s="8">
+        <v>60000023</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1</v>
+      </c>
+      <c r="F137" s="3">
+        <v>100</v>
+      </c>
+      <c r="G137" s="21">
+        <v>10012020</v>
+      </c>
+      <c r="H137" s="3">
+        <v>1</v>
+      </c>
+      <c r="I137" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J137" s="3">
+        <v>15</v>
+      </c>
+      <c r="L137" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C138" s="8">
+        <v>60000023</v>
+      </c>
+      <c r="D138" s="8">
+        <v>60000024</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>100</v>
+      </c>
+      <c r="G138" s="21">
+        <v>10012021</v>
+      </c>
+      <c r="H138" s="3">
+        <v>1</v>
+      </c>
+      <c r="I138" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J138" s="3">
+        <v>15</v>
+      </c>
+      <c r="L138" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C139" s="8">
+        <v>60000024</v>
+      </c>
+      <c r="D139" s="8">
+        <v>60000025</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3">
+        <v>100</v>
+      </c>
+      <c r="G139" s="21">
+        <v>10012022</v>
+      </c>
+      <c r="H139" s="3">
+        <v>1</v>
+      </c>
+      <c r="I139" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J139" s="3">
+        <v>15</v>
+      </c>
+      <c r="L139" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C140" s="8">
+        <v>60000025</v>
+      </c>
+      <c r="D140" s="8">
+        <v>60000026</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <v>100</v>
+      </c>
+      <c r="G140" s="21">
+        <v>10012023</v>
+      </c>
+      <c r="H140" s="3">
+        <v>1</v>
+      </c>
+      <c r="I140" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J140" s="3">
+        <v>15</v>
+      </c>
+      <c r="L140" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C141" s="8">
+        <v>60000026</v>
+      </c>
+      <c r="D141" s="8">
+        <v>60000027</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <v>100</v>
+      </c>
+      <c r="G141" s="21">
+        <v>10012024</v>
+      </c>
+      <c r="H141" s="3">
+        <v>1</v>
+      </c>
+      <c r="I141" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J141" s="3">
+        <v>15</v>
+      </c>
+      <c r="L141" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C142" s="8">
+        <v>60000027</v>
+      </c>
+      <c r="D142" s="8">
+        <v>60000028</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>100</v>
+      </c>
+      <c r="G142" s="21">
+        <v>10012025</v>
+      </c>
+      <c r="H142" s="3">
+        <v>1</v>
+      </c>
+      <c r="I142" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J142" s="3">
+        <v>15</v>
+      </c>
+      <c r="L142" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C143" s="8">
+        <v>60000028</v>
+      </c>
+      <c r="D143" s="4">
         <v>0</v>
       </c>
-      <c r="E117" s="6">
-        <v>1</v>
-      </c>
-      <c r="F117" s="6">
-        <v>100</v>
-      </c>
-      <c r="G117" s="8">
-        <v>10010093</v>
-      </c>
-      <c r="H117" s="21">
-        <v>1</v>
-      </c>
-      <c r="I117" s="8">
-        <v>10000143</v>
-      </c>
-      <c r="J117" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K117" s="6"/>
-      <c r="L117" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M117" s="6"/>
-      <c r="N117" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O117" s="6"/>
-    </row>
-    <row r="118" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E143" s="3">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3">
+        <v>100</v>
+      </c>
+      <c r="G143" s="21">
+        <v>10012026</v>
+      </c>
+      <c r="H143" s="3">
+        <v>1</v>
+      </c>
+      <c r="I143" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J143" s="3">
+        <v>15</v>
+      </c>
+      <c r="L143" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -198,12 +198,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,12 +239,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -260,12 +254,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -287,13 +275,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -308,30 +305,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,15 +329,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,55 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,13 +403,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,7 +482,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,13 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +548,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,19 +620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,127 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,19 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,15 +779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -885,11 +809,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,23 +838,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,1084 +867,1093 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2029,81 +1962,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="362">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
@@ -2114,29 +2041,29 @@
     <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
     <cellStyle name="超链接" xfId="15" builtinId="8"/>
     <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="18"/>
+    <cellStyle name="注释" xfId="19" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="20"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="21"/>
+    <cellStyle name="标题 4" xfId="22" builtinId="19"/>
     <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36"/>
     <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
-    <cellStyle name="标题" xfId="28" builtinId="15"/>
+    <cellStyle name="标题" xfId="26" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="27"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="28"/>
     <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
+    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="31"/>
+    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="33"/>
+    <cellStyle name="标题 3" xfId="34" builtinId="18"/>
     <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="37"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="36" builtinId="32"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="37"/>
+    <cellStyle name="常规 5 2 6" xfId="38"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="39"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
     <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
     <cellStyle name="输出" xfId="42" builtinId="21"/>
@@ -2144,87 +2071,87 @@
     <cellStyle name="计算" xfId="44" builtinId="22"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
     <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="49"/>
     <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
-    <cellStyle name="汇总" xfId="54" builtinId="25"/>
-    <cellStyle name="好" xfId="55" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
-    <cellStyle name="适中" xfId="60" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
-    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 5" xfId="94"/>
+    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
+    <cellStyle name="汇总" xfId="53" builtinId="25"/>
+    <cellStyle name="好" xfId="54" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="55"/>
+    <cellStyle name="适中" xfId="56" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="57" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="58"/>
+    <cellStyle name="强调文字颜色 1" xfId="59" builtinId="29"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="60"/>
+    <cellStyle name="注释 2 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="62" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="63"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="64" builtinId="31"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="66" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="67"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="68" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="69" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="70" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="71" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="72" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="73" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="74" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="75" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="76" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="78" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="79" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="82"/>
+    <cellStyle name="常规 2 3 2 4" xfId="83"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="84"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="87"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
+    <cellStyle name="常规 2 3 2 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="94"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="常规 2 3 2 6" xfId="97"/>
+    <cellStyle name="常规 2 3 2 5" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="97"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
-    <cellStyle name="常规 2 3 2 7" xfId="100"/>
+    <cellStyle name="常规 2 3 2 6" xfId="99"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="100"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
-    <cellStyle name="常规 2 3 3 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
-    <cellStyle name="常规 2 3 3 4" xfId="105"/>
+    <cellStyle name="常规 2 3 2 7" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
+    <cellStyle name="常规 2 3 3 3" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="105"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
-    <cellStyle name="常规 2 3 4 3" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
+    <cellStyle name="常规 2 3 3 4" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
+    <cellStyle name="常规 2 3 4 3" xfId="109"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
@@ -2247,8 +2174,8 @@
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
     <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="常规 3" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
+    <cellStyle name="常规 3" xfId="151"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
@@ -2258,27 +2185,27 @@
     <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
     <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
+    <cellStyle name="常规 4" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="常规 5" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
-    <cellStyle name="注释 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
+    <cellStyle name="常规 5" xfId="166"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
+    <cellStyle name="注释 2" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="173"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="181"/>
     <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
     <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
@@ -2290,42 +2217,42 @@
     <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
     <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="194"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="196"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="199"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="201"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="203"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="210"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="213"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="217"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="219"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="221"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="常规 5 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
+    <cellStyle name="常规 5 7" xfId="225"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="注释 2 2 3 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
+    <cellStyle name="注释 2 2 3 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
     <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
@@ -2343,31 +2270,31 @@
     <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="注释 2 5 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
+    <cellStyle name="注释 2 5 2" xfId="247"/>
     <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="常规 2 3 2 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
+    <cellStyle name="常规 2 3 2 2" xfId="251"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
     <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
     <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="261"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
     <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
     <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="常规 2 3 3 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
+    <cellStyle name="常规 2 3 3 5" xfId="267"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="常规 2 3 3 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
+    <cellStyle name="常规 2 3 3 6" xfId="270"/>
     <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
@@ -2392,12 +2319,12 @@
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
     <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="注释 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
+    <cellStyle name="注释 2 2" xfId="296"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="常规 5 6" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
+    <cellStyle name="常规 5 6" xfId="300"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
@@ -2419,24 +2346,24 @@
     <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
     <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
     <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="注释 2 3 2" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
+    <cellStyle name="注释 2 3 2" xfId="323"/>
     <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
     <cellStyle name="常规 2 3 3" xfId="325"/>
     <cellStyle name="常规 2 3 3 2" xfId="326"/>
     <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
     <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="注释 2 5" xfId="329"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
+    <cellStyle name="注释 2 5" xfId="330"/>
     <cellStyle name="常规 2 3 4" xfId="331"/>
     <cellStyle name="常规 2 3 4 2" xfId="332"/>
     <cellStyle name="常规 2 3 5" xfId="333"/>
     <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
+    <cellStyle name="常规 2 3 6" xfId="335"/>
+    <cellStyle name="常规 5 2 2 2" xfId="336"/>
     <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 7" xfId="339"/>
+    <cellStyle name="常规 2 3 7" xfId="338"/>
+    <cellStyle name="常规 5 2 2 3" xfId="339"/>
     <cellStyle name="常规 2 3 8" xfId="340"/>
     <cellStyle name="常规 5 2 3 2" xfId="341"/>
     <cellStyle name="常规 5 2 4 2" xfId="342"/>
@@ -2778,10 +2705,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J141" sqref="J141"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2795,80 +2722,80 @@
   <sheetData>
     <row r="1" s="1" customFormat="1"/>
     <row r="3" ht="20.1" customHeight="1" spans="3:10">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="3:10">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="3:10">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2882,22 +2809,22 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
-        <v>100</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="7">
         <v>10010001</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C7" s="2">
@@ -2909,23 +2836,23 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
-        <v>100</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="7">
         <v>10010011</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C8" s="2">
@@ -2937,13 +2864,13 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="8">
-        <v>100</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="8">
         <v>10000153</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="2">
@@ -2963,13 +2890,13 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="8">
-        <v>100</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9">
         <v>10000154</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="2">
@@ -2989,13 +2916,13 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="8">
-        <v>100</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="10">
         <v>14020003</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="2">
@@ -3015,13 +2942,13 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="8">
-        <v>100</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="F11" s="3">
+        <v>100</v>
+      </c>
+      <c r="G11" s="10">
         <v>14020010</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="I11" s="2">
@@ -3041,13 +2968,13 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="8">
-        <v>100</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="10">
         <v>14030007</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="2">
@@ -3067,13 +2994,13 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
-        <v>100</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="F13" s="3">
+        <v>100</v>
+      </c>
+      <c r="G13" s="10">
         <v>14060003</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" s="2">
@@ -3093,13 +3020,13 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="8">
-        <v>100</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="11">
         <v>14050011</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14" s="2">
@@ -3119,19 +3046,19 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
-        <v>100</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="7">
         <v>10010002</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3145,19 +3072,19 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="8">
-        <v>100</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="3">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7">
         <v>10010012</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3171,13 +3098,13 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="8">
-        <v>100</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>15201001</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="2">
@@ -3197,13 +3124,13 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
-        <v>100</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>15201003</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="2">
@@ -3223,13 +3150,13 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
-        <v>100</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="3">
+        <v>100</v>
+      </c>
+      <c r="G19" s="3">
         <v>15201005</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="I19" s="2">
@@ -3249,13 +3176,13 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="8">
-        <v>100</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>15202001</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="3">
         <v>1</v>
       </c>
       <c r="I20" s="2">
@@ -3275,13 +3202,13 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="8">
-        <v>100</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>15202003</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="2">
@@ -3301,13 +3228,13 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="8">
-        <v>100</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>15202005</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="2">
@@ -3327,13 +3254,13 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="8">
-        <v>100</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>15207001</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="I23" s="2">
@@ -3353,13 +3280,13 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="8">
-        <v>100</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>15208001</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="2">
@@ -3379,19 +3306,19 @@
       <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="8">
-        <v>100</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="F25" s="3">
+        <v>100</v>
+      </c>
+      <c r="G25" s="7">
         <v>10010003</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="3">
         <v>1</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3405,19 +3332,19 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="8">
-        <v>100</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="7">
         <v>10010013</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3431,13 +3358,13 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="8">
-        <v>100</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>15301001</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="3">
         <v>1</v>
       </c>
       <c r="I27" s="2">
@@ -3457,13 +3384,13 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="8">
-        <v>100</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F28" s="3">
+        <v>100</v>
+      </c>
+      <c r="G28" s="3">
         <v>15301003</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="3">
         <v>1</v>
       </c>
       <c r="I28" s="2">
@@ -3483,13 +3410,13 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="8">
-        <v>100</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="3">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3">
         <v>15301005</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="3">
         <v>1</v>
       </c>
       <c r="I29" s="2">
@@ -3509,13 +3436,13 @@
       <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" s="8">
-        <v>100</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F30" s="3">
+        <v>100</v>
+      </c>
+      <c r="G30" s="3">
         <v>15302001</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="3">
         <v>1</v>
       </c>
       <c r="I30" s="2">
@@ -3535,13 +3462,13 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="8">
-        <v>100</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="3">
+        <v>100</v>
+      </c>
+      <c r="G31" s="3">
         <v>15302003</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="3">
         <v>1</v>
       </c>
       <c r="I31" s="2">
@@ -3561,13 +3488,13 @@
       <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="8">
-        <v>100</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>15302005</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="3">
         <v>1</v>
       </c>
       <c r="I32" s="2">
@@ -3587,13 +3514,13 @@
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="8">
-        <v>100</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>15307001</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" s="2">
@@ -3613,13 +3540,13 @@
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="8">
-        <v>100</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="F34" s="3">
+        <v>100</v>
+      </c>
+      <c r="G34" s="3">
         <v>15308001</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="2">
@@ -3639,19 +3566,19 @@
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="8">
-        <v>100</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="7">
         <v>10010004</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="3">
         <v>1</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3665,19 +3592,19 @@
       <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="F36" s="8">
-        <v>100</v>
-      </c>
-      <c r="G36" s="9">
+      <c r="F36" s="3">
+        <v>100</v>
+      </c>
+      <c r="G36" s="7">
         <v>10010014</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="3">
         <v>1</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3691,13 +3618,13 @@
       <c r="E37" s="2">
         <v>1</v>
       </c>
-      <c r="F37" s="8">
-        <v>100</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="F37" s="3">
+        <v>100</v>
+      </c>
+      <c r="G37" s="3">
         <v>15401001</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="I37" s="2">
@@ -3717,13 +3644,13 @@
       <c r="E38" s="2">
         <v>1</v>
       </c>
-      <c r="F38" s="8">
-        <v>100</v>
-      </c>
-      <c r="G38" s="8">
+      <c r="F38" s="3">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3">
         <v>15401003</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="3">
         <v>1</v>
       </c>
       <c r="I38" s="2">
@@ -3743,13 +3670,13 @@
       <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="8">
-        <v>100</v>
-      </c>
-      <c r="G39" s="8">
+      <c r="F39" s="3">
+        <v>100</v>
+      </c>
+      <c r="G39" s="3">
         <v>15401005</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="3">
         <v>1</v>
       </c>
       <c r="I39" s="2">
@@ -3769,13 +3696,13 @@
       <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="8">
-        <v>100</v>
-      </c>
-      <c r="G40" s="8">
+      <c r="F40" s="3">
+        <v>100</v>
+      </c>
+      <c r="G40" s="3">
         <v>15402001</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="3">
         <v>1</v>
       </c>
       <c r="I40" s="2">
@@ -3795,13 +3722,13 @@
       <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="8">
-        <v>100</v>
-      </c>
-      <c r="G41" s="8">
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>15402003</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="3">
         <v>1</v>
       </c>
       <c r="I41" s="2">
@@ -3821,13 +3748,13 @@
       <c r="E42" s="2">
         <v>1</v>
       </c>
-      <c r="F42" s="8">
-        <v>100</v>
-      </c>
-      <c r="G42" s="8">
+      <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
         <v>15402005</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="3">
         <v>1</v>
       </c>
       <c r="I42" s="2">
@@ -3847,13 +3774,13 @@
       <c r="E43" s="2">
         <v>1</v>
       </c>
-      <c r="F43" s="8">
-        <v>100</v>
-      </c>
-      <c r="G43" s="8">
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>15407001</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="3">
         <v>1</v>
       </c>
       <c r="I43" s="2">
@@ -3873,13 +3800,13 @@
       <c r="E44" s="2">
         <v>1</v>
       </c>
-      <c r="F44" s="8">
-        <v>100</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>15408001</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="3">
         <v>1</v>
       </c>
       <c r="I44" s="2">
@@ -3899,19 +3826,19 @@
       <c r="E45" s="2">
         <v>1</v>
       </c>
-      <c r="F45" s="8">
-        <v>100</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="7">
         <v>10010005</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="3">
         <v>1</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
-      <c r="J45" s="25" t="s">
+      <c r="J45" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3925,19 +3852,19 @@
       <c r="E46" s="2">
         <v>1</v>
       </c>
-      <c r="F46" s="8">
-        <v>100</v>
-      </c>
-      <c r="G46" s="9">
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="7">
         <v>10010015</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="3">
         <v>1</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="J46" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3951,13 +3878,13 @@
       <c r="E47" s="2">
         <v>1</v>
       </c>
-      <c r="F47" s="8">
-        <v>100</v>
-      </c>
-      <c r="G47" s="8">
+      <c r="F47" s="3">
+        <v>100</v>
+      </c>
+      <c r="G47" s="3">
         <v>15501001</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="3">
         <v>1</v>
       </c>
       <c r="I47" s="2">
@@ -3977,13 +3904,13 @@
       <c r="E48" s="2">
         <v>1</v>
       </c>
-      <c r="F48" s="8">
-        <v>100</v>
-      </c>
-      <c r="G48" s="8">
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>15501003</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="3">
         <v>1</v>
       </c>
       <c r="I48" s="2">
@@ -4003,13 +3930,13 @@
       <c r="E49" s="2">
         <v>1</v>
       </c>
-      <c r="F49" s="8">
-        <v>100</v>
-      </c>
-      <c r="G49" s="8">
+      <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
         <v>15501005</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="3">
         <v>1</v>
       </c>
       <c r="I49" s="2">
@@ -4029,13 +3956,13 @@
       <c r="E50" s="2">
         <v>1</v>
       </c>
-      <c r="F50" s="8">
-        <v>100</v>
-      </c>
-      <c r="G50" s="8">
+      <c r="F50" s="3">
+        <v>100</v>
+      </c>
+      <c r="G50" s="3">
         <v>15502001</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="3">
         <v>1</v>
       </c>
       <c r="I50" s="2">
@@ -4055,13 +3982,13 @@
       <c r="E51" s="2">
         <v>1</v>
       </c>
-      <c r="F51" s="8">
-        <v>100</v>
-      </c>
-      <c r="G51" s="8">
+      <c r="F51" s="3">
+        <v>100</v>
+      </c>
+      <c r="G51" s="3">
         <v>15502003</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="3">
         <v>1</v>
       </c>
       <c r="I51" s="2">
@@ -4081,13 +4008,13 @@
       <c r="E52" s="2">
         <v>1</v>
       </c>
-      <c r="F52" s="8">
-        <v>100</v>
-      </c>
-      <c r="G52" s="8">
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>15502005</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="3">
         <v>1</v>
       </c>
       <c r="I52" s="2">
@@ -4107,13 +4034,13 @@
       <c r="E53" s="2">
         <v>1</v>
       </c>
-      <c r="F53" s="8">
-        <v>100</v>
-      </c>
-      <c r="G53" s="8">
+      <c r="F53" s="3">
+        <v>100</v>
+      </c>
+      <c r="G53" s="3">
         <v>15507001</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="3">
         <v>1</v>
       </c>
       <c r="I53" s="2">
@@ -4133,13 +4060,13 @@
       <c r="E54" s="2">
         <v>1</v>
       </c>
-      <c r="F54" s="8">
-        <v>100</v>
-      </c>
-      <c r="G54" s="8">
+      <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>15508001</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="3">
         <v>1</v>
       </c>
       <c r="I54" s="2">
@@ -4159,22 +4086,22 @@
       <c r="E55" s="2">
         <v>1</v>
       </c>
-      <c r="F55" s="8">
-        <v>100</v>
-      </c>
-      <c r="G55" s="10">
+      <c r="F55" s="3">
+        <v>100</v>
+      </c>
+      <c r="G55" s="8">
         <v>10010083</v>
       </c>
-      <c r="H55" s="8">
-        <v>1</v>
-      </c>
-      <c r="I55" s="10">
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="8">
         <v>10010035</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="14">
         <v>5</v>
       </c>
-      <c r="L55" s="17" t="s">
+      <c r="L55" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4188,19 +4115,19 @@
       <c r="E56" s="2">
         <v>1</v>
       </c>
-      <c r="F56" s="8">
-        <v>100</v>
-      </c>
-      <c r="G56" s="10">
+      <c r="F56" s="3">
+        <v>100</v>
+      </c>
+      <c r="G56" s="8">
         <v>10010045</v>
       </c>
-      <c r="H56" s="8">
-        <v>1</v>
-      </c>
-      <c r="I56" s="10">
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="8">
         <v>10010035</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="14">
         <v>500</v>
       </c>
     </row>
@@ -4214,19 +4141,19 @@
       <c r="E57" s="2">
         <v>1</v>
       </c>
-      <c r="F57" s="8">
-        <v>100</v>
-      </c>
-      <c r="G57" s="10">
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="8">
         <v>10000131</v>
       </c>
-      <c r="H57" s="8">
-        <v>1</v>
-      </c>
-      <c r="I57" s="10">
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="8">
         <v>10010035</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="14">
         <v>3</v>
       </c>
     </row>
@@ -4240,19 +4167,19 @@
       <c r="E58" s="2">
         <v>1</v>
       </c>
-      <c r="F58" s="8">
-        <v>100</v>
-      </c>
-      <c r="G58" s="14">
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="12">
         <v>10010098</v>
       </c>
-      <c r="H58" s="8">
-        <v>1</v>
-      </c>
-      <c r="I58" s="10">
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="8">
         <v>10010035</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="14">
         <v>2</v>
       </c>
     </row>
@@ -4266,19 +4193,19 @@
       <c r="E59" s="2">
         <v>1</v>
       </c>
-      <c r="F59" s="8">
-        <v>100</v>
-      </c>
-      <c r="G59" s="10">
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="8">
         <v>10000132</v>
       </c>
-      <c r="H59" s="8">
-        <v>1</v>
-      </c>
-      <c r="I59" s="10">
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="8">
         <v>10010035</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="14">
         <v>5</v>
       </c>
     </row>
@@ -4292,19 +4219,19 @@
       <c r="E60" s="2">
         <v>1</v>
       </c>
-      <c r="F60" s="8">
-        <v>100</v>
-      </c>
-      <c r="G60" s="10">
+      <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="8">
         <v>10000144</v>
       </c>
-      <c r="H60" s="8">
-        <v>1</v>
-      </c>
-      <c r="I60" s="10">
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="8">
         <v>10010035</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="14">
         <v>5</v>
       </c>
     </row>
@@ -4318,19 +4245,19 @@
       <c r="E61" s="2">
         <v>1</v>
       </c>
-      <c r="F61" s="8">
-        <v>100</v>
-      </c>
-      <c r="G61" s="10">
+      <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="8">
         <v>10000145</v>
       </c>
-      <c r="H61" s="8">
-        <v>1</v>
-      </c>
-      <c r="I61" s="10">
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="8">
         <v>10010035</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="14">
         <v>5</v>
       </c>
     </row>
@@ -4344,19 +4271,19 @@
       <c r="E62" s="2">
         <v>1</v>
       </c>
-      <c r="F62" s="8">
-        <v>100</v>
-      </c>
-      <c r="G62" s="10">
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="8">
         <v>10000146</v>
       </c>
-      <c r="H62" s="8">
-        <v>1</v>
-      </c>
-      <c r="I62" s="10">
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+      <c r="I62" s="8">
         <v>10010035</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="14">
         <v>5</v>
       </c>
     </row>
@@ -4370,19 +4297,19 @@
       <c r="E63" s="2">
         <v>1</v>
       </c>
-      <c r="F63" s="8">
-        <v>100</v>
-      </c>
-      <c r="G63" s="10">
+      <c r="F63" s="3">
+        <v>100</v>
+      </c>
+      <c r="G63" s="8">
         <v>10000147</v>
       </c>
-      <c r="H63" s="8">
-        <v>1</v>
-      </c>
-      <c r="I63" s="10">
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="8">
         <v>10010035</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="14">
         <v>5</v>
       </c>
     </row>
@@ -4396,19 +4323,19 @@
       <c r="E64" s="2">
         <v>1</v>
       </c>
-      <c r="F64" s="8">
-        <v>100</v>
-      </c>
-      <c r="G64" s="10">
+      <c r="F64" s="3">
+        <v>100</v>
+      </c>
+      <c r="G64" s="8">
         <v>10000121</v>
       </c>
-      <c r="H64" s="8">
-        <v>1</v>
-      </c>
-      <c r="I64" s="10">
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64" s="8">
         <v>10010035</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J64" s="14">
         <v>35</v>
       </c>
     </row>
@@ -4422,19 +4349,19 @@
       <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="8">
-        <v>100</v>
-      </c>
-      <c r="G65" s="10">
+      <c r="F65" s="3">
+        <v>100</v>
+      </c>
+      <c r="G65" s="8">
         <v>10000122</v>
       </c>
-      <c r="H65" s="8">
-        <v>1</v>
-      </c>
-      <c r="I65" s="10">
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" s="8">
         <v>10010035</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J65" s="14">
         <v>35</v>
       </c>
     </row>
@@ -4448,19 +4375,19 @@
       <c r="E66" s="2">
         <v>1</v>
       </c>
-      <c r="F66" s="8">
-        <v>100</v>
-      </c>
-      <c r="G66" s="10">
+      <c r="F66" s="3">
+        <v>100</v>
+      </c>
+      <c r="G66" s="8">
         <v>10000123</v>
       </c>
-      <c r="H66" s="8">
-        <v>1</v>
-      </c>
-      <c r="I66" s="10">
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="8">
         <v>10010035</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J66" s="14">
         <v>35</v>
       </c>
     </row>
@@ -4474,19 +4401,19 @@
       <c r="E67" s="2">
         <v>1</v>
       </c>
-      <c r="F67" s="8">
-        <v>100</v>
-      </c>
-      <c r="G67" s="10">
+      <c r="F67" s="3">
+        <v>100</v>
+      </c>
+      <c r="G67" s="8">
         <v>10000124</v>
       </c>
-      <c r="H67" s="8">
-        <v>1</v>
-      </c>
-      <c r="I67" s="10">
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" s="8">
         <v>10010035</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J67" s="14">
         <v>35</v>
       </c>
     </row>
@@ -4500,19 +4427,19 @@
       <c r="E68" s="2">
         <v>1</v>
       </c>
-      <c r="F68" s="8">
-        <v>100</v>
-      </c>
-      <c r="G68" s="10">
+      <c r="F68" s="3">
+        <v>100</v>
+      </c>
+      <c r="G68" s="8">
         <v>10000125</v>
       </c>
-      <c r="H68" s="8">
-        <v>1</v>
-      </c>
-      <c r="I68" s="10">
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" s="8">
         <v>10010035</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J68" s="14">
         <v>35</v>
       </c>
     </row>
@@ -4526,19 +4453,19 @@
       <c r="E69" s="2">
         <v>1</v>
       </c>
-      <c r="F69" s="8">
-        <v>100</v>
-      </c>
-      <c r="G69" s="10">
+      <c r="F69" s="3">
+        <v>100</v>
+      </c>
+      <c r="G69" s="8">
         <v>10010046</v>
       </c>
-      <c r="H69" s="8">
-        <v>1</v>
-      </c>
-      <c r="I69" s="10">
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="8">
         <v>10010035</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="14">
         <v>60</v>
       </c>
     </row>
@@ -4552,19 +4479,19 @@
       <c r="E70" s="2">
         <v>1</v>
       </c>
-      <c r="F70" s="8">
-        <v>100</v>
-      </c>
-      <c r="G70" s="10">
+      <c r="F70" s="3">
+        <v>100</v>
+      </c>
+      <c r="G70" s="8">
         <v>10010085</v>
       </c>
-      <c r="H70" s="8">
-        <v>1</v>
-      </c>
-      <c r="I70" s="10">
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="8">
         <v>10010035</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="14">
         <v>2</v>
       </c>
     </row>
@@ -4578,20 +4505,20 @@
       <c r="E71" s="2">
         <v>1</v>
       </c>
-      <c r="F71" s="8">
-        <v>100</v>
-      </c>
-      <c r="G71" s="18">
+      <c r="F71" s="3">
+        <v>100</v>
+      </c>
+      <c r="G71" s="16">
         <v>10021008</v>
       </c>
-      <c r="H71" s="8">
-        <v>1</v>
-      </c>
-      <c r="I71" s="10">
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="8">
         <v>10010035</v>
       </c>
-      <c r="J71" s="16">
-        <v>15</v>
+      <c r="J71" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
@@ -4604,20 +4531,20 @@
       <c r="E72" s="2">
         <v>1</v>
       </c>
-      <c r="F72" s="8">
-        <v>100</v>
-      </c>
-      <c r="G72" s="18">
+      <c r="F72" s="3">
+        <v>100</v>
+      </c>
+      <c r="G72" s="16">
         <v>10021009</v>
       </c>
-      <c r="H72" s="8">
-        <v>1</v>
-      </c>
-      <c r="I72" s="10">
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="8">
         <v>10010035</v>
       </c>
-      <c r="J72" s="16">
-        <v>45</v>
+      <c r="J72" s="14">
+        <v>30</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
@@ -4630,20 +4557,20 @@
       <c r="E73" s="2">
         <v>1</v>
       </c>
-      <c r="F73" s="8">
-        <v>100</v>
-      </c>
-      <c r="G73" s="18">
+      <c r="F73" s="3">
+        <v>100</v>
+      </c>
+      <c r="G73" s="16">
         <v>10022008</v>
       </c>
-      <c r="H73" s="8">
-        <v>1</v>
-      </c>
-      <c r="I73" s="10">
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="8">
         <v>10010035</v>
       </c>
-      <c r="J73" s="16">
-        <v>15</v>
+      <c r="J73" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
@@ -4656,20 +4583,20 @@
       <c r="E74" s="2">
         <v>1</v>
       </c>
-      <c r="F74" s="8">
-        <v>100</v>
-      </c>
-      <c r="G74" s="18">
+      <c r="F74" s="3">
+        <v>100</v>
+      </c>
+      <c r="G74" s="16">
         <v>10022009</v>
       </c>
-      <c r="H74" s="8">
-        <v>1</v>
-      </c>
-      <c r="I74" s="10">
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="8">
         <v>10010035</v>
       </c>
-      <c r="J74" s="16">
-        <v>45</v>
+      <c r="J74" s="14">
+        <v>30</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
@@ -4682,20 +4609,20 @@
       <c r="E75" s="2">
         <v>1</v>
       </c>
-      <c r="F75" s="8">
-        <v>100</v>
-      </c>
-      <c r="G75" s="18">
+      <c r="F75" s="3">
+        <v>100</v>
+      </c>
+      <c r="G75" s="16">
         <v>10023008</v>
       </c>
-      <c r="H75" s="8">
-        <v>1</v>
-      </c>
-      <c r="I75" s="10">
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="8">
         <v>10010035</v>
       </c>
-      <c r="J75" s="16">
-        <v>15</v>
+      <c r="J75" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
@@ -4708,20 +4635,20 @@
       <c r="E76" s="2">
         <v>1</v>
       </c>
-      <c r="F76" s="8">
-        <v>100</v>
-      </c>
-      <c r="G76" s="18">
+      <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="16">
         <v>10023009</v>
       </c>
-      <c r="H76" s="8">
-        <v>1</v>
-      </c>
-      <c r="I76" s="10">
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+      <c r="I76" s="8">
         <v>10010035</v>
       </c>
-      <c r="J76" s="16">
-        <v>45</v>
+      <c r="J76" s="14">
+        <v>30</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
@@ -4734,20 +4661,20 @@
       <c r="E77" s="2">
         <v>1</v>
       </c>
-      <c r="F77" s="8">
-        <v>100</v>
-      </c>
-      <c r="G77" s="18">
+      <c r="F77" s="3">
+        <v>100</v>
+      </c>
+      <c r="G77" s="16">
         <v>10024008</v>
       </c>
-      <c r="H77" s="8">
-        <v>1</v>
-      </c>
-      <c r="I77" s="10">
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="I77" s="8">
         <v>10010035</v>
       </c>
-      <c r="J77" s="16">
-        <v>15</v>
+      <c r="J77" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
@@ -4760,20 +4687,20 @@
       <c r="E78" s="2">
         <v>1</v>
       </c>
-      <c r="F78" s="8">
-        <v>100</v>
-      </c>
-      <c r="G78" s="18">
+      <c r="F78" s="3">
+        <v>100</v>
+      </c>
+      <c r="G78" s="16">
         <v>10024009</v>
       </c>
-      <c r="H78" s="8">
-        <v>1</v>
-      </c>
-      <c r="I78" s="10">
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="8">
         <v>10010035</v>
       </c>
-      <c r="J78" s="16">
-        <v>45</v>
+      <c r="J78" s="14">
+        <v>30</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
@@ -4786,20 +4713,20 @@
       <c r="E79" s="2">
         <v>1</v>
       </c>
-      <c r="F79" s="8">
-        <v>100</v>
-      </c>
-      <c r="G79" s="18">
+      <c r="F79" s="3">
+        <v>100</v>
+      </c>
+      <c r="G79" s="16">
         <v>10025008</v>
       </c>
-      <c r="H79" s="8">
-        <v>1</v>
-      </c>
-      <c r="I79" s="10">
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
+      <c r="I79" s="8">
         <v>10010035</v>
       </c>
-      <c r="J79" s="16">
-        <v>15</v>
+      <c r="J79" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
@@ -4812,20 +4739,20 @@
       <c r="E80" s="2">
         <v>1</v>
       </c>
-      <c r="F80" s="8">
-        <v>100</v>
-      </c>
-      <c r="G80" s="18">
+      <c r="F80" s="3">
+        <v>100</v>
+      </c>
+      <c r="G80" s="16">
         <v>10025009</v>
       </c>
-      <c r="H80" s="8">
-        <v>1</v>
-      </c>
-      <c r="I80" s="10">
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" s="8">
         <v>10010035</v>
       </c>
-      <c r="J80" s="16">
-        <v>45</v>
+      <c r="J80" s="14">
+        <v>30</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
@@ -4838,19 +4765,19 @@
       <c r="E81" s="2">
         <v>1</v>
       </c>
-      <c r="F81" s="8">
-        <v>100</v>
-      </c>
-      <c r="G81" s="18">
+      <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="16">
         <v>10000105</v>
       </c>
-      <c r="H81" s="8">
-        <v>1</v>
-      </c>
-      <c r="I81" s="10">
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="8">
         <v>10010035</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J81" s="14">
         <v>2000</v>
       </c>
     </row>
@@ -4859,1033 +4786,1030 @@
         <v>20000028</v>
       </c>
       <c r="D82" s="2">
+        <v>20000029</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>100</v>
+      </c>
+      <c r="G82" s="8">
+        <v>10010052</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+      <c r="I82" s="8">
+        <v>10010035</v>
+      </c>
+      <c r="J82" s="14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C83" s="2">
+        <v>20000029</v>
+      </c>
+      <c r="D83" s="2">
         <v>0</v>
       </c>
-      <c r="E82" s="2">
-        <v>1</v>
-      </c>
-      <c r="F82" s="8">
-        <v>100</v>
-      </c>
-      <c r="G82" s="10">
-        <v>10010052</v>
-      </c>
-      <c r="H82" s="2">
-        <v>1</v>
-      </c>
-      <c r="I82" s="10">
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="8">
+        <v>10000155</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+      <c r="I83" s="8">
         <v>10010035</v>
       </c>
-      <c r="J82" s="16">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
-      <c r="C83" s="2">
+      <c r="J83" s="14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+      <c r="C84" s="2">
         <v>30000001</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D84" s="2">
         <v>30000002</v>
       </c>
-      <c r="E83" s="2">
-        <v>1</v>
-      </c>
-      <c r="F83" s="8">
-        <v>100</v>
-      </c>
-      <c r="G83" s="10">
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>100</v>
+      </c>
+      <c r="G84" s="8">
         <v>10000144</v>
       </c>
-      <c r="H83" s="8">
-        <v>1</v>
-      </c>
-      <c r="I83" s="10">
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" s="8">
         <v>10000148</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J84" s="14">
         <v>10</v>
       </c>
-      <c r="L83" s="17" t="s">
+      <c r="L84" s="15" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
-      <c r="C84" s="2">
-        <v>30000002</v>
-      </c>
-      <c r="D84" s="2">
-        <v>30000003</v>
-      </c>
-      <c r="E84" s="2">
-        <v>1</v>
-      </c>
-      <c r="F84" s="8">
-        <v>100</v>
-      </c>
-      <c r="G84" s="10">
-        <v>10000145</v>
-      </c>
-      <c r="H84" s="8">
-        <v>1</v>
-      </c>
-      <c r="I84" s="10">
-        <v>10000148</v>
-      </c>
-      <c r="J84" s="16">
-        <v>10</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C85" s="2">
+        <v>30000002</v>
+      </c>
+      <c r="D85" s="2">
         <v>30000003</v>
       </c>
-      <c r="D85" s="2">
-        <v>30000004</v>
-      </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
-      <c r="F85" s="8">
-        <v>100</v>
-      </c>
-      <c r="G85" s="10">
-        <v>10000146</v>
-      </c>
-      <c r="H85" s="8">
-        <v>1</v>
-      </c>
-      <c r="I85" s="10">
+      <c r="F85" s="3">
+        <v>100</v>
+      </c>
+      <c r="G85" s="8">
+        <v>10000145</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85" s="8">
         <v>10000148</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J85" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C86" s="2">
+        <v>30000003</v>
+      </c>
+      <c r="D86" s="2">
         <v>30000004</v>
       </c>
-      <c r="D86" s="2">
-        <v>30000005</v>
-      </c>
       <c r="E86" s="2">
         <v>1</v>
       </c>
-      <c r="F86" s="8">
-        <v>100</v>
-      </c>
-      <c r="G86" s="10">
-        <v>10000147</v>
-      </c>
-      <c r="H86" s="8">
-        <v>1</v>
-      </c>
-      <c r="I86" s="10">
+      <c r="F86" s="3">
+        <v>100</v>
+      </c>
+      <c r="G86" s="8">
+        <v>10000146</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86" s="8">
         <v>10000148</v>
       </c>
-      <c r="J86" s="16">
+      <c r="J86" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C87" s="2">
+        <v>30000004</v>
+      </c>
+      <c r="D87" s="2">
         <v>30000005</v>
       </c>
-      <c r="D87" s="2">
-        <v>30000006</v>
-      </c>
       <c r="E87" s="2">
         <v>1</v>
       </c>
-      <c r="F87" s="8">
-        <v>100</v>
-      </c>
-      <c r="G87" s="10">
-        <v>10010033</v>
-      </c>
-      <c r="H87" s="8">
-        <v>1</v>
-      </c>
-      <c r="I87" s="10">
+      <c r="F87" s="3">
+        <v>100</v>
+      </c>
+      <c r="G87" s="8">
+        <v>10000147</v>
+      </c>
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
+      <c r="I87" s="8">
         <v>10000148</v>
       </c>
-      <c r="J87" s="22">
-        <v>50</v>
+      <c r="J87" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C88" s="2">
+        <v>30000005</v>
+      </c>
+      <c r="D88" s="2">
         <v>30000006</v>
       </c>
-      <c r="D88" s="2">
-        <v>30000007</v>
-      </c>
       <c r="E88" s="2">
         <v>1</v>
       </c>
-      <c r="F88" s="8">
-        <v>100</v>
-      </c>
-      <c r="G88" s="10">
-        <v>10010083</v>
-      </c>
-      <c r="H88" s="8">
-        <v>1</v>
-      </c>
-      <c r="I88" s="10">
+      <c r="F88" s="3">
+        <v>100</v>
+      </c>
+      <c r="G88" s="8">
+        <v>10010033</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="8">
         <v>10000148</v>
       </c>
-      <c r="J88" s="22">
-        <v>5</v>
+      <c r="J88" s="20">
+        <v>50</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C89" s="2">
+        <v>30000006</v>
+      </c>
+      <c r="D89" s="2">
         <v>30000007</v>
       </c>
-      <c r="D89" s="2">
-        <v>30000008</v>
-      </c>
       <c r="E89" s="2">
         <v>1</v>
       </c>
-      <c r="F89" s="8">
-        <v>100</v>
-      </c>
-      <c r="G89" s="14">
-        <v>10010098</v>
-      </c>
-      <c r="H89" s="8">
-        <v>1</v>
-      </c>
-      <c r="I89" s="10">
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="8">
+        <v>10010083</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+      <c r="I89" s="8">
         <v>10000148</v>
       </c>
-      <c r="J89" s="22">
+      <c r="J89" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C90" s="2">
+        <v>30000007</v>
+      </c>
+      <c r="D90" s="2">
         <v>30000008</v>
       </c>
-      <c r="D90" s="2">
-        <v>30000009</v>
-      </c>
       <c r="E90" s="2">
         <v>1</v>
       </c>
-      <c r="F90" s="8">
-        <v>100</v>
-      </c>
-      <c r="G90" s="10">
-        <v>10010085</v>
-      </c>
-      <c r="H90" s="8">
-        <v>1</v>
-      </c>
-      <c r="I90" s="10">
+      <c r="F90" s="3">
+        <v>100</v>
+      </c>
+      <c r="G90" s="12">
+        <v>10010098</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+      <c r="I90" s="8">
         <v>10000148</v>
       </c>
-      <c r="J90" s="22">
-        <v>2</v>
+      <c r="J90" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C91" s="2">
+        <v>30000008</v>
+      </c>
+      <c r="D91" s="2">
         <v>30000009</v>
       </c>
-      <c r="D91" s="2">
-        <v>30000010</v>
-      </c>
       <c r="E91" s="2">
         <v>1</v>
       </c>
-      <c r="F91" s="8">
-        <v>100</v>
-      </c>
-      <c r="G91" s="10">
-        <v>10000131</v>
-      </c>
-      <c r="H91" s="8">
-        <v>1</v>
-      </c>
-      <c r="I91" s="10">
+      <c r="F91" s="3">
+        <v>100</v>
+      </c>
+      <c r="G91" s="8">
+        <v>10010085</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" s="8">
         <v>10000148</v>
       </c>
-      <c r="J91" s="22">
-        <v>3</v>
+      <c r="J91" s="20">
+        <v>2</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C92" s="2">
+        <v>30000009</v>
+      </c>
+      <c r="D92" s="2">
         <v>30000010</v>
       </c>
-      <c r="D92" s="2">
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>100</v>
+      </c>
+      <c r="G92" s="8">
+        <v>10000131</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" s="8">
+        <v>10000148</v>
+      </c>
+      <c r="J92" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C93" s="2">
+        <v>30000010</v>
+      </c>
+      <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92" s="8">
-        <v>100</v>
-      </c>
-      <c r="G92" s="10">
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>100</v>
+      </c>
+      <c r="G93" s="8">
         <v>10000132</v>
       </c>
-      <c r="H92" s="8">
-        <v>1</v>
-      </c>
-      <c r="I92" s="10">
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93" s="8">
         <v>10000148</v>
       </c>
-      <c r="J92" s="22">
+      <c r="J93" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
-      <c r="C93" s="2">
+    <row r="94" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+      <c r="C94" s="2">
         <v>40000001</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D94" s="2">
         <v>40000002</v>
       </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="8">
-        <v>100</v>
-      </c>
-      <c r="G93" s="10">
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>100</v>
+      </c>
+      <c r="G94" s="8">
         <v>10000143</v>
       </c>
-      <c r="H93" s="16">
-        <v>1</v>
-      </c>
-      <c r="I93" s="10">
+      <c r="H94" s="14">
+        <v>1</v>
+      </c>
+      <c r="I94" s="8">
         <v>10000149</v>
       </c>
-      <c r="J93" s="16">
+      <c r="J94" s="14">
         <v>35</v>
       </c>
-      <c r="L93" s="17" t="s">
+      <c r="L94" s="15" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
-      <c r="C94" s="2">
-        <v>40000002</v>
-      </c>
-      <c r="D94" s="2">
-        <v>40000003</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="8">
-        <v>100</v>
-      </c>
-      <c r="G94" s="10">
-        <v>10010046</v>
-      </c>
-      <c r="H94" s="16">
-        <v>1</v>
-      </c>
-      <c r="I94" s="10">
-        <v>10000149</v>
-      </c>
-      <c r="J94" s="16">
-        <v>15</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C95" s="2">
+        <v>40000002</v>
+      </c>
+      <c r="D95" s="2">
         <v>40000003</v>
       </c>
-      <c r="D95" s="2">
-        <v>40000004</v>
-      </c>
       <c r="E95" s="2">
         <v>1</v>
       </c>
-      <c r="F95" s="8">
-        <v>100</v>
-      </c>
-      <c r="G95" s="10">
-        <v>10000150</v>
-      </c>
-      <c r="H95" s="16">
-        <v>1</v>
-      </c>
-      <c r="I95" s="10">
+      <c r="F95" s="3">
+        <v>100</v>
+      </c>
+      <c r="G95" s="8">
+        <v>10010046</v>
+      </c>
+      <c r="H95" s="14">
+        <v>1</v>
+      </c>
+      <c r="I95" s="8">
         <v>10000149</v>
       </c>
-      <c r="J95" s="16">
-        <v>60</v>
+      <c r="J95" s="14">
+        <v>15</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C96" s="2">
+        <v>40000003</v>
+      </c>
+      <c r="D96" s="2">
         <v>40000004</v>
       </c>
-      <c r="D96" s="2">
-        <v>40000005</v>
-      </c>
       <c r="E96" s="2">
         <v>1</v>
       </c>
-      <c r="F96" s="8">
-        <v>100</v>
-      </c>
-      <c r="G96" s="10">
-        <v>10010045</v>
-      </c>
-      <c r="H96" s="16">
-        <v>1</v>
-      </c>
-      <c r="I96" s="10">
+      <c r="F96" s="3">
+        <v>100</v>
+      </c>
+      <c r="G96" s="8">
+        <v>10000150</v>
+      </c>
+      <c r="H96" s="14">
+        <v>1</v>
+      </c>
+      <c r="I96" s="8">
         <v>10000149</v>
       </c>
-      <c r="J96" s="16">
-        <v>100</v>
+      <c r="J96" s="14">
+        <v>60</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C97" s="2">
+        <v>40000004</v>
+      </c>
+      <c r="D97" s="2">
         <v>40000005</v>
       </c>
-      <c r="D97" s="2">
-        <v>40000006</v>
-      </c>
       <c r="E97" s="2">
         <v>1</v>
       </c>
-      <c r="F97" s="8">
-        <v>100</v>
-      </c>
-      <c r="G97" s="10">
-        <v>10010083</v>
-      </c>
-      <c r="H97" s="16">
-        <v>1</v>
-      </c>
-      <c r="I97" s="10">
+      <c r="F97" s="3">
+        <v>100</v>
+      </c>
+      <c r="G97" s="8">
+        <v>10010045</v>
+      </c>
+      <c r="H97" s="14">
+        <v>1</v>
+      </c>
+      <c r="I97" s="8">
         <v>10000149</v>
       </c>
-      <c r="J97" s="16">
-        <v>3</v>
+      <c r="J97" s="14">
+        <v>100</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C98" s="2">
+        <v>40000005</v>
+      </c>
+      <c r="D98" s="2">
         <v>40000006</v>
       </c>
-      <c r="D98" s="2">
-        <v>40000007</v>
-      </c>
       <c r="E98" s="2">
         <v>1</v>
       </c>
-      <c r="F98" s="8">
-        <v>100</v>
-      </c>
-      <c r="G98" s="10">
-        <v>10010085</v>
-      </c>
-      <c r="H98" s="16">
-        <v>5</v>
-      </c>
-      <c r="I98" s="10">
+      <c r="F98" s="3">
+        <v>100</v>
+      </c>
+      <c r="G98" s="8">
+        <v>10010083</v>
+      </c>
+      <c r="H98" s="14">
+        <v>1</v>
+      </c>
+      <c r="I98" s="8">
         <v>10000149</v>
       </c>
-      <c r="J98" s="16">
-        <v>1</v>
+      <c r="J98" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C99" s="2">
+        <v>40000006</v>
+      </c>
+      <c r="D99" s="2">
         <v>40000007</v>
       </c>
-      <c r="D99" s="2">
-        <v>40000008</v>
-      </c>
       <c r="E99" s="2">
         <v>1</v>
       </c>
-      <c r="F99" s="8">
-        <v>100</v>
-      </c>
-      <c r="G99" s="10">
-        <v>10000121</v>
-      </c>
-      <c r="H99" s="16">
-        <v>1</v>
-      </c>
-      <c r="I99" s="10">
+      <c r="F99" s="3">
+        <v>100</v>
+      </c>
+      <c r="G99" s="8">
+        <v>10010085</v>
+      </c>
+      <c r="H99" s="14">
+        <v>5</v>
+      </c>
+      <c r="I99" s="8">
         <v>10000149</v>
       </c>
-      <c r="J99" s="16">
-        <v>15</v>
+      <c r="J99" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C100" s="2">
+        <v>40000007</v>
+      </c>
+      <c r="D100" s="2">
         <v>40000008</v>
       </c>
-      <c r="D100" s="2">
-        <v>40000009</v>
-      </c>
       <c r="E100" s="2">
         <v>1</v>
       </c>
-      <c r="F100" s="8">
-        <v>100</v>
-      </c>
-      <c r="G100" s="10">
-        <v>10000122</v>
-      </c>
-      <c r="H100" s="16">
-        <v>1</v>
-      </c>
-      <c r="I100" s="10">
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="8">
+        <v>10000121</v>
+      </c>
+      <c r="H100" s="14">
+        <v>1</v>
+      </c>
+      <c r="I100" s="8">
         <v>10000149</v>
       </c>
-      <c r="J100" s="16">
+      <c r="J100" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C101" s="2">
+        <v>40000008</v>
+      </c>
+      <c r="D101" s="2">
         <v>40000009</v>
       </c>
-      <c r="D101" s="2">
-        <v>40000010</v>
-      </c>
       <c r="E101" s="2">
         <v>1</v>
       </c>
-      <c r="F101" s="8">
-        <v>100</v>
-      </c>
-      <c r="G101" s="10">
-        <v>10000123</v>
-      </c>
-      <c r="H101" s="16">
-        <v>1</v>
-      </c>
-      <c r="I101" s="10">
+      <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="8">
+        <v>10000122</v>
+      </c>
+      <c r="H101" s="14">
+        <v>1</v>
+      </c>
+      <c r="I101" s="8">
         <v>10000149</v>
       </c>
-      <c r="J101" s="16">
+      <c r="J101" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C102" s="2">
+        <v>40000009</v>
+      </c>
+      <c r="D102" s="2">
         <v>40000010</v>
       </c>
-      <c r="D102" s="2">
-        <v>40000011</v>
-      </c>
       <c r="E102" s="2">
         <v>1</v>
       </c>
-      <c r="F102" s="8">
-        <v>100</v>
-      </c>
-      <c r="G102" s="10">
-        <v>10000124</v>
-      </c>
-      <c r="H102" s="16">
-        <v>1</v>
-      </c>
-      <c r="I102" s="10">
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="8">
+        <v>10000123</v>
+      </c>
+      <c r="H102" s="14">
+        <v>1</v>
+      </c>
+      <c r="I102" s="8">
         <v>10000149</v>
       </c>
-      <c r="J102" s="16">
+      <c r="J102" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C103" s="2">
+        <v>40000010</v>
+      </c>
+      <c r="D103" s="2">
         <v>40000011</v>
       </c>
-      <c r="D103" s="2">
-        <v>40000012</v>
-      </c>
       <c r="E103" s="2">
         <v>1</v>
       </c>
-      <c r="F103" s="8">
-        <v>100</v>
-      </c>
-      <c r="G103" s="10">
-        <v>10000125</v>
-      </c>
-      <c r="H103" s="16">
-        <v>1</v>
-      </c>
-      <c r="I103" s="10">
+      <c r="F103" s="3">
+        <v>100</v>
+      </c>
+      <c r="G103" s="8">
+        <v>10000124</v>
+      </c>
+      <c r="H103" s="14">
+        <v>1</v>
+      </c>
+      <c r="I103" s="8">
         <v>10000149</v>
       </c>
-      <c r="J103" s="16">
+      <c r="J103" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C104" s="2">
+        <v>40000011</v>
+      </c>
+      <c r="D104" s="2">
         <v>40000012</v>
       </c>
-      <c r="D104" s="2">
-        <v>40000013</v>
-      </c>
       <c r="E104" s="2">
         <v>1</v>
       </c>
-      <c r="F104" s="8">
-        <v>100</v>
-      </c>
-      <c r="G104" s="10">
-        <v>10000144</v>
-      </c>
-      <c r="H104" s="16">
-        <v>2</v>
-      </c>
-      <c r="I104" s="10">
+      <c r="F104" s="3">
+        <v>100</v>
+      </c>
+      <c r="G104" s="8">
+        <v>10000125</v>
+      </c>
+      <c r="H104" s="14">
+        <v>1</v>
+      </c>
+      <c r="I104" s="8">
         <v>10000149</v>
       </c>
-      <c r="J104" s="16">
-        <v>1</v>
+      <c r="J104" s="14">
+        <v>15</v>
       </c>
     </row>
     <row r="105" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C105" s="2">
+        <v>40000012</v>
+      </c>
+      <c r="D105" s="2">
         <v>40000013</v>
       </c>
-      <c r="D105" s="2">
-        <v>40000014</v>
-      </c>
       <c r="E105" s="2">
         <v>1</v>
       </c>
-      <c r="F105" s="8">
-        <v>100</v>
-      </c>
-      <c r="G105" s="10">
-        <v>10000145</v>
-      </c>
-      <c r="H105" s="16">
+      <c r="F105" s="3">
+        <v>100</v>
+      </c>
+      <c r="G105" s="8">
+        <v>10000144</v>
+      </c>
+      <c r="H105" s="14">
         <v>2</v>
       </c>
-      <c r="I105" s="10">
+      <c r="I105" s="8">
         <v>10000149</v>
       </c>
-      <c r="J105" s="16">
+      <c r="J105" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="106" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C106" s="2">
+        <v>40000013</v>
+      </c>
+      <c r="D106" s="2">
         <v>40000014</v>
       </c>
-      <c r="D106" s="2">
-        <v>40000015</v>
-      </c>
       <c r="E106" s="2">
         <v>1</v>
       </c>
-      <c r="F106" s="8">
-        <v>100</v>
-      </c>
-      <c r="G106" s="10">
-        <v>10000146</v>
-      </c>
-      <c r="H106" s="16">
+      <c r="F106" s="3">
+        <v>100</v>
+      </c>
+      <c r="G106" s="8">
+        <v>10000145</v>
+      </c>
+      <c r="H106" s="14">
         <v>2</v>
       </c>
-      <c r="I106" s="10">
+      <c r="I106" s="8">
         <v>10000149</v>
       </c>
-      <c r="J106" s="16">
+      <c r="J106" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="107" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C107" s="2">
+        <v>40000014</v>
+      </c>
+      <c r="D107" s="2">
         <v>40000015</v>
       </c>
-      <c r="D107" s="2">
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3">
+        <v>100</v>
+      </c>
+      <c r="G107" s="8">
+        <v>10000146</v>
+      </c>
+      <c r="H107" s="14">
+        <v>2</v>
+      </c>
+      <c r="I107" s="8">
+        <v>10000149</v>
+      </c>
+      <c r="J107" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C108" s="2">
+        <v>40000015</v>
+      </c>
+      <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107" s="8">
-        <v>100</v>
-      </c>
-      <c r="G107" s="10">
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
+        <v>100</v>
+      </c>
+      <c r="G108" s="8">
         <v>10000147</v>
       </c>
-      <c r="H107" s="16">
+      <c r="H108" s="14">
         <v>2</v>
       </c>
-      <c r="I107" s="10">
+      <c r="I108" s="8">
         <v>10000149</v>
       </c>
-      <c r="J107" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
-      <c r="C108" s="2">
-        <v>50000001</v>
-      </c>
-      <c r="D108" s="2">
-        <v>50000002</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="8">
-        <v>100</v>
-      </c>
-      <c r="G108" s="10">
-        <v>10000206</v>
-      </c>
-      <c r="H108" s="8">
-        <v>1</v>
-      </c>
-      <c r="I108" s="10">
-        <v>10000151</v>
-      </c>
-      <c r="J108" s="2">
-        <v>50</v>
-      </c>
-      <c r="L108" s="10" t="s">
-        <v>21</v>
+      <c r="J108" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="109" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C109" s="2">
+        <v>50000001</v>
+      </c>
+      <c r="D109" s="2">
         <v>50000002</v>
       </c>
-      <c r="D109" s="2">
-        <v>50000003</v>
-      </c>
       <c r="E109" s="2">
         <v>1</v>
       </c>
-      <c r="F109" s="8">
-        <v>100</v>
-      </c>
-      <c r="G109" s="10">
-        <v>10000207</v>
-      </c>
-      <c r="H109" s="8">
-        <v>1</v>
-      </c>
-      <c r="I109" s="10">
+      <c r="F109" s="3">
+        <v>100</v>
+      </c>
+      <c r="G109" s="8">
+        <v>10000206</v>
+      </c>
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+      <c r="I109" s="8">
         <v>10000151</v>
       </c>
       <c r="J109" s="2">
-        <v>30</v>
-      </c>
-      <c r="L109" s="10" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C110" s="2">
+        <v>50000002</v>
+      </c>
+      <c r="D110" s="2">
         <v>50000003</v>
       </c>
-      <c r="D110" s="2">
-        <v>50000004</v>
-      </c>
       <c r="E110" s="2">
         <v>1</v>
       </c>
-      <c r="F110" s="8">
-        <v>100</v>
-      </c>
-      <c r="G110" s="10">
-        <v>10011008</v>
-      </c>
-      <c r="H110" s="8">
-        <v>1</v>
-      </c>
-      <c r="I110" s="10">
+      <c r="F110" s="3">
+        <v>100</v>
+      </c>
+      <c r="G110" s="8">
+        <v>10000207</v>
+      </c>
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+      <c r="I110" s="8">
         <v>10000151</v>
       </c>
       <c r="J110" s="2">
         <v>30</v>
       </c>
-      <c r="L110" s="23" t="s">
-        <v>23</v>
+      <c r="L110" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C111" s="2">
+        <v>50000003</v>
+      </c>
+      <c r="D111" s="2">
         <v>50000004</v>
       </c>
-      <c r="D111" s="2">
-        <v>50000005</v>
-      </c>
       <c r="E111" s="2">
         <v>1</v>
       </c>
-      <c r="F111" s="8">
-        <v>100</v>
-      </c>
-      <c r="G111" s="10">
-        <v>10011013</v>
-      </c>
-      <c r="H111" s="8">
-        <v>1</v>
-      </c>
-      <c r="I111" s="10">
+      <c r="F111" s="3">
+        <v>100</v>
+      </c>
+      <c r="G111" s="8">
+        <v>10011008</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="8">
         <v>10000151</v>
       </c>
       <c r="J111" s="2">
         <v>30</v>
       </c>
-      <c r="L111" s="23" t="s">
-        <v>24</v>
+      <c r="L111" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C112" s="2">
+        <v>50000004</v>
+      </c>
+      <c r="D112" s="2">
         <v>50000005</v>
       </c>
-      <c r="D112" s="2">
-        <v>50000006</v>
-      </c>
       <c r="E112" s="2">
         <v>1</v>
       </c>
-      <c r="F112" s="8">
-        <v>100</v>
-      </c>
-      <c r="G112" s="2">
-        <v>10000105</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="10">
+      <c r="F112" s="3">
+        <v>100</v>
+      </c>
+      <c r="G112" s="8">
+        <v>10011013</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="8">
         <v>10000151</v>
       </c>
       <c r="J112" s="2">
-        <v>10</v>
-      </c>
-      <c r="L112" s="24" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="L112" s="21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C113" s="2">
+        <v>50000005</v>
+      </c>
+      <c r="D113" s="2">
         <v>50000006</v>
       </c>
-      <c r="D113" s="2">
-        <v>50000007</v>
-      </c>
       <c r="E113" s="2">
         <v>1</v>
       </c>
-      <c r="F113" s="8">
+      <c r="F113" s="3">
         <v>100</v>
       </c>
       <c r="G113" s="2">
-        <v>10032009</v>
+        <v>10000105</v>
       </c>
       <c r="H113" s="2">
         <v>1</v>
       </c>
-      <c r="I113" s="10">
+      <c r="I113" s="8">
         <v>10000151</v>
       </c>
       <c r="J113" s="2">
+        <v>10</v>
+      </c>
+      <c r="L113" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="L113" s="24" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C114" s="2">
+        <v>50000006</v>
+      </c>
+      <c r="D114" s="2">
         <v>50000007</v>
       </c>
-      <c r="D114" s="2">
-        <v>50000008</v>
-      </c>
       <c r="E114" s="2">
         <v>1</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="3">
         <v>100</v>
       </c>
       <c r="G114" s="2">
-        <v>10032014</v>
+        <v>10032009</v>
       </c>
       <c r="H114" s="2">
         <v>1</v>
       </c>
-      <c r="I114" s="10">
+      <c r="I114" s="8">
         <v>10000151</v>
       </c>
       <c r="J114" s="2">
         <v>25</v>
       </c>
-      <c r="L114" s="24" t="s">
+      <c r="L114" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C115" s="2">
+        <v>50000007</v>
+      </c>
+      <c r="D115" s="2">
         <v>50000008</v>
       </c>
-      <c r="D115" s="2">
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <v>100</v>
+      </c>
+      <c r="G115" s="2">
+        <v>10032014</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="8">
+        <v>10000151</v>
+      </c>
+      <c r="J115" s="2">
+        <v>25</v>
+      </c>
+      <c r="L115" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+      <c r="C116" s="2">
+        <v>50000008</v>
+      </c>
+      <c r="D116" s="2">
         <v>0</v>
       </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="8">
-        <v>100</v>
-      </c>
-      <c r="G115" s="2">
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <v>100</v>
+      </c>
+      <c r="G116" s="2">
         <v>10000156</v>
       </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="10">
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="8">
         <v>10000151</v>
       </c>
-      <c r="J115" s="2">
+      <c r="J116" s="2">
         <v>10</v>
       </c>
-      <c r="L115" s="24" t="s">
+      <c r="L116" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8">
+    <row r="117" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3">
         <v>60000001</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D117" s="3">
         <v>60000002</v>
       </c>
-      <c r="E116" s="8">
-        <v>1</v>
-      </c>
-      <c r="F116" s="8">
-        <v>100</v>
-      </c>
-      <c r="G116" s="10">
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
+        <v>100</v>
+      </c>
+      <c r="G117" s="8">
         <v>10000143</v>
       </c>
-      <c r="H116" s="19" t="s">
+      <c r="H117" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I116" s="10">
+      <c r="I117" s="8">
         <v>10000157</v>
       </c>
-      <c r="J116" s="8">
-        <v>1</v>
-      </c>
-      <c r="K116" s="8"/>
-      <c r="L116" s="24" t="s">
+      <c r="J117" s="3">
+        <v>1</v>
+      </c>
+      <c r="K117" s="3"/>
+      <c r="L117" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M116" s="8"/>
-      <c r="N116" s="19" t="s">
+      <c r="M117" s="3"/>
+      <c r="N117" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="O116" s="8"/>
-    </row>
-    <row r="117" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8">
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3">
         <v>60000002</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D118" s="3">
         <v>60000003</v>
       </c>
-      <c r="E117" s="8">
-        <v>1</v>
-      </c>
-      <c r="F117" s="8">
-        <v>100</v>
-      </c>
-      <c r="G117" s="10">
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>100</v>
+      </c>
+      <c r="G118" s="8">
         <v>10010093</v>
       </c>
-      <c r="H117" s="20">
-        <v>1</v>
-      </c>
-      <c r="I117" s="10">
+      <c r="H118" s="18">
+        <v>1</v>
+      </c>
+      <c r="I118" s="8">
         <v>10000143</v>
       </c>
-      <c r="J117" s="19" t="s">
+      <c r="J118" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K117" s="8"/>
-      <c r="L117" s="20" t="s">
+      <c r="K118" s="3"/>
+      <c r="L118" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M117" s="8"/>
-      <c r="N117" s="19" t="s">
+      <c r="M118" s="3"/>
+      <c r="N118" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="O117" s="8"/>
-    </row>
-    <row r="118" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C118" s="8">
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C119" s="3">
         <v>60000003</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D119" s="3">
         <v>60000004</v>
       </c>
-      <c r="E118" s="3">
-        <v>1</v>
-      </c>
-      <c r="F118" s="3">
-        <v>100</v>
-      </c>
-      <c r="G118" s="21">
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>100</v>
+      </c>
+      <c r="G119" s="19">
         <v>10012001</v>
-      </c>
-      <c r="H118" s="3">
-        <v>1</v>
-      </c>
-      <c r="I118" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J118" s="3">
-        <v>10</v>
-      </c>
-      <c r="L118" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="119" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C119" s="8">
-        <v>60000004</v>
-      </c>
-      <c r="D119" s="8">
-        <v>60000005</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
-        <v>100</v>
-      </c>
-      <c r="G119" s="21">
-        <v>10012002</v>
       </c>
       <c r="H119" s="3">
         <v>1</v>
@@ -5896,25 +5820,25 @@
       <c r="J119" s="3">
         <v>10</v>
       </c>
-      <c r="L119" s="21" t="s">
-        <v>34</v>
+      <c r="L119" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C120" s="8">
+      <c r="C120" s="3">
+        <v>60000004</v>
+      </c>
+      <c r="D120" s="3">
         <v>60000005</v>
       </c>
-      <c r="D120" s="8">
-        <v>60000006</v>
-      </c>
       <c r="E120" s="3">
         <v>1</v>
       </c>
       <c r="F120" s="3">
         <v>100</v>
       </c>
-      <c r="G120" s="21">
-        <v>10012003</v>
+      <c r="G120" s="19">
+        <v>10012002</v>
       </c>
       <c r="H120" s="3">
         <v>1</v>
@@ -5925,25 +5849,25 @@
       <c r="J120" s="3">
         <v>10</v>
       </c>
-      <c r="L120" s="21" t="s">
-        <v>35</v>
+      <c r="L120" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="121" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C121" s="8">
+      <c r="C121" s="3">
+        <v>60000005</v>
+      </c>
+      <c r="D121" s="3">
         <v>60000006</v>
       </c>
-      <c r="D121" s="8">
-        <v>60000007</v>
-      </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="F121" s="3">
         <v>100</v>
       </c>
-      <c r="G121" s="21">
-        <v>10012004</v>
+      <c r="G121" s="19">
+        <v>10012003</v>
       </c>
       <c r="H121" s="3">
         <v>1</v>
@@ -5954,25 +5878,25 @@
       <c r="J121" s="3">
         <v>10</v>
       </c>
-      <c r="L121" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="122" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C122" s="8">
+      <c r="L121" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C122" s="3">
+        <v>60000006</v>
+      </c>
+      <c r="D122" s="3">
         <v>60000007</v>
       </c>
-      <c r="D122" s="8">
-        <v>60000008</v>
-      </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="F122" s="3">
         <v>100</v>
       </c>
-      <c r="G122" s="21">
-        <v>10012005</v>
+      <c r="G122" s="19">
+        <v>10012004</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
@@ -5983,25 +5907,25 @@
       <c r="J122" s="3">
         <v>10</v>
       </c>
-      <c r="L122" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C123" s="8">
+      <c r="L122" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C123" s="3">
+        <v>60000007</v>
+      </c>
+      <c r="D123" s="3">
         <v>60000008</v>
       </c>
-      <c r="D123" s="8">
-        <v>60000009</v>
-      </c>
       <c r="E123" s="3">
         <v>1</v>
       </c>
       <c r="F123" s="3">
         <v>100</v>
       </c>
-      <c r="G123" s="21">
-        <v>10012006</v>
+      <c r="G123" s="19">
+        <v>10012005</v>
       </c>
       <c r="H123" s="3">
         <v>1</v>
@@ -6012,25 +5936,25 @@
       <c r="J123" s="3">
         <v>10</v>
       </c>
-      <c r="L123" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="124" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C124" s="8">
+      <c r="L123" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C124" s="3">
+        <v>60000008</v>
+      </c>
+      <c r="D124" s="3">
         <v>60000009</v>
       </c>
-      <c r="D124" s="8">
-        <v>60000010</v>
-      </c>
       <c r="E124" s="3">
         <v>1</v>
       </c>
       <c r="F124" s="3">
         <v>100</v>
       </c>
-      <c r="G124" s="21">
-        <v>10012007</v>
+      <c r="G124" s="19">
+        <v>10012006</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
@@ -6041,25 +5965,25 @@
       <c r="J124" s="3">
         <v>10</v>
       </c>
-      <c r="L124" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C125" s="8">
+      <c r="L124" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C125" s="3">
+        <v>60000009</v>
+      </c>
+      <c r="D125" s="3">
         <v>60000010</v>
       </c>
-      <c r="D125" s="8">
-        <v>60000011</v>
-      </c>
       <c r="E125" s="3">
         <v>1</v>
       </c>
       <c r="F125" s="3">
         <v>100</v>
       </c>
-      <c r="G125" s="21">
-        <v>10012008</v>
+      <c r="G125" s="19">
+        <v>10012007</v>
       </c>
       <c r="H125" s="3">
         <v>1</v>
@@ -6070,25 +5994,25 @@
       <c r="J125" s="3">
         <v>10</v>
       </c>
-      <c r="L125" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C126" s="8">
+      <c r="L125" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C126" s="3">
+        <v>60000010</v>
+      </c>
+      <c r="D126" s="3">
         <v>60000011</v>
       </c>
-      <c r="D126" s="8">
-        <v>60000012</v>
-      </c>
       <c r="E126" s="3">
         <v>1</v>
       </c>
       <c r="F126" s="3">
         <v>100</v>
       </c>
-      <c r="G126" s="21">
-        <v>10012009</v>
+      <c r="G126" s="19">
+        <v>10012008</v>
       </c>
       <c r="H126" s="3">
         <v>1</v>
@@ -6099,25 +6023,25 @@
       <c r="J126" s="3">
         <v>10</v>
       </c>
-      <c r="L126" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C127" s="8">
+      <c r="L126" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C127" s="3">
+        <v>60000011</v>
+      </c>
+      <c r="D127" s="3">
         <v>60000012</v>
       </c>
-      <c r="D127" s="8">
-        <v>60000013</v>
-      </c>
       <c r="E127" s="3">
         <v>1</v>
       </c>
       <c r="F127" s="3">
         <v>100</v>
       </c>
-      <c r="G127" s="21">
-        <v>10012010</v>
+      <c r="G127" s="19">
+        <v>10012009</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -6128,25 +6052,25 @@
       <c r="J127" s="3">
         <v>10</v>
       </c>
-      <c r="L127" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C128" s="8">
+      <c r="L127" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C128" s="3">
+        <v>60000012</v>
+      </c>
+      <c r="D128" s="3">
         <v>60000013</v>
       </c>
-      <c r="D128" s="8">
-        <v>60000014</v>
-      </c>
       <c r="E128" s="3">
         <v>1</v>
       </c>
       <c r="F128" s="3">
         <v>100</v>
       </c>
-      <c r="G128" s="21">
-        <v>10012011</v>
+      <c r="G128" s="19">
+        <v>10012010</v>
       </c>
       <c r="H128" s="3">
         <v>1</v>
@@ -6157,25 +6081,25 @@
       <c r="J128" s="3">
         <v>10</v>
       </c>
-      <c r="L128" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="129" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C129" s="8">
+      <c r="L128" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C129" s="3">
+        <v>60000013</v>
+      </c>
+      <c r="D129" s="3">
         <v>60000014</v>
       </c>
-      <c r="D129" s="8">
-        <v>60000015</v>
-      </c>
       <c r="E129" s="3">
         <v>1</v>
       </c>
       <c r="F129" s="3">
         <v>100</v>
       </c>
-      <c r="G129" s="21">
-        <v>10012012</v>
+      <c r="G129" s="19">
+        <v>10012011</v>
       </c>
       <c r="H129" s="3">
         <v>1</v>
@@ -6186,25 +6110,25 @@
       <c r="J129" s="3">
         <v>10</v>
       </c>
-      <c r="L129" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="130" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C130" s="8">
+      <c r="L129" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C130" s="3">
+        <v>60000014</v>
+      </c>
+      <c r="D130" s="3">
         <v>60000015</v>
       </c>
-      <c r="D130" s="8">
-        <v>60000016</v>
-      </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="F130" s="3">
         <v>100</v>
       </c>
-      <c r="G130" s="21">
-        <v>10012013</v>
+      <c r="G130" s="19">
+        <v>10012012</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
@@ -6215,25 +6139,25 @@
       <c r="J130" s="3">
         <v>10</v>
       </c>
-      <c r="L130" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C131" s="8">
+      <c r="L130" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C131" s="3">
+        <v>60000015</v>
+      </c>
+      <c r="D131" s="3">
         <v>60000016</v>
       </c>
-      <c r="D131" s="8">
-        <v>60000017</v>
-      </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="F131" s="3">
         <v>100</v>
       </c>
-      <c r="G131" s="21">
-        <v>10012014</v>
+      <c r="G131" s="19">
+        <v>10012013</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -6244,25 +6168,25 @@
       <c r="J131" s="3">
         <v>10</v>
       </c>
-      <c r="L131" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C132" s="8">
+      <c r="L131" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C132" s="3">
+        <v>60000016</v>
+      </c>
+      <c r="D132" s="3">
         <v>60000017</v>
       </c>
-      <c r="D132" s="8">
-        <v>60000018</v>
-      </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="F132" s="3">
         <v>100</v>
       </c>
-      <c r="G132" s="21">
-        <v>10012015</v>
+      <c r="G132" s="19">
+        <v>10012014</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -6273,25 +6197,25 @@
       <c r="J132" s="3">
         <v>10</v>
       </c>
-      <c r="L132" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C133" s="8">
+      <c r="L132" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C133" s="3">
+        <v>60000017</v>
+      </c>
+      <c r="D133" s="3">
         <v>60000018</v>
       </c>
-      <c r="D133" s="8">
-        <v>60000019</v>
-      </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="F133" s="3">
         <v>100</v>
       </c>
-      <c r="G133" s="21">
-        <v>10012016</v>
+      <c r="G133" s="19">
+        <v>10012015</v>
       </c>
       <c r="H133" s="3">
         <v>1</v>
@@ -6302,25 +6226,25 @@
       <c r="J133" s="3">
         <v>10</v>
       </c>
-      <c r="L133" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C134" s="8">
+      <c r="L133" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C134" s="3">
+        <v>60000018</v>
+      </c>
+      <c r="D134" s="3">
         <v>60000019</v>
       </c>
-      <c r="D134" s="8">
-        <v>60000020</v>
-      </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="F134" s="3">
         <v>100</v>
       </c>
-      <c r="G134" s="21">
-        <v>10012017</v>
+      <c r="G134" s="19">
+        <v>10012016</v>
       </c>
       <c r="H134" s="3">
         <v>1</v>
@@ -6331,25 +6255,25 @@
       <c r="J134" s="3">
         <v>10</v>
       </c>
-      <c r="L134" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C135" s="8">
+      <c r="L134" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C135" s="3">
+        <v>60000019</v>
+      </c>
+      <c r="D135" s="3">
         <v>60000020</v>
       </c>
-      <c r="D135" s="8">
-        <v>60000021</v>
-      </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="F135" s="3">
         <v>100</v>
       </c>
-      <c r="G135" s="21">
-        <v>10012018</v>
+      <c r="G135" s="19">
+        <v>10012017</v>
       </c>
       <c r="H135" s="3">
         <v>1</v>
@@ -6360,25 +6284,25 @@
       <c r="J135" s="3">
         <v>10</v>
       </c>
-      <c r="L135" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="136" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C136" s="8">
+      <c r="L135" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C136" s="3">
+        <v>60000020</v>
+      </c>
+      <c r="D136" s="3">
         <v>60000021</v>
       </c>
-      <c r="D136" s="8">
-        <v>60000022</v>
-      </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="F136" s="3">
         <v>100</v>
       </c>
-      <c r="G136" s="21">
-        <v>10012019</v>
+      <c r="G136" s="19">
+        <v>10012018</v>
       </c>
       <c r="H136" s="3">
         <v>1</v>
@@ -6389,25 +6313,25 @@
       <c r="J136" s="3">
         <v>10</v>
       </c>
-      <c r="L136" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="137" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C137" s="8">
+      <c r="L136" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C137" s="3">
+        <v>60000021</v>
+      </c>
+      <c r="D137" s="3">
         <v>60000022</v>
       </c>
-      <c r="D137" s="8">
-        <v>60000023</v>
-      </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="F137" s="3">
         <v>100</v>
       </c>
-      <c r="G137" s="21">
-        <v>10012020</v>
+      <c r="G137" s="19">
+        <v>10012019</v>
       </c>
       <c r="H137" s="3">
         <v>1</v>
@@ -6416,27 +6340,27 @@
         <v>10010029</v>
       </c>
       <c r="J137" s="3">
-        <v>15</v>
-      </c>
-      <c r="L137" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="138" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C138" s="8">
+        <v>10</v>
+      </c>
+      <c r="L137" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C138" s="3">
+        <v>60000022</v>
+      </c>
+      <c r="D138" s="3">
         <v>60000023</v>
       </c>
-      <c r="D138" s="8">
-        <v>60000024</v>
-      </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="F138" s="3">
         <v>100</v>
       </c>
-      <c r="G138" s="21">
-        <v>10012021</v>
+      <c r="G138" s="19">
+        <v>10012020</v>
       </c>
       <c r="H138" s="3">
         <v>1</v>
@@ -6447,25 +6371,25 @@
       <c r="J138" s="3">
         <v>15</v>
       </c>
-      <c r="L138" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C139" s="8">
+      <c r="L138" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C139" s="3">
+        <v>60000023</v>
+      </c>
+      <c r="D139" s="3">
         <v>60000024</v>
       </c>
-      <c r="D139" s="8">
-        <v>60000025</v>
-      </c>
       <c r="E139" s="3">
         <v>1</v>
       </c>
       <c r="F139" s="3">
         <v>100</v>
       </c>
-      <c r="G139" s="21">
-        <v>10012022</v>
+      <c r="G139" s="19">
+        <v>10012021</v>
       </c>
       <c r="H139" s="3">
         <v>1</v>
@@ -6476,25 +6400,25 @@
       <c r="J139" s="3">
         <v>15</v>
       </c>
-      <c r="L139" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="140" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C140" s="8">
+      <c r="L139" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C140" s="3">
+        <v>60000024</v>
+      </c>
+      <c r="D140" s="3">
         <v>60000025</v>
       </c>
-      <c r="D140" s="8">
-        <v>60000026</v>
-      </c>
       <c r="E140" s="3">
         <v>1</v>
       </c>
       <c r="F140" s="3">
         <v>100</v>
       </c>
-      <c r="G140" s="21">
-        <v>10012023</v>
+      <c r="G140" s="19">
+        <v>10012022</v>
       </c>
       <c r="H140" s="3">
         <v>1</v>
@@ -6505,25 +6429,25 @@
       <c r="J140" s="3">
         <v>15</v>
       </c>
-      <c r="L140" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="141" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C141" s="8">
+      <c r="L140" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="141" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C141" s="3">
+        <v>60000025</v>
+      </c>
+      <c r="D141" s="3">
         <v>60000026</v>
       </c>
-      <c r="D141" s="8">
-        <v>60000027</v>
-      </c>
       <c r="E141" s="3">
         <v>1</v>
       </c>
       <c r="F141" s="3">
         <v>100</v>
       </c>
-      <c r="G141" s="21">
-        <v>10012024</v>
+      <c r="G141" s="19">
+        <v>10012023</v>
       </c>
       <c r="H141" s="3">
         <v>1</v>
@@ -6534,25 +6458,25 @@
       <c r="J141" s="3">
         <v>15</v>
       </c>
-      <c r="L141" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C142" s="8">
+      <c r="L141" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C142" s="3">
+        <v>60000026</v>
+      </c>
+      <c r="D142" s="3">
         <v>60000027</v>
       </c>
-      <c r="D142" s="8">
-        <v>60000028</v>
-      </c>
       <c r="E142" s="3">
         <v>1</v>
       </c>
       <c r="F142" s="3">
         <v>100</v>
       </c>
-      <c r="G142" s="21">
-        <v>10012025</v>
+      <c r="G142" s="19">
+        <v>10012024</v>
       </c>
       <c r="H142" s="3">
         <v>1</v>
@@ -6563,25 +6487,25 @@
       <c r="J142" s="3">
         <v>15</v>
       </c>
-      <c r="L142" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" s="4" customFormat="1" ht="20" customHeight="1" spans="3:12">
-      <c r="C143" s="8">
+      <c r="L142" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C143" s="3">
+        <v>60000027</v>
+      </c>
+      <c r="D143" s="3">
         <v>60000028</v>
       </c>
-      <c r="D143" s="4">
-        <v>0</v>
-      </c>
       <c r="E143" s="3">
         <v>1</v>
       </c>
       <c r="F143" s="3">
         <v>100</v>
       </c>
-      <c r="G143" s="21">
-        <v>10012026</v>
+      <c r="G143" s="19">
+        <v>10012025</v>
       </c>
       <c r="H143" s="3">
         <v>1</v>
@@ -6592,7 +6516,36 @@
       <c r="J143" s="3">
         <v>15</v>
       </c>
-      <c r="L143" s="21" t="s">
+      <c r="L143" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" s="3" customFormat="1" ht="20" customHeight="1" spans="3:12">
+      <c r="C144" s="3">
+        <v>60000028</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3">
+        <v>100</v>
+      </c>
+      <c r="G144" s="19">
+        <v>10012026</v>
+      </c>
+      <c r="H144" s="3">
+        <v>1</v>
+      </c>
+      <c r="I144" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J144" s="3">
+        <v>15</v>
+      </c>
+      <c r="L144" s="19" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C4272C-1514-4637-8780-F0D84C2A865C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71A74BF-0EE1-451B-806D-8CD7C1698B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -2208,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O169"/>
+  <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6717,6 +6717,93 @@
         <v>58</v>
       </c>
     </row>
+    <row r="170" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="3">
+        <v>70000001</v>
+      </c>
+      <c r="D170" s="3">
+        <v>70000002</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3">
+        <v>100</v>
+      </c>
+      <c r="G170" s="12">
+        <v>10012024</v>
+      </c>
+      <c r="H170" s="3">
+        <v>1</v>
+      </c>
+      <c r="I170" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J170" s="3">
+        <v>15</v>
+      </c>
+      <c r="L170" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C171" s="3">
+        <v>70000002</v>
+      </c>
+      <c r="D171" s="3">
+        <v>70000003</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3">
+        <v>100</v>
+      </c>
+      <c r="G171" s="12">
+        <v>10012025</v>
+      </c>
+      <c r="H171" s="3">
+        <v>1</v>
+      </c>
+      <c r="I171" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J171" s="3">
+        <v>15</v>
+      </c>
+      <c r="L171" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="3">
+        <v>70000003</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3">
+        <v>100</v>
+      </c>
+      <c r="G172" s="12">
+        <v>10012026</v>
+      </c>
+      <c r="H172" s="3">
+        <v>1</v>
+      </c>
+      <c r="I172" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J172" s="3">
+        <v>15</v>
+      </c>
+      <c r="L172" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71A74BF-0EE1-451B-806D-8CD7C1698B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B69B324-A424-43B4-9E31-C588FF8F067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Id</t>
   </si>
@@ -178,9 +178,6 @@
     <t>图纸:传承史诗支配之符</t>
   </si>
   <si>
-    <t>图纸:传承史诗支配之剑</t>
-  </si>
-  <si>
     <t>图纸:传承史诗支配战刃</t>
   </si>
   <si>
@@ -264,6 +261,14 @@
       </rPr>
       <t>章</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:传承史诗支配之剑</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:传承史诗支配之弓</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2208,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+      <selection activeCell="L171" sqref="L171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2328,7 +2333,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -2750,7 +2755,7 @@
         <v>25000</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3091,7 +3096,7 @@
         <v>16</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3484,7 +3489,7 @@
         <v>16</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3877,7 +3882,7 @@
         <v>16</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6540,7 +6545,7 @@
         <v>15</v>
       </c>
       <c r="L163" s="12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="164" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6569,7 +6574,7 @@
         <v>15</v>
       </c>
       <c r="L164" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6598,7 +6603,7 @@
         <v>15</v>
       </c>
       <c r="L165" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6627,7 +6632,7 @@
         <v>15</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6656,7 +6661,7 @@
         <v>15</v>
       </c>
       <c r="L167" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6685,7 +6690,7 @@
         <v>15</v>
       </c>
       <c r="L168" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6693,7 +6698,7 @@
         <v>60000028</v>
       </c>
       <c r="D169" s="3">
-        <v>0</v>
+        <v>60000029</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
@@ -6714,15 +6719,15 @@
         <v>15</v>
       </c>
       <c r="L169" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="3">
-        <v>70000001</v>
+        <v>60000029</v>
       </c>
       <c r="D170" s="3">
-        <v>70000002</v>
+        <v>0</v>
       </c>
       <c r="E170" s="3">
         <v>1</v>
@@ -6731,7 +6736,7 @@
         <v>100</v>
       </c>
       <c r="G170" s="12">
-        <v>10012024</v>
+        <v>10012027</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -6743,16 +6748,16 @@
         <v>15</v>
       </c>
       <c r="L170" s="12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="3">
+        <v>70000001</v>
+      </c>
+      <c r="D171" s="3">
         <v>70000002</v>
       </c>
-      <c r="D171" s="3">
-        <v>70000003</v>
-      </c>
       <c r="E171" s="3">
         <v>1</v>
       </c>
@@ -6760,7 +6765,7 @@
         <v>100</v>
       </c>
       <c r="G171" s="12">
-        <v>10012025</v>
+        <v>10012024</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
@@ -6772,16 +6777,16 @@
         <v>15</v>
       </c>
       <c r="L171" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="3">
+        <v>70000002</v>
+      </c>
+      <c r="D172" s="3">
         <v>70000003</v>
       </c>
-      <c r="D172" s="3">
-        <v>0</v>
-      </c>
       <c r="E172" s="3">
         <v>1</v>
       </c>
@@ -6789,7 +6794,7 @@
         <v>100</v>
       </c>
       <c r="G172" s="12">
-        <v>10012026</v>
+        <v>10012025</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
@@ -6801,7 +6806,36 @@
         <v>15</v>
       </c>
       <c r="L172" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="3">
+        <v>70000003</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0</v>
+      </c>
+      <c r="E173" s="3">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3">
+        <v>100</v>
+      </c>
+      <c r="G173" s="12">
+        <v>10012026</v>
+      </c>
+      <c r="H173" s="3">
+        <v>1</v>
+      </c>
+      <c r="I173" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J173" s="3">
+        <v>15</v>
+      </c>
+      <c r="L173" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B69B324-A424-43B4-9E31-C588FF8F067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420E676D-E68D-47E8-8591-329350E22FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -2215,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="L171" sqref="L171"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="3">
-        <v>10010029</v>
+        <v>32</v>
       </c>
       <c r="J171" s="3">
         <v>15</v>
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="3">
-        <v>10010029</v>
+        <v>32</v>
       </c>
       <c r="J172" s="3">
         <v>15</v>
@@ -6829,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="I173" s="3">
-        <v>10010029</v>
+        <v>32</v>
       </c>
       <c r="J173" s="3">
         <v>15</v>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420E676D-E68D-47E8-8591-329350E22FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11BE7A7-1C88-4AA2-9F52-16BD91E36E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -271,12 +271,46 @@
     <t>图纸:传承史诗支配之弓</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>赛季晶核</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>金条</t>
+  </si>
+  <si>
+    <t>封印之塔挑战凭证</t>
+  </si>
+  <si>
+    <t>装备洗炼石</t>
+  </si>
+  <si>
+    <t>璀璨传承</t>
+  </si>
+  <si>
+    <t>传承图纸碎片</t>
+  </si>
+  <si>
+    <t>宠之晶</t>
+  </si>
+  <si>
+    <t>初级赛季果实</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级赛季果实</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级赛季果实</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +400,21 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="22">
@@ -1519,7 +1568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1568,6 +1617,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2213,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:O190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="I176" sqref="I176"/>
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6764,20 +6819,20 @@
       <c r="F171" s="3">
         <v>100</v>
       </c>
-      <c r="G171" s="12">
-        <v>10012024</v>
+      <c r="G171" s="7">
+        <v>10010093</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
       </c>
-      <c r="I171" s="3">
+      <c r="I171" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J171" s="8">
+        <v>30</v>
+      </c>
+      <c r="L171" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="J171" s="3">
-        <v>15</v>
-      </c>
-      <c r="L171" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="172" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6793,20 +6848,20 @@
       <c r="F172" s="3">
         <v>100</v>
       </c>
-      <c r="G172" s="12">
-        <v>10012025</v>
+      <c r="G172" s="7">
+        <v>10000162</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
       </c>
-      <c r="I172" s="3">
-        <v>32</v>
-      </c>
-      <c r="J172" s="3">
-        <v>15</v>
-      </c>
-      <c r="L172" s="12" t="s">
-        <v>56</v>
+      <c r="I172" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J172" s="8">
+        <v>20</v>
+      </c>
+      <c r="L172" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="173" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6814,30 +6869,327 @@
         <v>70000003</v>
       </c>
       <c r="D173" s="3">
+        <v>70000004</v>
+      </c>
+      <c r="E173" s="3">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3">
+        <v>100</v>
+      </c>
+      <c r="G173" s="7">
+        <v>10010045</v>
+      </c>
+      <c r="H173" s="3">
+        <v>1</v>
+      </c>
+      <c r="I173" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J173" s="8">
+        <v>30</v>
+      </c>
+      <c r="L173" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="3">
+        <v>70000004</v>
+      </c>
+      <c r="D174" s="3">
+        <v>70000005</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3">
+        <v>100</v>
+      </c>
+      <c r="G174" s="7">
+        <v>10000158</v>
+      </c>
+      <c r="H174" s="3">
+        <v>1</v>
+      </c>
+      <c r="I174" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J174" s="8">
+        <v>20</v>
+      </c>
+      <c r="L174" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="3">
+        <v>70000005</v>
+      </c>
+      <c r="D175" s="3">
+        <v>70000006</v>
+      </c>
+      <c r="E175" s="3">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3">
+        <v>100</v>
+      </c>
+      <c r="G175" s="7">
+        <v>10010083</v>
+      </c>
+      <c r="H175" s="3">
+        <v>1</v>
+      </c>
+      <c r="I175" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J175" s="8">
+        <v>2</v>
+      </c>
+      <c r="L175" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="176" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="3">
+        <v>70000006</v>
+      </c>
+      <c r="D176" s="3">
+        <v>70000007</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3">
+        <v>100</v>
+      </c>
+      <c r="G176" s="7">
+        <v>10000143</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J176" s="8">
+        <v>5</v>
+      </c>
+      <c r="L176" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="3">
+        <v>70000007</v>
+      </c>
+      <c r="D177" s="3">
+        <v>70000008</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3">
+        <v>100</v>
+      </c>
+      <c r="G177" s="7">
+        <v>10000152</v>
+      </c>
+      <c r="H177" s="3">
+        <v>1</v>
+      </c>
+      <c r="I177" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J177" s="8">
+        <v>10</v>
+      </c>
+      <c r="L177" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="178" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="3">
+        <v>70000008</v>
+      </c>
+      <c r="D178" s="3">
+        <v>70000009</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
+        <v>100</v>
+      </c>
+      <c r="G178" s="7">
+        <v>10000157</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J178" s="8">
+        <v>10</v>
+      </c>
+      <c r="L178" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="3">
+        <v>70000009</v>
+      </c>
+      <c r="D179" s="3">
+        <v>70000010</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F179" s="3">
+        <v>100</v>
+      </c>
+      <c r="G179" s="7">
+        <v>10010029</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J179" s="8">
+        <v>5</v>
+      </c>
+      <c r="L179" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="3">
+        <v>70000010</v>
+      </c>
+      <c r="D180" s="3">
+        <v>70000011</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1</v>
+      </c>
+      <c r="F180" s="3">
+        <v>100</v>
+      </c>
+      <c r="G180" s="7">
+        <v>10010086</v>
+      </c>
+      <c r="H180" s="3">
+        <v>1</v>
+      </c>
+      <c r="I180" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J180" s="8">
+        <v>10</v>
+      </c>
+      <c r="L180" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="181" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="3">
+        <v>70000011</v>
+      </c>
+      <c r="D181" s="3">
+        <v>70000012</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1</v>
+      </c>
+      <c r="F181" s="3">
+        <v>100</v>
+      </c>
+      <c r="G181" s="18">
+        <v>10010101</v>
+      </c>
+      <c r="H181" s="3">
+        <v>1</v>
+      </c>
+      <c r="I181" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J181" s="8">
+        <v>5</v>
+      </c>
+      <c r="L181" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="182" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="3">
+        <v>70000012</v>
+      </c>
+      <c r="D182" s="3">
+        <v>70000013</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+      <c r="F182" s="3">
+        <v>100</v>
+      </c>
+      <c r="G182" s="18">
+        <v>10010102</v>
+      </c>
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="I182" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J182" s="8">
+        <v>10</v>
+      </c>
+      <c r="L182" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C183" s="3">
+        <v>70000013</v>
+      </c>
+      <c r="D183" s="3">
         <v>0</v>
       </c>
-      <c r="E173" s="3">
-        <v>1</v>
-      </c>
-      <c r="F173" s="3">
-        <v>100</v>
-      </c>
-      <c r="G173" s="12">
-        <v>10012026</v>
-      </c>
-      <c r="H173" s="3">
-        <v>1</v>
-      </c>
-      <c r="I173" s="3">
-        <v>32</v>
-      </c>
-      <c r="J173" s="3">
-        <v>15</v>
-      </c>
-      <c r="L173" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+      <c r="F183" s="3">
+        <v>100</v>
+      </c>
+      <c r="G183" s="18">
+        <v>10010103</v>
+      </c>
+      <c r="H183" s="3">
+        <v>1</v>
+      </c>
+      <c r="I183" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J183" s="8">
+        <v>20</v>
+      </c>
+      <c r="L183" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11BE7A7-1C88-4AA2-9F52-16BD91E36E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F710040-8D82-40DA-9897-E1AD1DABF573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -2270,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="I183" s="8">
-        <v>10000159</v>
+        <v>16</v>
       </c>
       <c r="J183" s="8">
         <v>20</v>
@@ -7183,11 +7183,151 @@
         <v>74</v>
       </c>
     </row>
-    <row r="184" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C184" s="3">
+        <v>80000001</v>
+      </c>
+      <c r="D184" s="3">
+        <v>80000002</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1</v>
+      </c>
+      <c r="F184" s="3">
+        <v>100</v>
+      </c>
+      <c r="G184" s="7">
+        <v>10010093</v>
+      </c>
+      <c r="H184" s="3">
+        <v>1</v>
+      </c>
+      <c r="I184" s="8">
+        <v>16</v>
+      </c>
+      <c r="J184" s="8">
+        <v>30</v>
+      </c>
+      <c r="L184" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="3">
+        <v>80000002</v>
+      </c>
+      <c r="D185" s="3">
+        <v>80000003</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1</v>
+      </c>
+      <c r="F185" s="3">
+        <v>100</v>
+      </c>
+      <c r="G185" s="7">
+        <v>10000162</v>
+      </c>
+      <c r="H185" s="3">
+        <v>1</v>
+      </c>
+      <c r="I185" s="8">
+        <v>16</v>
+      </c>
+      <c r="J185" s="8">
+        <v>20</v>
+      </c>
+      <c r="L185" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C186" s="3">
+        <v>80000003</v>
+      </c>
+      <c r="D186" s="3">
+        <v>80000004</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1</v>
+      </c>
+      <c r="F186" s="3">
+        <v>100</v>
+      </c>
+      <c r="G186" s="7">
+        <v>10010045</v>
+      </c>
+      <c r="H186" s="3">
+        <v>1</v>
+      </c>
+      <c r="I186" s="8">
+        <v>16</v>
+      </c>
+      <c r="J186" s="8">
+        <v>30</v>
+      </c>
+      <c r="L186" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="3">
+        <v>80000004</v>
+      </c>
+      <c r="D187" s="3">
+        <v>80000005</v>
+      </c>
+      <c r="E187" s="3">
+        <v>1</v>
+      </c>
+      <c r="F187" s="3">
+        <v>100</v>
+      </c>
+      <c r="G187" s="7">
+        <v>10000158</v>
+      </c>
+      <c r="H187" s="3">
+        <v>1</v>
+      </c>
+      <c r="I187" s="8">
+        <v>16</v>
+      </c>
+      <c r="J187" s="8">
+        <v>20</v>
+      </c>
+      <c r="L187" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C188" s="3">
+        <v>80000005</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1</v>
+      </c>
+      <c r="F188" s="3">
+        <v>100</v>
+      </c>
+      <c r="G188" s="7">
+        <v>10010083</v>
+      </c>
+      <c r="H188" s="3">
+        <v>1</v>
+      </c>
+      <c r="I188" s="8">
+        <v>16</v>
+      </c>
+      <c r="J188" s="8">
+        <v>2</v>
+      </c>
+      <c r="L188" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F710040-8D82-40DA-9897-E1AD1DABF573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63064FB8-58FC-4F92-AFB1-44A9F58ABAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -304,6 +304,16 @@
   <si>
     <t>高级赛季果实</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级宠之晶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗忘之水</t>
+  </si>
+  <si>
+    <t>大师球</t>
   </si>
 </sst>
 </file>
@@ -2268,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="L195" sqref="L195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7150,7 +7160,7 @@
       <c r="J182" s="8">
         <v>10</v>
       </c>
-      <c r="L182" s="8" t="s">
+      <c r="L182" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7174,12 +7184,12 @@
         <v>1</v>
       </c>
       <c r="I183" s="8">
-        <v>16</v>
+        <v>10000159</v>
       </c>
       <c r="J183" s="8">
         <v>20</v>
       </c>
-      <c r="L183" s="8" t="s">
+      <c r="L183" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7197,19 +7207,19 @@
         <v>100</v>
       </c>
       <c r="G184" s="7">
-        <v>10010093</v>
+        <v>10010083</v>
       </c>
       <c r="H184" s="3">
         <v>1</v>
       </c>
       <c r="I184" s="8">
-        <v>16</v>
+        <v>10000163</v>
       </c>
       <c r="J184" s="8">
-        <v>30</v>
-      </c>
-      <c r="L184" s="11" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7226,19 +7236,19 @@
         <v>100</v>
       </c>
       <c r="G185" s="7">
-        <v>10000162</v>
+        <v>10010086</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
       </c>
       <c r="I185" s="8">
-        <v>16</v>
+        <v>10000163</v>
       </c>
       <c r="J185" s="8">
         <v>20</v>
       </c>
-      <c r="L185" s="10" t="s">
-        <v>65</v>
+      <c r="L185" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="186" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7255,19 +7265,19 @@
         <v>100</v>
       </c>
       <c r="G186" s="7">
-        <v>10010045</v>
+        <v>10010096</v>
       </c>
       <c r="H186" s="3">
         <v>1</v>
       </c>
       <c r="I186" s="8">
-        <v>16</v>
+        <v>10000163</v>
       </c>
       <c r="J186" s="8">
-        <v>30</v>
-      </c>
-      <c r="L186" s="10" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7284,19 +7294,19 @@
         <v>100</v>
       </c>
       <c r="G187" s="7">
-        <v>10000158</v>
+        <v>10000139</v>
       </c>
       <c r="H187" s="3">
         <v>1</v>
       </c>
       <c r="I187" s="8">
-        <v>16</v>
+        <v>10000163</v>
       </c>
       <c r="J187" s="8">
         <v>20</v>
       </c>
-      <c r="L187" s="7" t="s">
-        <v>67</v>
+      <c r="L187" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7304,32 +7314,152 @@
         <v>80000005</v>
       </c>
       <c r="D188" s="3">
+        <v>80000006</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1</v>
+      </c>
+      <c r="F188" s="3">
+        <v>100</v>
+      </c>
+      <c r="G188" s="7">
+        <v>10000143</v>
+      </c>
+      <c r="H188" s="3">
+        <v>1</v>
+      </c>
+      <c r="I188" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J188" s="8">
+        <v>20</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C189" s="3">
+        <v>80000006</v>
+      </c>
+      <c r="D189" s="3">
+        <v>80000007</v>
+      </c>
+      <c r="E189" s="3">
+        <v>1</v>
+      </c>
+      <c r="F189" s="3">
+        <v>100</v>
+      </c>
+      <c r="G189" s="7">
+        <v>10000152</v>
+      </c>
+      <c r="H189" s="3">
+        <v>1</v>
+      </c>
+      <c r="I189" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J189" s="8">
+        <v>35</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C190" s="3">
+        <v>80000007</v>
+      </c>
+      <c r="D190" s="3">
+        <v>80000008</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1</v>
+      </c>
+      <c r="F190" s="3">
+        <v>100</v>
+      </c>
+      <c r="G190" s="7">
+        <v>10000155</v>
+      </c>
+      <c r="H190" s="3">
+        <v>1</v>
+      </c>
+      <c r="I190" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J190" s="8">
+        <v>5</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="191" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C191" s="3">
+        <v>80000008</v>
+      </c>
+      <c r="D191" s="3">
+        <v>80000009</v>
+      </c>
+      <c r="E191" s="3">
+        <v>1</v>
+      </c>
+      <c r="F191" s="3">
+        <v>100</v>
+      </c>
+      <c r="G191" s="7">
+        <v>10000158</v>
+      </c>
+      <c r="H191" s="3">
+        <v>1</v>
+      </c>
+      <c r="I191" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J191" s="8">
+        <v>20</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C192" s="3">
+        <v>80000009</v>
+      </c>
+      <c r="D192" s="3">
         <v>0</v>
       </c>
-      <c r="E188" s="3">
-        <v>1</v>
-      </c>
-      <c r="F188" s="3">
-        <v>100</v>
-      </c>
-      <c r="G188" s="7">
-        <v>10010083</v>
-      </c>
-      <c r="H188" s="3">
-        <v>1</v>
-      </c>
-      <c r="I188" s="8">
-        <v>16</v>
-      </c>
-      <c r="J188" s="8">
-        <v>2</v>
-      </c>
-      <c r="L188" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E192" s="3">
+        <v>1</v>
+      </c>
+      <c r="F192" s="3">
+        <v>100</v>
+      </c>
+      <c r="G192" s="7">
+        <v>10010093</v>
+      </c>
+      <c r="H192" s="3">
+        <v>1</v>
+      </c>
+      <c r="I192" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J192" s="8">
+        <v>35</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="12:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L193" s="3"/>
+    </row>
+    <row r="194" spans="12:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" spans="12:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" spans="12:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63064FB8-58FC-4F92-AFB1-44A9F58ABAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F51115-84A6-4281-8B25-2F8E24EBAA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>坐骑:麋鹿之春</t>
-  </si>
-  <si>
-    <t>坐骑:守护牦牛</t>
   </si>
   <si>
     <t>称号:绝世英豪</t>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>大师球</t>
+  </si>
+  <si>
+    <t>超级宠物蛋</t>
   </si>
 </sst>
 </file>
@@ -2278,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O196"/>
+  <dimension ref="A1:P196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="L195" sqref="L195"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2373,10 +2373,10 @@
       </c>
     </row>
     <row r="6" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>10001101</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>10001102</v>
       </c>
       <c r="E6" s="2">
@@ -2398,15 +2398,15 @@
         <v>15</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>10001102</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="2">
@@ -2431,10 +2431,10 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>10001201</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>10001202</v>
       </c>
       <c r="E8" s="2">
@@ -2457,10 +2457,10 @@
       </c>
     </row>
     <row r="9" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>10001202</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>10001203</v>
       </c>
       <c r="E9" s="2">
@@ -2483,10 +2483,10 @@
       </c>
     </row>
     <row r="10" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>10001203</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>10001204</v>
       </c>
       <c r="E10" s="2">
@@ -2509,10 +2509,10 @@
       </c>
     </row>
     <row r="11" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>10001204</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>10001205</v>
       </c>
       <c r="E11" s="2">
@@ -2535,10 +2535,10 @@
       </c>
     </row>
     <row r="12" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>10001205</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>10001206</v>
       </c>
       <c r="E12" s="2">
@@ -2561,10 +2561,10 @@
       </c>
     </row>
     <row r="13" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>10001206</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>10001207</v>
       </c>
       <c r="E13" s="2">
@@ -2587,10 +2587,10 @@
       </c>
     </row>
     <row r="14" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>10001207</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>10001208</v>
       </c>
       <c r="E14" s="2">
@@ -2613,10 +2613,10 @@
       </c>
     </row>
     <row r="15" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>10001208</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>10001209</v>
       </c>
       <c r="E15" s="2">
@@ -2639,10 +2639,10 @@
       </c>
     </row>
     <row r="16" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>10001209</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>10001210</v>
       </c>
       <c r="E16" s="2">
@@ -2665,10 +2665,10 @@
       </c>
     </row>
     <row r="17" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>10001210</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>10001211</v>
       </c>
       <c r="E17" s="2">
@@ -2691,10 +2691,10 @@
       </c>
     </row>
     <row r="18" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>10001211</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>10001212</v>
       </c>
       <c r="E18" s="2">
@@ -2717,10 +2717,10 @@
       </c>
     </row>
     <row r="19" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>10001212</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>0</v>
       </c>
       <c r="E19" s="2">
@@ -2743,10 +2743,10 @@
       </c>
     </row>
     <row r="20" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>10002101</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>10002102</v>
       </c>
       <c r="E20" s="2">
@@ -2769,10 +2769,10 @@
       </c>
     </row>
     <row r="21" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>10002102</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="2">
@@ -2795,10 +2795,10 @@
       </c>
     </row>
     <row r="22" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>10002201</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>10002202</v>
       </c>
       <c r="E22" s="2">
@@ -2820,14 +2820,14 @@
         <v>25000</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>10002202</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>10002203</v>
       </c>
       <c r="E23" s="2">
@@ -2850,10 +2850,10 @@
       </c>
     </row>
     <row r="24" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>10002203</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>10002204</v>
       </c>
       <c r="E24" s="2">
@@ -2876,10 +2876,10 @@
       </c>
     </row>
     <row r="25" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>10002204</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>10002205</v>
       </c>
       <c r="E25" s="2">
@@ -2902,10 +2902,10 @@
       </c>
     </row>
     <row r="26" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>10002205</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>10002206</v>
       </c>
       <c r="E26" s="2">
@@ -2928,10 +2928,10 @@
       </c>
     </row>
     <row r="27" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>10002206</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>10002207</v>
       </c>
       <c r="E27" s="2">
@@ -2954,10 +2954,10 @@
       </c>
     </row>
     <row r="28" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>10002207</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>10002208</v>
       </c>
       <c r="E28" s="2">
@@ -2980,10 +2980,10 @@
       </c>
     </row>
     <row r="29" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>10002208</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>10002209</v>
       </c>
       <c r="E29" s="2">
@@ -3006,10 +3006,10 @@
       </c>
     </row>
     <row r="30" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>10002209</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>10002210</v>
       </c>
       <c r="E30" s="2">
@@ -3032,10 +3032,10 @@
       </c>
     </row>
     <row r="31" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>10002210</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>10002211</v>
       </c>
       <c r="E31" s="2">
@@ -3058,10 +3058,10 @@
       </c>
     </row>
     <row r="32" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>10002211</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>10002212</v>
       </c>
       <c r="E32" s="2">
@@ -3084,10 +3084,10 @@
       </c>
     </row>
     <row r="33" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>10002212</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>10002213</v>
       </c>
       <c r="E33" s="2">
@@ -3110,10 +3110,10 @@
       </c>
     </row>
     <row r="34" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>10002213</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="E34" s="2">
@@ -3136,10 +3136,10 @@
       </c>
     </row>
     <row r="35" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>10003101</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>10003102</v>
       </c>
       <c r="E35" s="2">
@@ -3161,14 +3161,14 @@
         <v>16</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>10003102</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="E36" s="2">
@@ -3191,10 +3191,10 @@
       </c>
     </row>
     <row r="37" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>10003201</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>10003202</v>
       </c>
       <c r="E37" s="2">
@@ -3217,10 +3217,10 @@
       </c>
     </row>
     <row r="38" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>10003202</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>10003203</v>
       </c>
       <c r="E38" s="2">
@@ -3243,10 +3243,10 @@
       </c>
     </row>
     <row r="39" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>10003203</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>10003204</v>
       </c>
       <c r="E39" s="2">
@@ -3269,10 +3269,10 @@
       </c>
     </row>
     <row r="40" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>10003204</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>10003205</v>
       </c>
       <c r="E40" s="2">
@@ -3295,10 +3295,10 @@
       </c>
     </row>
     <row r="41" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>10003205</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>10003206</v>
       </c>
       <c r="E41" s="2">
@@ -3321,10 +3321,10 @@
       </c>
     </row>
     <row r="42" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>10003206</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>10003207</v>
       </c>
       <c r="E42" s="2">
@@ -3347,10 +3347,10 @@
       </c>
     </row>
     <row r="43" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>10003207</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>10003208</v>
       </c>
       <c r="E43" s="2">
@@ -3373,10 +3373,10 @@
       </c>
     </row>
     <row r="44" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>10003208</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>10003209</v>
       </c>
       <c r="E44" s="2">
@@ -3399,10 +3399,10 @@
       </c>
     </row>
     <row r="45" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>10003209</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>10003210</v>
       </c>
       <c r="E45" s="2">
@@ -3425,10 +3425,10 @@
       </c>
     </row>
     <row r="46" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>10003210</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>10003211</v>
       </c>
       <c r="E46" s="2">
@@ -3451,10 +3451,10 @@
       </c>
     </row>
     <row r="47" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <v>10003211</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>10003212</v>
       </c>
       <c r="E47" s="2">
@@ -3477,10 +3477,10 @@
       </c>
     </row>
     <row r="48" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>10003212</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>10003213</v>
       </c>
       <c r="E48" s="2">
@@ -3503,10 +3503,10 @@
       </c>
     </row>
     <row r="49" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>10003213</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>0</v>
       </c>
       <c r="E49" s="2">
@@ -3529,10 +3529,10 @@
       </c>
     </row>
     <row r="50" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>10004101</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>10004102</v>
       </c>
       <c r="E50" s="2">
@@ -3554,14 +3554,14 @@
         <v>16</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>10004102</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>0</v>
       </c>
       <c r="E51" s="2">
@@ -3584,10 +3584,10 @@
       </c>
     </row>
     <row r="52" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>10004201</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>10004202</v>
       </c>
       <c r="E52" s="2">
@@ -3610,10 +3610,10 @@
       </c>
     </row>
     <row r="53" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <v>10004202</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>10004203</v>
       </c>
       <c r="E53" s="2">
@@ -3636,10 +3636,10 @@
       </c>
     </row>
     <row r="54" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>10004203</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>10004204</v>
       </c>
       <c r="E54" s="2">
@@ -3662,10 +3662,10 @@
       </c>
     </row>
     <row r="55" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="2">
+      <c r="C55" s="3">
         <v>10004204</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>10004205</v>
       </c>
       <c r="E55" s="2">
@@ -3688,10 +3688,10 @@
       </c>
     </row>
     <row r="56" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="2">
+      <c r="C56" s="3">
         <v>10004205</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>10004206</v>
       </c>
       <c r="E56" s="2">
@@ -3714,10 +3714,10 @@
       </c>
     </row>
     <row r="57" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>10004206</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>10004207</v>
       </c>
       <c r="E57" s="2">
@@ -3740,10 +3740,10 @@
       </c>
     </row>
     <row r="58" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <v>10004207</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>10004208</v>
       </c>
       <c r="E58" s="2">
@@ -3766,10 +3766,10 @@
       </c>
     </row>
     <row r="59" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <v>10004208</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>10004209</v>
       </c>
       <c r="E59" s="2">
@@ -3792,10 +3792,10 @@
       </c>
     </row>
     <row r="60" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <v>10004209</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>10004210</v>
       </c>
       <c r="E60" s="2">
@@ -3818,10 +3818,10 @@
       </c>
     </row>
     <row r="61" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>10004210</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>10004211</v>
       </c>
       <c r="E61" s="2">
@@ -3844,10 +3844,10 @@
       </c>
     </row>
     <row r="62" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="2">
+      <c r="C62" s="3">
         <v>10004211</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>10004212</v>
       </c>
       <c r="E62" s="2">
@@ -3870,10 +3870,10 @@
       </c>
     </row>
     <row r="63" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>10004212</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <v>10004213</v>
       </c>
       <c r="E63" s="2">
@@ -3896,10 +3896,10 @@
       </c>
     </row>
     <row r="64" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <v>10004213</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>0</v>
       </c>
       <c r="E64" s="2">
@@ -3922,10 +3922,10 @@
       </c>
     </row>
     <row r="65" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <v>10005101</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <v>10005102</v>
       </c>
       <c r="E65" s="2">
@@ -3947,14 +3947,14 @@
         <v>16</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="2">
+      <c r="C66" s="3">
         <v>10005102</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>0</v>
       </c>
       <c r="E66" s="2">
@@ -3977,10 +3977,10 @@
       </c>
     </row>
     <row r="67" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <v>10005201</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <v>10005202</v>
       </c>
       <c r="E67" s="2">
@@ -4003,10 +4003,10 @@
       </c>
     </row>
     <row r="68" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <v>10005202</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <v>10005203</v>
       </c>
       <c r="E68" s="2">
@@ -4029,10 +4029,10 @@
       </c>
     </row>
     <row r="69" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <v>10005203</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <v>10005204</v>
       </c>
       <c r="E69" s="2">
@@ -4055,10 +4055,10 @@
       </c>
     </row>
     <row r="70" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <v>10005204</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>10005205</v>
       </c>
       <c r="E70" s="2">
@@ -4081,10 +4081,10 @@
       </c>
     </row>
     <row r="71" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>10005205</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <v>10005206</v>
       </c>
       <c r="E71" s="2">
@@ -4107,10 +4107,10 @@
       </c>
     </row>
     <row r="72" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="2">
+      <c r="C72" s="3">
         <v>10005206</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="3">
         <v>10005207</v>
       </c>
       <c r="E72" s="2">
@@ -4133,10 +4133,10 @@
       </c>
     </row>
     <row r="73" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="2">
+      <c r="C73" s="3">
         <v>10005207</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="3">
         <v>10005208</v>
       </c>
       <c r="E73" s="2">
@@ -4159,10 +4159,10 @@
       </c>
     </row>
     <row r="74" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <v>10005208</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <v>10005209</v>
       </c>
       <c r="E74" s="2">
@@ -4185,10 +4185,10 @@
       </c>
     </row>
     <row r="75" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <v>10005209</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <v>10005210</v>
       </c>
       <c r="E75" s="2">
@@ -4211,10 +4211,10 @@
       </c>
     </row>
     <row r="76" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="2">
+      <c r="C76" s="3">
         <v>10005210</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <v>10005211</v>
       </c>
       <c r="E76" s="2">
@@ -4237,10 +4237,10 @@
       </c>
     </row>
     <row r="77" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <v>10005211</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="3">
         <v>10005212</v>
       </c>
       <c r="E77" s="2">
@@ -4263,10 +4263,10 @@
       </c>
     </row>
     <row r="78" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="2">
+      <c r="C78" s="3">
         <v>10005212</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <v>10005213</v>
       </c>
       <c r="E78" s="2">
@@ -4289,10 +4289,10 @@
       </c>
     </row>
     <row r="79" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="2">
+      <c r="C79" s="3">
         <v>10005213</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="3">
         <v>0</v>
       </c>
       <c r="E79" s="2">
@@ -4315,10 +4315,10 @@
       </c>
     </row>
     <row r="80" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="2">
+      <c r="C80" s="3">
         <v>20000001</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="3">
         <v>20000002</v>
       </c>
       <c r="E80" s="2">
@@ -4344,10 +4344,10 @@
       </c>
     </row>
     <row r="81" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="2">
+      <c r="C81" s="3">
         <v>20000002</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="3">
         <v>20000003</v>
       </c>
       <c r="E81" s="2">
@@ -4370,10 +4370,10 @@
       </c>
     </row>
     <row r="82" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="2">
+      <c r="C82" s="3">
         <v>20000003</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>20000004</v>
       </c>
       <c r="E82" s="2">
@@ -4396,10 +4396,10 @@
       </c>
     </row>
     <row r="83" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="2">
+      <c r="C83" s="3">
         <v>20000004</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>20000005</v>
       </c>
       <c r="E83" s="2">
@@ -4422,10 +4422,10 @@
       </c>
     </row>
     <row r="84" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="2">
+      <c r="C84" s="3">
         <v>20000005</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>20000006</v>
       </c>
       <c r="E84" s="2">
@@ -4448,10 +4448,10 @@
       </c>
     </row>
     <row r="85" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="2">
+      <c r="C85" s="3">
         <v>20000006</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <v>20000007</v>
       </c>
       <c r="E85" s="2">
@@ -4474,10 +4474,10 @@
       </c>
     </row>
     <row r="86" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="2">
+      <c r="C86" s="3">
         <v>20000007</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="3">
         <v>20000008</v>
       </c>
       <c r="E86" s="2">
@@ -4500,10 +4500,10 @@
       </c>
     </row>
     <row r="87" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="2">
+      <c r="C87" s="3">
         <v>20000008</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="3">
         <v>20000009</v>
       </c>
       <c r="E87" s="2">
@@ -4526,10 +4526,10 @@
       </c>
     </row>
     <row r="88" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="2">
+      <c r="C88" s="3">
         <v>20000009</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="3">
         <v>20000010</v>
       </c>
       <c r="E88" s="2">
@@ -4552,10 +4552,10 @@
       </c>
     </row>
     <row r="89" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="2">
+      <c r="C89" s="3">
         <v>20000010</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="3">
         <v>20000011</v>
       </c>
       <c r="E89" s="2">
@@ -4578,10 +4578,10 @@
       </c>
     </row>
     <row r="90" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="2">
+      <c r="C90" s="3">
         <v>20000011</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="3">
         <v>20000012</v>
       </c>
       <c r="E90" s="2">
@@ -4604,10 +4604,10 @@
       </c>
     </row>
     <row r="91" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="2">
+      <c r="C91" s="3">
         <v>20000012</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="3">
         <v>20000013</v>
       </c>
       <c r="E91" s="2">
@@ -4630,10 +4630,10 @@
       </c>
     </row>
     <row r="92" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="2">
+      <c r="C92" s="3">
         <v>20000013</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>20000014</v>
       </c>
       <c r="E92" s="2">
@@ -4656,10 +4656,10 @@
       </c>
     </row>
     <row r="93" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="2">
+      <c r="C93" s="3">
         <v>20000014</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="3">
         <v>20000015</v>
       </c>
       <c r="E93" s="2">
@@ -4682,10 +4682,10 @@
       </c>
     </row>
     <row r="94" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="2">
+      <c r="C94" s="3">
         <v>20000015</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <v>20000016</v>
       </c>
       <c r="E94" s="2">
@@ -4708,10 +4708,10 @@
       </c>
     </row>
     <row r="95" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="2">
+      <c r="C95" s="3">
         <v>20000016</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="3">
         <v>20000017</v>
       </c>
       <c r="E95" s="2">
@@ -4734,10 +4734,10 @@
       </c>
     </row>
     <row r="96" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="2">
+      <c r="C96" s="3">
         <v>20000017</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>20000018</v>
       </c>
       <c r="E96" s="2">
@@ -4760,10 +4760,10 @@
       </c>
     </row>
     <row r="97" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="2">
+      <c r="C97" s="3">
         <v>20000018</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <v>20000019</v>
       </c>
       <c r="E97" s="2">
@@ -4786,10 +4786,10 @@
       </c>
     </row>
     <row r="98" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="2">
+      <c r="C98" s="3">
         <v>20000019</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>20000020</v>
       </c>
       <c r="E98" s="2">
@@ -4812,10 +4812,10 @@
       </c>
     </row>
     <row r="99" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="2">
+      <c r="C99" s="3">
         <v>20000020</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="3">
         <v>20000021</v>
       </c>
       <c r="E99" s="2">
@@ -4838,10 +4838,10 @@
       </c>
     </row>
     <row r="100" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="2">
+      <c r="C100" s="3">
         <v>20000021</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="3">
         <v>20000022</v>
       </c>
       <c r="E100" s="2">
@@ -4864,10 +4864,10 @@
       </c>
     </row>
     <row r="101" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="2">
+      <c r="C101" s="3">
         <v>20000022</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="3">
         <v>20000023</v>
       </c>
       <c r="E101" s="2">
@@ -4890,10 +4890,10 @@
       </c>
     </row>
     <row r="102" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="2">
+      <c r="C102" s="3">
         <v>20000023</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="3">
         <v>20000024</v>
       </c>
       <c r="E102" s="2">
@@ -4916,10 +4916,10 @@
       </c>
     </row>
     <row r="103" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="2">
+      <c r="C103" s="3">
         <v>20000024</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="3">
         <v>20000025</v>
       </c>
       <c r="E103" s="2">
@@ -4942,10 +4942,10 @@
       </c>
     </row>
     <row r="104" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="2">
+      <c r="C104" s="3">
         <v>20000025</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="3">
         <v>20000026</v>
       </c>
       <c r="E104" s="2">
@@ -4968,10 +4968,10 @@
       </c>
     </row>
     <row r="105" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="2">
+      <c r="C105" s="3">
         <v>20000026</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="3">
         <v>20000027</v>
       </c>
       <c r="E105" s="2">
@@ -4994,10 +4994,10 @@
       </c>
     </row>
     <row r="106" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="2">
+      <c r="C106" s="3">
         <v>20000027</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="3">
         <v>20000028</v>
       </c>
       <c r="E106" s="2">
@@ -5020,10 +5020,10 @@
       </c>
     </row>
     <row r="107" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="2">
+      <c r="C107" s="3">
         <v>20000028</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="3">
         <v>20000029</v>
       </c>
       <c r="E107" s="2">
@@ -5046,10 +5046,10 @@
       </c>
     </row>
     <row r="108" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="2">
+      <c r="C108" s="3">
         <v>20000029</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>0</v>
       </c>
       <c r="E108" s="2">
@@ -5072,10 +5072,10 @@
       </c>
     </row>
     <row r="109" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="2">
+      <c r="C109" s="3">
         <v>30000001</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="3">
         <v>30000002</v>
       </c>
       <c r="E109" s="2">
@@ -5101,10 +5101,10 @@
       </c>
     </row>
     <row r="110" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="2">
+      <c r="C110" s="3">
         <v>30000002</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
         <v>30000003</v>
       </c>
       <c r="E110" s="2">
@@ -5127,10 +5127,10 @@
       </c>
     </row>
     <row r="111" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="2">
+      <c r="C111" s="3">
         <v>30000003</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="3">
         <v>30000004</v>
       </c>
       <c r="E111" s="2">
@@ -5153,10 +5153,10 @@
       </c>
     </row>
     <row r="112" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="2">
+      <c r="C112" s="3">
         <v>30000004</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="3">
         <v>30000005</v>
       </c>
       <c r="E112" s="2">
@@ -5179,10 +5179,10 @@
       </c>
     </row>
     <row r="113" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="2">
+      <c r="C113" s="3">
         <v>30000005</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="3">
         <v>30000006</v>
       </c>
       <c r="E113" s="2">
@@ -5205,10 +5205,10 @@
       </c>
     </row>
     <row r="114" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="2">
+      <c r="C114" s="3">
         <v>30000006</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="3">
         <v>30000007</v>
       </c>
       <c r="E114" s="2">
@@ -5231,10 +5231,10 @@
       </c>
     </row>
     <row r="115" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="2">
+      <c r="C115" s="3">
         <v>30000007</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="3">
         <v>30000008</v>
       </c>
       <c r="E115" s="2">
@@ -5257,10 +5257,10 @@
       </c>
     </row>
     <row r="116" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="2">
+      <c r="C116" s="3">
         <v>30000008</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="3">
         <v>30000009</v>
       </c>
       <c r="E116" s="2">
@@ -5283,10 +5283,10 @@
       </c>
     </row>
     <row r="117" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="2">
+      <c r="C117" s="3">
         <v>30000009</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="3">
         <v>30000010</v>
       </c>
       <c r="E117" s="2">
@@ -5309,10 +5309,10 @@
       </c>
     </row>
     <row r="118" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="2">
+      <c r="C118" s="3">
         <v>30000010</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="3">
         <v>0</v>
       </c>
       <c r="E118" s="2">
@@ -5335,10 +5335,10 @@
       </c>
     </row>
     <row r="119" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="2">
+      <c r="C119" s="3">
         <v>40000001</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="3">
         <v>40000002</v>
       </c>
       <c r="E119" s="2">
@@ -5364,10 +5364,10 @@
       </c>
     </row>
     <row r="120" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="2">
+      <c r="C120" s="3">
         <v>40000002</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="3">
         <v>40000003</v>
       </c>
       <c r="E120" s="2">
@@ -5390,10 +5390,10 @@
       </c>
     </row>
     <row r="121" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="2">
+      <c r="C121" s="3">
         <v>40000003</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="3">
         <v>40000004</v>
       </c>
       <c r="E121" s="2">
@@ -5416,10 +5416,10 @@
       </c>
     </row>
     <row r="122" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="2">
+      <c r="C122" s="3">
         <v>40000004</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="3">
         <v>40000005</v>
       </c>
       <c r="E122" s="2">
@@ -5442,10 +5442,10 @@
       </c>
     </row>
     <row r="123" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="2">
+      <c r="C123" s="3">
         <v>40000005</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="3">
         <v>40000006</v>
       </c>
       <c r="E123" s="2">
@@ -5468,10 +5468,10 @@
       </c>
     </row>
     <row r="124" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="2">
+      <c r="C124" s="3">
         <v>40000006</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="3">
         <v>40000007</v>
       </c>
       <c r="E124" s="2">
@@ -5494,10 +5494,10 @@
       </c>
     </row>
     <row r="125" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="2">
+      <c r="C125" s="3">
         <v>40000007</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="3">
         <v>40000008</v>
       </c>
       <c r="E125" s="2">
@@ -5520,10 +5520,10 @@
       </c>
     </row>
     <row r="126" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="2">
+      <c r="C126" s="3">
         <v>40000008</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="3">
         <v>40000009</v>
       </c>
       <c r="E126" s="2">
@@ -5546,10 +5546,10 @@
       </c>
     </row>
     <row r="127" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C127" s="2">
+      <c r="C127" s="3">
         <v>40000009</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="3">
         <v>40000010</v>
       </c>
       <c r="E127" s="2">
@@ -5572,10 +5572,10 @@
       </c>
     </row>
     <row r="128" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="2">
+      <c r="C128" s="3">
         <v>40000010</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="3">
         <v>40000011</v>
       </c>
       <c r="E128" s="2">
@@ -5597,11 +5597,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C129" s="2">
+    <row r="129" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C129" s="3">
         <v>40000011</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="3">
         <v>40000012</v>
       </c>
       <c r="E129" s="2">
@@ -5623,11 +5623,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="2">
+    <row r="130" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="3">
         <v>40000012</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="3">
         <v>40000013</v>
       </c>
       <c r="E130" s="2">
@@ -5649,11 +5649,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C131" s="2">
+    <row r="131" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="3">
         <v>40000013</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="3">
         <v>40000014</v>
       </c>
       <c r="E131" s="2">
@@ -5675,11 +5675,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="2">
+    <row r="132" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="3">
         <v>40000014</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="3">
         <v>40000015</v>
       </c>
       <c r="E132" s="2">
@@ -5701,11 +5701,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="2">
+    <row r="133" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="3">
         <v>40000015</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="3">
         <v>0</v>
       </c>
       <c r="E133" s="2">
@@ -5727,11 +5727,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="2">
+    <row r="134" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="3">
         <v>50000001</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="3">
         <v>50000002</v>
       </c>
       <c r="E134" s="2">
@@ -5749,18 +5749,19 @@
       <c r="I134" s="7">
         <v>10000151</v>
       </c>
-      <c r="J134" s="2">
+      <c r="J134" s="3">
         <v>50</v>
       </c>
       <c r="L134" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="2">
+      <c r="P134" s="9"/>
+    </row>
+    <row r="135" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="3">
         <v>50000002</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="3">
         <v>50000003</v>
       </c>
       <c r="E135" s="2">
@@ -5770,7 +5771,7 @@
         <v>100</v>
       </c>
       <c r="G135" s="3">
-        <v>10000207</v>
+        <v>10010094</v>
       </c>
       <c r="H135" s="3">
         <v>1</v>
@@ -5778,18 +5779,18 @@
       <c r="I135" s="7">
         <v>10000151</v>
       </c>
-      <c r="J135" s="2">
-        <v>30</v>
-      </c>
-      <c r="L135" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="2">
+      <c r="J135" s="3">
+        <v>20</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="3">
         <v>50000003</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="3">
         <v>50000004</v>
       </c>
       <c r="E136" s="2">
@@ -5807,18 +5808,18 @@
       <c r="I136" s="7">
         <v>10000151</v>
       </c>
-      <c r="J136" s="2">
+      <c r="J136" s="3">
         <v>30</v>
       </c>
       <c r="L136" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C137" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C137" s="3">
         <v>50000004</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="3">
         <v>50000005</v>
       </c>
       <c r="E137" s="2">
@@ -5836,18 +5837,18 @@
       <c r="I137" s="7">
         <v>10000151</v>
       </c>
-      <c r="J137" s="2">
+      <c r="J137" s="3">
         <v>30</v>
       </c>
       <c r="L137" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="3">
         <v>50000005</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="3">
         <v>50000006</v>
       </c>
       <c r="E138" s="2">
@@ -5865,18 +5866,18 @@
       <c r="I138" s="7">
         <v>10000151</v>
       </c>
-      <c r="J138" s="2">
+      <c r="J138" s="3">
         <v>10</v>
       </c>
       <c r="L138" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="3">
         <v>50000006</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="3">
         <v>50000007</v>
       </c>
       <c r="E139" s="2">
@@ -5894,18 +5895,18 @@
       <c r="I139" s="7">
         <v>10000151</v>
       </c>
-      <c r="J139" s="2">
+      <c r="J139" s="3">
         <v>25</v>
       </c>
       <c r="L139" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C140" s="3">
         <v>50000007</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="3">
         <v>50000008</v>
       </c>
       <c r="E140" s="2">
@@ -5923,18 +5924,18 @@
       <c r="I140" s="7">
         <v>10000151</v>
       </c>
-      <c r="J140" s="2">
+      <c r="J140" s="3">
         <v>25</v>
       </c>
       <c r="L140" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="3">
         <v>50000008</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="3">
         <v>0</v>
       </c>
       <c r="E141" s="2">
@@ -5952,14 +5953,14 @@
       <c r="I141" s="7">
         <v>10000151</v>
       </c>
-      <c r="J141" s="2">
+      <c r="J141" s="3">
         <v>10</v>
       </c>
       <c r="L141" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3">
@@ -5978,7 +5979,7 @@
         <v>10000143</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I142" s="7">
         <v>10000157</v>
@@ -5988,15 +5989,15 @@
       </c>
       <c r="K142" s="3"/>
       <c r="L142" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M142" s="3"/>
       <c r="N142" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3">
@@ -6021,19 +6022,19 @@
         <v>10000143</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K143" s="3"/>
       <c r="L143" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M143" s="3"/>
       <c r="N143" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="3">
         <v>60000003</v>
       </c>
@@ -6059,7 +6060,7 @@
         <v>10</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6088,7 +6089,7 @@
         <v>10</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6117,7 +6118,7 @@
         <v>10</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6146,7 +6147,7 @@
         <v>10</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6175,7 +6176,7 @@
         <v>10</v>
       </c>
       <c r="L148" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6204,7 +6205,7 @@
         <v>10</v>
       </c>
       <c r="L149" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6233,7 +6234,7 @@
         <v>10</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6262,7 +6263,7 @@
         <v>10</v>
       </c>
       <c r="L151" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6291,7 +6292,7 @@
         <v>10</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6320,7 +6321,7 @@
         <v>10</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6349,7 +6350,7 @@
         <v>10</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6378,7 +6379,7 @@
         <v>10</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6407,7 +6408,7 @@
         <v>10</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6436,7 +6437,7 @@
         <v>10</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6465,7 +6466,7 @@
         <v>10</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6494,7 +6495,7 @@
         <v>10</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6523,7 +6524,7 @@
         <v>10</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6552,7 +6553,7 @@
         <v>10</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6581,7 +6582,7 @@
         <v>10</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6610,7 +6611,7 @@
         <v>15</v>
       </c>
       <c r="L163" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6639,7 +6640,7 @@
         <v>15</v>
       </c>
       <c r="L164" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6668,7 +6669,7 @@
         <v>15</v>
       </c>
       <c r="L165" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6697,7 +6698,7 @@
         <v>15</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6726,7 +6727,7 @@
         <v>15</v>
       </c>
       <c r="L167" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6755,7 +6756,7 @@
         <v>15</v>
       </c>
       <c r="L168" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6784,7 +6785,7 @@
         <v>15</v>
       </c>
       <c r="L169" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6813,7 +6814,7 @@
         <v>15</v>
       </c>
       <c r="L170" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="171" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6842,7 +6843,7 @@
         <v>30</v>
       </c>
       <c r="L171" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6871,7 +6872,7 @@
         <v>20</v>
       </c>
       <c r="L172" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6900,7 +6901,7 @@
         <v>30</v>
       </c>
       <c r="L173" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6929,7 +6930,7 @@
         <v>20</v>
       </c>
       <c r="L174" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6958,7 +6959,7 @@
         <v>2</v>
       </c>
       <c r="L175" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6987,7 +6988,7 @@
         <v>5</v>
       </c>
       <c r="L176" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7016,7 +7017,7 @@
         <v>10</v>
       </c>
       <c r="L177" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7045,7 +7046,7 @@
         <v>10</v>
       </c>
       <c r="L178" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7074,7 +7075,7 @@
         <v>5</v>
       </c>
       <c r="L179" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="180" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7103,7 +7104,7 @@
         <v>10</v>
       </c>
       <c r="L180" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7132,7 +7133,7 @@
         <v>5</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7161,7 +7162,7 @@
         <v>10</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="183" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7190,7 +7191,7 @@
         <v>20</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="184" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7219,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7248,7 +7249,7 @@
         <v>20</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="186" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7277,7 +7278,7 @@
         <v>35</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,7 +7307,7 @@
         <v>20</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7335,7 +7336,7 @@
         <v>20</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7364,7 +7365,7 @@
         <v>35</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7393,7 +7394,7 @@
         <v>5</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7422,7 +7423,7 @@
         <v>20</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7451,7 +7452,7 @@
         <v>35</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="12:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F51115-84A6-4281-8B25-2F8E24EBAA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8134486B-46F2-46F7-8FAF-FA66898AD3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Id</t>
   </si>
@@ -314,6 +314,10 @@
   </si>
   <si>
     <t>超级宠物蛋</t>
+  </si>
+  <si>
+    <t>活动1商店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2278,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P196"/>
+  <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7455,12 +7459,288 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="12:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L193" s="3"/>
-    </row>
-    <row r="194" spans="12:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" spans="12:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" spans="12:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="3">
+        <v>90000001</v>
+      </c>
+      <c r="D193" s="3">
+        <v>30000002</v>
+      </c>
+      <c r="E193" s="2">
+        <v>1</v>
+      </c>
+      <c r="F193" s="3">
+        <v>100</v>
+      </c>
+      <c r="G193" s="3">
+        <v>10000144</v>
+      </c>
+      <c r="H193" s="3">
+        <v>1</v>
+      </c>
+      <c r="I193" s="7">
+        <v>10000148</v>
+      </c>
+      <c r="J193" s="8">
+        <v>10</v>
+      </c>
+      <c r="K193" s="2"/>
+      <c r="L193" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="194" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C194" s="3">
+        <v>90000002</v>
+      </c>
+      <c r="D194" s="3">
+        <v>30000003</v>
+      </c>
+      <c r="E194" s="2">
+        <v>1</v>
+      </c>
+      <c r="F194" s="3">
+        <v>100</v>
+      </c>
+      <c r="G194" s="3">
+        <v>10000145</v>
+      </c>
+      <c r="H194" s="3">
+        <v>1</v>
+      </c>
+      <c r="I194" s="7">
+        <v>10000148</v>
+      </c>
+      <c r="J194" s="8">
+        <v>10</v>
+      </c>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+    </row>
+    <row r="195" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C195" s="3">
+        <v>90000003</v>
+      </c>
+      <c r="D195" s="3">
+        <v>30000004</v>
+      </c>
+      <c r="E195" s="2">
+        <v>1</v>
+      </c>
+      <c r="F195" s="3">
+        <v>100</v>
+      </c>
+      <c r="G195" s="3">
+        <v>10000146</v>
+      </c>
+      <c r="H195" s="3">
+        <v>1</v>
+      </c>
+      <c r="I195" s="7">
+        <v>10000148</v>
+      </c>
+      <c r="J195" s="8">
+        <v>10</v>
+      </c>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+    </row>
+    <row r="196" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C196" s="3">
+        <v>90000004</v>
+      </c>
+      <c r="D196" s="3">
+        <v>30000005</v>
+      </c>
+      <c r="E196" s="2">
+        <v>1</v>
+      </c>
+      <c r="F196" s="3">
+        <v>100</v>
+      </c>
+      <c r="G196" s="3">
+        <v>10000147</v>
+      </c>
+      <c r="H196" s="3">
+        <v>1</v>
+      </c>
+      <c r="I196" s="7">
+        <v>10000148</v>
+      </c>
+      <c r="J196" s="8">
+        <v>10</v>
+      </c>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+    </row>
+    <row r="197" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C197" s="3">
+        <v>90000005</v>
+      </c>
+      <c r="D197" s="3">
+        <v>30000006</v>
+      </c>
+      <c r="E197" s="2">
+        <v>1</v>
+      </c>
+      <c r="F197" s="3">
+        <v>100</v>
+      </c>
+      <c r="G197" s="3">
+        <v>10010033</v>
+      </c>
+      <c r="H197" s="3">
+        <v>1</v>
+      </c>
+      <c r="I197" s="7">
+        <v>10000148</v>
+      </c>
+      <c r="J197" s="13">
+        <v>50</v>
+      </c>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+    </row>
+    <row r="198" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C198" s="3">
+        <v>90000006</v>
+      </c>
+      <c r="D198" s="3">
+        <v>30000007</v>
+      </c>
+      <c r="E198" s="2">
+        <v>1</v>
+      </c>
+      <c r="F198" s="3">
+        <v>100</v>
+      </c>
+      <c r="G198" s="3">
+        <v>10010083</v>
+      </c>
+      <c r="H198" s="3">
+        <v>1</v>
+      </c>
+      <c r="I198" s="7">
+        <v>10000148</v>
+      </c>
+      <c r="J198" s="13">
+        <v>5</v>
+      </c>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+    </row>
+    <row r="199" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C199" s="3">
+        <v>90000007</v>
+      </c>
+      <c r="D199" s="3">
+        <v>30000008</v>
+      </c>
+      <c r="E199" s="2">
+        <v>1</v>
+      </c>
+      <c r="F199" s="3">
+        <v>100</v>
+      </c>
+      <c r="G199" s="3">
+        <v>10010098</v>
+      </c>
+      <c r="H199" s="3">
+        <v>1</v>
+      </c>
+      <c r="I199" s="7">
+        <v>10000148</v>
+      </c>
+      <c r="J199" s="13">
+        <v>5</v>
+      </c>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+    </row>
+    <row r="200" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C200" s="3">
+        <v>90000008</v>
+      </c>
+      <c r="D200" s="3">
+        <v>30000009</v>
+      </c>
+      <c r="E200" s="2">
+        <v>1</v>
+      </c>
+      <c r="F200" s="3">
+        <v>100</v>
+      </c>
+      <c r="G200" s="3">
+        <v>10010085</v>
+      </c>
+      <c r="H200" s="3">
+        <v>1</v>
+      </c>
+      <c r="I200" s="7">
+        <v>10000148</v>
+      </c>
+      <c r="J200" s="13">
+        <v>2</v>
+      </c>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+    </row>
+    <row r="201" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C201" s="3">
+        <v>90000009</v>
+      </c>
+      <c r="D201" s="3">
+        <v>30000010</v>
+      </c>
+      <c r="E201" s="2">
+        <v>1</v>
+      </c>
+      <c r="F201" s="3">
+        <v>100</v>
+      </c>
+      <c r="G201" s="3">
+        <v>10000131</v>
+      </c>
+      <c r="H201" s="3">
+        <v>1</v>
+      </c>
+      <c r="I201" s="7">
+        <v>10000148</v>
+      </c>
+      <c r="J201" s="13">
+        <v>3</v>
+      </c>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+    </row>
+    <row r="202" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C202" s="3">
+        <v>90000010</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0</v>
+      </c>
+      <c r="E202" s="2">
+        <v>1</v>
+      </c>
+      <c r="F202" s="3">
+        <v>100</v>
+      </c>
+      <c r="G202" s="3">
+        <v>10000132</v>
+      </c>
+      <c r="H202" s="3">
+        <v>1</v>
+      </c>
+      <c r="I202" s="7">
+        <v>10000148</v>
+      </c>
+      <c r="J202" s="13">
+        <v>3</v>
+      </c>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8134486B-46F2-46F7-8FAF-FA66898AD3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>Id</t>
   </si>
@@ -70,10 +64,93 @@
     <t>320</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>章</t>
+    </r>
+  </si>
+  <si>
     <t>480</t>
   </si>
   <si>
     <t>720</t>
+  </si>
+  <si>
+    <t>2章</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>章</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>章</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>章</t>
+    </r>
   </si>
   <si>
     <t>战场商店1</t>
@@ -86,6 +163,9 @@
   </si>
   <si>
     <t>坐骑:麋鹿之春</t>
+  </si>
+  <si>
+    <t>超级宠物蛋</t>
   </si>
   <si>
     <t>称号:绝世英豪</t>
@@ -175,6 +255,9 @@
     <t>图纸:传承史诗支配之符</t>
   </si>
   <si>
+    <t>图纸:传承史诗支配之剑</t>
+  </si>
+  <si>
     <t>图纸:传承史诗支配战刃</t>
   </si>
   <si>
@@ -193,84 +276,10 @@
     <t>重甲图纸:传承混沌之甲</t>
   </si>
   <si>
-    <t>2章</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>章</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>章</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>章</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>章</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸:传承史诗支配之剑</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>图纸:传承史诗支配之弓</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>赛季晶核</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>金条</t>
@@ -292,19 +301,15 @@
   </si>
   <si>
     <t>初级赛季果实</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>中级赛季果实</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>高级赛季果实</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>超级宠之晶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>遗忘之水</t>
@@ -313,18 +318,20 @@
     <t>大师球</t>
   </si>
   <si>
-    <t>超级宠物蛋</t>
-  </si>
-  <si>
     <t>活动1商店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,28 +342,25 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -364,14 +368,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -379,59 +375,186 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,7 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,31 +587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1490524002807703"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291024"/>
+        <fgColor theme="0" tint="-0.14905240028077"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79989013336588644"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14951017792291"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,66 +611,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79989013336588644"/>
+        <fgColor theme="7" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79989013336588644"/>
+        <fgColor theme="5" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79989013336588644"/>
+        <fgColor theme="9" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79989013336588644"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79989013336588644"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -609,6 +876,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </left>
@@ -619,19 +899,6 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,936 +916,1163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="314">
+  <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1594,372 +2088,423 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="314">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="21" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+  <cellStyles count="362">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="29" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 2 3 2 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="常规 2 3 2 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 2 7" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="常规 2 3 3 4" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="常规 2 3 3 5" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="常规 2 3 3 6" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 2 3 7" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="常规 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="常规 4" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="常规 5" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 5 2 6" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="常规 5 6" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="常规 5 7" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="注释 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="注释 2 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="注释 2 2 3 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="注释 2 3 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="注释 2 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="注释 2 5" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="注释 2 5 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="常规 5 2 5" xfId="11"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8"/>
+    <cellStyle name="百分比" xfId="16" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="18"/>
+    <cellStyle name="注释" xfId="19" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="20"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="21"/>
+    <cellStyle name="标题 4" xfId="22" builtinId="19"/>
+    <cellStyle name="常规 5 2 4" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36"/>
+    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
+    <cellStyle name="标题" xfId="26" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="27"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="28"/>
+    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="31"/>
+    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="33"/>
+    <cellStyle name="标题 3" xfId="34" builtinId="18"/>
+    <cellStyle name="常规 5 2 3" xfId="35"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="36" builtinId="32"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="37"/>
+    <cellStyle name="常规 5 2 6" xfId="38"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
+    <cellStyle name="输出" xfId="42" builtinId="21"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
+    <cellStyle name="计算" xfId="44" builtinId="22"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
+    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="49"/>
+    <cellStyle name="注释 2 3" xfId="50"/>
+    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
+    <cellStyle name="汇总" xfId="53" builtinId="25"/>
+    <cellStyle name="好" xfId="54" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="55"/>
+    <cellStyle name="适中" xfId="56" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="57" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="58"/>
+    <cellStyle name="强调文字颜色 1" xfId="59" builtinId="29"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="60"/>
+    <cellStyle name="注释 2 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="62" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="63"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="64" builtinId="31"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="66" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="67"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="68" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="69" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="70" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="71" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="72" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="73" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="74" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="75" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="76" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="78" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="79" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="82"/>
+    <cellStyle name="常规 2 3 2 4" xfId="83"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="84"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="87"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
+    <cellStyle name="常规 2 3 2 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="94"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
+    <cellStyle name="常规 2 3 2 5" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
+    <cellStyle name="常规 2 3 2 6" xfId="99"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="100"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
+    <cellStyle name="常规 2 3 2 7" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
+    <cellStyle name="常规 2 3 3 3" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="105"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
+    <cellStyle name="常规 2 3 3 4" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
+    <cellStyle name="常规 2 3 4 3" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
+    <cellStyle name="常规 3" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
+    <cellStyle name="常规 4" xfId="162"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
+    <cellStyle name="常规 5" xfId="166"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
+    <cellStyle name="注释 2" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="177"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="179"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="194"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="199"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="201"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="203"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="210"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="213"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="217"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="219"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
+    <cellStyle name="常规 5 7" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
+    <cellStyle name="注释 2 2 3 2" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
+    <cellStyle name="注释 2 5 2" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
+    <cellStyle name="常规 2 3 2 2" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
+    <cellStyle name="常规 2 3 3 5" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
+    <cellStyle name="常规 2 3 3 6" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
+    <cellStyle name="注释 2 2" xfId="296"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
+    <cellStyle name="常规 5 6" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
+    <cellStyle name="常规 2" xfId="313"/>
+    <cellStyle name="常规 2 2" xfId="314"/>
+    <cellStyle name="常规 2 3" xfId="315"/>
+    <cellStyle name="常规 2 3 2" xfId="316"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
+    <cellStyle name="注释 2 3 2" xfId="323"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
+    <cellStyle name="常规 2 3 3" xfId="325"/>
+    <cellStyle name="常规 2 3 3 2" xfId="326"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
+    <cellStyle name="注释 2 5" xfId="330"/>
+    <cellStyle name="常规 2 3 4" xfId="331"/>
+    <cellStyle name="常规 2 3 4 2" xfId="332"/>
+    <cellStyle name="常规 2 3 5" xfId="333"/>
+    <cellStyle name="常规 2 3 5 2" xfId="334"/>
+    <cellStyle name="常规 2 3 6" xfId="335"/>
+    <cellStyle name="常规 5 2 2 2" xfId="336"/>
+    <cellStyle name="常规 2 3 6 2" xfId="337"/>
+    <cellStyle name="常规 2 3 7" xfId="338"/>
+    <cellStyle name="常规 5 2 2 3" xfId="339"/>
+    <cellStyle name="常规 2 3 8" xfId="340"/>
+    <cellStyle name="常规 5 2 3 2" xfId="341"/>
+    <cellStyle name="常规 5 2 4 2" xfId="342"/>
+    <cellStyle name="常规 5 3" xfId="343"/>
+    <cellStyle name="常规 5 3 2" xfId="344"/>
+    <cellStyle name="常规 5 3 3" xfId="345"/>
+    <cellStyle name="常规 5 4" xfId="346"/>
+    <cellStyle name="常规 5 4 2" xfId="347"/>
+    <cellStyle name="常规 5 5" xfId="348"/>
+    <cellStyle name="常规 5 5 2" xfId="349"/>
+    <cellStyle name="注释 2 2 2" xfId="350"/>
+    <cellStyle name="注释 2 2 2 2" xfId="351"/>
+    <cellStyle name="注释 2 2 2 3" xfId="352"/>
+    <cellStyle name="注释 2 2 3" xfId="353"/>
+    <cellStyle name="注释 2 2 4" xfId="354"/>
+    <cellStyle name="注释 2 2 4 2" xfId="355"/>
+    <cellStyle name="注释 2 2 5" xfId="356"/>
+    <cellStyle name="注释 2 2 6" xfId="357"/>
+    <cellStyle name="注释 2 4" xfId="358"/>
+    <cellStyle name="注释 2 4 2" xfId="359"/>
+    <cellStyle name="注释 2 6" xfId="360"/>
+    <cellStyle name="注释 2 7" xfId="361"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -1979,19 +2524,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2276,19 +2813,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="L196" sqref="L196"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
@@ -2297,8 +2834,8 @@
     <col min="12" max="12" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:10">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="20.1" customHeight="1" spans="3:10">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="20.1" customHeight="1" spans="3:10">
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
@@ -2376,7 +2913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C6" s="3">
         <v>10001101</v>
       </c>
@@ -2398,15 +2935,15 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>58</v>
+      <c r="L6" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C7" s="3">
         <v>10001102</v>
       </c>
@@ -2428,13 +2965,13 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>16</v>
+      <c r="J7" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C8" s="3">
         <v>10001201</v>
       </c>
@@ -2460,7 +2997,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C9" s="3">
         <v>10001202</v>
       </c>
@@ -2486,7 +3023,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C10" s="3">
         <v>10001203</v>
       </c>
@@ -2512,7 +3049,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="11" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C11" s="3">
         <v>10001204</v>
       </c>
@@ -2538,7 +3075,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="12" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C12" s="3">
         <v>10001205</v>
       </c>
@@ -2564,7 +3101,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="13" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C13" s="3">
         <v>10001206</v>
       </c>
@@ -2590,7 +3127,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="14" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C14" s="3">
         <v>10001207</v>
       </c>
@@ -2616,7 +3153,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="15" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C15" s="3">
         <v>10001208</v>
       </c>
@@ -2642,7 +3179,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="16" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C16" s="3">
         <v>10001209</v>
       </c>
@@ -2668,7 +3205,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C17" s="3">
         <v>10001210</v>
       </c>
@@ -2694,7 +3231,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C18" s="3">
         <v>10001211</v>
       </c>
@@ -2720,7 +3257,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C19" s="3">
         <v>10001212</v>
       </c>
@@ -2746,7 +3283,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C20" s="3">
         <v>10002101</v>
       </c>
@@ -2768,11 +3305,11 @@
       <c r="I20" s="2">
         <v>1</v>
       </c>
-      <c r="J20" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C21" s="3">
         <v>10002102</v>
       </c>
@@ -2794,11 +3331,11 @@
       <c r="I21" s="2">
         <v>1</v>
       </c>
-      <c r="J21" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C22" s="3">
         <v>10002201</v>
       </c>
@@ -2824,10 +3361,10 @@
         <v>25000</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C23" s="3">
         <v>10002202</v>
       </c>
@@ -2853,7 +3390,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C24" s="3">
         <v>10002203</v>
       </c>
@@ -2879,7 +3416,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C25" s="3">
         <v>10002204</v>
       </c>
@@ -2905,7 +3442,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C26" s="3">
         <v>10002205</v>
       </c>
@@ -2931,7 +3468,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C27" s="3">
         <v>10002206</v>
       </c>
@@ -2957,7 +3494,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C28" s="3">
         <v>10002207</v>
       </c>
@@ -2983,7 +3520,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C29" s="3">
         <v>10002208</v>
       </c>
@@ -3009,7 +3546,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C30" s="3">
         <v>10002209</v>
       </c>
@@ -3035,7 +3572,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C31" s="3">
         <v>10002210</v>
       </c>
@@ -3061,7 +3598,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C32" s="3">
         <v>10002211</v>
       </c>
@@ -3087,7 +3624,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C33" s="3">
         <v>10002212</v>
       </c>
@@ -3113,7 +3650,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C34" s="3">
         <v>10002213</v>
       </c>
@@ -3139,7 +3676,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C35" s="3">
         <v>10003101</v>
       </c>
@@ -3161,14 +3698,14 @@
       <c r="I35" s="2">
         <v>1</v>
       </c>
-      <c r="J35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C36" s="3">
         <v>10003102</v>
       </c>
@@ -3190,11 +3727,11 @@
       <c r="I36" s="2">
         <v>1</v>
       </c>
-      <c r="J36" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C37" s="3">
         <v>10003201</v>
       </c>
@@ -3220,7 +3757,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C38" s="3">
         <v>10003202</v>
       </c>
@@ -3246,7 +3783,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="39" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C39" s="3">
         <v>10003203</v>
       </c>
@@ -3272,7 +3809,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="40" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C40" s="3">
         <v>10003204</v>
       </c>
@@ -3298,7 +3835,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="41" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C41" s="3">
         <v>10003205</v>
       </c>
@@ -3324,7 +3861,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="42" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C42" s="3">
         <v>10003206</v>
       </c>
@@ -3350,7 +3887,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="43" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C43" s="3">
         <v>10003207</v>
       </c>
@@ -3376,7 +3913,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="44" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C44" s="3">
         <v>10003208</v>
       </c>
@@ -3402,7 +3939,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="45" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C45" s="3">
         <v>10003209</v>
       </c>
@@ -3428,7 +3965,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="46" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C46" s="3">
         <v>10003210</v>
       </c>
@@ -3454,7 +3991,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="47" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C47" s="3">
         <v>10003211</v>
       </c>
@@ -3480,7 +4017,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="48" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C48" s="3">
         <v>10003212</v>
       </c>
@@ -3506,7 +4043,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C49" s="3">
         <v>10003213</v>
       </c>
@@ -3532,7 +4069,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C50" s="3">
         <v>10004101</v>
       </c>
@@ -3554,14 +4091,14 @@
       <c r="I50" s="2">
         <v>1</v>
       </c>
-      <c r="J50" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L50" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C51" s="3">
         <v>10004102</v>
       </c>
@@ -3583,11 +4120,11 @@
       <c r="I51" s="2">
         <v>1</v>
       </c>
-      <c r="J51" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C52" s="3">
         <v>10004201</v>
       </c>
@@ -3613,7 +4150,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C53" s="3">
         <v>10004202</v>
       </c>
@@ -3639,7 +4176,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="54" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C54" s="3">
         <v>10004203</v>
       </c>
@@ -3665,7 +4202,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C55" s="3">
         <v>10004204</v>
       </c>
@@ -3691,7 +4228,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="56" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C56" s="3">
         <v>10004205</v>
       </c>
@@ -3717,7 +4254,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="57" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C57" s="3">
         <v>10004206</v>
       </c>
@@ -3743,7 +4280,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C58" s="3">
         <v>10004207</v>
       </c>
@@ -3769,7 +4306,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="59" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C59" s="3">
         <v>10004208</v>
       </c>
@@ -3795,7 +4332,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C60" s="3">
         <v>10004209</v>
       </c>
@@ -3821,7 +4358,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C61" s="3">
         <v>10004210</v>
       </c>
@@ -3847,7 +4384,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C62" s="3">
         <v>10004211</v>
       </c>
@@ -3873,7 +4410,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C63" s="3">
         <v>10004212</v>
       </c>
@@ -3899,7 +4436,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="64" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C64" s="3">
         <v>10004213</v>
       </c>
@@ -3925,7 +4462,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="65" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C65" s="3">
         <v>10005101</v>
       </c>
@@ -3947,14 +4484,14 @@
       <c r="I65" s="2">
         <v>1</v>
       </c>
-      <c r="J65" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C66" s="3">
         <v>10005102</v>
       </c>
@@ -3976,11 +4513,11 @@
       <c r="I66" s="2">
         <v>1</v>
       </c>
-      <c r="J66" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C67" s="3">
         <v>10005201</v>
       </c>
@@ -4006,7 +4543,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="68" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C68" s="3">
         <v>10005202</v>
       </c>
@@ -4032,7 +4569,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="69" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C69" s="3">
         <v>10005203</v>
       </c>
@@ -4058,7 +4595,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="70" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C70" s="3">
         <v>10005204</v>
       </c>
@@ -4084,7 +4621,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="71" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C71" s="3">
         <v>10005205</v>
       </c>
@@ -4110,7 +4647,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="72" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C72" s="3">
         <v>10005206</v>
       </c>
@@ -4136,7 +4673,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="73" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C73" s="3">
         <v>10005207</v>
       </c>
@@ -4162,7 +4699,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="74" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C74" s="3">
         <v>10005208</v>
       </c>
@@ -4188,7 +4725,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="75" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C75" s="3">
         <v>10005209</v>
       </c>
@@ -4214,7 +4751,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="76" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C76" s="3">
         <v>10005210</v>
       </c>
@@ -4240,7 +4777,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="77" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C77" s="3">
         <v>10005211</v>
       </c>
@@ -4266,7 +4803,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="78" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C78" s="3">
         <v>10005212</v>
       </c>
@@ -4292,7 +4829,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="79" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C79" s="3">
         <v>10005213</v>
       </c>
@@ -4318,7 +4855,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="80" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C80" s="3">
         <v>20000001</v>
       </c>
@@ -4337,17 +4874,17 @@
       <c r="H80" s="3">
         <v>1</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="11">
         <v>10010035</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="10">
         <v>5</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C81" s="3">
         <v>20000002</v>
       </c>
@@ -4366,14 +4903,14 @@
       <c r="H81" s="3">
         <v>1</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="11">
         <v>10010035</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J81" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C82" s="3">
         <v>20000003</v>
       </c>
@@ -4392,14 +4929,14 @@
       <c r="H82" s="3">
         <v>1</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="11">
         <v>10010035</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J82" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C83" s="3">
         <v>20000004</v>
       </c>
@@ -4418,14 +4955,14 @@
       <c r="H83" s="3">
         <v>1</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="11">
         <v>10010035</v>
       </c>
-      <c r="J83" s="8">
+      <c r="J83" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C84" s="3">
         <v>20000005</v>
       </c>
@@ -4444,14 +4981,14 @@
       <c r="H84" s="3">
         <v>1</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="11">
         <v>10010035</v>
       </c>
-      <c r="J84" s="8">
+      <c r="J84" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C85" s="3">
         <v>20000006</v>
       </c>
@@ -4470,14 +5007,14 @@
       <c r="H85" s="3">
         <v>1</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="11">
         <v>10010035</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J85" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C86" s="3">
         <v>20000007</v>
       </c>
@@ -4496,14 +5033,14 @@
       <c r="H86" s="3">
         <v>1</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="11">
         <v>10010035</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C87" s="3">
         <v>20000008</v>
       </c>
@@ -4522,14 +5059,14 @@
       <c r="H87" s="3">
         <v>1</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="11">
         <v>10010035</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J87" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C88" s="3">
         <v>20000009</v>
       </c>
@@ -4548,14 +5085,14 @@
       <c r="H88" s="3">
         <v>1</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="11">
         <v>10010035</v>
       </c>
-      <c r="J88" s="8">
+      <c r="J88" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C89" s="3">
         <v>20000010</v>
       </c>
@@ -4574,14 +5111,14 @@
       <c r="H89" s="3">
         <v>1</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="11">
         <v>10010035</v>
       </c>
-      <c r="J89" s="8">
+      <c r="J89" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C90" s="3">
         <v>20000011</v>
       </c>
@@ -4600,14 +5137,14 @@
       <c r="H90" s="3">
         <v>1</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="11">
         <v>10010035</v>
       </c>
-      <c r="J90" s="8">
+      <c r="J90" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C91" s="3">
         <v>20000012</v>
       </c>
@@ -4626,14 +5163,14 @@
       <c r="H91" s="3">
         <v>1</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="11">
         <v>10010035</v>
       </c>
-      <c r="J91" s="8">
+      <c r="J91" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C92" s="3">
         <v>20000013</v>
       </c>
@@ -4652,14 +5189,14 @@
       <c r="H92" s="3">
         <v>1</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="11">
         <v>10010035</v>
       </c>
-      <c r="J92" s="8">
+      <c r="J92" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C93" s="3">
         <v>20000014</v>
       </c>
@@ -4678,14 +5215,14 @@
       <c r="H93" s="3">
         <v>1</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="11">
         <v>10010035</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J93" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C94" s="3">
         <v>20000015</v>
       </c>
@@ -4704,14 +5241,14 @@
       <c r="H94" s="3">
         <v>1</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="11">
         <v>10010035</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J94" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C95" s="3">
         <v>20000016</v>
       </c>
@@ -4730,14 +5267,14 @@
       <c r="H95" s="3">
         <v>1</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="11">
         <v>10010035</v>
       </c>
-      <c r="J95" s="8">
+      <c r="J95" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C96" s="3">
         <v>20000017</v>
       </c>
@@ -4756,14 +5293,14 @@
       <c r="H96" s="3">
         <v>1</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="11">
         <v>10010035</v>
       </c>
-      <c r="J96" s="8">
+      <c r="J96" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C97" s="3">
         <v>20000018</v>
       </c>
@@ -4782,14 +5319,14 @@
       <c r="H97" s="3">
         <v>1</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97" s="11">
         <v>10010035</v>
       </c>
-      <c r="J97" s="8">
+      <c r="J97" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C98" s="3">
         <v>20000019</v>
       </c>
@@ -4808,14 +5345,14 @@
       <c r="H98" s="3">
         <v>1</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98" s="11">
         <v>10010035</v>
       </c>
-      <c r="J98" s="8">
+      <c r="J98" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C99" s="3">
         <v>20000020</v>
       </c>
@@ -4834,14 +5371,14 @@
       <c r="H99" s="3">
         <v>1</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I99" s="11">
         <v>10010035</v>
       </c>
-      <c r="J99" s="8">
+      <c r="J99" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C100" s="3">
         <v>20000021</v>
       </c>
@@ -4860,14 +5397,14 @@
       <c r="H100" s="3">
         <v>1</v>
       </c>
-      <c r="I100" s="7">
+      <c r="I100" s="11">
         <v>10010035</v>
       </c>
-      <c r="J100" s="8">
+      <c r="J100" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C101" s="3">
         <v>20000022</v>
       </c>
@@ -4886,14 +5423,14 @@
       <c r="H101" s="3">
         <v>1</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I101" s="11">
         <v>10010035</v>
       </c>
-      <c r="J101" s="8">
+      <c r="J101" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C102" s="3">
         <v>20000023</v>
       </c>
@@ -4912,14 +5449,14 @@
       <c r="H102" s="3">
         <v>1</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102" s="11">
         <v>10010035</v>
       </c>
-      <c r="J102" s="8">
+      <c r="J102" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C103" s="3">
         <v>20000024</v>
       </c>
@@ -4938,14 +5475,14 @@
       <c r="H103" s="3">
         <v>1</v>
       </c>
-      <c r="I103" s="7">
+      <c r="I103" s="11">
         <v>10010035</v>
       </c>
-      <c r="J103" s="8">
+      <c r="J103" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C104" s="3">
         <v>20000025</v>
       </c>
@@ -4964,14 +5501,14 @@
       <c r="H104" s="3">
         <v>1</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="11">
         <v>10010035</v>
       </c>
-      <c r="J104" s="8">
+      <c r="J104" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C105" s="3">
         <v>20000026</v>
       </c>
@@ -4990,14 +5527,14 @@
       <c r="H105" s="3">
         <v>1</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105" s="11">
         <v>10010035</v>
       </c>
-      <c r="J105" s="8">
+      <c r="J105" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C106" s="3">
         <v>20000027</v>
       </c>
@@ -5016,14 +5553,14 @@
       <c r="H106" s="3">
         <v>1</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106" s="11">
         <v>10010035</v>
       </c>
-      <c r="J106" s="8">
+      <c r="J106" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="107" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C107" s="3">
         <v>20000028</v>
       </c>
@@ -5042,14 +5579,14 @@
       <c r="H107" s="2">
         <v>1</v>
       </c>
-      <c r="I107" s="7">
+      <c r="I107" s="11">
         <v>10010035</v>
       </c>
-      <c r="J107" s="8">
+      <c r="J107" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C108" s="3">
         <v>20000029</v>
       </c>
@@ -5068,14 +5605,14 @@
       <c r="H108" s="2">
         <v>1</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108" s="11">
         <v>10010035</v>
       </c>
-      <c r="J108" s="8">
+      <c r="J108" s="10">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C109" s="3">
         <v>30000001</v>
       </c>
@@ -5094,17 +5631,17 @@
       <c r="H109" s="3">
         <v>1</v>
       </c>
-      <c r="I109" s="7">
+      <c r="I109" s="11">
         <v>10000148</v>
       </c>
-      <c r="J109" s="8">
+      <c r="J109" s="10">
         <v>10</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C110" s="3">
         <v>30000002</v>
       </c>
@@ -5123,14 +5660,14 @@
       <c r="H110" s="3">
         <v>1</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110" s="11">
         <v>10000148</v>
       </c>
-      <c r="J110" s="8">
+      <c r="J110" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C111" s="3">
         <v>30000003</v>
       </c>
@@ -5149,14 +5686,14 @@
       <c r="H111" s="3">
         <v>1</v>
       </c>
-      <c r="I111" s="7">
+      <c r="I111" s="11">
         <v>10000148</v>
       </c>
-      <c r="J111" s="8">
+      <c r="J111" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C112" s="3">
         <v>30000004</v>
       </c>
@@ -5175,14 +5712,14 @@
       <c r="H112" s="3">
         <v>1</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112" s="11">
         <v>10000148</v>
       </c>
-      <c r="J112" s="8">
+      <c r="J112" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C113" s="3">
         <v>30000005</v>
       </c>
@@ -5201,14 +5738,14 @@
       <c r="H113" s="3">
         <v>1</v>
       </c>
-      <c r="I113" s="7">
+      <c r="I113" s="11">
         <v>10000148</v>
       </c>
-      <c r="J113" s="13">
+      <c r="J113" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C114" s="3">
         <v>30000006</v>
       </c>
@@ -5227,14 +5764,14 @@
       <c r="H114" s="3">
         <v>1</v>
       </c>
-      <c r="I114" s="7">
+      <c r="I114" s="11">
         <v>10000148</v>
       </c>
-      <c r="J114" s="13">
+      <c r="J114" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C115" s="3">
         <v>30000007</v>
       </c>
@@ -5253,14 +5790,14 @@
       <c r="H115" s="3">
         <v>1</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115" s="11">
         <v>10000148</v>
       </c>
-      <c r="J115" s="13">
+      <c r="J115" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C116" s="3">
         <v>30000008</v>
       </c>
@@ -5279,14 +5816,14 @@
       <c r="H116" s="3">
         <v>1</v>
       </c>
-      <c r="I116" s="7">
+      <c r="I116" s="11">
         <v>10000148</v>
       </c>
-      <c r="J116" s="13">
+      <c r="J116" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C117" s="3">
         <v>30000009</v>
       </c>
@@ -5305,14 +5842,14 @@
       <c r="H117" s="3">
         <v>1</v>
       </c>
-      <c r="I117" s="7">
+      <c r="I117" s="11">
         <v>10000148</v>
       </c>
-      <c r="J117" s="13">
+      <c r="J117" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C118" s="3">
         <v>30000010</v>
       </c>
@@ -5331,14 +5868,14 @@
       <c r="H118" s="3">
         <v>1</v>
       </c>
-      <c r="I118" s="7">
+      <c r="I118" s="11">
         <v>10000148</v>
       </c>
-      <c r="J118" s="13">
+      <c r="J118" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C119" s="3">
         <v>40000001</v>
       </c>
@@ -5354,20 +5891,20 @@
       <c r="G119" s="3">
         <v>10000143</v>
       </c>
-      <c r="H119" s="8">
-        <v>1</v>
-      </c>
-      <c r="I119" s="7">
+      <c r="H119" s="10">
+        <v>1</v>
+      </c>
+      <c r="I119" s="11">
         <v>10000149</v>
       </c>
-      <c r="J119" s="8">
+      <c r="J119" s="10">
         <v>35</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C120" s="3">
         <v>40000002</v>
       </c>
@@ -5383,17 +5920,17 @@
       <c r="G120" s="3">
         <v>10010046</v>
       </c>
-      <c r="H120" s="8">
-        <v>1</v>
-      </c>
-      <c r="I120" s="7">
+      <c r="H120" s="10">
+        <v>1</v>
+      </c>
+      <c r="I120" s="11">
         <v>10000149</v>
       </c>
-      <c r="J120" s="8">
+      <c r="J120" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C121" s="3">
         <v>40000003</v>
       </c>
@@ -5409,17 +5946,17 @@
       <c r="G121" s="3">
         <v>10000150</v>
       </c>
-      <c r="H121" s="8">
-        <v>1</v>
-      </c>
-      <c r="I121" s="7">
+      <c r="H121" s="10">
+        <v>1</v>
+      </c>
+      <c r="I121" s="11">
         <v>10000149</v>
       </c>
-      <c r="J121" s="8">
+      <c r="J121" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C122" s="3">
         <v>40000004</v>
       </c>
@@ -5435,17 +5972,17 @@
       <c r="G122" s="3">
         <v>10010045</v>
       </c>
-      <c r="H122" s="8">
-        <v>1</v>
-      </c>
-      <c r="I122" s="7">
+      <c r="H122" s="10">
+        <v>1</v>
+      </c>
+      <c r="I122" s="11">
         <v>10000149</v>
       </c>
-      <c r="J122" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J122" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C123" s="3">
         <v>40000005</v>
       </c>
@@ -5461,17 +5998,17 @@
       <c r="G123" s="3">
         <v>10010083</v>
       </c>
-      <c r="H123" s="8">
-        <v>1</v>
-      </c>
-      <c r="I123" s="7">
+      <c r="H123" s="10">
+        <v>1</v>
+      </c>
+      <c r="I123" s="11">
         <v>10000149</v>
       </c>
-      <c r="J123" s="8">
+      <c r="J123" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C124" s="3">
         <v>40000006</v>
       </c>
@@ -5487,17 +6024,17 @@
       <c r="G124" s="3">
         <v>10010085</v>
       </c>
-      <c r="H124" s="8">
+      <c r="H124" s="10">
         <v>5</v>
       </c>
-      <c r="I124" s="7">
+      <c r="I124" s="11">
         <v>10000149</v>
       </c>
-      <c r="J124" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J124" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C125" s="3">
         <v>40000007</v>
       </c>
@@ -5513,17 +6050,17 @@
       <c r="G125" s="3">
         <v>10000121</v>
       </c>
-      <c r="H125" s="8">
-        <v>1</v>
-      </c>
-      <c r="I125" s="7">
+      <c r="H125" s="10">
+        <v>1</v>
+      </c>
+      <c r="I125" s="11">
         <v>10000149</v>
       </c>
-      <c r="J125" s="8">
+      <c r="J125" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C126" s="3">
         <v>40000008</v>
       </c>
@@ -5539,17 +6076,17 @@
       <c r="G126" s="3">
         <v>10000122</v>
       </c>
-      <c r="H126" s="8">
-        <v>1</v>
-      </c>
-      <c r="I126" s="7">
+      <c r="H126" s="10">
+        <v>1</v>
+      </c>
+      <c r="I126" s="11">
         <v>10000149</v>
       </c>
-      <c r="J126" s="8">
+      <c r="J126" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C127" s="3">
         <v>40000009</v>
       </c>
@@ -5565,17 +6102,17 @@
       <c r="G127" s="3">
         <v>10000123</v>
       </c>
-      <c r="H127" s="8">
-        <v>1</v>
-      </c>
-      <c r="I127" s="7">
+      <c r="H127" s="10">
+        <v>1</v>
+      </c>
+      <c r="I127" s="11">
         <v>10000149</v>
       </c>
-      <c r="J127" s="8">
+      <c r="J127" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C128" s="3">
         <v>40000010</v>
       </c>
@@ -5591,17 +6128,17 @@
       <c r="G128" s="3">
         <v>10000124</v>
       </c>
-      <c r="H128" s="8">
-        <v>1</v>
-      </c>
-      <c r="I128" s="7">
+      <c r="H128" s="10">
+        <v>1</v>
+      </c>
+      <c r="I128" s="11">
         <v>10000149</v>
       </c>
-      <c r="J128" s="8">
+      <c r="J128" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C129" s="3">
         <v>40000011</v>
       </c>
@@ -5617,17 +6154,17 @@
       <c r="G129" s="3">
         <v>10000125</v>
       </c>
-      <c r="H129" s="8">
-        <v>1</v>
-      </c>
-      <c r="I129" s="7">
+      <c r="H129" s="10">
+        <v>1</v>
+      </c>
+      <c r="I129" s="11">
         <v>10000149</v>
       </c>
-      <c r="J129" s="8">
+      <c r="J129" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C130" s="3">
         <v>40000012</v>
       </c>
@@ -5643,17 +6180,17 @@
       <c r="G130" s="3">
         <v>10000144</v>
       </c>
-      <c r="H130" s="8">
+      <c r="H130" s="10">
         <v>2</v>
       </c>
-      <c r="I130" s="7">
+      <c r="I130" s="11">
         <v>10000149</v>
       </c>
-      <c r="J130" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J130" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C131" s="3">
         <v>40000013</v>
       </c>
@@ -5669,17 +6206,17 @@
       <c r="G131" s="3">
         <v>10000145</v>
       </c>
-      <c r="H131" s="8">
+      <c r="H131" s="10">
         <v>2</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I131" s="11">
         <v>10000149</v>
       </c>
-      <c r="J131" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C132" s="3">
         <v>40000014</v>
       </c>
@@ -5695,17 +6232,17 @@
       <c r="G132" s="3">
         <v>10000146</v>
       </c>
-      <c r="H132" s="8">
+      <c r="H132" s="10">
         <v>2</v>
       </c>
-      <c r="I132" s="7">
+      <c r="I132" s="11">
         <v>10000149</v>
       </c>
-      <c r="J132" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J132" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C133" s="3">
         <v>40000015</v>
       </c>
@@ -5721,17 +6258,17 @@
       <c r="G133" s="3">
         <v>10000147</v>
       </c>
-      <c r="H133" s="8">
+      <c r="H133" s="10">
         <v>2</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I133" s="11">
         <v>10000149</v>
       </c>
-      <c r="J133" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:16">
       <c r="C134" s="3">
         <v>50000001</v>
       </c>
@@ -5750,18 +6287,18 @@
       <c r="H134" s="3">
         <v>1</v>
       </c>
-      <c r="I134" s="7">
+      <c r="I134" s="11">
         <v>10000151</v>
       </c>
       <c r="J134" s="3">
         <v>50</v>
       </c>
-      <c r="L134" s="7" t="s">
-        <v>21</v>
+      <c r="L134" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="P134" s="9"/>
     </row>
-    <row r="135" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C135" s="3">
         <v>50000002</v>
       </c>
@@ -5780,17 +6317,17 @@
       <c r="H135" s="3">
         <v>1</v>
       </c>
-      <c r="I135" s="7">
+      <c r="I135" s="11">
         <v>10000151</v>
       </c>
       <c r="J135" s="3">
         <v>20</v>
       </c>
-      <c r="L135" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L135" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C136" s="3">
         <v>50000003</v>
       </c>
@@ -5809,17 +6346,17 @@
       <c r="H136" s="3">
         <v>1</v>
       </c>
-      <c r="I136" s="7">
+      <c r="I136" s="11">
         <v>10000151</v>
       </c>
       <c r="J136" s="3">
         <v>30</v>
       </c>
-      <c r="L136" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L136" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C137" s="3">
         <v>50000004</v>
       </c>
@@ -5838,17 +6375,17 @@
       <c r="H137" s="3">
         <v>1</v>
       </c>
-      <c r="I137" s="7">
+      <c r="I137" s="11">
         <v>10000151</v>
       </c>
       <c r="J137" s="3">
         <v>30</v>
       </c>
-      <c r="L137" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L137" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C138" s="3">
         <v>50000005</v>
       </c>
@@ -5867,17 +6404,17 @@
       <c r="H138" s="2">
         <v>1</v>
       </c>
-      <c r="I138" s="7">
+      <c r="I138" s="11">
         <v>10000151</v>
       </c>
       <c r="J138" s="3">
         <v>10</v>
       </c>
-      <c r="L138" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L138" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C139" s="3">
         <v>50000006</v>
       </c>
@@ -5896,17 +6433,17 @@
       <c r="H139" s="2">
         <v>1</v>
       </c>
-      <c r="I139" s="7">
+      <c r="I139" s="11">
         <v>10000151</v>
       </c>
       <c r="J139" s="3">
         <v>25</v>
       </c>
-      <c r="L139" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L139" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C140" s="3">
         <v>50000007</v>
       </c>
@@ -5925,17 +6462,17 @@
       <c r="H140" s="2">
         <v>1</v>
       </c>
-      <c r="I140" s="7">
+      <c r="I140" s="11">
         <v>10000151</v>
       </c>
       <c r="J140" s="3">
         <v>25</v>
       </c>
-      <c r="L140" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L140" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C141" s="3">
         <v>50000008</v>
       </c>
@@ -5954,17 +6491,17 @@
       <c r="H141" s="2">
         <v>1</v>
       </c>
-      <c r="I141" s="7">
+      <c r="I141" s="11">
         <v>10000151</v>
       </c>
       <c r="J141" s="3">
         <v>10</v>
       </c>
-      <c r="L141" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L141" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3">
@@ -5982,26 +6519,26 @@
       <c r="G142" s="3">
         <v>10000143</v>
       </c>
-      <c r="H142" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I142" s="7">
+      <c r="H142" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" s="11">
         <v>10000157</v>
       </c>
       <c r="J142" s="3">
         <v>1</v>
       </c>
       <c r="K142" s="3"/>
-      <c r="L142" s="15" t="s">
-        <v>28</v>
+      <c r="L142" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="M142" s="3"/>
-      <c r="N142" s="10" t="s">
-        <v>29</v>
+      <c r="N142" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3">
@@ -6019,26 +6556,26 @@
       <c r="G143" s="3">
         <v>10010093</v>
       </c>
-      <c r="H143" s="11">
-        <v>1</v>
-      </c>
-      <c r="I143" s="7">
+      <c r="H143" s="14">
+        <v>1</v>
+      </c>
+      <c r="I143" s="11">
         <v>10000143</v>
       </c>
-      <c r="J143" s="10" t="s">
-        <v>30</v>
+      <c r="J143" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="K143" s="3"/>
-      <c r="L143" s="11" t="s">
-        <v>31</v>
+      <c r="L143" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="M143" s="3"/>
-      <c r="N143" s="10" t="s">
-        <v>29</v>
+      <c r="N143" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C144" s="3">
         <v>60000003</v>
       </c>
@@ -6051,7 +6588,7 @@
       <c r="F144" s="3">
         <v>100</v>
       </c>
-      <c r="G144" s="12">
+      <c r="G144" s="15">
         <v>10012001</v>
       </c>
       <c r="H144" s="3">
@@ -6063,11 +6600,11 @@
       <c r="J144" s="3">
         <v>10</v>
       </c>
-      <c r="L144" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="145" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L144" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C145" s="3">
         <v>60000004</v>
       </c>
@@ -6080,7 +6617,7 @@
       <c r="F145" s="3">
         <v>100</v>
       </c>
-      <c r="G145" s="12">
+      <c r="G145" s="15">
         <v>10012002</v>
       </c>
       <c r="H145" s="3">
@@ -6092,11 +6629,11 @@
       <c r="J145" s="3">
         <v>10</v>
       </c>
-      <c r="L145" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="146" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L145" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C146" s="3">
         <v>60000005</v>
       </c>
@@ -6109,7 +6646,7 @@
       <c r="F146" s="3">
         <v>100</v>
       </c>
-      <c r="G146" s="12">
+      <c r="G146" s="15">
         <v>10012003</v>
       </c>
       <c r="H146" s="3">
@@ -6121,11 +6658,11 @@
       <c r="J146" s="3">
         <v>10</v>
       </c>
-      <c r="L146" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L146" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C147" s="3">
         <v>60000006</v>
       </c>
@@ -6138,7 +6675,7 @@
       <c r="F147" s="3">
         <v>100</v>
       </c>
-      <c r="G147" s="12">
+      <c r="G147" s="15">
         <v>10012004</v>
       </c>
       <c r="H147" s="3">
@@ -6150,11 +6687,11 @@
       <c r="J147" s="3">
         <v>10</v>
       </c>
-      <c r="L147" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L147" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C148" s="3">
         <v>60000007</v>
       </c>
@@ -6167,7 +6704,7 @@
       <c r="F148" s="3">
         <v>100</v>
       </c>
-      <c r="G148" s="12">
+      <c r="G148" s="15">
         <v>10012005</v>
       </c>
       <c r="H148" s="3">
@@ -6179,11 +6716,11 @@
       <c r="J148" s="3">
         <v>10</v>
       </c>
-      <c r="L148" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="149" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L148" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C149" s="3">
         <v>60000008</v>
       </c>
@@ -6196,7 +6733,7 @@
       <c r="F149" s="3">
         <v>100</v>
       </c>
-      <c r="G149" s="12">
+      <c r="G149" s="15">
         <v>10012006</v>
       </c>
       <c r="H149" s="3">
@@ -6208,11 +6745,11 @@
       <c r="J149" s="3">
         <v>10</v>
       </c>
-      <c r="L149" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L149" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C150" s="3">
         <v>60000009</v>
       </c>
@@ -6225,7 +6762,7 @@
       <c r="F150" s="3">
         <v>100</v>
       </c>
-      <c r="G150" s="12">
+      <c r="G150" s="15">
         <v>10012007</v>
       </c>
       <c r="H150" s="3">
@@ -6237,11 +6774,11 @@
       <c r="J150" s="3">
         <v>10</v>
       </c>
-      <c r="L150" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="151" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L150" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C151" s="3">
         <v>60000010</v>
       </c>
@@ -6254,7 +6791,7 @@
       <c r="F151" s="3">
         <v>100</v>
       </c>
-      <c r="G151" s="12">
+      <c r="G151" s="15">
         <v>10012008</v>
       </c>
       <c r="H151" s="3">
@@ -6266,11 +6803,11 @@
       <c r="J151" s="3">
         <v>10</v>
       </c>
-      <c r="L151" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L151" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C152" s="3">
         <v>60000011</v>
       </c>
@@ -6283,7 +6820,7 @@
       <c r="F152" s="3">
         <v>100</v>
       </c>
-      <c r="G152" s="12">
+      <c r="G152" s="15">
         <v>10012009</v>
       </c>
       <c r="H152" s="3">
@@ -6295,11 +6832,11 @@
       <c r="J152" s="3">
         <v>10</v>
       </c>
-      <c r="L152" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="153" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L152" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C153" s="3">
         <v>60000012</v>
       </c>
@@ -6312,7 +6849,7 @@
       <c r="F153" s="3">
         <v>100</v>
       </c>
-      <c r="G153" s="12">
+      <c r="G153" s="15">
         <v>10012010</v>
       </c>
       <c r="H153" s="3">
@@ -6324,11 +6861,11 @@
       <c r="J153" s="3">
         <v>10</v>
       </c>
-      <c r="L153" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="154" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L153" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C154" s="3">
         <v>60000013</v>
       </c>
@@ -6341,7 +6878,7 @@
       <c r="F154" s="3">
         <v>100</v>
       </c>
-      <c r="G154" s="12">
+      <c r="G154" s="15">
         <v>10012011</v>
       </c>
       <c r="H154" s="3">
@@ -6353,11 +6890,11 @@
       <c r="J154" s="3">
         <v>10</v>
       </c>
-      <c r="L154" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="155" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L154" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C155" s="3">
         <v>60000014</v>
       </c>
@@ -6370,7 +6907,7 @@
       <c r="F155" s="3">
         <v>100</v>
       </c>
-      <c r="G155" s="12">
+      <c r="G155" s="15">
         <v>10012012</v>
       </c>
       <c r="H155" s="3">
@@ -6382,11 +6919,11 @@
       <c r="J155" s="3">
         <v>10</v>
       </c>
-      <c r="L155" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="156" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L155" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C156" s="3">
         <v>60000015</v>
       </c>
@@ -6399,7 +6936,7 @@
       <c r="F156" s="3">
         <v>100</v>
       </c>
-      <c r="G156" s="12">
+      <c r="G156" s="15">
         <v>10012013</v>
       </c>
       <c r="H156" s="3">
@@ -6411,11 +6948,11 @@
       <c r="J156" s="3">
         <v>10</v>
       </c>
-      <c r="L156" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="157" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L156" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C157" s="3">
         <v>60000016</v>
       </c>
@@ -6428,7 +6965,7 @@
       <c r="F157" s="3">
         <v>100</v>
       </c>
-      <c r="G157" s="12">
+      <c r="G157" s="15">
         <v>10012014</v>
       </c>
       <c r="H157" s="3">
@@ -6440,11 +6977,11 @@
       <c r="J157" s="3">
         <v>10</v>
       </c>
-      <c r="L157" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="158" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L157" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C158" s="3">
         <v>60000017</v>
       </c>
@@ -6457,7 +6994,7 @@
       <c r="F158" s="3">
         <v>100</v>
       </c>
-      <c r="G158" s="12">
+      <c r="G158" s="15">
         <v>10012015</v>
       </c>
       <c r="H158" s="3">
@@ -6469,11 +7006,11 @@
       <c r="J158" s="3">
         <v>10</v>
       </c>
-      <c r="L158" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="159" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L158" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="159" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C159" s="3">
         <v>60000018</v>
       </c>
@@ -6486,7 +7023,7 @@
       <c r="F159" s="3">
         <v>100</v>
       </c>
-      <c r="G159" s="12">
+      <c r="G159" s="15">
         <v>10012016</v>
       </c>
       <c r="H159" s="3">
@@ -6498,11 +7035,11 @@
       <c r="J159" s="3">
         <v>10</v>
       </c>
-      <c r="L159" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="160" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L159" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C160" s="3">
         <v>60000019</v>
       </c>
@@ -6515,7 +7052,7 @@
       <c r="F160" s="3">
         <v>100</v>
       </c>
-      <c r="G160" s="12">
+      <c r="G160" s="15">
         <v>10012017</v>
       </c>
       <c r="H160" s="3">
@@ -6527,11 +7064,11 @@
       <c r="J160" s="3">
         <v>10</v>
       </c>
-      <c r="L160" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="161" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L160" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C161" s="3">
         <v>60000020</v>
       </c>
@@ -6544,7 +7081,7 @@
       <c r="F161" s="3">
         <v>100</v>
       </c>
-      <c r="G161" s="12">
+      <c r="G161" s="15">
         <v>10012018</v>
       </c>
       <c r="H161" s="3">
@@ -6556,11 +7093,11 @@
       <c r="J161" s="3">
         <v>10</v>
       </c>
-      <c r="L161" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="162" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L161" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C162" s="3">
         <v>60000021</v>
       </c>
@@ -6573,7 +7110,7 @@
       <c r="F162" s="3">
         <v>100</v>
       </c>
-      <c r="G162" s="12">
+      <c r="G162" s="15">
         <v>10012019</v>
       </c>
       <c r="H162" s="3">
@@ -6585,11 +7122,11 @@
       <c r="J162" s="3">
         <v>10</v>
       </c>
-      <c r="L162" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L162" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C163" s="3">
         <v>60000022</v>
       </c>
@@ -6602,7 +7139,7 @@
       <c r="F163" s="3">
         <v>100</v>
       </c>
-      <c r="G163" s="12">
+      <c r="G163" s="15">
         <v>10012020</v>
       </c>
       <c r="H163" s="3">
@@ -6614,11 +7151,11 @@
       <c r="J163" s="3">
         <v>15</v>
       </c>
-      <c r="L163" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="164" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L163" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C164" s="3">
         <v>60000023</v>
       </c>
@@ -6631,7 +7168,7 @@
       <c r="F164" s="3">
         <v>100</v>
       </c>
-      <c r="G164" s="12">
+      <c r="G164" s="15">
         <v>10012021</v>
       </c>
       <c r="H164" s="3">
@@ -6643,11 +7180,11 @@
       <c r="J164" s="3">
         <v>15</v>
       </c>
-      <c r="L164" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L164" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C165" s="3">
         <v>60000024</v>
       </c>
@@ -6660,7 +7197,7 @@
       <c r="F165" s="3">
         <v>100</v>
       </c>
-      <c r="G165" s="12">
+      <c r="G165" s="15">
         <v>10012022</v>
       </c>
       <c r="H165" s="3">
@@ -6672,11 +7209,11 @@
       <c r="J165" s="3">
         <v>15</v>
       </c>
-      <c r="L165" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="166" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L165" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C166" s="3">
         <v>60000025</v>
       </c>
@@ -6689,7 +7226,7 @@
       <c r="F166" s="3">
         <v>100</v>
       </c>
-      <c r="G166" s="12">
+      <c r="G166" s="15">
         <v>10012023</v>
       </c>
       <c r="H166" s="3">
@@ -6701,11 +7238,11 @@
       <c r="J166" s="3">
         <v>15</v>
       </c>
-      <c r="L166" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="167" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L166" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C167" s="3">
         <v>60000026</v>
       </c>
@@ -6718,7 +7255,7 @@
       <c r="F167" s="3">
         <v>100</v>
       </c>
-      <c r="G167" s="12">
+      <c r="G167" s="15">
         <v>10012024</v>
       </c>
       <c r="H167" s="3">
@@ -6730,11 +7267,11 @@
       <c r="J167" s="3">
         <v>15</v>
       </c>
-      <c r="L167" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="168" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L167" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C168" s="3">
         <v>60000027</v>
       </c>
@@ -6747,7 +7284,7 @@
       <c r="F168" s="3">
         <v>100</v>
       </c>
-      <c r="G168" s="12">
+      <c r="G168" s="15">
         <v>10012025</v>
       </c>
       <c r="H168" s="3">
@@ -6759,11 +7296,11 @@
       <c r="J168" s="3">
         <v>15</v>
       </c>
-      <c r="L168" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="169" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L168" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C169" s="3">
         <v>60000028</v>
       </c>
@@ -6776,7 +7313,7 @@
       <c r="F169" s="3">
         <v>100</v>
       </c>
-      <c r="G169" s="12">
+      <c r="G169" s="15">
         <v>10012026</v>
       </c>
       <c r="H169" s="3">
@@ -6788,11 +7325,11 @@
       <c r="J169" s="3">
         <v>15</v>
       </c>
-      <c r="L169" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="170" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L169" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="170" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C170" s="3">
         <v>60000029</v>
       </c>
@@ -6805,7 +7342,7 @@
       <c r="F170" s="3">
         <v>100</v>
       </c>
-      <c r="G170" s="12">
+      <c r="G170" s="15">
         <v>10012027</v>
       </c>
       <c r="H170" s="3">
@@ -6817,11 +7354,11 @@
       <c r="J170" s="3">
         <v>15</v>
       </c>
-      <c r="L170" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="171" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L170" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="171" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C171" s="3">
         <v>70000001</v>
       </c>
@@ -6834,23 +7371,23 @@
       <c r="F171" s="3">
         <v>100</v>
       </c>
-      <c r="G171" s="7">
+      <c r="G171" s="11">
         <v>10010093</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
       </c>
-      <c r="I171" s="8">
+      <c r="I171" s="10">
         <v>10000159</v>
       </c>
-      <c r="J171" s="8">
+      <c r="J171" s="10">
         <v>30</v>
       </c>
-      <c r="L171" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="172" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L171" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C172" s="3">
         <v>70000002</v>
       </c>
@@ -6863,23 +7400,23 @@
       <c r="F172" s="3">
         <v>100</v>
       </c>
-      <c r="G172" s="7">
+      <c r="G172" s="11">
         <v>10000162</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
       </c>
-      <c r="I172" s="8">
+      <c r="I172" s="10">
         <v>10000159</v>
       </c>
-      <c r="J172" s="8">
+      <c r="J172" s="10">
         <v>20</v>
       </c>
-      <c r="L172" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="173" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L172" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="173" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C173" s="3">
         <v>70000003</v>
       </c>
@@ -6892,23 +7429,23 @@
       <c r="F173" s="3">
         <v>100</v>
       </c>
-      <c r="G173" s="7">
+      <c r="G173" s="11">
         <v>10010045</v>
       </c>
       <c r="H173" s="3">
         <v>1</v>
       </c>
-      <c r="I173" s="8">
+      <c r="I173" s="10">
         <v>10000159</v>
       </c>
-      <c r="J173" s="8">
+      <c r="J173" s="10">
         <v>30</v>
       </c>
-      <c r="L173" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="174" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L173" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" ht="20.1" customHeight="1" spans="3:12">
       <c r="C174" s="3">
         <v>70000004</v>
       </c>
@@ -6921,23 +7458,23 @@
       <c r="F174" s="3">
         <v>100</v>
       </c>
-      <c r="G174" s="7">
+      <c r="G174" s="11">
         <v>10000158</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
       </c>
-      <c r="I174" s="8">
+      <c r="I174" s="10">
         <v>10000159</v>
       </c>
-      <c r="J174" s="8">
+      <c r="J174" s="10">
         <v>20</v>
       </c>
-      <c r="L174" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="175" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L174" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" ht="20.1" customHeight="1" spans="3:12">
       <c r="C175" s="3">
         <v>70000005</v>
       </c>
@@ -6950,23 +7487,23 @@
       <c r="F175" s="3">
         <v>100</v>
       </c>
-      <c r="G175" s="7">
+      <c r="G175" s="11">
         <v>10010083</v>
       </c>
       <c r="H175" s="3">
         <v>1</v>
       </c>
-      <c r="I175" s="8">
+      <c r="I175" s="10">
         <v>10000159</v>
       </c>
-      <c r="J175" s="8">
+      <c r="J175" s="10">
         <v>2</v>
       </c>
       <c r="L175" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="176" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="176" ht="20.1" customHeight="1" spans="3:12">
       <c r="C176" s="3">
         <v>70000006</v>
       </c>
@@ -6979,23 +7516,23 @@
       <c r="F176" s="3">
         <v>100</v>
       </c>
-      <c r="G176" s="7">
+      <c r="G176" s="11">
         <v>10000143</v>
       </c>
       <c r="H176" s="3">
         <v>1</v>
       </c>
-      <c r="I176" s="8">
+      <c r="I176" s="10">
         <v>10000159</v>
       </c>
-      <c r="J176" s="8">
+      <c r="J176" s="10">
         <v>5</v>
       </c>
       <c r="L176" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="177" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177" ht="20.1" customHeight="1" spans="3:12">
       <c r="C177" s="3">
         <v>70000007</v>
       </c>
@@ -7008,23 +7545,23 @@
       <c r="F177" s="3">
         <v>100</v>
       </c>
-      <c r="G177" s="7">
+      <c r="G177" s="11">
         <v>10000152</v>
       </c>
       <c r="H177" s="3">
         <v>1</v>
       </c>
-      <c r="I177" s="8">
+      <c r="I177" s="10">
         <v>10000159</v>
       </c>
-      <c r="J177" s="8">
+      <c r="J177" s="10">
         <v>10</v>
       </c>
-      <c r="L177" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="178" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L177" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="178" ht="20.1" customHeight="1" spans="3:12">
       <c r="C178" s="3">
         <v>70000008</v>
       </c>
@@ -7037,23 +7574,23 @@
       <c r="F178" s="3">
         <v>100</v>
       </c>
-      <c r="G178" s="7">
+      <c r="G178" s="11">
         <v>10000157</v>
       </c>
       <c r="H178" s="3">
         <v>1</v>
       </c>
-      <c r="I178" s="8">
+      <c r="I178" s="10">
         <v>10000159</v>
       </c>
-      <c r="J178" s="8">
+      <c r="J178" s="10">
         <v>10</v>
       </c>
-      <c r="L178" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="179" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L178" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" ht="20.1" customHeight="1" spans="3:12">
       <c r="C179" s="3">
         <v>70000009</v>
       </c>
@@ -7066,23 +7603,23 @@
       <c r="F179" s="3">
         <v>100</v>
       </c>
-      <c r="G179" s="7">
+      <c r="G179" s="11">
         <v>10010029</v>
       </c>
       <c r="H179" s="3">
         <v>1</v>
       </c>
-      <c r="I179" s="8">
+      <c r="I179" s="10">
         <v>10000159</v>
       </c>
-      <c r="J179" s="8">
+      <c r="J179" s="10">
         <v>5</v>
       </c>
-      <c r="L179" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="180" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L179" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" ht="20.1" customHeight="1" spans="3:12">
       <c r="C180" s="3">
         <v>70000010</v>
       </c>
@@ -7095,23 +7632,23 @@
       <c r="F180" s="3">
         <v>100</v>
       </c>
-      <c r="G180" s="7">
+      <c r="G180" s="11">
         <v>10010086</v>
       </c>
       <c r="H180" s="3">
         <v>1</v>
       </c>
-      <c r="I180" s="8">
+      <c r="I180" s="10">
         <v>10000159</v>
       </c>
-      <c r="J180" s="8">
+      <c r="J180" s="10">
         <v>10</v>
       </c>
-      <c r="L180" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="181" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L180" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="181" ht="20.1" customHeight="1" spans="3:12">
       <c r="C181" s="3">
         <v>70000011</v>
       </c>
@@ -7124,23 +7661,23 @@
       <c r="F181" s="3">
         <v>100</v>
       </c>
-      <c r="G181" s="18">
+      <c r="G181" s="16">
         <v>10010101</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
       </c>
-      <c r="I181" s="8">
+      <c r="I181" s="10">
         <v>10000159</v>
       </c>
-      <c r="J181" s="8">
+      <c r="J181" s="10">
         <v>5</v>
       </c>
-      <c r="L181" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="182" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L181" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="182" ht="20.1" customHeight="1" spans="3:12">
       <c r="C182" s="3">
         <v>70000012</v>
       </c>
@@ -7153,23 +7690,23 @@
       <c r="F182" s="3">
         <v>100</v>
       </c>
-      <c r="G182" s="18">
+      <c r="G182" s="16">
         <v>10010102</v>
       </c>
       <c r="H182" s="3">
         <v>1</v>
       </c>
-      <c r="I182" s="8">
+      <c r="I182" s="10">
         <v>10000159</v>
       </c>
-      <c r="J182" s="8">
+      <c r="J182" s="10">
         <v>10</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="183" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" ht="20.1" customHeight="1" spans="3:12">
       <c r="C183" s="3">
         <v>70000013</v>
       </c>
@@ -7182,23 +7719,23 @@
       <c r="F183" s="3">
         <v>100</v>
       </c>
-      <c r="G183" s="18">
+      <c r="G183" s="16">
         <v>10010103</v>
       </c>
       <c r="H183" s="3">
         <v>1</v>
       </c>
-      <c r="I183" s="8">
+      <c r="I183" s="10">
         <v>10000159</v>
       </c>
-      <c r="J183" s="8">
+      <c r="J183" s="10">
         <v>20</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="184" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C184" s="3">
         <v>80000001</v>
       </c>
@@ -7211,23 +7748,23 @@
       <c r="F184" s="3">
         <v>100</v>
       </c>
-      <c r="G184" s="7">
+      <c r="G184" s="11">
         <v>10010083</v>
       </c>
       <c r="H184" s="3">
         <v>1</v>
       </c>
-      <c r="I184" s="8">
+      <c r="I184" s="10">
         <v>10000163</v>
       </c>
-      <c r="J184" s="8">
+      <c r="J184" s="10">
         <v>1</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="185" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C185" s="3">
         <v>80000002</v>
       </c>
@@ -7240,23 +7777,23 @@
       <c r="F185" s="3">
         <v>100</v>
       </c>
-      <c r="G185" s="7">
+      <c r="G185" s="11">
         <v>10010086</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
       </c>
-      <c r="I185" s="8">
+      <c r="I185" s="10">
         <v>10000163</v>
       </c>
-      <c r="J185" s="8">
+      <c r="J185" s="10">
         <v>20</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="186" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="186" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C186" s="3">
         <v>80000003</v>
       </c>
@@ -7269,23 +7806,23 @@
       <c r="F186" s="3">
         <v>100</v>
       </c>
-      <c r="G186" s="7">
+      <c r="G186" s="11">
         <v>10010096</v>
       </c>
       <c r="H186" s="3">
         <v>1</v>
       </c>
-      <c r="I186" s="8">
+      <c r="I186" s="10">
         <v>10000163</v>
       </c>
-      <c r="J186" s="8">
+      <c r="J186" s="10">
         <v>35</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="187" ht="20.1" customHeight="1" spans="3:12">
       <c r="C187" s="3">
         <v>80000004</v>
       </c>
@@ -7298,23 +7835,23 @@
       <c r="F187" s="3">
         <v>100</v>
       </c>
-      <c r="G187" s="7">
+      <c r="G187" s="11">
         <v>10000139</v>
       </c>
       <c r="H187" s="3">
         <v>1</v>
       </c>
-      <c r="I187" s="8">
+      <c r="I187" s="10">
         <v>10000163</v>
       </c>
-      <c r="J187" s="8">
+      <c r="J187" s="10">
         <v>20</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" ht="20.1" customHeight="1" spans="3:12">
       <c r="C188" s="3">
         <v>80000005</v>
       </c>
@@ -7327,23 +7864,23 @@
       <c r="F188" s="3">
         <v>100</v>
       </c>
-      <c r="G188" s="7">
+      <c r="G188" s="11">
         <v>10000143</v>
       </c>
       <c r="H188" s="3">
         <v>1</v>
       </c>
-      <c r="I188" s="8">
+      <c r="I188" s="10">
         <v>10000163</v>
       </c>
-      <c r="J188" s="8">
+      <c r="J188" s="10">
         <v>20</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" ht="20.1" customHeight="1" spans="3:12">
       <c r="C189" s="3">
         <v>80000006</v>
       </c>
@@ -7356,23 +7893,23 @@
       <c r="F189" s="3">
         <v>100</v>
       </c>
-      <c r="G189" s="7">
+      <c r="G189" s="11">
         <v>10000152</v>
       </c>
       <c r="H189" s="3">
         <v>1</v>
       </c>
-      <c r="I189" s="8">
+      <c r="I189" s="10">
         <v>10000163</v>
       </c>
-      <c r="J189" s="8">
+      <c r="J189" s="10">
         <v>35</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="190" ht="20.1" customHeight="1" spans="3:12">
       <c r="C190" s="3">
         <v>80000007</v>
       </c>
@@ -7385,23 +7922,23 @@
       <c r="F190" s="3">
         <v>100</v>
       </c>
-      <c r="G190" s="7">
+      <c r="G190" s="11">
         <v>10000155</v>
       </c>
       <c r="H190" s="3">
         <v>1</v>
       </c>
-      <c r="I190" s="8">
+      <c r="I190" s="10">
         <v>10000163</v>
       </c>
-      <c r="J190" s="8">
+      <c r="J190" s="10">
         <v>5</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="191" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="191" ht="20.1" customHeight="1" spans="3:12">
       <c r="C191" s="3">
         <v>80000008</v>
       </c>
@@ -7414,23 +7951,23 @@
       <c r="F191" s="3">
         <v>100</v>
       </c>
-      <c r="G191" s="7">
+      <c r="G191" s="11">
         <v>10000158</v>
       </c>
       <c r="H191" s="3">
         <v>1</v>
       </c>
-      <c r="I191" s="8">
+      <c r="I191" s="10">
         <v>10000163</v>
       </c>
-      <c r="J191" s="8">
+      <c r="J191" s="10">
         <v>20</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="192" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" ht="20.1" customHeight="1" spans="3:12">
       <c r="C192" s="3">
         <v>80000009</v>
       </c>
@@ -7443,23 +7980,23 @@
       <c r="F192" s="3">
         <v>100</v>
       </c>
-      <c r="G192" s="7">
+      <c r="G192" s="11">
         <v>10010093</v>
       </c>
       <c r="H192" s="3">
         <v>1</v>
       </c>
-      <c r="I192" s="8">
+      <c r="I192" s="10">
         <v>10000163</v>
       </c>
-      <c r="J192" s="8">
+      <c r="J192" s="10">
         <v>35</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="193" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193" ht="20" customHeight="1" spans="3:12">
       <c r="C193" s="3">
         <v>90000001</v>
       </c>
@@ -7478,10 +8015,10 @@
       <c r="H193" s="3">
         <v>1</v>
       </c>
-      <c r="I193" s="7">
+      <c r="I193" s="11">
         <v>10000148</v>
       </c>
-      <c r="J193" s="8">
+      <c r="J193" s="10">
         <v>10</v>
       </c>
       <c r="K193" s="2"/>
@@ -7489,7 +8026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="194" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" ht="20" customHeight="1" spans="3:12">
       <c r="C194" s="3">
         <v>90000002</v>
       </c>
@@ -7508,16 +8045,16 @@
       <c r="H194" s="3">
         <v>1</v>
       </c>
-      <c r="I194" s="7">
+      <c r="I194" s="11">
         <v>10000148</v>
       </c>
-      <c r="J194" s="8">
+      <c r="J194" s="10">
         <v>10</v>
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" ht="20" customHeight="1" spans="3:12">
       <c r="C195" s="3">
         <v>90000003</v>
       </c>
@@ -7536,16 +8073,16 @@
       <c r="H195" s="3">
         <v>1</v>
       </c>
-      <c r="I195" s="7">
+      <c r="I195" s="11">
         <v>10000148</v>
       </c>
-      <c r="J195" s="8">
+      <c r="J195" s="10">
         <v>10</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" ht="20" customHeight="1" spans="3:12">
       <c r="C196" s="3">
         <v>90000004</v>
       </c>
@@ -7564,16 +8101,16 @@
       <c r="H196" s="3">
         <v>1</v>
       </c>
-      <c r="I196" s="7">
+      <c r="I196" s="11">
         <v>10000148</v>
       </c>
-      <c r="J196" s="8">
+      <c r="J196" s="10">
         <v>10</v>
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="197" ht="20" customHeight="1" spans="3:12">
       <c r="C197" s="3">
         <v>90000005</v>
       </c>
@@ -7592,16 +8129,16 @@
       <c r="H197" s="3">
         <v>1</v>
       </c>
-      <c r="I197" s="7">
+      <c r="I197" s="11">
         <v>10000148</v>
       </c>
-      <c r="J197" s="13">
+      <c r="J197" s="12">
         <v>50</v>
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="198" ht="20" customHeight="1" spans="3:12">
       <c r="C198" s="3">
         <v>90000006</v>
       </c>
@@ -7620,16 +8157,16 @@
       <c r="H198" s="3">
         <v>1</v>
       </c>
-      <c r="I198" s="7">
+      <c r="I198" s="11">
         <v>10000148</v>
       </c>
-      <c r="J198" s="13">
+      <c r="J198" s="12">
         <v>5</v>
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="199" ht="20" customHeight="1" spans="3:12">
       <c r="C199" s="3">
         <v>90000007</v>
       </c>
@@ -7648,16 +8185,16 @@
       <c r="H199" s="3">
         <v>1</v>
       </c>
-      <c r="I199" s="7">
+      <c r="I199" s="11">
         <v>10000148</v>
       </c>
-      <c r="J199" s="13">
+      <c r="J199" s="12">
         <v>5</v>
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="200" ht="20" customHeight="1" spans="3:12">
       <c r="C200" s="3">
         <v>90000008</v>
       </c>
@@ -7676,16 +8213,16 @@
       <c r="H200" s="3">
         <v>1</v>
       </c>
-      <c r="I200" s="7">
+      <c r="I200" s="11">
         <v>10000148</v>
       </c>
-      <c r="J200" s="13">
+      <c r="J200" s="12">
         <v>2</v>
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="201" ht="20" customHeight="1" spans="3:12">
       <c r="C201" s="3">
         <v>90000009</v>
       </c>
@@ -7704,16 +8241,16 @@
       <c r="H201" s="3">
         <v>1</v>
       </c>
-      <c r="I201" s="7">
+      <c r="I201" s="11">
         <v>10000148</v>
       </c>
-      <c r="J201" s="13">
+      <c r="J201" s="12">
         <v>3</v>
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="202" ht="20" customHeight="1" spans="3:12">
       <c r="C202" s="3">
         <v>90000010</v>
       </c>
@@ -7732,18 +8269,26 @@
       <c r="H202" s="3">
         <v>1</v>
       </c>
-      <c r="I202" s="7">
+      <c r="I202" s="11">
         <v>10000148</v>
       </c>
-      <c r="J202" s="13">
+      <c r="J202" s="12">
         <v>3</v>
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
+    <row r="203" ht="20" customHeight="1"/>
+    <row r="204" ht="20" customHeight="1"/>
+    <row r="205" ht="20" customHeight="1"/>
+    <row r="206" ht="20" customHeight="1"/>
+    <row r="207" ht="20" customHeight="1"/>
+    <row r="208" ht="20" customHeight="1"/>
+    <row r="209" ht="20" customHeight="1"/>
+    <row r="210" ht="20" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StoreSellConfig.xlsx
+++ b/Excel/StoreSellConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040AE705-0893-4D5C-9F18-61CD72FC7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -69,7 +75,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -78,6 +84,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>章</t>
@@ -98,7 +105,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -107,6 +114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>章</t>
@@ -118,7 +126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -127,6 +135,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>章</t>
@@ -138,7 +147,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -147,6 +156,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>章</t>
@@ -320,18 +330,38 @@
   <si>
     <t>活动1商店</t>
   </si>
+  <si>
+    <t>幸运宝石</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>璀璨传承</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承灵石</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊凭证</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间清空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠灵之锁</t>
+  </si>
+  <si>
+    <t>孵化灵球</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,25 +372,28 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -368,6 +401,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -375,17 +409,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -393,12 +430,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -406,155 +445,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,7 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,13 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14905240028077"/>
+        <fgColor theme="0" tint="-0.1490218817712943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
+        <fgColor theme="0" tint="-0.14947965941343425"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,222 +518,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
+        <fgColor theme="8" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
+        <fgColor theme="7" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
+        <fgColor theme="5" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
+        <fgColor theme="6" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -916,122 +679,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,73 +697,31 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1117,340 +731,262 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,199 +1060,199 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1761,175 +1297,175 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -2076,7 +1612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2088,16 +1624,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2115,16 +1645,16 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2133,378 +1663,330 @@
     <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C40000